--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35963459-CA74-4BFA-A761-F81A1CBD2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147D46D-96DE-4094-950C-7040DEF924A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F19A4-F3C1-4060-A832-2941269350EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461D6A9-7CA5-4325-867E-528A650F94B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D43401-6975-4CA9-A65A-90EF5B8A8F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB907B-9BC9-4178-9F84-712BE42968BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794404CF-18CA-4F08-BF21-7F6289AD5541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2046A1-69C1-440E-B2EB-7E1744F60DEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1880,7 +1880,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
@@ -12239,8 +12239,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13399,7 +13399,7 @@
         <v>53</v>
       </c>
       <c r="J34" s="1">
-        <v>206.79888500000001</v>
+        <v>211.79900000000001</v>
       </c>
       <c r="K34" s="1">
         <v>227.33367966704699</v>
@@ -13515,7 +13515,7 @@
         <v>55</v>
       </c>
       <c r="J35" s="1">
-        <v>766.351721</v>
+        <v>788.10400000000004</v>
       </c>
       <c r="K35" s="1">
         <v>805.70916346620595</v>
@@ -13631,7 +13631,7 @@
         <v>57</v>
       </c>
       <c r="J36" s="1">
-        <v>724.42972899999995</v>
+        <v>735.43899999999996</v>
       </c>
       <c r="K36" s="1">
         <v>756.93265686674704</v>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0147D46D-96DE-4094-950C-7040DEF924A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D4AA2-C4C2-43CB-8591-E99860A500A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -570,15 +570,6 @@
     <t>Development</t>
   </si>
   <si>
-    <t>RSDSH_Apt</t>
-  </si>
-  <si>
-    <t>RSDSH_Att</t>
-  </si>
-  <si>
-    <t>RSDSH_Det</t>
-  </si>
-  <si>
     <t>RSDSC_Apt</t>
   </si>
   <si>
@@ -781,6 +772,15 @@
   </si>
   <si>
     <t>Specify end-use demand projections (low energy demand variant)</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt*</t>
+  </si>
+  <si>
+    <t>RSDSH_Att*</t>
+  </si>
+  <si>
+    <t>RSDSH_Det*</t>
   </si>
 </sst>
 </file>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -2406,10 +2406,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
@@ -2438,10 +2438,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -2530,10 +2530,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -2563,7 +2563,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -2593,7 +2593,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -2622,10 +2622,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -2655,7 +2655,7 @@
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="55" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -2685,7 +2685,7 @@
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B29" s="51">
         <v>1</v>
@@ -2746,10 +2746,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -2778,10 +2778,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -2811,7 +2811,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -6975,7 +6975,7 @@
         <v>2018</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
@@ -7020,7 +7020,7 @@
         <v>2018</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -7065,7 +7065,7 @@
         <v>2018</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J41" s="22">
         <v>5.6291760000000002</v>
@@ -7114,7 +7114,7 @@
         <v>2018</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J42" s="22">
         <v>0.48</v>
@@ -12239,8 +12239,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12257,7 +12257,7 @@
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -12295,7 +12295,7 @@
         <v>2050</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -13119,10 +13119,10 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H26" s="36">
         <v>28.901664567933956</v>
@@ -13153,10 +13153,10 @@
         <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H27" s="36">
         <v>58.151541961987604</v>
@@ -13187,10 +13187,10 @@
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="36">
         <v>5.6291760000000002</v>
@@ -13216,10 +13216,10 @@
         <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H29" s="36">
         <v>0.48</v>
@@ -13250,7 +13250,7 @@
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -13271,10 +13271,10 @@
         <v>3</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>4</v>
@@ -13382,7 +13382,7 @@
         <v>2050</v>
       </c>
       <c r="AQ33" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="3:43" x14ac:dyDescent="0.25">
@@ -13390,7 +13390,7 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>52</v>
@@ -13506,7 +13506,7 @@
         <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>54</v>
@@ -13622,7 +13622,7 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>56</v>
@@ -13786,8 +13786,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13800,7 +13800,7 @@
   <sheetData>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
@@ -13830,22 +13830,22 @@
         <v>4</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="28"/>
@@ -13860,7 +13860,7 @@
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7" s="33">
         <v>2020</v>
@@ -13872,13 +13872,13 @@
         <v>1.6534164675637491E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L7" s="29"/>
     </row>
@@ -13886,7 +13886,7 @@
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8" s="33">
         <v>2020</v>
@@ -13898,13 +13898,13 @@
         <v>2.9990596485367418E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L8" s="29"/>
     </row>
@@ -13912,7 +13912,7 @@
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9" s="33">
         <v>2020</v>
@@ -13924,23 +13924,23 @@
         <v>5.2849616307060754E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L9" s="29"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10" s="33">
         <v>2020</v>
@@ -13952,23 +13952,23 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L10" s="29"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11" s="33">
         <v>2020</v>
@@ -13980,23 +13980,23 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L11" s="29"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12" s="33">
         <v>2020</v>
@@ -14008,13 +14008,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L12" s="29"/>
     </row>
@@ -14022,7 +14022,7 @@
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13" s="33">
         <v>2020</v>
@@ -14034,13 +14034,13 @@
         <v>1.3128101846771158E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L13" s="29"/>
     </row>
@@ -14048,7 +14048,7 @@
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14" s="33">
         <v>2020</v>
@@ -14060,13 +14060,13 @@
         <v>1.0994534987992988E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L14" s="29"/>
     </row>
@@ -14074,7 +14074,7 @@
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15" s="33">
         <v>2020</v>
@@ -14086,13 +14086,13 @@
         <v>1.4648486376153701E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L15" s="29"/>
     </row>
@@ -14100,7 +14100,7 @@
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16" s="33">
         <v>2020</v>
@@ -14112,13 +14112,13 @@
         <v>6.4458708104453747E-4</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L16" s="29"/>
     </row>
@@ -14126,7 +14126,7 @@
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17" s="33">
         <v>2020</v>
@@ -14138,13 +14138,13 @@
         <v>9.1487081392159866E-4</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L17" s="29"/>
     </row>
@@ -14152,7 +14152,7 @@
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18" s="33">
         <v>2020</v>
@@ -14164,13 +14164,13 @@
         <v>1.5069837916185766E-3</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L18" s="29"/>
     </row>
@@ -14178,7 +14178,7 @@
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19" s="33">
         <v>2020</v>
@@ -14190,13 +14190,13 @@
         <v>1.9923424990874787E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L19" s="29"/>
     </row>
@@ -14204,7 +14204,7 @@
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20" s="33">
         <v>2020</v>
@@ -14216,13 +14216,13 @@
         <v>3.8001436556751221E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L20" s="29"/>
     </row>
@@ -14230,7 +14230,7 @@
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21" s="33">
         <v>2020</v>
@@ -14242,19 +14242,19 @@
         <v>4.7050395502371922E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L21" s="29"/>
     </row>
     <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>2050</v>
@@ -14266,18 +14266,18 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23">
         <v>2050</v>
@@ -14289,18 +14289,18 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>2050</v>
@@ -14312,21 +14312,21 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>2050</v>
@@ -14338,21 +14338,21 @@
         <v>1.8402644937451934E-4</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>2050</v>
@@ -14364,21 +14364,21 @@
         <v>1.8402644937451934E-4</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27">
         <v>2050</v>
@@ -14390,18 +14390,18 @@
         <v>1.8402644937451934E-4</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28">
         <v>2050</v>
@@ -14413,18 +14413,18 @@
         <v>5.4676481366779635E-3</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29">
         <v>2050</v>
@@ -14436,18 +14436,18 @@
         <v>5.4676481366779635E-3</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30">
         <v>2050</v>
@@ -14459,18 +14459,18 @@
         <v>5.4676481366779635E-3</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31">
         <v>2050</v>
@@ -14482,18 +14482,18 @@
         <v>9.2405926458938932E-4</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>2050</v>
@@ -14505,18 +14505,18 @@
         <v>9.2405926458938932E-4</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F33">
         <v>2050</v>
@@ -14528,18 +14528,18 @@
         <v>9.2405926458938932E-4</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34">
         <v>2050</v>
@@ -14551,18 +14551,18 @@
         <v>1.4924076946288027E-3</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F35">
         <v>2050</v>
@@ -14574,18 +14574,18 @@
         <v>1.4924076946288027E-3</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F36">
         <v>2050</v>
@@ -14597,18 +14597,18 @@
         <v>1.4924076946288027E-3</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F37">
         <v>2050</v>
@@ -14620,18 +14620,18 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F38">
         <v>2050</v>
@@ -14643,18 +14643,18 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F39">
         <v>2050</v>
@@ -14666,18 +14666,18 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F40">
         <v>2050</v>
@@ -14689,18 +14689,18 @@
         <v>9.1063227794977141E-5</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F41">
         <v>2050</v>
@@ -14712,18 +14712,18 @@
         <v>9.1063227794977141E-5</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F42">
         <v>2050</v>
@@ -14735,18 +14735,18 @@
         <v>9.1063227794977141E-5</v>
       </c>
       <c r="I42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F43">
         <v>2050</v>
@@ -14758,18 +14758,18 @@
         <v>2.7055985129604311E-3</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F44">
         <v>2050</v>
@@ -14781,18 +14781,18 @@
         <v>2.7055985129604311E-3</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F45">
         <v>2050</v>
@@ -14804,18 +14804,18 @@
         <v>2.7055985129604311E-3</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F46">
         <v>2050</v>
@@ -14827,18 +14827,18 @@
         <v>4.5725937545048278E-4</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F47">
         <v>2050</v>
@@ -14850,18 +14850,18 @@
         <v>4.5725937545048278E-4</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F48">
         <v>2050</v>
@@ -14873,18 +14873,18 @@
         <v>4.5725937545048278E-4</v>
       </c>
       <c r="I48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F49">
         <v>2050</v>
@@ -14896,18 +14896,18 @@
         <v>7.384996141634885E-4</v>
       </c>
       <c r="I49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F50">
         <v>2050</v>
@@ -14919,18 +14919,18 @@
         <v>7.384996141634885E-4</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F51">
         <v>2050</v>
@@ -14942,13 +14942,13 @@
         <v>7.384996141634885E-4</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -14978,7 +14978,7 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -15007,23 +15007,23 @@
         <v>4</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" s="34"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -15035,7 +15035,7 @@
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -15044,15 +15044,15 @@
         <v>0.29750119328038643</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -15061,15 +15061,15 @@
         <v>7.8240205489280165E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -15078,15 +15078,15 @@
         <v>9.9230285582155173E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -15095,15 +15095,15 @@
         <v>0.1299964335480952</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -15112,15 +15112,15 @@
         <v>0.65611067742996398</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -15129,15 +15129,15 @@
         <v>3.4112422198348336</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -15146,15 +15146,15 @@
         <v>0.27048899641521007</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -15163,15 +15163,15 @@
         <v>0.14436837706846065</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -15180,15 +15180,15 @@
         <v>3.5851150535518087E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -15197,15 +15197,15 @@
         <v>2.7014519280249845E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -15214,15 +15214,15 @@
         <v>3.8223383014175182E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -15231,15 +15231,15 @@
         <v>0.16206914757843674</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -15248,15 +15248,15 @@
         <v>0.84262783364201532</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -15265,15 +15265,15 @@
         <v>7.3395482092335179E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20">
         <v>2050</v>
@@ -15282,15 +15282,15 @@
         <v>0.16362565630421255</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>2050</v>
@@ -15299,15 +15299,15 @@
         <v>4.3032113019104097E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>2050</v>
@@ -15316,15 +15316,15 @@
         <v>5.4576657070185351E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23">
         <v>2050</v>
@@ -15333,15 +15333,15 @@
         <v>7.1498038451452361E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>2050</v>
@@ -15350,15 +15350,15 @@
         <v>0.3608608725864802</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>2050</v>
@@ -15367,15 +15367,15 @@
         <v>1.8761832209091587</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>2050</v>
@@ -15384,15 +15384,15 @@
         <v>0.14876894802836554</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27">
         <v>2050</v>
@@ -15401,15 +15401,15 @@
         <v>7.9402607387653368E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28">
         <v>2050</v>
@@ -15418,15 +15418,15 @@
         <v>1.9718132794534948E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29">
         <v>2050</v>
@@ -15435,15 +15435,15 @@
         <v>1.4857985604137416E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30">
         <v>2050</v>
@@ -15452,15 +15452,15 @@
         <v>2.1022860657796353E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31">
         <v>2050</v>
@@ -15469,15 +15469,15 @@
         <v>8.9138031168140217E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>2050</v>
@@ -15486,15 +15486,15 @@
         <v>0.46344530850310844</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F33">
         <v>2050</v>
@@ -15503,10 +15503,10 @@
         <v>4.036751515078435E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35963459-CA74-4BFA-A761-F81A1CBD2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE909822-F270-4947-8DA0-5755BBF92A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7830" yWindow="-15855" windowWidth="21600" windowHeight="12405" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F19A4-F3C1-4060-A832-2941269350EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461D6A9-7CA5-4325-867E-528A650F94B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D43401-6975-4CA9-A65A-90EF5B8A8F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB907B-9BC9-4178-9F84-712BE42968BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794404CF-18CA-4F08-BF21-7F6289AD5541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2046A1-69C1-440E-B2EB-7E1744F60DEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1880,25 +1880,25 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:D24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="3" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="11.3984375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1926,7 +1926,7 @@
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1954,7 +1954,7 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1982,7 +1982,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2010,7 +2010,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -2038,7 +2038,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2066,7 +2066,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2094,7 +2094,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -2122,7 +2122,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -2150,7 +2150,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2178,7 +2178,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -2206,7 +2206,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -2234,7 +2234,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -2262,7 +2262,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -2290,7 +2290,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -2318,7 +2318,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="56" t="s">
         <v>187</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2376,7 +2376,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2404,7 +2404,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="47" t="s">
         <v>188</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="47" t="s">
         <v>189</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="47" t="s">
         <v>190</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="47"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -2528,7 +2528,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="47" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="47"/>
       <c r="B24" s="55" t="s">
         <v>202</v>
@@ -2590,7 +2590,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="47"/>
       <c r="B25" s="50" t="s">
         <v>203</v>
@@ -2620,7 +2620,7 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="47" t="s">
         <v>192</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="47"/>
       <c r="B27" s="55" t="s">
         <v>202</v>
@@ -2682,7 +2682,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
         <v>203</v>
@@ -2712,7 +2712,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="47" t="s">
         <v>193</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="47" t="s">
         <v>194</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="47" t="s">
         <v>196</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
         <v>198</v>
@@ -2838,7 +2838,7 @@
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2866,7 +2866,7 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2894,7 +2894,7 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2922,7 +2922,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2950,7 +2950,7 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2978,7 +2978,7 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -3006,7 +3006,7 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -3034,7 +3034,7 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -3062,7 +3062,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -3090,7 +3090,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -3118,7 +3118,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -3146,7 +3146,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3174,7 +3174,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -3202,7 +3202,7 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -3230,7 +3230,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3258,7 +3258,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -3286,7 +3286,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -3314,7 +3314,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -3342,7 +3342,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -3370,7 +3370,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -3398,7 +3398,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -3426,7 +3426,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -3454,7 +3454,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -3482,7 +3482,7 @@
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -3510,7 +3510,7 @@
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -3538,7 +3538,7 @@
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -3566,7 +3566,7 @@
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -3594,7 +3594,7 @@
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -3622,7 +3622,7 @@
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -3650,7 +3650,7 @@
       <c r="Y61" s="41"/>
       <c r="Z61" s="41"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -3678,7 +3678,7 @@
       <c r="Y62" s="41"/>
       <c r="Z62" s="41"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -3706,7 +3706,7 @@
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -3734,7 +3734,7 @@
       <c r="Y64" s="41"/>
       <c r="Z64" s="41"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -3762,7 +3762,7 @@
       <c r="Y65" s="41"/>
       <c r="Z65" s="41"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -3790,7 +3790,7 @@
       <c r="Y66" s="41"/>
       <c r="Z66" s="41"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -3818,7 +3818,7 @@
       <c r="Y67" s="41"/>
       <c r="Z67" s="41"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -3846,7 +3846,7 @@
       <c r="Y68" s="41"/>
       <c r="Z68" s="41"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -3874,7 +3874,7 @@
       <c r="Y69" s="41"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -3902,7 +3902,7 @@
       <c r="Y70" s="41"/>
       <c r="Z70" s="41"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -3930,7 +3930,7 @@
       <c r="Y71" s="41"/>
       <c r="Z71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -3958,7 +3958,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -3986,7 +3986,7 @@
       <c r="Y73" s="41"/>
       <c r="Z73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -4014,7 +4014,7 @@
       <c r="Y74" s="41"/>
       <c r="Z74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -4042,7 +4042,7 @@
       <c r="Y75" s="41"/>
       <c r="Z75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -4070,7 +4070,7 @@
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -4098,7 +4098,7 @@
       <c r="Y77" s="41"/>
       <c r="Z77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -4126,7 +4126,7 @@
       <c r="Y78" s="41"/>
       <c r="Z78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -4154,7 +4154,7 @@
       <c r="Y79" s="41"/>
       <c r="Z79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -4182,7 +4182,7 @@
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -4210,7 +4210,7 @@
       <c r="Y81" s="41"/>
       <c r="Z81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -4238,7 +4238,7 @@
       <c r="Y82" s="41"/>
       <c r="Z82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -4266,7 +4266,7 @@
       <c r="Y83" s="41"/>
       <c r="Z83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -4294,7 +4294,7 @@
       <c r="Y84" s="41"/>
       <c r="Z84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -4322,7 +4322,7 @@
       <c r="Y85" s="41"/>
       <c r="Z85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -4350,7 +4350,7 @@
       <c r="Y86" s="41"/>
       <c r="Z86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -4378,7 +4378,7 @@
       <c r="Y87" s="41"/>
       <c r="Z87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -4406,7 +4406,7 @@
       <c r="Y88" s="41"/>
       <c r="Z88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -4434,7 +4434,7 @@
       <c r="Y89" s="41"/>
       <c r="Z89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -4462,7 +4462,7 @@
       <c r="Y90" s="41"/>
       <c r="Z90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -4490,7 +4490,7 @@
       <c r="Y91" s="41"/>
       <c r="Z91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -4518,7 +4518,7 @@
       <c r="Y92" s="41"/>
       <c r="Z92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -4546,7 +4546,7 @@
       <c r="Y93" s="41"/>
       <c r="Z93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -4574,7 +4574,7 @@
       <c r="Y94" s="41"/>
       <c r="Z94" s="41"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -4602,7 +4602,7 @@
       <c r="Y95" s="41"/>
       <c r="Z95" s="41"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -4630,7 +4630,7 @@
       <c r="Y96" s="41"/>
       <c r="Z96" s="41"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -4658,7 +4658,7 @@
       <c r="Y97" s="41"/>
       <c r="Z97" s="41"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -4686,7 +4686,7 @@
       <c r="Y98" s="41"/>
       <c r="Z98" s="41"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -4745,21 +4745,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="6" width="9.1328125" style="3"/>
+    <col min="7" max="7" width="10.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" style="3"/>
+    <col min="9" max="9" width="11.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.45">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -7164,19 +7164,19 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.1328125" style="3"/>
+    <col min="4" max="4" width="11.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.45">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.45">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -11478,38 +11478,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.86328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.59765625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1328125" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="29" width="5.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11623,12 +11623,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -12239,23 +12239,23 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AJ41" sqref="AJ41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.86328125" customWidth="1"/>
+    <col min="12" max="13" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13236,19 +13236,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.45">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -13467,11 +13467,11 @@
       <c r="AF34">
         <v>492.828423833106</v>
       </c>
-      <c r="AG34">
-        <v>502.36472594874499</v>
-      </c>
-      <c r="AH34">
-        <v>516.22001380752999</v>
+      <c r="AG34" s="3">
+        <v>496.36472594874499</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>514.52001380752995</v>
       </c>
       <c r="AI34">
         <v>530.17405404626902</v>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -13583,10 +13583,10 @@
       <c r="AF35">
         <v>1003.43540212397</v>
       </c>
-      <c r="AG35">
-        <v>1002.11497030569</v>
-      </c>
-      <c r="AH35">
+      <c r="AG35" s="3">
+        <v>1003.61497030569</v>
+      </c>
+      <c r="AH35" s="3">
         <v>1009.1830944926101</v>
       </c>
       <c r="AI35">
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -13699,11 +13699,11 @@
       <c r="AF36">
         <v>877.53441615506995</v>
       </c>
-      <c r="AG36">
-        <v>873.21565965240802</v>
-      </c>
-      <c r="AH36">
-        <v>876.17112006521802</v>
+      <c r="AG36" s="3">
+        <v>877.71565965240802</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>877.87112006521807</v>
       </c>
       <c r="AI36">
         <v>878.89535131181003</v>
@@ -13733,25 +13733,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H40" s="36"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -13759,7 +13759,7 @@
       <c r="L40" s="35"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -13767,7 +13767,7 @@
       <c r="L41" s="35"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H42" s="36"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -13790,15 +13790,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C4" s="25" t="s">
         <v>150</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C5" s="27" t="s">
         <v>65</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C6" s="28" t="s">
         <v>153</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="L6" s="28"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" t="s">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" t="s">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" t="s">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C10" s="29" t="s">
         <v>159</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C11" s="29" t="s">
         <v>159</v>
       </c>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C12" s="29" t="s">
         <v>159</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" t="s">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" t="s">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" t="s">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" t="s">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" t="s">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" t="s">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" t="s">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" t="s">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" t="s">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -14965,18 +14965,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.86328125" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" customWidth="1"/>
+    <col min="12" max="12" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -14984,7 +14984,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35963459-CA74-4BFA-A761-F81A1CBD2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82617869-C48F-4533-9884-78B281327FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F19A4-F3C1-4060-A832-2941269350EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461D6A9-7CA5-4325-867E-528A650F94B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D43401-6975-4CA9-A65A-90EF5B8A8F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB907B-9BC9-4178-9F84-712BE42968BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794404CF-18CA-4F08-BF21-7F6289AD5541}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2046A1-69C1-440E-B2EB-7E1744F60DEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1564,7 +1564,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1884,21 +1884,21 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" style="3" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="3"/>
+    <col min="14" max="14" width="11.453125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1926,7 +1926,7 @@
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1954,7 +1954,7 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1982,7 +1982,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2010,7 +2010,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -2038,7 +2038,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2066,7 +2066,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2094,7 +2094,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -2122,7 +2122,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -2150,7 +2150,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2178,7 +2178,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -2206,7 +2206,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -2234,7 +2234,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -2262,7 +2262,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -2290,7 +2290,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -2318,7 +2318,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="56" t="s">
         <v>187</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2376,7 +2376,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2404,7 +2404,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47" t="s">
         <v>188</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="47" t="s">
         <v>189</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="47" t="s">
         <v>190</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="47"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -2528,7 +2528,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="47" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="47"/>
       <c r="B24" s="55" t="s">
         <v>202</v>
@@ -2590,7 +2590,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="47"/>
       <c r="B25" s="50" t="s">
         <v>203</v>
@@ -2620,7 +2620,7 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="47" t="s">
         <v>192</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="47"/>
       <c r="B27" s="55" t="s">
         <v>202</v>
@@ -2682,7 +2682,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
         <v>203</v>
@@ -2712,7 +2712,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="47" t="s">
         <v>193</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
         <v>194</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="47" t="s">
         <v>196</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
         <v>198</v>
@@ -2838,7 +2838,7 @@
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2866,7 +2866,7 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2894,7 +2894,7 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2922,7 +2922,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2950,7 +2950,7 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2978,7 +2978,7 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -3006,7 +3006,7 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -3034,7 +3034,7 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -3062,7 +3062,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -3090,7 +3090,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -3118,7 +3118,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -3146,7 +3146,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3174,7 +3174,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -3202,7 +3202,7 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -3230,7 +3230,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3258,7 +3258,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -3286,7 +3286,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -3314,7 +3314,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -3342,7 +3342,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -3370,7 +3370,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -3398,7 +3398,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -3426,7 +3426,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -3454,7 +3454,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -3482,7 +3482,7 @@
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -3510,7 +3510,7 @@
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -3538,7 +3538,7 @@
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -3566,7 +3566,7 @@
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -3594,7 +3594,7 @@
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -3622,7 +3622,7 @@
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -3650,7 +3650,7 @@
       <c r="Y61" s="41"/>
       <c r="Z61" s="41"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -3678,7 +3678,7 @@
       <c r="Y62" s="41"/>
       <c r="Z62" s="41"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -3706,7 +3706,7 @@
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -3734,7 +3734,7 @@
       <c r="Y64" s="41"/>
       <c r="Z64" s="41"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -3762,7 +3762,7 @@
       <c r="Y65" s="41"/>
       <c r="Z65" s="41"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -3790,7 +3790,7 @@
       <c r="Y66" s="41"/>
       <c r="Z66" s="41"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -3818,7 +3818,7 @@
       <c r="Y67" s="41"/>
       <c r="Z67" s="41"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -3846,7 +3846,7 @@
       <c r="Y68" s="41"/>
       <c r="Z68" s="41"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -3874,7 +3874,7 @@
       <c r="Y69" s="41"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -3902,7 +3902,7 @@
       <c r="Y70" s="41"/>
       <c r="Z70" s="41"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -3930,7 +3930,7 @@
       <c r="Y71" s="41"/>
       <c r="Z71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -3958,7 +3958,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -3986,7 +3986,7 @@
       <c r="Y73" s="41"/>
       <c r="Z73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -4014,7 +4014,7 @@
       <c r="Y74" s="41"/>
       <c r="Z74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -4042,7 +4042,7 @@
       <c r="Y75" s="41"/>
       <c r="Z75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -4070,7 +4070,7 @@
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -4098,7 +4098,7 @@
       <c r="Y77" s="41"/>
       <c r="Z77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -4126,7 +4126,7 @@
       <c r="Y78" s="41"/>
       <c r="Z78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -4154,7 +4154,7 @@
       <c r="Y79" s="41"/>
       <c r="Z79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -4182,7 +4182,7 @@
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -4210,7 +4210,7 @@
       <c r="Y81" s="41"/>
       <c r="Z81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -4238,7 +4238,7 @@
       <c r="Y82" s="41"/>
       <c r="Z82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -4266,7 +4266,7 @@
       <c r="Y83" s="41"/>
       <c r="Z83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -4294,7 +4294,7 @@
       <c r="Y84" s="41"/>
       <c r="Z84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -4322,7 +4322,7 @@
       <c r="Y85" s="41"/>
       <c r="Z85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -4350,7 +4350,7 @@
       <c r="Y86" s="41"/>
       <c r="Z86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -4378,7 +4378,7 @@
       <c r="Y87" s="41"/>
       <c r="Z87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -4406,7 +4406,7 @@
       <c r="Y88" s="41"/>
       <c r="Z88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -4434,7 +4434,7 @@
       <c r="Y89" s="41"/>
       <c r="Z89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -4462,7 +4462,7 @@
       <c r="Y90" s="41"/>
       <c r="Z90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -4490,7 +4490,7 @@
       <c r="Y91" s="41"/>
       <c r="Z91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -4518,7 +4518,7 @@
       <c r="Y92" s="41"/>
       <c r="Z92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -4546,7 +4546,7 @@
       <c r="Y93" s="41"/>
       <c r="Z93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -4574,7 +4574,7 @@
       <c r="Y94" s="41"/>
       <c r="Z94" s="41"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -4602,7 +4602,7 @@
       <c r="Y95" s="41"/>
       <c r="Z95" s="41"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -4630,7 +4630,7 @@
       <c r="Y96" s="41"/>
       <c r="Z96" s="41"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -4658,7 +4658,7 @@
       <c r="Y97" s="41"/>
       <c r="Z97" s="41"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -4686,7 +4686,7 @@
       <c r="Y98" s="41"/>
       <c r="Z98" s="41"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -4745,21 +4745,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -7164,19 +7164,19 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -11478,38 +11478,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11623,12 +11623,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -12219,7 +12219,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12243,19 +12243,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13236,19 +13236,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -13733,25 +13733,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H40" s="36"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -13759,7 +13759,7 @@
       <c r="L40" s="35"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -13767,7 +13767,7 @@
       <c r="L41" s="35"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H42" s="36"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -13790,15 +13790,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="25" t="s">
         <v>150</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" s="27" t="s">
         <v>65</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" s="28" t="s">
         <v>153</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="L6" s="28"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" t="s">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" t="s">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" t="s">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
         <v>159</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C11" s="29" t="s">
         <v>159</v>
       </c>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" s="29" t="s">
         <v>159</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" t="s">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" t="s">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" t="s">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" t="s">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" t="s">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" t="s">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" t="s">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" t="s">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" t="s">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -14965,18 +14965,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -14984,7 +14984,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\Documents\Veda\times-ireland-model-sectoral_cb\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82617869-C48F-4533-9884-78B281327FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C66011-06AB-4A98-A0FD-59F75ED57FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1564,7 +1564,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1884,21 +1884,21 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="3" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="3"/>
+    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1926,7 +1926,7 @@
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1954,7 +1954,7 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1982,7 +1982,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2010,7 +2010,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -2038,7 +2038,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2066,7 +2066,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2094,7 +2094,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -2122,7 +2122,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -2150,7 +2150,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2178,7 +2178,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -2206,7 +2206,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -2234,7 +2234,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -2262,7 +2262,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -2290,7 +2290,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -2318,7 +2318,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>187</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2376,7 +2376,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2404,7 +2404,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>188</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>189</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>190</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -2528,7 +2528,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="55" t="s">
         <v>202</v>
@@ -2590,7 +2590,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="50" t="s">
         <v>203</v>
@@ -2620,7 +2620,7 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>192</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="55" t="s">
         <v>202</v>
@@ -2682,7 +2682,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
         <v>203</v>
@@ -2712,7 +2712,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>193</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>194</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>196</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
         <v>198</v>
@@ -2838,7 +2838,7 @@
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2866,7 +2866,7 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2894,7 +2894,7 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2922,7 +2922,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2950,7 +2950,7 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2978,7 +2978,7 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -3006,7 +3006,7 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -3034,7 +3034,7 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -3062,7 +3062,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -3090,7 +3090,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -3118,7 +3118,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -3146,7 +3146,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3174,7 +3174,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -3202,7 +3202,7 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -3230,7 +3230,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3258,7 +3258,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -3286,7 +3286,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -3314,7 +3314,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -3342,7 +3342,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -3370,7 +3370,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -3398,7 +3398,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -3426,7 +3426,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -3454,7 +3454,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -3482,7 +3482,7 @@
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -3510,7 +3510,7 @@
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -3538,7 +3538,7 @@
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -3566,7 +3566,7 @@
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -3594,7 +3594,7 @@
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -3622,7 +3622,7 @@
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -3650,7 +3650,7 @@
       <c r="Y61" s="41"/>
       <c r="Z61" s="41"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -3678,7 +3678,7 @@
       <c r="Y62" s="41"/>
       <c r="Z62" s="41"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -3706,7 +3706,7 @@
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -3734,7 +3734,7 @@
       <c r="Y64" s="41"/>
       <c r="Z64" s="41"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -3762,7 +3762,7 @@
       <c r="Y65" s="41"/>
       <c r="Z65" s="41"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -3790,7 +3790,7 @@
       <c r="Y66" s="41"/>
       <c r="Z66" s="41"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -3818,7 +3818,7 @@
       <c r="Y67" s="41"/>
       <c r="Z67" s="41"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -3846,7 +3846,7 @@
       <c r="Y68" s="41"/>
       <c r="Z68" s="41"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -3874,7 +3874,7 @@
       <c r="Y69" s="41"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -3902,7 +3902,7 @@
       <c r="Y70" s="41"/>
       <c r="Z70" s="41"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -3930,7 +3930,7 @@
       <c r="Y71" s="41"/>
       <c r="Z71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -3958,7 +3958,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -3986,7 +3986,7 @@
       <c r="Y73" s="41"/>
       <c r="Z73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -4014,7 +4014,7 @@
       <c r="Y74" s="41"/>
       <c r="Z74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -4042,7 +4042,7 @@
       <c r="Y75" s="41"/>
       <c r="Z75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -4070,7 +4070,7 @@
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -4098,7 +4098,7 @@
       <c r="Y77" s="41"/>
       <c r="Z77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -4126,7 +4126,7 @@
       <c r="Y78" s="41"/>
       <c r="Z78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -4154,7 +4154,7 @@
       <c r="Y79" s="41"/>
       <c r="Z79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -4182,7 +4182,7 @@
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -4210,7 +4210,7 @@
       <c r="Y81" s="41"/>
       <c r="Z81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -4238,7 +4238,7 @@
       <c r="Y82" s="41"/>
       <c r="Z82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -4266,7 +4266,7 @@
       <c r="Y83" s="41"/>
       <c r="Z83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -4294,7 +4294,7 @@
       <c r="Y84" s="41"/>
       <c r="Z84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -4322,7 +4322,7 @@
       <c r="Y85" s="41"/>
       <c r="Z85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -4350,7 +4350,7 @@
       <c r="Y86" s="41"/>
       <c r="Z86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -4378,7 +4378,7 @@
       <c r="Y87" s="41"/>
       <c r="Z87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -4406,7 +4406,7 @@
       <c r="Y88" s="41"/>
       <c r="Z88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -4434,7 +4434,7 @@
       <c r="Y89" s="41"/>
       <c r="Z89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -4462,7 +4462,7 @@
       <c r="Y90" s="41"/>
       <c r="Z90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -4490,7 +4490,7 @@
       <c r="Y91" s="41"/>
       <c r="Z91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -4518,7 +4518,7 @@
       <c r="Y92" s="41"/>
       <c r="Z92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -4546,7 +4546,7 @@
       <c r="Y93" s="41"/>
       <c r="Z93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -4574,7 +4574,7 @@
       <c r="Y94" s="41"/>
       <c r="Z94" s="41"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -4602,7 +4602,7 @@
       <c r="Y95" s="41"/>
       <c r="Z95" s="41"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -4630,7 +4630,7 @@
       <c r="Y96" s="41"/>
       <c r="Z96" s="41"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -4658,7 +4658,7 @@
       <c r="Y97" s="41"/>
       <c r="Z97" s="41"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -4686,7 +4686,7 @@
       <c r="Y98" s="41"/>
       <c r="Z98" s="41"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -4745,21 +4745,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -7164,19 +7164,19 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -11478,38 +11478,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="3"/>
+    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11623,12 +11623,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -12219,7 +12219,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12243,19 +12243,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13236,19 +13236,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -13733,25 +13733,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H40" s="36"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -13759,7 +13759,7 @@
       <c r="L40" s="35"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -13767,7 +13767,7 @@
       <c r="L41" s="35"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H42" s="36"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -13790,15 +13790,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>150</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>65</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
         <v>153</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="L6" s="28"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" t="s">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" t="s">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" t="s">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
         <v>159</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
         <v>159</v>
       </c>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
         <v>159</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" t="s">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" t="s">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" t="s">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" t="s">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" t="s">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" t="s">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" t="s">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" t="s">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" t="s">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -14965,18 +14965,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -14984,7 +14984,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82617869-C48F-4533-9884-78B281327FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35963459-CA74-4BFA-A761-F81A1CBD2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="3204" windowWidth="14400" windowHeight="7356" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1262,7 +1262,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F19A4-F3C1-4060-A832-2941269350EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1306,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461D6A9-7CA5-4325-867E-528A650F94B6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1355,7 +1355,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D43401-6975-4CA9-A65A-90EF5B8A8F54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB907B-9BC9-4178-9F84-712BE42968BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1455,7 +1455,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794404CF-18CA-4F08-BF21-7F6289AD5541}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1504,7 +1504,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2046A1-69C1-440E-B2EB-7E1744F60DEA}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -1564,7 +1564,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1884,21 +1884,21 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.7265625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="14.1796875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" style="3" customWidth="1"/>
-    <col min="8" max="10" width="8.1796875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" style="3" customWidth="1"/>
+    <col min="1" max="4" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
     <col min="13" max="13" width="10" style="3" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="3"/>
+    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="40"/>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -1926,7 +1926,7 @@
       <c r="Y1" s="41"/>
       <c r="Z1" s="41"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -1954,7 +1954,7 @@
       <c r="Y2" s="41"/>
       <c r="Z2" s="41"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -1982,7 +1982,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="41"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -2010,7 +2010,7 @@
       <c r="Y4" s="41"/>
       <c r="Z4" s="41"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -2038,7 +2038,7 @@
       <c r="Y5" s="41"/>
       <c r="Z5" s="41"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2066,7 +2066,7 @@
       <c r="Y6" s="41"/>
       <c r="Z6" s="41"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
@@ -2094,7 +2094,7 @@
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -2122,7 +2122,7 @@
       <c r="Y8" s="41"/>
       <c r="Z8" s="41"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
       <c r="B9" s="40"/>
       <c r="C9" s="40"/>
@@ -2150,7 +2150,7 @@
       <c r="Y9" s="41"/>
       <c r="Z9" s="41"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2178,7 +2178,7 @@
       <c r="Y10" s="41"/>
       <c r="Z10" s="41"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -2206,7 +2206,7 @@
       <c r="Y11" s="41"/>
       <c r="Z11" s="41"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -2234,7 +2234,7 @@
       <c r="Y12" s="41"/>
       <c r="Z12" s="41"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -2262,7 +2262,7 @@
       <c r="Y13" s="41"/>
       <c r="Z13" s="41"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -2290,7 +2290,7 @@
       <c r="Y14" s="41"/>
       <c r="Z14" s="41"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -2318,7 +2318,7 @@
       <c r="Y15" s="41"/>
       <c r="Z15" s="41"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
         <v>187</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="Y16" s="41"/>
       <c r="Z16" s="41"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
       <c r="C17" s="44"/>
@@ -2376,7 +2376,7 @@
       <c r="Y17" s="41"/>
       <c r="Z17" s="41"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
@@ -2404,7 +2404,7 @@
       <c r="Y18" s="41"/>
       <c r="Z18" s="41"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>188</v>
       </c>
@@ -2436,7 +2436,7 @@
       <c r="Y19" s="41"/>
       <c r="Z19" s="41"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>189</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="Y20" s="41"/>
       <c r="Z20" s="41"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
         <v>190</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="Y21" s="41"/>
       <c r="Z21" s="41"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>
@@ -2528,7 +2528,7 @@
       <c r="Y22" s="41"/>
       <c r="Z22" s="41"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>191</v>
       </c>
@@ -2560,7 +2560,7 @@
       <c r="Y23" s="41"/>
       <c r="Z23" s="41"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="55" t="s">
         <v>202</v>
@@ -2590,7 +2590,7 @@
       <c r="Y24" s="41"/>
       <c r="Z24" s="41"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="50" t="s">
         <v>203</v>
@@ -2620,7 +2620,7 @@
       <c r="Y25" s="41"/>
       <c r="Z25" s="41"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>192</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="Y26" s="41"/>
       <c r="Z26" s="41"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="55" t="s">
         <v>202</v>
@@ -2682,7 +2682,7 @@
       <c r="Y27" s="41"/>
       <c r="Z27" s="41"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
         <v>203</v>
@@ -2712,7 +2712,7 @@
       <c r="Y28" s="41"/>
       <c r="Z28" s="41"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>193</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="Y29" s="41"/>
       <c r="Z29" s="41"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>194</v>
       </c>
@@ -2776,7 +2776,7 @@
       <c r="Y30" s="41"/>
       <c r="Z30" s="41"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
         <v>196</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="Y31" s="41"/>
       <c r="Z31" s="41"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
         <v>198</v>
@@ -2838,7 +2838,7 @@
       <c r="Y32" s="41"/>
       <c r="Z32" s="41"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="40"/>
       <c r="C33" s="40"/>
@@ -2866,7 +2866,7 @@
       <c r="Y33" s="41"/>
       <c r="Z33" s="41"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="40"/>
       <c r="C34" s="40"/>
@@ -2894,7 +2894,7 @@
       <c r="Y34" s="41"/>
       <c r="Z34" s="41"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="40"/>
       <c r="C35" s="40"/>
@@ -2922,7 +2922,7 @@
       <c r="Y35" s="41"/>
       <c r="Z35" s="41"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="40"/>
       <c r="C36" s="40"/>
@@ -2950,7 +2950,7 @@
       <c r="Y36" s="41"/>
       <c r="Z36" s="41"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
@@ -2978,7 +2978,7 @@
       <c r="Y37" s="41"/>
       <c r="Z37" s="41"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="40"/>
       <c r="C38" s="40"/>
@@ -3006,7 +3006,7 @@
       <c r="Y38" s="41"/>
       <c r="Z38" s="41"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="40"/>
       <c r="C39" s="40"/>
@@ -3034,7 +3034,7 @@
       <c r="Y39" s="41"/>
       <c r="Z39" s="41"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="40"/>
       <c r="C40" s="40"/>
@@ -3062,7 +3062,7 @@
       <c r="Y40" s="41"/>
       <c r="Z40" s="41"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="40"/>
       <c r="C41" s="40"/>
@@ -3090,7 +3090,7 @@
       <c r="Y41" s="41"/>
       <c r="Z41" s="41"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
@@ -3118,7 +3118,7 @@
       <c r="Y42" s="41"/>
       <c r="Z42" s="41"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -3146,7 +3146,7 @@
       <c r="Y43" s="41"/>
       <c r="Z43" s="41"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -3174,7 +3174,7 @@
       <c r="Y44" s="41"/>
       <c r="Z44" s="41"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="41"/>
       <c r="B45" s="41"/>
       <c r="C45" s="41"/>
@@ -3202,7 +3202,7 @@
       <c r="Y45" s="41"/>
       <c r="Z45" s="41"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="41"/>
       <c r="C46" s="41"/>
@@ -3230,7 +3230,7 @@
       <c r="Y46" s="41"/>
       <c r="Z46" s="41"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3258,7 +3258,7 @@
       <c r="Y47" s="41"/>
       <c r="Z47" s="41"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -3286,7 +3286,7 @@
       <c r="Y48" s="41"/>
       <c r="Z48" s="41"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -3314,7 +3314,7 @@
       <c r="Y49" s="41"/>
       <c r="Z49" s="41"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -3342,7 +3342,7 @@
       <c r="Y50" s="41"/>
       <c r="Z50" s="41"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="41"/>
       <c r="C51" s="41"/>
@@ -3370,7 +3370,7 @@
       <c r="Y51" s="41"/>
       <c r="Z51" s="41"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="41"/>
       <c r="C52" s="41"/>
@@ -3398,7 +3398,7 @@
       <c r="Y52" s="41"/>
       <c r="Z52" s="41"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="41"/>
       <c r="C53" s="41"/>
@@ -3426,7 +3426,7 @@
       <c r="Y53" s="41"/>
       <c r="Z53" s="41"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="41"/>
       <c r="C54" s="41"/>
@@ -3454,7 +3454,7 @@
       <c r="Y54" s="41"/>
       <c r="Z54" s="41"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="41"/>
       <c r="C55" s="41"/>
@@ -3482,7 +3482,7 @@
       <c r="Y55" s="41"/>
       <c r="Z55" s="41"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="41"/>
       <c r="C56" s="41"/>
@@ -3510,7 +3510,7 @@
       <c r="Y56" s="41"/>
       <c r="Z56" s="41"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="41"/>
       <c r="C57" s="41"/>
@@ -3538,7 +3538,7 @@
       <c r="Y57" s="41"/>
       <c r="Z57" s="41"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="41"/>
       <c r="C58" s="41"/>
@@ -3566,7 +3566,7 @@
       <c r="Y58" s="41"/>
       <c r="Z58" s="41"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="41"/>
       <c r="C59" s="41"/>
@@ -3594,7 +3594,7 @@
       <c r="Y59" s="41"/>
       <c r="Z59" s="41"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="41"/>
       <c r="C60" s="41"/>
@@ -3622,7 +3622,7 @@
       <c r="Y60" s="41"/>
       <c r="Z60" s="41"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="41"/>
       <c r="C61" s="41"/>
@@ -3650,7 +3650,7 @@
       <c r="Y61" s="41"/>
       <c r="Z61" s="41"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -3678,7 +3678,7 @@
       <c r="Y62" s="41"/>
       <c r="Z62" s="41"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="41"/>
       <c r="C63" s="41"/>
@@ -3706,7 +3706,7 @@
       <c r="Y63" s="41"/>
       <c r="Z63" s="41"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="41"/>
       <c r="C64" s="41"/>
@@ -3734,7 +3734,7 @@
       <c r="Y64" s="41"/>
       <c r="Z64" s="41"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="41"/>
       <c r="C65" s="41"/>
@@ -3762,7 +3762,7 @@
       <c r="Y65" s="41"/>
       <c r="Z65" s="41"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -3790,7 +3790,7 @@
       <c r="Y66" s="41"/>
       <c r="Z66" s="41"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="41"/>
       <c r="C67" s="41"/>
@@ -3818,7 +3818,7 @@
       <c r="Y67" s="41"/>
       <c r="Z67" s="41"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="41"/>
       <c r="C68" s="41"/>
@@ -3846,7 +3846,7 @@
       <c r="Y68" s="41"/>
       <c r="Z68" s="41"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="41"/>
       <c r="C69" s="41"/>
@@ -3874,7 +3874,7 @@
       <c r="Y69" s="41"/>
       <c r="Z69" s="41"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="41"/>
       <c r="C70" s="41"/>
@@ -3902,7 +3902,7 @@
       <c r="Y70" s="41"/>
       <c r="Z70" s="41"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="41"/>
       <c r="C71" s="41"/>
@@ -3930,7 +3930,7 @@
       <c r="Y71" s="41"/>
       <c r="Z71" s="41"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="41"/>
       <c r="C72" s="41"/>
@@ -3958,7 +3958,7 @@
       <c r="Y72" s="41"/>
       <c r="Z72" s="41"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="41"/>
       <c r="C73" s="41"/>
@@ -3986,7 +3986,7 @@
       <c r="Y73" s="41"/>
       <c r="Z73" s="41"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="41"/>
       <c r="B74" s="41"/>
       <c r="C74" s="41"/>
@@ -4014,7 +4014,7 @@
       <c r="Y74" s="41"/>
       <c r="Z74" s="41"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="41"/>
       <c r="B75" s="41"/>
       <c r="C75" s="41"/>
@@ -4042,7 +4042,7 @@
       <c r="Y75" s="41"/>
       <c r="Z75" s="41"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="41"/>
       <c r="B76" s="41"/>
       <c r="C76" s="41"/>
@@ -4070,7 +4070,7 @@
       <c r="Y76" s="41"/>
       <c r="Z76" s="41"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="41"/>
       <c r="B77" s="41"/>
       <c r="C77" s="41"/>
@@ -4098,7 +4098,7 @@
       <c r="Y77" s="41"/>
       <c r="Z77" s="41"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="41"/>
       <c r="B78" s="41"/>
       <c r="C78" s="41"/>
@@ -4126,7 +4126,7 @@
       <c r="Y78" s="41"/>
       <c r="Z78" s="41"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="41"/>
       <c r="B79" s="41"/>
       <c r="C79" s="41"/>
@@ -4154,7 +4154,7 @@
       <c r="Y79" s="41"/>
       <c r="Z79" s="41"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="41"/>
       <c r="C80" s="41"/>
@@ -4182,7 +4182,7 @@
       <c r="Y80" s="41"/>
       <c r="Z80" s="41"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="41"/>
       <c r="C81" s="41"/>
@@ -4210,7 +4210,7 @@
       <c r="Y81" s="41"/>
       <c r="Z81" s="41"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="41"/>
       <c r="B82" s="41"/>
       <c r="C82" s="41"/>
@@ -4238,7 +4238,7 @@
       <c r="Y82" s="41"/>
       <c r="Z82" s="41"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="41"/>
       <c r="C83" s="41"/>
@@ -4266,7 +4266,7 @@
       <c r="Y83" s="41"/>
       <c r="Z83" s="41"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="41"/>
       <c r="B84" s="41"/>
       <c r="C84" s="41"/>
@@ -4294,7 +4294,7 @@
       <c r="Y84" s="41"/>
       <c r="Z84" s="41"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="41"/>
       <c r="C85" s="41"/>
@@ -4322,7 +4322,7 @@
       <c r="Y85" s="41"/>
       <c r="Z85" s="41"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="41"/>
       <c r="C86" s="41"/>
@@ -4350,7 +4350,7 @@
       <c r="Y86" s="41"/>
       <c r="Z86" s="41"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="41"/>
       <c r="B87" s="41"/>
       <c r="C87" s="41"/>
@@ -4378,7 +4378,7 @@
       <c r="Y87" s="41"/>
       <c r="Z87" s="41"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="41"/>
       <c r="C88" s="41"/>
@@ -4406,7 +4406,7 @@
       <c r="Y88" s="41"/>
       <c r="Z88" s="41"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="41"/>
       <c r="C89" s="41"/>
@@ -4434,7 +4434,7 @@
       <c r="Y89" s="41"/>
       <c r="Z89" s="41"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="41"/>
       <c r="C90" s="41"/>
@@ -4462,7 +4462,7 @@
       <c r="Y90" s="41"/>
       <c r="Z90" s="41"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="41"/>
       <c r="C91" s="41"/>
@@ -4490,7 +4490,7 @@
       <c r="Y91" s="41"/>
       <c r="Z91" s="41"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="41"/>
       <c r="C92" s="41"/>
@@ -4518,7 +4518,7 @@
       <c r="Y92" s="41"/>
       <c r="Z92" s="41"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="41"/>
       <c r="C93" s="41"/>
@@ -4546,7 +4546,7 @@
       <c r="Y93" s="41"/>
       <c r="Z93" s="41"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="41"/>
       <c r="C94" s="41"/>
@@ -4574,7 +4574,7 @@
       <c r="Y94" s="41"/>
       <c r="Z94" s="41"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="41"/>
       <c r="C95" s="41"/>
@@ -4602,7 +4602,7 @@
       <c r="Y95" s="41"/>
       <c r="Z95" s="41"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="41"/>
       <c r="C96" s="41"/>
@@ -4630,7 +4630,7 @@
       <c r="Y96" s="41"/>
       <c r="Z96" s="41"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="41"/>
       <c r="C97" s="41"/>
@@ -4658,7 +4658,7 @@
       <c r="Y97" s="41"/>
       <c r="Z97" s="41"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="41"/>
       <c r="C98" s="41"/>
@@ -4686,7 +4686,7 @@
       <c r="Y98" s="41"/>
       <c r="Z98" s="41"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="41"/>
       <c r="C99" s="41"/>
@@ -4745,21 +4745,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -5290,7 +5290,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -5834,7 +5834,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -5883,7 +5883,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -5932,7 +5932,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -5981,7 +5981,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -6177,7 +6177,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -6226,7 +6226,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -6275,7 +6275,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -6324,7 +6324,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -6373,7 +6373,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -6471,7 +6471,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -6520,7 +6520,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -6618,7 +6618,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -6765,7 +6765,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -6814,7 +6814,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -6863,7 +6863,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -6912,7 +6912,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -6961,7 +6961,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -7006,7 +7006,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -7051,7 +7051,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -7100,7 +7100,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -7164,19 +7164,19 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -7297,7 +7297,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -7645,7 +7645,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -7877,7 +7877,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -8457,7 +8457,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -8689,7 +8689,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -8805,7 +8805,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -8921,7 +8921,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -9037,7 +9037,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -9384,7 +9384,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -10191,7 +10191,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -11478,38 +11478,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="3"/>
+    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -11623,12 +11623,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -11743,7 +11743,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -11993,7 +11993,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -12009,7 +12009,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -12025,7 +12025,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -12033,7 +12033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -12041,7 +12041,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -12073,7 +12073,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -12089,7 +12089,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -12097,7 +12097,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -12121,7 +12121,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -12129,7 +12129,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -12137,7 +12137,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -12161,7 +12161,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -12169,7 +12169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -12177,7 +12177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -12193,7 +12193,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -12219,7 +12219,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -12243,19 +12243,19 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -12263,7 +12263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12368,7 +12368,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12403,7 +12403,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12438,7 +12438,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12473,7 +12473,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12508,7 +12508,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12543,7 +12543,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12578,7 +12578,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12613,7 +12613,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12648,7 +12648,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12683,7 +12683,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12718,7 +12718,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -12788,7 +12788,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12823,7 +12823,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12858,7 +12858,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12893,7 +12893,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12929,7 +12929,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -12964,7 +12964,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13001,7 +13001,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13036,7 +13036,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13073,7 +13073,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -13110,7 +13110,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13144,7 +13144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13207,7 +13207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -13236,19 +13236,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -13260,7 +13260,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
@@ -13385,7 +13385,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -13733,25 +13733,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H40" s="36"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35"/>
@@ -13759,7 +13759,7 @@
       <c r="L40" s="35"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H41" s="36"/>
       <c r="I41" s="35"/>
       <c r="J41" s="35"/>
@@ -13767,7 +13767,7 @@
       <c r="L41" s="35"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H42" s="36"/>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -13790,15 +13790,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
         <v>150</v>
       </c>
@@ -13806,7 +13806,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>65</v>
       </c>
@@ -13839,7 +13839,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="28" t="s">
         <v>153</v>
       </c>
@@ -13856,7 +13856,7 @@
       <c r="L6" s="28"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" t="s">
@@ -13882,7 +13882,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" t="s">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" t="s">
@@ -13934,7 +13934,7 @@
       </c>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="29" t="s">
         <v>159</v>
       </c>
@@ -13962,7 +13962,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="29" t="s">
         <v>159</v>
       </c>
@@ -13990,7 +13990,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="29" t="s">
         <v>159</v>
       </c>
@@ -14018,7 +14018,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" t="s">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" t="s">
@@ -14070,7 +14070,7 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" t="s">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" t="s">
@@ -14122,7 +14122,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" t="s">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" t="s">
@@ -14174,7 +14174,7 @@
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" t="s">
@@ -14200,7 +14200,7 @@
       </c>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" t="s">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" t="s">
@@ -14252,7 +14252,7 @@
       </c>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -14275,7 +14275,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -14298,7 +14298,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -14347,7 +14347,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -14422,7 +14422,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -14445,7 +14445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -14468,7 +14468,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -14491,7 +14491,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -14514,7 +14514,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -14537,7 +14537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -14583,7 +14583,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -14606,7 +14606,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -14629,7 +14629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -14675,7 +14675,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -14698,7 +14698,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -14721,7 +14721,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -14813,7 +14813,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -14859,7 +14859,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -14905,7 +14905,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -14928,7 +14928,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -14965,18 +14965,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -14984,7 +14984,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -15033,7 +15033,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -15067,7 +15067,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -15101,7 +15101,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -15135,7 +15135,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -15152,7 +15152,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -15169,7 +15169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -15186,7 +15186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -15203,7 +15203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -15237,7 +15237,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15254,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -15271,7 +15271,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -15305,7 +15305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -15339,7 +15339,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -15373,7 +15373,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -15407,7 +15407,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -15424,7 +15424,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -15441,7 +15441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -15458,7 +15458,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -15475,7 +15475,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -15492,7 +15492,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agaur\Documents\Veda\times-ireland-model-sectoral_cb\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C66011-06AB-4A98-A0FD-59F75ED57FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EFF904-AEAB-42B9-9E67-037BCA44D622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="17280" windowHeight="8955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="4665" windowWidth="18000" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\times-ireland-model-ILED\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143AE181-66D9-45E2-BF73-E61977AA77EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B79FA3-F4C6-431D-804E-E5984AE0C77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="830" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,72 +1,123 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143AE181-66D9-45E2-BF73-E61977AA77EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F151A70-9C35-43D9-AB98-1D7605323B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1450" yWindow="830" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
-    <sheet name="REG_TRA_DEMANDS" sheetId="6" r:id="rId2"/>
-    <sheet name="Regions" sheetId="7" r:id="rId3"/>
-    <sheet name="DEMANDS" sheetId="1" r:id="rId4"/>
-    <sheet name="Residential" sheetId="8" r:id="rId5"/>
-    <sheet name="Services" sheetId="9" r:id="rId6"/>
+    <sheet name="Cover" sheetId="10" r:id="rId1"/>
+    <sheet name="Regions" sheetId="7" r:id="rId2"/>
+    <sheet name="BY-Demands" sheetId="5" r:id="rId3"/>
+    <sheet name="REG_TRA_DEMANDS" sheetId="6" r:id="rId4"/>
+    <sheet name="DEMANDS" sheetId="1" r:id="rId5"/>
+    <sheet name="Residential" sheetId="8" r:id="rId6"/>
+    <sheet name="Services" sheetId="9" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_AEUMILKPN" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="_Regression_Y" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" localSheetId="1" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_Y" localSheetId="2" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="I_alku">"1.1."</definedName>
-    <definedName name="I_loppu">"31.3."</definedName>
-    <definedName name="II_alku">"1.4."</definedName>
-    <definedName name="II_loppu">"30.6."</definedName>
-    <definedName name="III_alku">"1.7."</definedName>
-    <definedName name="III_loppu">"30.9."</definedName>
-    <definedName name="IV_alku">"1.10."</definedName>
-    <definedName name="IV_loppu">"31.12."</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -87,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="213">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -688,16 +739,74 @@
   <si>
     <t>Residential Other Applications Demand</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>All end-use sectors</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Specify end-use demand projections (low energy demand variant)</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Ankita Gaur (UCC, agaur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Vahid Aryanpur (UCC, vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>1.0.0-s.1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,8 +901,65 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +1017,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E3F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,14 +1136,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1009,9 +1194,64 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Attrib" xfId="2" xr:uid="{16EBE39D-6598-42BD-A97C-1EF313EA2EC2}"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B46BF257-55DB-413D-9B8E-80136AD91CC6}"/>
   </cellStyles>
@@ -1034,6 +1274,315 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{069C4A0D-07D2-46CE-BDA8-B6841D398859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="6215100" cy="2209911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F4EEDE7-77FE-4A80-9937-30C16F98AB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8610600"/>
+          <a:ext cx="1536208" cy="547425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBD897E-B6C8-4B71-B568-7B6093419F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2061898" y="8610600"/>
+          <a:ext cx="1355763" cy="547425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{608B7330-F86F-4DD0-9E7B-9192E39D89C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3943351" y="8610600"/>
+          <a:ext cx="2122848" cy="547425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F28B2AC5-80D7-475D-8014-95739C9BC70F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3837825" y="7810500"/>
+          <a:ext cx="1505700" cy="547425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D080E46B-2FEC-4F7D-A779-A66B975889AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="7915275"/>
+          <a:ext cx="1781175" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1045,7 +1594,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>33338</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1099,6 +1648,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Cover"/>
       <sheetName val="BY-Demands"/>
       <sheetName val="REG_TRA_DEMANDS"/>
       <sheetName val="Regions"/>
@@ -1113,6 +1663,7 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1380,6 +1931,3629 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8D86773-551C-4984-ADAE-56747CE6FBC8}">
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="4" width="21.73046875" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="37"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="37"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="37"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="37"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="37"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="37"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="37"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="37"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="37"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="44"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="37"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="37"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="37"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="44"/>
+      <c r="B25" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="37"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="37"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="37"/>
+      <c r="Z26" s="37"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="44"/>
+      <c r="B27" s="45" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="37"/>
+      <c r="P27" s="37"/>
+      <c r="Q27" s="37"/>
+      <c r="R27" s="37"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="37"/>
+      <c r="Z27" s="37"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="44"/>
+      <c r="B28" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="37"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
+      <c r="R30" s="37"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="37"/>
+      <c r="Z30" s="37"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="37"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
+      <c r="R32" s="37"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="37"/>
+      <c r="Z32" s="37"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37"/>
+      <c r="Z33" s="37"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37"/>
+      <c r="Z34" s="37"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="37"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="37"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="37"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="37"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="37"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="37"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="37"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="37"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="37"/>
+      <c r="V36" s="37"/>
+      <c r="W36" s="37"/>
+      <c r="X36" s="37"/>
+      <c r="Y36" s="37"/>
+      <c r="Z36" s="37"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="37"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="37"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="37"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="37"/>
+      <c r="V37" s="37"/>
+      <c r="W37" s="37"/>
+      <c r="X37" s="37"/>
+      <c r="Y37" s="37"/>
+      <c r="Z37" s="37"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="37"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="37"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="37"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="37"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="37"/>
+      <c r="V38" s="37"/>
+      <c r="W38" s="37"/>
+      <c r="X38" s="37"/>
+      <c r="Y38" s="37"/>
+      <c r="Z38" s="37"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="37"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="37"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="37"/>
+      <c r="V41" s="37"/>
+      <c r="W41" s="37"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="37"/>
+      <c r="Z41" s="37"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37"/>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="37"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="37"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="37"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="37"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="37"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="37"/>
+      <c r="V45" s="37"/>
+      <c r="W45" s="37"/>
+      <c r="X45" s="37"/>
+      <c r="Y45" s="37"/>
+      <c r="Z45" s="37"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="37"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="37"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="37"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="37"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="37"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="37"/>
+      <c r="V46" s="37"/>
+      <c r="W46" s="37"/>
+      <c r="X46" s="37"/>
+      <c r="Y46" s="37"/>
+      <c r="Z46" s="37"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37"/>
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="37"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="37"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="37"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="37"/>
+      <c r="V48" s="37"/>
+      <c r="W48" s="37"/>
+      <c r="X48" s="37"/>
+      <c r="Y48" s="37"/>
+      <c r="Z48" s="37"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="37"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="37"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="37"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="37"/>
+      <c r="W49" s="37"/>
+      <c r="X49" s="37"/>
+      <c r="Y49" s="37"/>
+      <c r="Z49" s="37"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="37"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="37"/>
+      <c r="V50" s="37"/>
+      <c r="W50" s="37"/>
+      <c r="X50" s="37"/>
+      <c r="Y50" s="37"/>
+      <c r="Z50" s="37"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="37"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="37"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="37"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="37"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="37"/>
+      <c r="W51" s="37"/>
+      <c r="X51" s="37"/>
+      <c r="Y51" s="37"/>
+      <c r="Z51" s="37"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="37"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="37"/>
+      <c r="V52" s="37"/>
+      <c r="W52" s="37"/>
+      <c r="X52" s="37"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="37"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="37"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="37"/>
+      <c r="V53" s="37"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="37"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="37"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="37"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="37"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="37"/>
+      <c r="V54" s="37"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="37"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="37"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="37"/>
+      <c r="W55" s="37"/>
+      <c r="X55" s="37"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="37"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="37"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="37"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="37"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="37"/>
+      <c r="V57" s="37"/>
+      <c r="W57" s="37"/>
+      <c r="X57" s="37"/>
+      <c r="Y57" s="37"/>
+      <c r="Z57" s="37"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="37"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="37"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="37"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="37"/>
+      <c r="V58" s="37"/>
+      <c r="W58" s="37"/>
+      <c r="X58" s="37"/>
+      <c r="Y58" s="37"/>
+      <c r="Z58" s="37"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="37"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="37"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="37"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="37"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="37"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="37"/>
+      <c r="W59" s="37"/>
+      <c r="X59" s="37"/>
+      <c r="Y59" s="37"/>
+      <c r="Z59" s="37"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="37"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="37"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="37"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="37"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="37"/>
+      <c r="V62" s="37"/>
+      <c r="W62" s="37"/>
+      <c r="X62" s="37"/>
+      <c r="Y62" s="37"/>
+      <c r="Z62" s="37"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="37"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="37"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="37"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="37"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="37"/>
+      <c r="W63" s="37"/>
+      <c r="X63" s="37"/>
+      <c r="Y63" s="37"/>
+      <c r="Z63" s="37"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="37"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="37"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="37"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="37"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="37"/>
+      <c r="V64" s="37"/>
+      <c r="W64" s="37"/>
+      <c r="X64" s="37"/>
+      <c r="Y64" s="37"/>
+      <c r="Z64" s="37"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="37"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="37"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="37"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="37"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="37"/>
+      <c r="V65" s="37"/>
+      <c r="W65" s="37"/>
+      <c r="X65" s="37"/>
+      <c r="Y65" s="37"/>
+      <c r="Z65" s="37"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="37"/>
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="37"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="37"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="37"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="37"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="37"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="37"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="37"/>
+      <c r="V67" s="37"/>
+      <c r="W67" s="37"/>
+      <c r="X67" s="37"/>
+      <c r="Y67" s="37"/>
+      <c r="Z67" s="37"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="37"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="37"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="37"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="37"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="37"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="37"/>
+      <c r="V68" s="37"/>
+      <c r="W68" s="37"/>
+      <c r="X68" s="37"/>
+      <c r="Y68" s="37"/>
+      <c r="Z68" s="37"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="37"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="37"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="37"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="37"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="37"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="37"/>
+      <c r="V69" s="37"/>
+      <c r="W69" s="37"/>
+      <c r="X69" s="37"/>
+      <c r="Y69" s="37"/>
+      <c r="Z69" s="37"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="37"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="37"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="37"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="37"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="37"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="37"/>
+      <c r="V70" s="37"/>
+      <c r="W70" s="37"/>
+      <c r="X70" s="37"/>
+      <c r="Y70" s="37"/>
+      <c r="Z70" s="37"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="37"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="37"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="37"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="37"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="37"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="37"/>
+      <c r="V71" s="37"/>
+      <c r="W71" s="37"/>
+      <c r="X71" s="37"/>
+      <c r="Y71" s="37"/>
+      <c r="Z71" s="37"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="37"/>
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="37"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="37"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="37"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="37"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="37"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="37"/>
+      <c r="L75" s="37"/>
+      <c r="M75" s="37"/>
+      <c r="N75" s="37"/>
+      <c r="O75" s="37"/>
+      <c r="P75" s="37"/>
+      <c r="Q75" s="37"/>
+      <c r="R75" s="37"/>
+      <c r="S75" s="37"/>
+      <c r="T75" s="37"/>
+      <c r="U75" s="37"/>
+      <c r="V75" s="37"/>
+      <c r="W75" s="37"/>
+      <c r="X75" s="37"/>
+      <c r="Y75" s="37"/>
+      <c r="Z75" s="37"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="37"/>
+      <c r="L76" s="37"/>
+      <c r="M76" s="37"/>
+      <c r="N76" s="37"/>
+      <c r="O76" s="37"/>
+      <c r="P76" s="37"/>
+      <c r="Q76" s="37"/>
+      <c r="R76" s="37"/>
+      <c r="S76" s="37"/>
+      <c r="T76" s="37"/>
+      <c r="U76" s="37"/>
+      <c r="V76" s="37"/>
+      <c r="W76" s="37"/>
+      <c r="X76" s="37"/>
+      <c r="Y76" s="37"/>
+      <c r="Z76" s="37"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="37"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="37"/>
+      <c r="O77" s="37"/>
+      <c r="P77" s="37"/>
+      <c r="Q77" s="37"/>
+      <c r="R77" s="37"/>
+      <c r="S77" s="37"/>
+      <c r="T77" s="37"/>
+      <c r="U77" s="37"/>
+      <c r="V77" s="37"/>
+      <c r="W77" s="37"/>
+      <c r="X77" s="37"/>
+      <c r="Y77" s="37"/>
+      <c r="Z77" s="37"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="37"/>
+      <c r="K78" s="37"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="37"/>
+      <c r="N78" s="37"/>
+      <c r="O78" s="37"/>
+      <c r="P78" s="37"/>
+      <c r="Q78" s="37"/>
+      <c r="R78" s="37"/>
+      <c r="S78" s="37"/>
+      <c r="T78" s="37"/>
+      <c r="U78" s="37"/>
+      <c r="V78" s="37"/>
+      <c r="W78" s="37"/>
+      <c r="X78" s="37"/>
+      <c r="Y78" s="37"/>
+      <c r="Z78" s="37"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="37"/>
+      <c r="L79" s="37"/>
+      <c r="M79" s="37"/>
+      <c r="N79" s="37"/>
+      <c r="O79" s="37"/>
+      <c r="P79" s="37"/>
+      <c r="Q79" s="37"/>
+      <c r="R79" s="37"/>
+      <c r="S79" s="37"/>
+      <c r="T79" s="37"/>
+      <c r="U79" s="37"/>
+      <c r="V79" s="37"/>
+      <c r="W79" s="37"/>
+      <c r="X79" s="37"/>
+      <c r="Y79" s="37"/>
+      <c r="Z79" s="37"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="37"/>
+      <c r="Q80" s="37"/>
+      <c r="R80" s="37"/>
+      <c r="S80" s="37"/>
+      <c r="T80" s="37"/>
+      <c r="U80" s="37"/>
+      <c r="V80" s="37"/>
+      <c r="W80" s="37"/>
+      <c r="X80" s="37"/>
+      <c r="Y80" s="37"/>
+      <c r="Z80" s="37"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="37"/>
+      <c r="L81" s="37"/>
+      <c r="M81" s="37"/>
+      <c r="N81" s="37"/>
+      <c r="O81" s="37"/>
+      <c r="P81" s="37"/>
+      <c r="Q81" s="37"/>
+      <c r="R81" s="37"/>
+      <c r="S81" s="37"/>
+      <c r="T81" s="37"/>
+      <c r="U81" s="37"/>
+      <c r="V81" s="37"/>
+      <c r="W81" s="37"/>
+      <c r="X81" s="37"/>
+      <c r="Y81" s="37"/>
+      <c r="Z81" s="37"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="37"/>
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+      <c r="N82" s="37"/>
+      <c r="O82" s="37"/>
+      <c r="P82" s="37"/>
+      <c r="Q82" s="37"/>
+      <c r="R82" s="37"/>
+      <c r="S82" s="37"/>
+      <c r="T82" s="37"/>
+      <c r="U82" s="37"/>
+      <c r="V82" s="37"/>
+      <c r="W82" s="37"/>
+      <c r="X82" s="37"/>
+      <c r="Y82" s="37"/>
+      <c r="Z82" s="37"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+      <c r="N83" s="37"/>
+      <c r="O83" s="37"/>
+      <c r="P83" s="37"/>
+      <c r="Q83" s="37"/>
+      <c r="R83" s="37"/>
+      <c r="S83" s="37"/>
+      <c r="T83" s="37"/>
+      <c r="U83" s="37"/>
+      <c r="V83" s="37"/>
+      <c r="W83" s="37"/>
+      <c r="X83" s="37"/>
+      <c r="Y83" s="37"/>
+      <c r="Z83" s="37"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+      <c r="N84" s="37"/>
+      <c r="O84" s="37"/>
+      <c r="P84" s="37"/>
+      <c r="Q84" s="37"/>
+      <c r="R84" s="37"/>
+      <c r="S84" s="37"/>
+      <c r="T84" s="37"/>
+      <c r="U84" s="37"/>
+      <c r="V84" s="37"/>
+      <c r="W84" s="37"/>
+      <c r="X84" s="37"/>
+      <c r="Y84" s="37"/>
+      <c r="Z84" s="37"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+      <c r="L85" s="37"/>
+      <c r="M85" s="37"/>
+      <c r="N85" s="37"/>
+      <c r="O85" s="37"/>
+      <c r="P85" s="37"/>
+      <c r="Q85" s="37"/>
+      <c r="R85" s="37"/>
+      <c r="S85" s="37"/>
+      <c r="T85" s="37"/>
+      <c r="U85" s="37"/>
+      <c r="V85" s="37"/>
+      <c r="W85" s="37"/>
+      <c r="X85" s="37"/>
+      <c r="Y85" s="37"/>
+      <c r="Z85" s="37"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+      <c r="L87" s="37"/>
+      <c r="M87" s="37"/>
+      <c r="N87" s="37"/>
+      <c r="O87" s="37"/>
+      <c r="P87" s="37"/>
+      <c r="Q87" s="37"/>
+      <c r="R87" s="37"/>
+      <c r="S87" s="37"/>
+      <c r="T87" s="37"/>
+      <c r="U87" s="37"/>
+      <c r="V87" s="37"/>
+      <c r="W87" s="37"/>
+      <c r="X87" s="37"/>
+      <c r="Y87" s="37"/>
+      <c r="Z87" s="37"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+      <c r="L88" s="37"/>
+      <c r="M88" s="37"/>
+      <c r="N88" s="37"/>
+      <c r="O88" s="37"/>
+      <c r="P88" s="37"/>
+      <c r="Q88" s="37"/>
+      <c r="R88" s="37"/>
+      <c r="S88" s="37"/>
+      <c r="T88" s="37"/>
+      <c r="U88" s="37"/>
+      <c r="V88" s="37"/>
+      <c r="W88" s="37"/>
+      <c r="X88" s="37"/>
+      <c r="Y88" s="37"/>
+      <c r="Z88" s="37"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="37"/>
+      <c r="L89" s="37"/>
+      <c r="M89" s="37"/>
+      <c r="N89" s="37"/>
+      <c r="O89" s="37"/>
+      <c r="P89" s="37"/>
+      <c r="Q89" s="37"/>
+      <c r="R89" s="37"/>
+      <c r="S89" s="37"/>
+      <c r="T89" s="37"/>
+      <c r="U89" s="37"/>
+      <c r="V89" s="37"/>
+      <c r="W89" s="37"/>
+      <c r="X89" s="37"/>
+      <c r="Y89" s="37"/>
+      <c r="Z89" s="37"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="37"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="37"/>
+      <c r="L90" s="37"/>
+      <c r="M90" s="37"/>
+      <c r="N90" s="37"/>
+      <c r="O90" s="37"/>
+      <c r="P90" s="37"/>
+      <c r="Q90" s="37"/>
+      <c r="R90" s="37"/>
+      <c r="S90" s="37"/>
+      <c r="T90" s="37"/>
+      <c r="U90" s="37"/>
+      <c r="V90" s="37"/>
+      <c r="W90" s="37"/>
+      <c r="X90" s="37"/>
+      <c r="Y90" s="37"/>
+      <c r="Z90" s="37"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="37"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="37"/>
+      <c r="L91" s="37"/>
+      <c r="M91" s="37"/>
+      <c r="N91" s="37"/>
+      <c r="O91" s="37"/>
+      <c r="P91" s="37"/>
+      <c r="Q91" s="37"/>
+      <c r="R91" s="37"/>
+      <c r="S91" s="37"/>
+      <c r="T91" s="37"/>
+      <c r="U91" s="37"/>
+      <c r="V91" s="37"/>
+      <c r="W91" s="37"/>
+      <c r="X91" s="37"/>
+      <c r="Y91" s="37"/>
+      <c r="Z91" s="37"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="37"/>
+      <c r="L92" s="37"/>
+      <c r="M92" s="37"/>
+      <c r="N92" s="37"/>
+      <c r="O92" s="37"/>
+      <c r="P92" s="37"/>
+      <c r="Q92" s="37"/>
+      <c r="R92" s="37"/>
+      <c r="S92" s="37"/>
+      <c r="T92" s="37"/>
+      <c r="U92" s="37"/>
+      <c r="V92" s="37"/>
+      <c r="W92" s="37"/>
+      <c r="X92" s="37"/>
+      <c r="Y92" s="37"/>
+      <c r="Z92" s="37"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="37"/>
+      <c r="L93" s="37"/>
+      <c r="M93" s="37"/>
+      <c r="N93" s="37"/>
+      <c r="O93" s="37"/>
+      <c r="P93" s="37"/>
+      <c r="Q93" s="37"/>
+      <c r="R93" s="37"/>
+      <c r="S93" s="37"/>
+      <c r="T93" s="37"/>
+      <c r="U93" s="37"/>
+      <c r="V93" s="37"/>
+      <c r="W93" s="37"/>
+      <c r="X93" s="37"/>
+      <c r="Y93" s="37"/>
+      <c r="Z93" s="37"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="37"/>
+      <c r="L94" s="37"/>
+      <c r="M94" s="37"/>
+      <c r="N94" s="37"/>
+      <c r="O94" s="37"/>
+      <c r="P94" s="37"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="37"/>
+      <c r="T94" s="37"/>
+      <c r="U94" s="37"/>
+      <c r="V94" s="37"/>
+      <c r="W94" s="37"/>
+      <c r="X94" s="37"/>
+      <c r="Y94" s="37"/>
+      <c r="Z94" s="37"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="37"/>
+      <c r="L95" s="37"/>
+      <c r="M95" s="37"/>
+      <c r="N95" s="37"/>
+      <c r="O95" s="37"/>
+      <c r="P95" s="37"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="37"/>
+      <c r="T95" s="37"/>
+      <c r="U95" s="37"/>
+      <c r="V95" s="37"/>
+      <c r="W95" s="37"/>
+      <c r="X95" s="37"/>
+      <c r="Y95" s="37"/>
+      <c r="Z95" s="37"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="37"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="37"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="37"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="37"/>
+      <c r="L97" s="37"/>
+      <c r="M97" s="37"/>
+      <c r="N97" s="37"/>
+      <c r="O97" s="37"/>
+      <c r="P97" s="37"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="37"/>
+      <c r="T97" s="37"/>
+      <c r="U97" s="37"/>
+      <c r="V97" s="37"/>
+      <c r="W97" s="37"/>
+      <c r="X97" s="37"/>
+      <c r="Y97" s="37"/>
+      <c r="Z97" s="37"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="37"/>
+      <c r="L98" s="37"/>
+      <c r="M98" s="37"/>
+      <c r="N98" s="37"/>
+      <c r="O98" s="37"/>
+      <c r="P98" s="37"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
+      <c r="Z98" s="37"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="37"/>
+      <c r="L99" s="37"/>
+      <c r="M99" s="37"/>
+      <c r="N99" s="37"/>
+      <c r="O99" s="37"/>
+      <c r="P99" s="37"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="37"/>
+      <c r="T99" s="37"/>
+      <c r="U99" s="37"/>
+      <c r="V99" s="37"/>
+      <c r="W99" s="37"/>
+      <c r="X99" s="37"/>
+      <c r="Y99" s="37"/>
+      <c r="Z99" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B26:D26"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{CC070B30-4824-47AD-AAA4-730622AC4A71}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{CA64E806-D0AA-4985-865E-57E60DCF9B32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EEFD70-8C3B-4A33-8837-D811323F48D5}">
+  <dimension ref="A3:AD37"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.53125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.46484375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.53125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.19921875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="C3" s="19" t="str">
+        <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
+        <v>IE</v>
+      </c>
+      <c r="D3" s="19" t="str">
+        <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
+        <v>National</v>
+      </c>
+      <c r="E3" s="19" t="str">
+        <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F3" s="19" t="str">
+        <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G3" s="19" t="str">
+        <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H3" s="19" t="str">
+        <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I3" s="19" t="str">
+        <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J3" s="19" t="str">
+        <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K3" s="19" t="str">
+        <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L3" s="19" t="str">
+        <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M3" s="19" t="str">
+        <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N3" s="19" t="str">
+        <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O3" s="19" t="str">
+        <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P3" s="19" t="str">
+        <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q3" s="19" t="str">
+        <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R3" s="19" t="str">
+        <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S3" s="19" t="str">
+        <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T3" s="19" t="str">
+        <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U3" s="19" t="str">
+        <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V3" s="19" t="str">
+        <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W3" s="19" t="str">
+        <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X3" s="19" t="str">
+        <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y3" s="19" t="str">
+        <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z3" s="19" t="str">
+        <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA3" s="19" t="str">
+        <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB3" s="19" t="str">
+        <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC3" s="19" t="str">
+        <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD3" s="19" t="str">
+        <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="19" t="str">
+        <f>Regions!A11</f>
+        <v>IE-CW</v>
+      </c>
+      <c r="F5" s="19" t="str">
+        <f>Regions!A16</f>
+        <v>IE-D</v>
+      </c>
+      <c r="G5" s="19" t="str">
+        <f>Regions!A19</f>
+        <v>IE-KE</v>
+      </c>
+      <c r="H5" s="19" t="str">
+        <f>Regions!A20</f>
+        <v>IE-KK</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f>Regions!A21</f>
+        <v>IE-LS</v>
+      </c>
+      <c r="J5" s="19" t="str">
+        <f>Regions!A24</f>
+        <v>IE-LD</v>
+      </c>
+      <c r="K5" s="19" t="str">
+        <f>Regions!A25</f>
+        <v>IE-LH</v>
+      </c>
+      <c r="L5" s="19" t="str">
+        <f>Regions!A27</f>
+        <v>IE-MH</v>
+      </c>
+      <c r="M5" s="19" t="str">
+        <f>Regions!A29</f>
+        <v>IE-OY</v>
+      </c>
+      <c r="N5" s="19" t="str">
+        <f>Regions!A34</f>
+        <v>IE-WH</v>
+      </c>
+      <c r="O5" s="19" t="str">
+        <f>Regions!A35</f>
+        <v>IE-WX</v>
+      </c>
+      <c r="P5" s="19" t="str">
+        <f>Regions!A36</f>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q5" s="19" t="str">
+        <f>Regions!A13</f>
+        <v>IE-CE</v>
+      </c>
+      <c r="R5" s="19" t="str">
+        <f>Regions!A14</f>
+        <v>IE-CO</v>
+      </c>
+      <c r="S5" s="19" t="str">
+        <f>Regions!A18</f>
+        <v>IE-KY</v>
+      </c>
+      <c r="T5" s="19" t="str">
+        <f>Regions!A23</f>
+        <v>IE-LK</v>
+      </c>
+      <c r="U5" s="19" t="str">
+        <f>Regions!A32</f>
+        <v>IE-TA</v>
+      </c>
+      <c r="V5" s="19" t="str">
+        <f>Regions!A33</f>
+        <v>IE-WD</v>
+      </c>
+      <c r="W5" s="19" t="str">
+        <f>Regions!A17</f>
+        <v>IE-G</v>
+      </c>
+      <c r="X5" s="19" t="str">
+        <f>Regions!A22</f>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y5" s="19" t="str">
+        <f>Regions!A26</f>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z5" s="19" t="str">
+        <f>Regions!A30</f>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA5" s="19" t="str">
+        <f>Regions!A31</f>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB5" s="19" t="str">
+        <f>Regions!A12</f>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC5" s="19" t="str">
+        <f>Regions!A15</f>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD5" s="19" t="str">
+        <f>Regions!A28</f>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="19" t="str">
+        <f>C5</f>
+        <v>IE</v>
+      </c>
+      <c r="D6" s="19" t="str">
+        <f t="shared" ref="D6:AD6" si="0">"*"&amp;D5</f>
+        <v>*National</v>
+      </c>
+      <c r="E6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CW</v>
+      </c>
+      <c r="F6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-D</v>
+      </c>
+      <c r="G6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KE</v>
+      </c>
+      <c r="H6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KK</v>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LS</v>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LD</v>
+      </c>
+      <c r="K6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LH</v>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MH</v>
+      </c>
+      <c r="M6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-OY</v>
+      </c>
+      <c r="N6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WH</v>
+      </c>
+      <c r="O6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WX</v>
+      </c>
+      <c r="P6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WW</v>
+      </c>
+      <c r="Q6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CE</v>
+      </c>
+      <c r="R6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CO</v>
+      </c>
+      <c r="S6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-KY</v>
+      </c>
+      <c r="T6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LK</v>
+      </c>
+      <c r="U6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-TA</v>
+      </c>
+      <c r="V6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-WD</v>
+      </c>
+      <c r="W6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-G</v>
+      </c>
+      <c r="X6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-LM</v>
+      </c>
+      <c r="Y6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MO</v>
+      </c>
+      <c r="Z6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-RN</v>
+      </c>
+      <c r="AA6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-SO</v>
+      </c>
+      <c r="AB6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-CN</v>
+      </c>
+      <c r="AC6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-DL</v>
+      </c>
+      <c r="AD6" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>*IE-MN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="14.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="19" t="str">
+        <f>"*"&amp;C5</f>
+        <v>*IE</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f t="shared" ref="D7:AD7" si="1">D5</f>
+        <v>National</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CW</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-D</v>
+      </c>
+      <c r="G7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KE</v>
+      </c>
+      <c r="H7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KK</v>
+      </c>
+      <c r="I7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LS</v>
+      </c>
+      <c r="J7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LD</v>
+      </c>
+      <c r="K7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LH</v>
+      </c>
+      <c r="L7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MH</v>
+      </c>
+      <c r="M7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-OY</v>
+      </c>
+      <c r="N7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WH</v>
+      </c>
+      <c r="O7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WX</v>
+      </c>
+      <c r="P7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WW</v>
+      </c>
+      <c r="Q7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CE</v>
+      </c>
+      <c r="R7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CO</v>
+      </c>
+      <c r="S7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-KY</v>
+      </c>
+      <c r="T7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LK</v>
+      </c>
+      <c r="U7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-TA</v>
+      </c>
+      <c r="V7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-WD</v>
+      </c>
+      <c r="W7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-G</v>
+      </c>
+      <c r="X7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-LM</v>
+      </c>
+      <c r="Y7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MO</v>
+      </c>
+      <c r="Z7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-RN</v>
+      </c>
+      <c r="AA7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-SO</v>
+      </c>
+      <c r="AB7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-CN</v>
+      </c>
+      <c r="AC7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-DL</v>
+      </c>
+      <c r="AD7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>IE-MN</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A12" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A14" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A16" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId4" name="Drop Down 1">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>33338</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
   <dimension ref="C4:AK42"/>
   <sheetViews>
@@ -1387,21 +5561,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="6" width="9.19921875" style="3"/>
+    <col min="7" max="7" width="10.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.19921875" style="3"/>
+    <col min="9" max="9" width="11.53125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:37" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1536,7 +5710,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1635,7 +5809,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1734,7 +5908,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1833,7 +6007,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1932,7 +6106,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2031,7 +6205,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2130,7 +6304,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2229,7 +6403,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2328,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2427,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2476,7 +6650,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +6699,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2574,7 +6748,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2623,7 +6797,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2672,7 +6846,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2721,7 +6895,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2770,7 +6944,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2819,7 +6993,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2868,7 +7042,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2917,7 +7091,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2966,7 +7140,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -3015,7 +7189,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3064,7 +7238,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3113,7 +7287,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3162,7 +7336,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3211,7 +7385,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3260,7 +7434,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3309,7 +7483,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3358,7 +7532,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3407,7 +7581,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3456,7 +7630,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3505,7 +7679,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3554,7 +7728,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3603,7 +7777,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3648,7 +7822,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3693,7 +7867,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3742,7 +7916,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3797,7 +7971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
   <dimension ref="B2:AF39"/>
   <sheetViews>
@@ -3805,19 +7979,19 @@
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="3" width="9.19921875" style="3"/>
+    <col min="4" max="4" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.19921875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32" ht="14.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3938,7 +8112,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4054,7 +8228,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4170,7 +8344,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4286,7 +8460,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4402,7 +8576,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4518,7 +8692,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4634,7 +8808,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4750,7 +8924,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4866,7 +9040,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4982,7 +9156,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5098,7 +9272,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5214,7 +9388,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5330,7 +9504,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5446,7 +9620,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5562,7 +9736,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5678,7 +9852,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5794,7 +9968,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5910,7 +10084,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -6025,7 +10199,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6140,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6255,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -6371,7 +10545,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -6486,7 +10660,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -6601,7 +10775,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -6716,7 +10890,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -6832,7 +11006,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -6948,7 +11122,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -7064,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -7180,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -7296,7 +11470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -7411,7 +11585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -7526,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -7641,7 +11815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -7757,7 +11931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -7873,7 +12047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -7989,7 +12163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -8107,774 +12281,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EEFD70-8C3B-4A33-8837-D811323F48D5}">
-  <dimension ref="A3:AD37"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="str">
-        <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
-        <v>IE</v>
-      </c>
-      <c r="D3" s="19" t="str">
-        <f t="array" ref="D3">INDEX(D5:D7,$A$4)</f>
-        <v>National</v>
-      </c>
-      <c r="E3" s="19" t="str">
-        <f t="array" ref="E3">INDEX(E5:E7,$A$4)</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="F3" s="19" t="str">
-        <f t="array" ref="F3">INDEX(F5:F7,$A$4)</f>
-        <v>IE-D</v>
-      </c>
-      <c r="G3" s="19" t="str">
-        <f t="array" ref="G3">INDEX(G5:G7,$A$4)</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="H3" s="19" t="str">
-        <f t="array" ref="H3">INDEX(H5:H7,$A$4)</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="I3" s="19" t="str">
-        <f t="array" ref="I3">INDEX(I5:I7,$A$4)</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="J3" s="19" t="str">
-        <f t="array" ref="J3">INDEX(J5:J7,$A$4)</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="K3" s="19" t="str">
-        <f t="array" ref="K3">INDEX(K5:K7,$A$4)</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="L3" s="19" t="str">
-        <f t="array" ref="L3">INDEX(L5:L7,$A$4)</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="M3" s="19" t="str">
-        <f t="array" ref="M3">INDEX(M5:M7,$A$4)</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="N3" s="19" t="str">
-        <f t="array" ref="N3">INDEX(N5:N7,$A$4)</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="O3" s="19" t="str">
-        <f t="array" ref="O3">INDEX(O5:O7,$A$4)</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="P3" s="19" t="str">
-        <f t="array" ref="P3">INDEX(P5:P7,$A$4)</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="Q3" s="19" t="str">
-        <f t="array" ref="Q3">INDEX(Q5:Q7,$A$4)</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="R3" s="19" t="str">
-        <f t="array" ref="R3">INDEX(R5:R7,$A$4)</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="S3" s="19" t="str">
-        <f t="array" ref="S3">INDEX(S5:S7,$A$4)</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="T3" s="19" t="str">
-        <f t="array" ref="T3">INDEX(T5:T7,$A$4)</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="U3" s="19" t="str">
-        <f t="array" ref="U3">INDEX(U5:U7,$A$4)</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="V3" s="19" t="str">
-        <f t="array" ref="V3">INDEX(V5:V7,$A$4)</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="W3" s="19" t="str">
-        <f t="array" ref="W3">INDEX(W5:W7,$A$4)</f>
-        <v>IE-G</v>
-      </c>
-      <c r="X3" s="19" t="str">
-        <f t="array" ref="X3">INDEX(X5:X7,$A$4)</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="Y3" s="19" t="str">
-        <f t="array" ref="Y3">INDEX(Y5:Y7,$A$4)</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="Z3" s="19" t="str">
-        <f t="array" ref="Z3">INDEX(Z5:Z7,$A$4)</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="AA3" s="19" t="str">
-        <f t="array" ref="AA3">INDEX(AA5:AA7,$A$4)</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="AB3" s="19" t="str">
-        <f t="array" ref="AB3">INDEX(AB5:AB7,$A$4)</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="AC3" s="19" t="str">
-        <f t="array" ref="AC3">INDEX(AC5:AC7,$A$4)</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="AD3" s="19" t="str">
-        <f t="array" ref="AD3">INDEX(AD5:AD7,$A$4)</f>
-        <v>IE-MN</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="19" t="str">
-        <f>Regions!A11</f>
-        <v>IE-CW</v>
-      </c>
-      <c r="F5" s="19" t="str">
-        <f>Regions!A16</f>
-        <v>IE-D</v>
-      </c>
-      <c r="G5" s="19" t="str">
-        <f>Regions!A19</f>
-        <v>IE-KE</v>
-      </c>
-      <c r="H5" s="19" t="str">
-        <f>Regions!A20</f>
-        <v>IE-KK</v>
-      </c>
-      <c r="I5" s="19" t="str">
-        <f>Regions!A21</f>
-        <v>IE-LS</v>
-      </c>
-      <c r="J5" s="19" t="str">
-        <f>Regions!A24</f>
-        <v>IE-LD</v>
-      </c>
-      <c r="K5" s="19" t="str">
-        <f>Regions!A25</f>
-        <v>IE-LH</v>
-      </c>
-      <c r="L5" s="19" t="str">
-        <f>Regions!A27</f>
-        <v>IE-MH</v>
-      </c>
-      <c r="M5" s="19" t="str">
-        <f>Regions!A29</f>
-        <v>IE-OY</v>
-      </c>
-      <c r="N5" s="19" t="str">
-        <f>Regions!A34</f>
-        <v>IE-WH</v>
-      </c>
-      <c r="O5" s="19" t="str">
-        <f>Regions!A35</f>
-        <v>IE-WX</v>
-      </c>
-      <c r="P5" s="19" t="str">
-        <f>Regions!A36</f>
-        <v>IE-WW</v>
-      </c>
-      <c r="Q5" s="19" t="str">
-        <f>Regions!A13</f>
-        <v>IE-CE</v>
-      </c>
-      <c r="R5" s="19" t="str">
-        <f>Regions!A14</f>
-        <v>IE-CO</v>
-      </c>
-      <c r="S5" s="19" t="str">
-        <f>Regions!A18</f>
-        <v>IE-KY</v>
-      </c>
-      <c r="T5" s="19" t="str">
-        <f>Regions!A23</f>
-        <v>IE-LK</v>
-      </c>
-      <c r="U5" s="19" t="str">
-        <f>Regions!A32</f>
-        <v>IE-TA</v>
-      </c>
-      <c r="V5" s="19" t="str">
-        <f>Regions!A33</f>
-        <v>IE-WD</v>
-      </c>
-      <c r="W5" s="19" t="str">
-        <f>Regions!A17</f>
-        <v>IE-G</v>
-      </c>
-      <c r="X5" s="19" t="str">
-        <f>Regions!A22</f>
-        <v>IE-LM</v>
-      </c>
-      <c r="Y5" s="19" t="str">
-        <f>Regions!A26</f>
-        <v>IE-MO</v>
-      </c>
-      <c r="Z5" s="19" t="str">
-        <f>Regions!A30</f>
-        <v>IE-RN</v>
-      </c>
-      <c r="AA5" s="19" t="str">
-        <f>Regions!A31</f>
-        <v>IE-SO</v>
-      </c>
-      <c r="AB5" s="19" t="str">
-        <f>Regions!A12</f>
-        <v>IE-CN</v>
-      </c>
-      <c r="AC5" s="19" t="str">
-        <f>Regions!A15</f>
-        <v>IE-DL</v>
-      </c>
-      <c r="AD5" s="19" t="str">
-        <f>Regions!A28</f>
-        <v>IE-MN</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="19" t="str">
-        <f>C5</f>
-        <v>IE</v>
-      </c>
-      <c r="D6" s="19" t="str">
-        <f t="shared" ref="D6:AD6" si="0">"*"&amp;D5</f>
-        <v>*National</v>
-      </c>
-      <c r="E6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-CW</v>
-      </c>
-      <c r="F6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-D</v>
-      </c>
-      <c r="G6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-KE</v>
-      </c>
-      <c r="H6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-KK</v>
-      </c>
-      <c r="I6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-LS</v>
-      </c>
-      <c r="J6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-LD</v>
-      </c>
-      <c r="K6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-LH</v>
-      </c>
-      <c r="L6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-MH</v>
-      </c>
-      <c r="M6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-OY</v>
-      </c>
-      <c r="N6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-WH</v>
-      </c>
-      <c r="O6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-WX</v>
-      </c>
-      <c r="P6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-WW</v>
-      </c>
-      <c r="Q6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-CE</v>
-      </c>
-      <c r="R6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-CO</v>
-      </c>
-      <c r="S6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-KY</v>
-      </c>
-      <c r="T6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-LK</v>
-      </c>
-      <c r="U6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-TA</v>
-      </c>
-      <c r="V6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-WD</v>
-      </c>
-      <c r="W6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-G</v>
-      </c>
-      <c r="X6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-LM</v>
-      </c>
-      <c r="Y6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-MO</v>
-      </c>
-      <c r="Z6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-RN</v>
-      </c>
-      <c r="AA6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-SO</v>
-      </c>
-      <c r="AB6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-CN</v>
-      </c>
-      <c r="AC6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-DL</v>
-      </c>
-      <c r="AD6" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>*IE-MN</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="19" t="str">
-        <f>"*"&amp;C5</f>
-        <v>*IE</v>
-      </c>
-      <c r="D7" s="19" t="str">
-        <f t="shared" ref="D7:AD7" si="1">D5</f>
-        <v>National</v>
-      </c>
-      <c r="E7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-CW</v>
-      </c>
-      <c r="F7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-D</v>
-      </c>
-      <c r="G7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-KE</v>
-      </c>
-      <c r="H7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-KK</v>
-      </c>
-      <c r="I7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-LS</v>
-      </c>
-      <c r="J7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-LD</v>
-      </c>
-      <c r="K7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-LH</v>
-      </c>
-      <c r="L7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-MH</v>
-      </c>
-      <c r="M7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-OY</v>
-      </c>
-      <c r="N7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-WH</v>
-      </c>
-      <c r="O7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-WX</v>
-      </c>
-      <c r="P7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-WW</v>
-      </c>
-      <c r="Q7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-CE</v>
-      </c>
-      <c r="R7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-CO</v>
-      </c>
-      <c r="S7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-KY</v>
-      </c>
-      <c r="T7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-LK</v>
-      </c>
-      <c r="U7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-TA</v>
-      </c>
-      <c r="V7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-WD</v>
-      </c>
-      <c r="W7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-G</v>
-      </c>
-      <c r="X7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-LM</v>
-      </c>
-      <c r="Y7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-MO</v>
-      </c>
-      <c r="Z7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-RN</v>
-      </c>
-      <c r="AA7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-SO</v>
-      </c>
-      <c r="AB7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-CN</v>
-      </c>
-      <c r="AC7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-DL</v>
-      </c>
-      <c r="AD7" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v>IE-MN</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="5121" r:id="rId4" name="Drop Down 1">
-              <controlPr defaultSize="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-  </mc:AlternateContent>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
@@ -8882,19 +12293,19 @@
       <selection activeCell="K30" sqref="K30:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.53125" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.796875" customWidth="1"/>
+    <col min="12" max="13" width="15.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -8902,7 +12313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8937,7 +12348,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8972,7 +12383,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9007,7 +12418,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9042,7 +12453,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9077,7 +12488,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9112,7 +12523,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9147,7 +12558,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9182,7 +12593,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9217,7 +12628,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9252,7 +12663,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9287,7 +12698,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9322,7 +12733,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9357,7 +12768,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9392,7 +12803,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.45">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9427,7 +12838,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9462,7 +12873,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9497,7 +12908,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9532,7 +12943,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9568,7 +12979,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9603,7 +13014,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9640,7 +13051,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9675,7 +13086,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9712,7 +13123,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9749,7 +13160,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9783,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9817,7 +13228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9846,7 +13257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9875,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>185</v>
       </c>
@@ -9908,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>185</v>
       </c>
@@ -9941,7 +13352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>185</v>
       </c>
@@ -9974,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -10007,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>185</v>
       </c>
@@ -10040,7 +13451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>185</v>
       </c>
@@ -10073,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>185</v>
       </c>
@@ -10106,13 +13517,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.45">
       <c r="C38" t="s">
         <v>149</v>
       </c>
@@ -10124,7 +13535,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:43" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C39" s="13" t="s">
         <v>1</v>
       </c>
@@ -10249,7 +13660,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
         <v>59</v>
       </c>
@@ -10365,7 +13776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
         <v>59</v>
       </c>
@@ -10481,7 +13892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:43" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
         <v>59</v>
       </c>
@@ -10597,37 +14008,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H46" s="31"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H47" s="31"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:43" x14ac:dyDescent="0.45">
       <c r="H48" s="31"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
@@ -10641,22 +14052,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="D4:M216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112:I216"/>
+    <sheetView topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="25" t="s">
         <v>150</v>
       </c>
@@ -10664,7 +14075,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="4:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:13" ht="26.25" x14ac:dyDescent="0.45">
       <c r="D5" s="27" t="s">
         <v>65</v>
       </c>
@@ -10681,7 +14092,7 @@
         <v>58</v>
       </c>
       <c r="I5" s="27" t="str">
-        <f>IF([1]Regions!AJ5&lt;&gt;"",[1]Regions!AJ5,"*")</f>
+        <f>IF(Regions!AJ5&lt;&gt;"",Regions!AJ5,"*")</f>
         <v>*</v>
       </c>
       <c r="J5" s="27" t="s">
@@ -10697,7 +14108,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D6" s="28" t="s">
         <v>153</v>
       </c>
@@ -10713,7 +14124,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F7" t="s">
         <v>154</v>
       </c>
@@ -10736,7 +14147,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F8" t="s">
         <v>154</v>
       </c>
@@ -10759,7 +14170,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F9" t="s">
         <v>154</v>
       </c>
@@ -10782,7 +14193,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F10" t="s">
         <v>154</v>
       </c>
@@ -10805,7 +14216,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F11" t="s">
         <v>154</v>
       </c>
@@ -10828,7 +14239,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F12" t="s">
         <v>154</v>
       </c>
@@ -10851,7 +14262,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F13" t="s">
         <v>154</v>
       </c>
@@ -10874,7 +14285,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F14" t="s">
         <v>154</v>
       </c>
@@ -10897,7 +14308,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F15" t="s">
         <v>154</v>
       </c>
@@ -10920,7 +14331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F16" t="s">
         <v>154</v>
       </c>
@@ -10943,7 +14354,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F17" t="s">
         <v>154</v>
       </c>
@@ -10966,7 +14377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F18" t="s">
         <v>154</v>
       </c>
@@ -10989,7 +14400,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F19" t="s">
         <v>154</v>
       </c>
@@ -11012,7 +14423,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F20" t="s">
         <v>154</v>
       </c>
@@ -11035,7 +14446,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F21" t="s">
         <v>154</v>
       </c>
@@ -11058,7 +14469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F22" t="s">
         <v>154</v>
       </c>
@@ -11081,7 +14492,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F23" t="s">
         <v>154</v>
       </c>
@@ -11104,7 +14515,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F24" t="s">
         <v>154</v>
       </c>
@@ -11127,7 +14538,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F25" t="s">
         <v>154</v>
       </c>
@@ -11150,7 +14561,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F26" t="s">
         <v>154</v>
       </c>
@@ -11173,7 +14584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="F27" t="s">
         <v>154</v>
       </c>
@@ -11196,7 +14607,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
         <v>159</v>
       </c>
@@ -11222,7 +14633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>159</v>
       </c>
@@ -11248,7 +14659,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
         <v>159</v>
       </c>
@@ -11274,7 +14685,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>159</v>
       </c>
@@ -11300,7 +14711,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
         <v>159</v>
       </c>
@@ -11326,7 +14737,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D33" t="s">
         <v>159</v>
       </c>
@@ -11352,7 +14763,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D34" t="s">
         <v>159</v>
       </c>
@@ -11378,7 +14789,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D35" t="s">
         <v>159</v>
       </c>
@@ -11404,7 +14815,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D36" t="s">
         <v>159</v>
       </c>
@@ -11430,7 +14841,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
         <v>159</v>
       </c>
@@ -11456,7 +14867,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D38" t="s">
         <v>159</v>
       </c>
@@ -11482,7 +14893,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
         <v>159</v>
       </c>
@@ -11508,7 +14919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D40" t="s">
         <v>159</v>
       </c>
@@ -11534,7 +14945,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D41" t="s">
         <v>159</v>
       </c>
@@ -11560,7 +14971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
         <v>159</v>
       </c>
@@ -11586,7 +14997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
         <v>159</v>
       </c>
@@ -11612,7 +15023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
         <v>159</v>
       </c>
@@ -11638,7 +15049,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D45" t="s">
         <v>159</v>
       </c>
@@ -11664,7 +15075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D46" t="s">
         <v>159</v>
       </c>
@@ -11690,7 +15101,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D47" t="s">
         <v>159</v>
       </c>
@@ -11716,7 +15127,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="D48" t="s">
         <v>159</v>
       </c>
@@ -11742,7 +15153,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F49" t="s">
         <v>154</v>
       </c>
@@ -11765,7 +15176,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F50" t="s">
         <v>154</v>
       </c>
@@ -11788,7 +15199,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F51" t="s">
         <v>154</v>
       </c>
@@ -11811,7 +15222,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F52" t="s">
         <v>154</v>
       </c>
@@ -11834,7 +15245,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F53" t="s">
         <v>154</v>
       </c>
@@ -11857,7 +15268,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F54" t="s">
         <v>154</v>
       </c>
@@ -11880,7 +15291,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F55" t="s">
         <v>154</v>
       </c>
@@ -11903,7 +15314,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>154</v>
       </c>
@@ -11926,7 +15337,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F57" t="s">
         <v>154</v>
       </c>
@@ -11949,7 +15360,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F58" t="s">
         <v>154</v>
       </c>
@@ -11972,7 +15383,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F59" t="s">
         <v>154</v>
       </c>
@@ -11995,7 +15406,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F60" t="s">
         <v>154</v>
       </c>
@@ -12018,7 +15429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
         <v>154</v>
       </c>
@@ -12041,7 +15452,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F62" t="s">
         <v>154</v>
       </c>
@@ -12064,7 +15475,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F63" t="s">
         <v>154</v>
       </c>
@@ -12087,7 +15498,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F64" t="s">
         <v>154</v>
       </c>
@@ -12110,7 +15521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
         <v>154</v>
       </c>
@@ -12133,7 +15544,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F66" t="s">
         <v>154</v>
       </c>
@@ -12156,7 +15567,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F67" t="s">
         <v>154</v>
       </c>
@@ -12179,7 +15590,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F68" t="s">
         <v>154</v>
       </c>
@@ -12202,7 +15613,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F69" t="s">
         <v>154</v>
       </c>
@@ -12225,7 +15636,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>154</v>
       </c>
@@ -12248,7 +15659,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F71" t="s">
         <v>154</v>
       </c>
@@ -12271,7 +15682,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F72" t="s">
         <v>154</v>
       </c>
@@ -12294,7 +15705,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F73" t="s">
         <v>154</v>
       </c>
@@ -12317,7 +15728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F74" t="s">
         <v>154</v>
       </c>
@@ -12340,7 +15751,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F75" t="s">
         <v>154</v>
       </c>
@@ -12363,7 +15774,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F76" t="s">
         <v>154</v>
       </c>
@@ -12386,7 +15797,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F77" t="s">
         <v>154</v>
       </c>
@@ -12409,7 +15820,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F78" t="s">
         <v>154</v>
       </c>
@@ -12432,7 +15843,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F79" t="s">
         <v>154</v>
       </c>
@@ -12455,7 +15866,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F80" t="s">
         <v>154</v>
       </c>
@@ -12478,7 +15889,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F81" t="s">
         <v>154</v>
       </c>
@@ -12501,7 +15912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F82" t="s">
         <v>154</v>
       </c>
@@ -12524,7 +15935,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F83" t="s">
         <v>154</v>
       </c>
@@ -12547,7 +15958,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F84" t="s">
         <v>154</v>
       </c>
@@ -12570,7 +15981,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F85" t="s">
         <v>154</v>
       </c>
@@ -12593,7 +16004,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F86" t="s">
         <v>154</v>
       </c>
@@ -12616,7 +16027,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F87" t="s">
         <v>154</v>
       </c>
@@ -12639,7 +16050,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F88" t="s">
         <v>154</v>
       </c>
@@ -12662,7 +16073,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F89" t="s">
         <v>154</v>
       </c>
@@ -12685,7 +16096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F90" t="s">
         <v>154</v>
       </c>
@@ -12708,7 +16119,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F91" t="s">
         <v>154</v>
       </c>
@@ -12731,7 +16142,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F92" t="s">
         <v>154</v>
       </c>
@@ -12754,7 +16165,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F93" t="s">
         <v>154</v>
       </c>
@@ -12777,7 +16188,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F94" t="s">
         <v>154</v>
       </c>
@@ -12800,7 +16211,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F95" t="s">
         <v>154</v>
       </c>
@@ -12823,7 +16234,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F96" t="s">
         <v>154</v>
       </c>
@@ -12846,7 +16257,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F97" t="s">
         <v>154</v>
       </c>
@@ -12869,7 +16280,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F98" t="s">
         <v>154</v>
       </c>
@@ -12892,7 +16303,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F99" t="s">
         <v>154</v>
       </c>
@@ -12915,7 +16326,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F100" t="s">
         <v>154</v>
       </c>
@@ -12938,7 +16349,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F101" t="s">
         <v>154</v>
       </c>
@@ -12961,7 +16372,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F102" t="s">
         <v>154</v>
       </c>
@@ -12984,7 +16395,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F103" t="s">
         <v>154</v>
       </c>
@@ -13007,7 +16418,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F104" t="s">
         <v>154</v>
       </c>
@@ -13030,7 +16441,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F105" t="s">
         <v>154</v>
       </c>
@@ -13053,7 +16464,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F106" t="s">
         <v>154</v>
       </c>
@@ -13076,7 +16487,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F107" t="s">
         <v>154</v>
       </c>
@@ -13099,7 +16510,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F108" t="s">
         <v>154</v>
       </c>
@@ -13122,7 +16533,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F109" t="s">
         <v>154</v>
       </c>
@@ -13145,7 +16556,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F110" t="s">
         <v>154</v>
       </c>
@@ -13168,7 +16579,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F111" t="s">
         <v>154</v>
       </c>
@@ -13191,7 +16602,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>154</v>
       </c>
@@ -13214,7 +16625,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F113" t="s">
         <v>154</v>
       </c>
@@ -13237,7 +16648,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F114" t="s">
         <v>154</v>
       </c>
@@ -13260,7 +16671,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F115" t="s">
         <v>154</v>
       </c>
@@ -13283,7 +16694,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F116" t="s">
         <v>154</v>
       </c>
@@ -13306,7 +16717,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F117" t="s">
         <v>154</v>
       </c>
@@ -13329,7 +16740,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F118" t="s">
         <v>154</v>
       </c>
@@ -13352,7 +16763,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F119" t="s">
         <v>154</v>
       </c>
@@ -13375,7 +16786,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F120" t="s">
         <v>154</v>
       </c>
@@ -13398,7 +16809,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F121" t="s">
         <v>154</v>
       </c>
@@ -13421,7 +16832,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F122" t="s">
         <v>154</v>
       </c>
@@ -13444,7 +16855,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F123" t="s">
         <v>154</v>
       </c>
@@ -13467,7 +16878,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F124" t="s">
         <v>154</v>
       </c>
@@ -13490,7 +16901,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F125" t="s">
         <v>154</v>
       </c>
@@ -13513,7 +16924,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F126" t="s">
         <v>154</v>
       </c>
@@ -13536,7 +16947,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F127" t="s">
         <v>154</v>
       </c>
@@ -13559,7 +16970,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F128" t="s">
         <v>154</v>
       </c>
@@ -13582,7 +16993,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F129" t="s">
         <v>154</v>
       </c>
@@ -13605,7 +17016,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F130" t="s">
         <v>154</v>
       </c>
@@ -13628,7 +17039,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F131" t="s">
         <v>154</v>
       </c>
@@ -13651,7 +17062,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F132" t="s">
         <v>154</v>
       </c>
@@ -13674,7 +17085,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F133" t="s">
         <v>154</v>
       </c>
@@ -13697,7 +17108,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F134" t="s">
         <v>154</v>
       </c>
@@ -13720,7 +17131,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F135" t="s">
         <v>154</v>
       </c>
@@ -13743,7 +17154,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F136" t="s">
         <v>154</v>
       </c>
@@ -13766,7 +17177,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F137" t="s">
         <v>154</v>
       </c>
@@ -13789,7 +17200,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F138" t="s">
         <v>154</v>
       </c>
@@ -13812,7 +17223,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F139" t="s">
         <v>154</v>
       </c>
@@ -13835,7 +17246,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F140" t="s">
         <v>154</v>
       </c>
@@ -13858,7 +17269,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F141" t="s">
         <v>154</v>
       </c>
@@ -13881,7 +17292,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F142" t="s">
         <v>154</v>
       </c>
@@ -13904,7 +17315,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F143" t="s">
         <v>154</v>
       </c>
@@ -13927,7 +17338,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F144" t="s">
         <v>154</v>
       </c>
@@ -13950,7 +17361,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F145" t="s">
         <v>154</v>
       </c>
@@ -13973,7 +17384,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F146" t="s">
         <v>154</v>
       </c>
@@ -13996,7 +17407,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F147" t="s">
         <v>154</v>
       </c>
@@ -14019,7 +17430,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F148" t="s">
         <v>154</v>
       </c>
@@ -14042,7 +17453,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F149" t="s">
         <v>154</v>
       </c>
@@ -14065,7 +17476,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F150" t="s">
         <v>154</v>
       </c>
@@ -14088,7 +17499,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F151" t="s">
         <v>154</v>
       </c>
@@ -14111,7 +17522,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F152" t="s">
         <v>154</v>
       </c>
@@ -14134,7 +17545,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F153" t="s">
         <v>154</v>
       </c>
@@ -14157,7 +17568,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F154" t="s">
         <v>154</v>
       </c>
@@ -14180,7 +17591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F155" t="s">
         <v>154</v>
       </c>
@@ -14203,7 +17614,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F156" t="s">
         <v>154</v>
       </c>
@@ -14226,7 +17637,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F157" t="s">
         <v>154</v>
       </c>
@@ -14249,7 +17660,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F158" t="s">
         <v>154</v>
       </c>
@@ -14272,7 +17683,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F159" t="s">
         <v>154</v>
       </c>
@@ -14295,7 +17706,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F160" t="s">
         <v>154</v>
       </c>
@@ -14318,7 +17729,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F161" t="s">
         <v>154</v>
       </c>
@@ -14341,7 +17752,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F162" t="s">
         <v>154</v>
       </c>
@@ -14364,7 +17775,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F163" t="s">
         <v>154</v>
       </c>
@@ -14387,7 +17798,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F164" t="s">
         <v>154</v>
       </c>
@@ -14410,7 +17821,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F165" t="s">
         <v>154</v>
       </c>
@@ -14433,7 +17844,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F166" t="s">
         <v>154</v>
       </c>
@@ -14456,7 +17867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F167" t="s">
         <v>154</v>
       </c>
@@ -14479,7 +17890,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F168" t="s">
         <v>154</v>
       </c>
@@ -14502,7 +17913,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F169" t="s">
         <v>154</v>
       </c>
@@ -14525,7 +17936,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F170" t="s">
         <v>154</v>
       </c>
@@ -14548,7 +17959,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F171" t="s">
         <v>154</v>
       </c>
@@ -14571,7 +17982,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F172" t="s">
         <v>154</v>
       </c>
@@ -14594,7 +18005,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F173" t="s">
         <v>154</v>
       </c>
@@ -14617,7 +18028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F174" t="s">
         <v>154</v>
       </c>
@@ -14640,7 +18051,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F175" t="s">
         <v>154</v>
       </c>
@@ -14663,7 +18074,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F176" t="s">
         <v>154</v>
       </c>
@@ -14686,7 +18097,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F177" t="s">
         <v>154</v>
       </c>
@@ -14709,7 +18120,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F178" t="s">
         <v>154</v>
       </c>
@@ -14732,7 +18143,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F179" t="s">
         <v>154</v>
       </c>
@@ -14755,7 +18166,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="180" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F180" t="s">
         <v>154</v>
       </c>
@@ -14778,7 +18189,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F181" t="s">
         <v>154</v>
       </c>
@@ -14801,7 +18212,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F182" t="s">
         <v>154</v>
       </c>
@@ -14824,7 +18235,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F183" t="s">
         <v>154</v>
       </c>
@@ -14847,7 +18258,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F184" t="s">
         <v>154</v>
       </c>
@@ -14870,7 +18281,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F185" t="s">
         <v>154</v>
       </c>
@@ -14893,7 +18304,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F186" t="s">
         <v>154</v>
       </c>
@@ -14916,7 +18327,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="187" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F187" t="s">
         <v>154</v>
       </c>
@@ -14939,7 +18350,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="188" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F188" t="s">
         <v>154</v>
       </c>
@@ -14962,7 +18373,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="189" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F189" t="s">
         <v>154</v>
       </c>
@@ -14985,7 +18396,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F190" t="s">
         <v>154</v>
       </c>
@@ -15008,7 +18419,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F191" t="s">
         <v>154</v>
       </c>
@@ -15031,7 +18442,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="192" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F192" t="s">
         <v>154</v>
       </c>
@@ -15054,7 +18465,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F193" t="s">
         <v>154</v>
       </c>
@@ -15077,7 +18488,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="194" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F194" t="s">
         <v>154</v>
       </c>
@@ -15100,7 +18511,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F195" t="s">
         <v>154</v>
       </c>
@@ -15123,7 +18534,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="196" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F196" t="s">
         <v>154</v>
       </c>
@@ -15146,7 +18557,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F197" t="s">
         <v>154</v>
       </c>
@@ -15169,7 +18580,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="198" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F198" t="s">
         <v>154</v>
       </c>
@@ -15192,7 +18603,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F199" t="s">
         <v>154</v>
       </c>
@@ -15215,7 +18626,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F200" t="s">
         <v>154</v>
       </c>
@@ -15238,7 +18649,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="201" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F201" t="s">
         <v>154</v>
       </c>
@@ -15261,7 +18672,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F202" t="s">
         <v>154</v>
       </c>
@@ -15284,7 +18695,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="203" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F203" t="s">
         <v>154</v>
       </c>
@@ -15307,7 +18718,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F204" t="s">
         <v>154</v>
       </c>
@@ -15330,7 +18741,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="205" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F205" t="s">
         <v>154</v>
       </c>
@@ -15353,7 +18764,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F206" t="s">
         <v>154</v>
       </c>
@@ -15376,7 +18787,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="207" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F207" t="s">
         <v>154</v>
       </c>
@@ -15399,7 +18810,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="208" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F208" t="s">
         <v>154</v>
       </c>
@@ -15422,7 +18833,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F209" t="s">
         <v>154</v>
       </c>
@@ -15445,7 +18856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="210" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F210" t="s">
         <v>154</v>
       </c>
@@ -15468,7 +18879,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="211" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F211" t="s">
         <v>154</v>
       </c>
@@ -15491,7 +18902,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F212" t="s">
         <v>154</v>
       </c>
@@ -15514,7 +18925,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F213" t="s">
         <v>154</v>
       </c>
@@ -15537,7 +18948,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="214" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F214" t="s">
         <v>154</v>
       </c>
@@ -15560,7 +18971,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="215" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F215" t="s">
         <v>154</v>
       </c>
@@ -15583,7 +18994,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:12" x14ac:dyDescent="0.45">
       <c r="F216" t="s">
         <v>154</v>
       </c>
@@ -15608,10 +19019,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2523A896-A3FC-4F9A-B5DF-A205D08521A3}">
   <dimension ref="C3:N33"/>
   <sheetViews>
@@ -15619,18 +19031,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="4" max="4" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" customWidth="1"/>
+    <col min="11" max="11" width="12.46484375" customWidth="1"/>
+    <col min="12" max="12" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -15638,7 +19050,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -15671,7 +19083,7 @@
       </c>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -15687,7 +19099,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -15704,7 +19116,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -15721,7 +19133,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -15738,7 +19150,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -15755,7 +19167,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -15772,7 +19184,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -15789,7 +19201,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -15806,7 +19218,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -15823,7 +19235,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -15840,7 +19252,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -15857,7 +19269,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.45">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -15874,7 +19286,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -15891,7 +19303,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -15908,7 +19320,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -15925,7 +19337,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -15942,7 +19354,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -15959,7 +19371,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -15976,7 +19388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -15993,7 +19405,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -16010,7 +19422,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -16027,7 +19439,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -16044,7 +19456,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -16061,7 +19473,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -16078,7 +19490,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -16095,7 +19507,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -16112,7 +19524,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -16129,7 +19541,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -16146,7 +19558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -16165,5 +19577,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91D4AA2-C4C2-43CB-8591-E99860A500A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC1044B-4B42-4BA8-BA39-45FC97AB4618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="204">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -712,9 +712,6 @@
   </si>
   <si>
     <t>Val_Cond</t>
-  </si>
-  <si>
-    <t>IE,National</t>
   </si>
   <si>
     <t>TS_Filter</t>
@@ -1113,7 +1110,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1219,6 +1216,8 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2320,7 +2319,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="56"/>
       <c r="C16" s="56"/>
@@ -2406,10 +2405,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B19" s="55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="55"/>
@@ -2438,10 +2437,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="55"/>
       <c r="D20" s="55"/>
@@ -2470,10 +2469,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="50" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
@@ -2530,10 +2529,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -2563,7 +2562,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
       <c r="B24" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -2593,7 +2592,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47"/>
       <c r="B25" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="50"/>
       <c r="D25" s="50"/>
@@ -2622,10 +2621,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C26" s="55"/>
       <c r="D26" s="55"/>
@@ -2655,7 +2654,7 @@
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
@@ -2685,7 +2684,7 @@
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47"/>
       <c r="B28" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C28" s="50"/>
       <c r="D28" s="50"/>
@@ -2714,7 +2713,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B29" s="51">
         <v>1</v>
@@ -2746,10 +2745,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>191</v>
-      </c>
-      <c r="B30" s="57" t="s">
-        <v>192</v>
       </c>
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
@@ -2778,10 +2777,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B31" s="55" t="s">
         <v>193</v>
-      </c>
-      <c r="B31" s="55" t="s">
-        <v>194</v>
       </c>
       <c r="C31" s="55"/>
       <c r="D31" s="55"/>
@@ -2811,7 +2810,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -4741,8 +4740,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:AK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15:AK20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5801,38 +5800,114 @@
       <c r="I15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="21">
-        <v>1.1293662452688</v>
-      </c>
-      <c r="K15" s="21">
-        <v>1.1293662452688</v>
-      </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
+      <c r="J15" s="58">
+        <v>1.1425141342482663</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="59">
+        <f>$J$15*SUM(L$22:L$24)/SUM($L$22:$AK$24)</f>
+        <v>1.4041705189844668E-2</v>
+      </c>
+      <c r="M15" s="59">
+        <f>$J$15*SUM(M$22:M$24)/SUM($L$22:$AK$24)</f>
+        <v>0.31881130868475915</v>
+      </c>
+      <c r="N15" s="59">
+        <f t="shared" ref="N15:AK15" si="0">$J$15*SUM(N$22:N$24)/SUM($L$22:$AK$24)</f>
+        <v>5.0436552456598727E-2</v>
+      </c>
+      <c r="O15" s="59">
+        <f t="shared" si="0"/>
+        <v>2.3385393905283026E-2</v>
+      </c>
+      <c r="P15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.9453584109763281E-2</v>
+      </c>
+      <c r="Q15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.0083394761624124E-2</v>
+      </c>
+      <c r="R15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.0732675135525432E-2</v>
+      </c>
+      <c r="S15" s="59">
+        <f t="shared" si="0"/>
+        <v>4.4466580175074877E-2</v>
+      </c>
+      <c r="T15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.8215868103309798E-2</v>
+      </c>
+      <c r="U15" s="59">
+        <f t="shared" si="0"/>
+        <v>2.127305384174771E-2</v>
+      </c>
+      <c r="V15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.6545672349041602E-2</v>
+      </c>
+      <c r="W15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.3403782707983172E-2</v>
+      </c>
+      <c r="X15" s="59">
+        <f t="shared" si="0"/>
+        <v>2.9160361834907625E-2</v>
+      </c>
+      <c r="Y15" s="59">
+        <f t="shared" si="0"/>
+        <v>0.13193706028150826</v>
+      </c>
+      <c r="Z15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.6570010687352869E-2</v>
+      </c>
+      <c r="AA15" s="59">
+        <f t="shared" si="0"/>
+        <v>4.7838889228925069E-2</v>
+      </c>
+      <c r="AB15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.9452106409371739E-2</v>
+      </c>
+      <c r="AC15" s="59">
+        <f t="shared" si="0"/>
+        <v>2.9346234014973473E-2</v>
+      </c>
+      <c r="AD15" s="59">
+        <f t="shared" si="0"/>
+        <v>6.1767016382238742E-2</v>
+      </c>
+      <c r="AE15" s="59">
+        <f t="shared" si="0"/>
+        <v>8.2374731847349811E-3</v>
+      </c>
+      <c r="AF15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.283843807482361E-2</v>
+      </c>
+      <c r="AG15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.6053033465432888E-2</v>
+      </c>
+      <c r="AH15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.6671832404204417E-2</v>
+      </c>
+      <c r="AI15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.8027629152429454E-2</v>
+      </c>
+      <c r="AJ15" s="59">
+        <f t="shared" si="0"/>
+        <v>3.9260196852284074E-2</v>
+      </c>
+      <c r="AK15" s="59">
+        <f t="shared" si="0"/>
+        <v>1.4504280854523488E-2</v>
+      </c>
     </row>
     <row r="16" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
@@ -5850,38 +5925,114 @@
       <c r="I16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J16" s="21">
-        <v>2.0006897535500099</v>
-      </c>
-      <c r="K16" s="21">
-        <v>2.0006897535500099</v>
-      </c>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="22"/>
-      <c r="AJ16" s="22"/>
-      <c r="AK16" s="22"/>
+      <c r="J16" s="58">
+        <v>2.0006897535500086</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="59">
+        <f>$J$16*SUM(L$22:L$24)/SUM($L$22:$AK$24)</f>
+        <v>2.4588838644150748E-2</v>
+      </c>
+      <c r="M16" s="59">
+        <f t="shared" ref="M16:AK16" si="1">$J$16*SUM(M$22:M$24)/SUM($L$22:$AK$24)</f>
+        <v>0.55827976169515325</v>
+      </c>
+      <c r="N16" s="59">
+        <f t="shared" si="1"/>
+        <v>8.8320914971173101E-2</v>
+      </c>
+      <c r="O16" s="59">
+        <f t="shared" si="1"/>
+        <v>4.0950843903401417E-2</v>
+      </c>
+      <c r="P16" s="59">
+        <f t="shared" si="1"/>
+        <v>3.4065737334475099E-2</v>
+      </c>
+      <c r="Q16" s="59">
+        <f t="shared" si="1"/>
+        <v>1.7657326045996641E-2</v>
+      </c>
+      <c r="R16" s="59">
+        <f t="shared" si="1"/>
+        <v>5.3816881909546629E-2</v>
+      </c>
+      <c r="S16" s="59">
+        <f t="shared" si="1"/>
+        <v>7.786672275193976E-2</v>
+      </c>
+      <c r="T16" s="59">
+        <f t="shared" si="1"/>
+        <v>3.1898336811639887E-2</v>
+      </c>
+      <c r="U16" s="59">
+        <f t="shared" si="1"/>
+        <v>3.725186373812852E-2</v>
+      </c>
+      <c r="V16" s="59">
+        <f t="shared" si="1"/>
+        <v>6.3996190518405716E-2</v>
+      </c>
+      <c r="W16" s="59">
+        <f t="shared" si="1"/>
+        <v>5.849433612271681E-2</v>
+      </c>
+      <c r="X16" s="59">
+        <f t="shared" si="1"/>
+        <v>5.1063558326389209E-2</v>
+      </c>
+      <c r="Y16" s="59">
+        <f t="shared" si="1"/>
+        <v>0.23103882630949071</v>
+      </c>
+      <c r="Z16" s="59">
+        <f t="shared" si="1"/>
+        <v>6.4038810090994033E-2</v>
+      </c>
+      <c r="AA16" s="59">
+        <f t="shared" si="1"/>
+        <v>8.3772071287764455E-2</v>
+      </c>
+      <c r="AB16" s="59">
+        <f t="shared" si="1"/>
+        <v>6.908573179370664E-2</v>
+      </c>
+      <c r="AC16" s="59">
+        <f t="shared" si="1"/>
+        <v>5.1389044510743866E-2</v>
+      </c>
+      <c r="AD16" s="59">
+        <f t="shared" si="1"/>
+        <v>0.10816202012643773</v>
+      </c>
+      <c r="AE16" s="59">
+        <f t="shared" si="1"/>
+        <v>1.442487904684514E-2</v>
+      </c>
+      <c r="AF16" s="59">
+        <f t="shared" si="1"/>
+        <v>5.750434468113956E-2</v>
+      </c>
+      <c r="AG16" s="59">
+        <f t="shared" si="1"/>
+        <v>2.8110934127584253E-2</v>
+      </c>
+      <c r="AH16" s="59">
+        <f t="shared" si="1"/>
+        <v>2.9194530959515259E-2</v>
+      </c>
+      <c r="AI16" s="59">
+        <f t="shared" si="1"/>
+        <v>3.1568706106026682E-2</v>
+      </c>
+      <c r="AJ16" s="59">
+        <f t="shared" si="1"/>
+        <v>6.8749673382730178E-2</v>
+      </c>
+      <c r="AK16" s="59">
+        <f t="shared" si="1"/>
+        <v>2.5398868353913091E-2</v>
+      </c>
     </row>
     <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
@@ -5899,38 +6050,114 @@
       <c r="I17" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="21">
-        <v>0.77162665337257497</v>
-      </c>
-      <c r="K17" s="21">
-        <v>0.77162665337257497</v>
-      </c>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="22"/>
-      <c r="AJ17" s="22"/>
-      <c r="AK17" s="22"/>
+      <c r="J17" s="58">
+        <v>0.78060979910996586</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="59">
+        <f>$J$17*SUM(L$22:L$24)/SUM($L$22:$AK$24)</f>
+        <v>9.5938355061296644E-3</v>
+      </c>
+      <c r="M17" s="59">
+        <f t="shared" ref="M17:AK17" si="2">$J$17*SUM(M$22:M$24)/SUM($L$22:$AK$24)</f>
+        <v>0.21782420380308112</v>
+      </c>
+      <c r="N17" s="59">
+        <f t="shared" si="2"/>
+        <v>3.4460201323329519E-2</v>
+      </c>
+      <c r="O17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.5977804642672063E-2</v>
+      </c>
+      <c r="P17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.3291440279539966E-2</v>
+      </c>
+      <c r="Q17" s="59">
+        <f t="shared" si="2"/>
+        <v>6.8893648868482982E-3</v>
+      </c>
+      <c r="R17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.0997751051403026E-2</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" si="2"/>
+        <v>3.0381285602572458E-2</v>
+      </c>
+      <c r="T17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.2445784883085245E-2</v>
+      </c>
+      <c r="U17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.4534572298125917E-2</v>
+      </c>
+      <c r="V17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.4969415340751429E-2</v>
+      </c>
+      <c r="W17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.2822754946789633E-2</v>
+      </c>
+      <c r="X17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.9923485855952508E-2</v>
+      </c>
+      <c r="Y17" s="59">
+        <f t="shared" si="2"/>
+        <v>9.0144497152564562E-2</v>
+      </c>
+      <c r="Z17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.4986044233830575E-2</v>
+      </c>
+      <c r="AA17" s="59">
+        <f t="shared" si="2"/>
+        <v>3.2685377441921806E-2</v>
+      </c>
+      <c r="AB17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.6955203384812221E-2</v>
+      </c>
+      <c r="AC17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.005048091079863E-2</v>
+      </c>
+      <c r="AD17" s="59">
+        <f t="shared" si="2"/>
+        <v>4.2201612045251177E-2</v>
+      </c>
+      <c r="AE17" s="59">
+        <f t="shared" si="2"/>
+        <v>5.628159945820348E-3</v>
+      </c>
+      <c r="AF17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.2436489650554191E-2</v>
+      </c>
+      <c r="AG17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.0968052694422185E-2</v>
+      </c>
+      <c r="AH17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.139084003753171E-2</v>
+      </c>
+      <c r="AI17" s="59">
+        <f t="shared" si="2"/>
+        <v>1.2317172758975235E-2</v>
+      </c>
+      <c r="AJ17" s="59">
+        <f t="shared" si="2"/>
+        <v>2.6824083360722496E-2</v>
+      </c>
+      <c r="AK17" s="59">
+        <f t="shared" si="2"/>
+        <v>9.9098850724798244E-3</v>
+      </c>
     </row>
     <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
@@ -5948,38 +6175,114 @@
       <c r="I18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="21">
-        <v>1.0288379823457801</v>
-      </c>
-      <c r="K18" s="21">
-        <v>1.0288379823457801</v>
-      </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="22"/>
-      <c r="AJ18" s="22"/>
-      <c r="AK18" s="22"/>
+      <c r="J18" s="58">
+        <v>1.0408155384542712</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="59">
+        <f>$J$18*SUM(L$22:L$24)/SUM($L$22:$AK$24)</f>
+        <v>1.2791811068140832E-2</v>
+      </c>
+      <c r="M18" s="59">
+        <f t="shared" ref="M18:AK18" si="3">$J$18*SUM(M$22:M$24)/SUM($L$22:$AK$24)</f>
+        <v>0.29043296180520928</v>
+      </c>
+      <c r="N18" s="59">
+        <f t="shared" si="3"/>
+        <v>4.5947044267799664E-2</v>
+      </c>
+      <c r="O18" s="59">
+        <f t="shared" si="3"/>
+        <v>2.1303790141298479E-2</v>
+      </c>
+      <c r="P18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.7721962480044873E-2</v>
+      </c>
+      <c r="Q18" s="59">
+        <f t="shared" si="3"/>
+        <v>9.1858416746608534E-3</v>
+      </c>
+      <c r="R18" s="59">
+        <f t="shared" si="3"/>
+        <v>2.7997067922812559E-2</v>
+      </c>
+      <c r="S18" s="59">
+        <f t="shared" si="3"/>
+        <v>4.0508477051438986E-2</v>
+      </c>
+      <c r="T18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.6594419272399599E-2</v>
+      </c>
+      <c r="U18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.9379475776405645E-2</v>
+      </c>
+      <c r="V18" s="59">
+        <f t="shared" si="3"/>
+        <v>3.3292632890855482E-2</v>
+      </c>
+      <c r="W18" s="59">
+        <f t="shared" si="3"/>
+        <v>3.0430412231612823E-2</v>
+      </c>
+      <c r="X18" s="59">
+        <f t="shared" si="3"/>
+        <v>2.6564710925602988E-2</v>
+      </c>
+      <c r="Y18" s="59">
+        <f t="shared" si="3"/>
+        <v>0.12019294844813866</v>
+      </c>
+      <c r="Z18" s="59">
+        <f t="shared" si="3"/>
+        <v>3.3314804800974727E-2</v>
+      </c>
+      <c r="AA18" s="59">
+        <f t="shared" si="3"/>
+        <v>4.3580606803275038E-2</v>
+      </c>
+      <c r="AB18" s="59">
+        <f t="shared" si="3"/>
+        <v>3.5940356573919349E-2</v>
+      </c>
+      <c r="AC18" s="59">
+        <f t="shared" si="3"/>
+        <v>2.6734038067718558E-2</v>
+      </c>
+      <c r="AD18" s="59">
+        <f t="shared" si="3"/>
+        <v>5.6268949755175567E-2</v>
+      </c>
+      <c r="AE18" s="59">
+        <f t="shared" si="3"/>
+        <v>7.5042310911223363E-3</v>
+      </c>
+      <c r="AF18" s="59">
+        <f t="shared" si="3"/>
+        <v>2.9915390612942554E-2</v>
+      </c>
+      <c r="AG18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.4624105006055264E-2</v>
+      </c>
+      <c r="AH18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.5187822802926271E-2</v>
+      </c>
+      <c r="AI18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.6422936032809303E-2</v>
+      </c>
+      <c r="AJ18" s="59">
+        <f t="shared" si="3"/>
+        <v>3.5765529459744393E-2</v>
+      </c>
+      <c r="AK18" s="59">
+        <f t="shared" si="3"/>
+        <v>1.3213211491187071E-2</v>
+      </c>
     </row>
     <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
@@ -5997,38 +6300,114 @@
       <c r="I19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="21">
-        <v>0.83034086441921995</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0.83034086441921995</v>
-      </c>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
-      <c r="AG19" s="22"/>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
-      <c r="AK19" s="22"/>
+      <c r="J19" s="58">
+        <v>0.840007550975714</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="59">
+        <f>$J$19*SUM(L$22:L$24)/SUM($L$22:$AK$24)</f>
+        <v>1.0323844611169888E-2</v>
+      </c>
+      <c r="M19" s="59">
+        <f t="shared" ref="M19:AK19" si="4">$J$19*SUM(M$22:M$24)/SUM($L$22:$AK$24)</f>
+        <v>0.23439876899890816</v>
+      </c>
+      <c r="N19" s="59">
+        <f t="shared" si="4"/>
+        <v>3.7082328908431113E-2</v>
+      </c>
+      <c r="O19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.7193579382634223E-2</v>
+      </c>
+      <c r="P19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.4302805589791868E-2</v>
+      </c>
+      <c r="Q19" s="59">
+        <f t="shared" si="4"/>
+        <v>7.4135868304213729E-3</v>
+      </c>
+      <c r="R19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.2595500923505634E-2</v>
+      </c>
+      <c r="S19" s="59">
+        <f t="shared" si="4"/>
+        <v>3.2693042469628918E-2</v>
+      </c>
+      <c r="T19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.3392803025956182E-2</v>
+      </c>
+      <c r="U19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.5640529358648601E-2</v>
+      </c>
+      <c r="V19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.6869375011170361E-2</v>
+      </c>
+      <c r="W19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.4559372059164898E-2</v>
+      </c>
+      <c r="X19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.1439493303619585E-2</v>
+      </c>
+      <c r="Y19" s="59">
+        <f t="shared" si="4"/>
+        <v>9.7003725002427099E-2</v>
+      </c>
+      <c r="Z19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.6887269221269664E-2</v>
+      </c>
+      <c r="AA19" s="59">
+        <f t="shared" si="4"/>
+        <v>3.5172456058084681E-2</v>
+      </c>
+      <c r="AB19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.9006264598708541E-2</v>
+      </c>
+      <c r="AC19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.1576151599645269E-2</v>
+      </c>
+      <c r="AD19" s="59">
+        <f t="shared" si="4"/>
+        <v>4.5412794999214169E-2</v>
+      </c>
+      <c r="AE19" s="59">
+        <f t="shared" si="4"/>
+        <v>6.0564149437767421E-3</v>
+      </c>
+      <c r="AF19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.4143715266375994E-2</v>
+      </c>
+      <c r="AG19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.1802628013789862E-2</v>
+      </c>
+      <c r="AH19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.2257585869909382E-2</v>
+      </c>
+      <c r="AI19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.3254404615479384E-2</v>
+      </c>
+      <c r="AJ19" s="59">
+        <f t="shared" si="4"/>
+        <v>2.8865167458440678E-2</v>
+      </c>
+      <c r="AK19" s="59">
+        <f t="shared" si="4"/>
+        <v>1.0663942855541701E-2</v>
+      </c>
     </row>
     <row r="20" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
@@ -6046,38 +6425,114 @@
       <c r="I20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="J20" s="21">
-        <v>9.2169270601308995</v>
-      </c>
-      <c r="K20" s="21">
-        <v>9.2169270601308995</v>
-      </c>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
-      <c r="AB20" s="22"/>
-      <c r="AC20" s="22"/>
-      <c r="AD20" s="22"/>
-      <c r="AE20" s="22"/>
-      <c r="AF20" s="22"/>
-      <c r="AG20" s="22"/>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="22"/>
-      <c r="AJ20" s="22"/>
-      <c r="AK20" s="22"/>
+      <c r="J20" s="58">
+        <v>9.2169270601309012</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="59">
+        <f>$J$20*SUM(L$22:L$24)/SUM($L$22:$AK$24)</f>
+        <v>0.11327769929062147</v>
+      </c>
+      <c r="M20" s="59">
+        <f t="shared" ref="M20:AK20" si="5">$J$20*SUM(M$22:M$24)/SUM($L$22:$AK$24)</f>
+        <v>2.5719249241723428</v>
+      </c>
+      <c r="N20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.40688339095498754</v>
+      </c>
+      <c r="O20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.18865540778560433</v>
+      </c>
+      <c r="P20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.15693658434762753</v>
+      </c>
+      <c r="Q20" s="59">
+        <f t="shared" si="5"/>
+        <v>8.1345089089462683E-2</v>
+      </c>
+      <c r="R20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.24792763309944699</v>
+      </c>
+      <c r="S20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.3587222370397995</v>
+      </c>
+      <c r="T20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.14695164165793007</v>
+      </c>
+      <c r="U20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.17161466955035495</v>
+      </c>
+      <c r="V20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.29482243265741925</v>
+      </c>
+      <c r="W20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.26947607869596907</v>
+      </c>
+      <c r="X20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.23524341627178985</v>
+      </c>
+      <c r="Y20" s="59">
+        <f t="shared" si="5"/>
+        <v>1.064366929642298</v>
+      </c>
+      <c r="Z20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.29501877568920798</v>
+      </c>
+      <c r="AA20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.38592743795751716</v>
+      </c>
+      <c r="AB20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.31826931172536954</v>
+      </c>
+      <c r="AC20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.2367428903481448</v>
+      </c>
+      <c r="AD20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.49828887683003192</v>
+      </c>
+      <c r="AE20" s="59">
+        <f t="shared" si="5"/>
+        <v>6.6453610706043414E-2</v>
+      </c>
+      <c r="AF20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.2649153121448431</v>
+      </c>
+      <c r="AG20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.12950355195569418</v>
+      </c>
+      <c r="AH20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.13449554681385517</v>
+      </c>
+      <c r="AI20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.14543307429133792</v>
+      </c>
+      <c r="AJ20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.31672113272539343</v>
+      </c>
+      <c r="AK20" s="59">
+        <f t="shared" si="5"/>
+        <v>0.11700940468780809</v>
+      </c>
     </row>
     <row r="21" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
@@ -6098,9 +6553,7 @@
       <c r="J21" s="21">
         <v>0</v>
       </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
+      <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -6144,38 +6597,88 @@
       <c r="I22" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J22" s="21">
-        <v>206.79888500000001</v>
-      </c>
-      <c r="K22" s="21">
-        <v>206.79888500000001</v>
-      </c>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="22"/>
-      <c r="AF22" s="22"/>
-      <c r="AG22" s="22"/>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="22"/>
-      <c r="AJ22" s="22"/>
-      <c r="AK22" s="22"/>
+      <c r="J22" s="58">
+        <v>211.739</v>
+      </c>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22">
+        <v>1.272084432974631</v>
+      </c>
+      <c r="M22" s="22">
+        <v>123.31467820831671</v>
+      </c>
+      <c r="N22" s="22">
+        <v>7.3637968231969131</v>
+      </c>
+      <c r="O22" s="22">
+        <v>1.7513817529766174</v>
+      </c>
+      <c r="P22" s="22">
+        <v>1.4349997251520255</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>0.69143208570294923</v>
+      </c>
+      <c r="R22" s="22">
+        <v>3.0388153054039786</v>
+      </c>
+      <c r="S22" s="22">
+        <v>5.4114225176697692</v>
+      </c>
+      <c r="T22" s="22">
+        <v>1.1752936766265591</v>
+      </c>
+      <c r="U22" s="22">
+        <v>2.8889605821519497</v>
+      </c>
+      <c r="V22" s="22">
+        <v>2.6689797196485481</v>
+      </c>
+      <c r="W22" s="22">
+        <v>4.5131911767694204</v>
+      </c>
+      <c r="X22" s="22">
+        <v>2.4912235846235253</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>18.164569738528382</v>
+      </c>
+      <c r="Z22" s="22">
+        <v>2.9060721193547803</v>
+      </c>
+      <c r="AA22" s="22">
+        <v>7.461125800292038</v>
+      </c>
+      <c r="AB22" s="22">
+        <v>2.3822341251096568</v>
+      </c>
+      <c r="AC22" s="22">
+        <v>3.1991719442467104</v>
+      </c>
+      <c r="AD22" s="22">
+        <v>9.8815892011882625</v>
+      </c>
+      <c r="AE22" s="22">
+        <v>0.54302409251525863</v>
+      </c>
+      <c r="AF22" s="22">
+        <v>2.1413166117916522</v>
+      </c>
+      <c r="AG22" s="22">
+        <v>0.67645175529921286</v>
+      </c>
+      <c r="AH22" s="22">
+        <v>1.6760939551367242</v>
+      </c>
+      <c r="AI22" s="22">
+        <v>1.271052567009926</v>
+      </c>
+      <c r="AJ22" s="22">
+        <v>2.3929923596273825</v>
+      </c>
+      <c r="AK22" s="22">
+        <v>1.0275356632394301</v>
+      </c>
     </row>
     <row r="23" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
@@ -6193,38 +6696,88 @@
       <c r="I23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="21">
-        <v>766.351721</v>
-      </c>
-      <c r="K23" s="21">
-        <v>766.351721</v>
-      </c>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
-      <c r="AB23" s="22"/>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="22"/>
-      <c r="AF23" s="22"/>
-      <c r="AG23" s="22"/>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="22"/>
-      <c r="AK23" s="22"/>
+      <c r="J23" s="58">
+        <v>776.10400000000004</v>
+      </c>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22">
+        <v>9.0173696255538793</v>
+      </c>
+      <c r="M23" s="22">
+        <v>299.73987494657928</v>
+      </c>
+      <c r="N23" s="22">
+        <v>38.144204386107944</v>
+      </c>
+      <c r="O23" s="22">
+        <v>12.508441600918088</v>
+      </c>
+      <c r="P23" s="22">
+        <v>11.510583914522281</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>4.7462770797513549</v>
+      </c>
+      <c r="R23" s="22">
+        <v>24.289540001760251</v>
+      </c>
+      <c r="S23" s="22">
+        <v>27.103374443441172</v>
+      </c>
+      <c r="T23" s="22">
+        <v>10.239258420802399</v>
+      </c>
+      <c r="U23" s="22">
+        <v>12.264197780781444</v>
+      </c>
+      <c r="V23" s="22">
+        <v>18.38550107756636</v>
+      </c>
+      <c r="W23" s="22">
+        <v>23.167339151815657</v>
+      </c>
+      <c r="X23" s="22">
+        <v>15.118989670799881</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>91.446903647123108</v>
+      </c>
+      <c r="Z23" s="22">
+        <v>15.686699374231551</v>
+      </c>
+      <c r="AA23" s="22">
+        <v>31.695949118274743</v>
+      </c>
+      <c r="AB23" s="22">
+        <v>21.954232438086233</v>
+      </c>
+      <c r="AC23" s="22">
+        <v>21.769226916806353</v>
+      </c>
+      <c r="AD23" s="22">
+        <v>27.589465054026704</v>
+      </c>
+      <c r="AE23" s="22">
+        <v>2.7377793125602312</v>
+      </c>
+      <c r="AF23" s="22">
+        <v>12.519701036831018</v>
+      </c>
+      <c r="AG23" s="22">
+        <v>5.3722948402948401</v>
+      </c>
+      <c r="AH23" s="22">
+        <v>8.8895641738149855</v>
+      </c>
+      <c r="AI23" s="22">
+        <v>7.7068792520168046</v>
+      </c>
+      <c r="AJ23" s="22">
+        <v>15.881582138278784</v>
+      </c>
+      <c r="AK23" s="22">
+        <v>6.6191242565355708</v>
+      </c>
     </row>
     <row r="24" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
@@ -6242,38 +6795,88 @@
       <c r="I24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="21">
-        <v>724.42972899999995</v>
-      </c>
-      <c r="K24" s="21">
-        <v>724.42972899999995</v>
-      </c>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="22"/>
-      <c r="AE24" s="22"/>
-      <c r="AF24" s="22"/>
-      <c r="AG24" s="22"/>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="22"/>
-      <c r="AK24" s="22"/>
+      <c r="J24" s="58">
+        <v>729.49900000000002</v>
+      </c>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22">
+        <v>10.817005161415981</v>
+      </c>
+      <c r="M24" s="22">
+        <v>56.159174425610253</v>
+      </c>
+      <c r="N24" s="22">
+        <v>30.304517514538837</v>
+      </c>
+      <c r="O24" s="22">
+        <v>20.891382011189211</v>
+      </c>
+      <c r="P24" s="22">
+        <v>16.295614216511488</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>9.7189087422298659</v>
+      </c>
+      <c r="R24" s="22">
+        <v>18.866743201020949</v>
+      </c>
+      <c r="S24" s="22">
+        <v>34.324098203443661</v>
+      </c>
+      <c r="T24" s="22">
+        <v>15.966202026112715</v>
+      </c>
+      <c r="U24" s="22">
+        <v>16.822932669034671</v>
+      </c>
+      <c r="V24" s="22">
+        <v>33.878287885206944</v>
+      </c>
+      <c r="W24" s="22">
+        <v>22.529580764463226</v>
+      </c>
+      <c r="X24" s="22">
+        <v>26.221499459384844</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>88.706618668082697</v>
+      </c>
+      <c r="Z24" s="22">
+        <v>36.376580790193238</v>
+      </c>
+      <c r="AA24" s="22">
+        <v>32.750827361563516</v>
+      </c>
+      <c r="AB24" s="22">
+        <v>34.965040184897767</v>
+      </c>
+      <c r="AC24" s="22">
+        <v>19.142703253806058</v>
+      </c>
+      <c r="AD24" s="22">
+        <v>55.372585087977008</v>
+      </c>
+      <c r="AE24" s="22">
+        <v>9.101160857693543</v>
+      </c>
+      <c r="AF24" s="22">
+        <v>34.699308942923167</v>
+      </c>
+      <c r="AG24" s="22">
+        <v>18.080993461874819</v>
+      </c>
+      <c r="AH24" s="22">
+        <v>14.4942150134912</v>
+      </c>
+      <c r="AI24" s="22">
+        <v>18.119875348525962</v>
+      </c>
+      <c r="AJ24" s="22">
+        <v>40.738467908725752</v>
+      </c>
+      <c r="AK24" s="22">
+        <v>14.155109041449583</v>
+      </c>
     </row>
     <row r="25" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
@@ -7160,7 +7763,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AF39"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
@@ -12239,8 +12842,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12295,7 +12898,7 @@
         <v>2050</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -13382,15 +13985,16 @@
         <v>2050</v>
       </c>
       <c r="AQ33" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="E34" t="s">
-        <v>182</v>
+      <c r="E34" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
+        <v>IE</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>52</v>
@@ -13399,7 +14003,7 @@
         <v>53</v>
       </c>
       <c r="J34" s="1">
-        <v>211.79900000000001</v>
+        <v>211.739</v>
       </c>
       <c r="K34" s="1">
         <v>227.33367966704699</v>
@@ -13505,8 +14109,9 @@
       <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="E35" t="s">
-        <v>182</v>
+      <c r="E35" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
+        <v>IE</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>54</v>
@@ -13515,7 +14120,7 @@
         <v>55</v>
       </c>
       <c r="J35" s="1">
-        <v>788.10400000000004</v>
+        <v>776.10400000000004</v>
       </c>
       <c r="K35" s="1">
         <v>805.70916346620595</v>
@@ -13621,8 +14226,9 @@
       <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="E36" t="s">
-        <v>182</v>
+      <c r="E36" s="3" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
+        <v>IE</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>56</v>
@@ -13631,7 +14237,7 @@
         <v>57</v>
       </c>
       <c r="J36" s="1">
-        <v>735.43899999999996</v>
+        <v>729.49900000000002</v>
       </c>
       <c r="K36" s="1">
         <v>756.93265686674704</v>
@@ -13786,8 +14392,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13872,10 +14478,10 @@
         <v>1.6534164675637491E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K7" t="s">
         <v>155</v>
@@ -13898,10 +14504,10 @@
         <v>2.9990596485367418E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K8" t="s">
         <v>155</v>
@@ -13924,10 +14530,10 @@
         <v>5.2849616307060754E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K9" t="s">
         <v>155</v>
@@ -14266,10 +14872,10 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K22" t="s">
         <v>155</v>
@@ -14289,10 +14895,10 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K23" t="s">
         <v>155</v>
@@ -14312,10 +14918,10 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K24" t="s">
         <v>155</v>
@@ -14620,10 +15226,10 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K37" t="s">
         <v>154</v>
@@ -14643,10 +15249,10 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J38" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K38" t="s">
         <v>154</v>
@@ -14666,10 +15272,10 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K39" t="s">
         <v>154</v>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\times-ireland-model-ILED\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B79FA3-F4C6-431D-804E-E5984AE0C77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5CFBD1-0127-43A5-BDA3-444C363DA30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25260" yWindow="2772" windowWidth="14400" windowHeight="7356" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\veda-info-messages\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\update-rsd\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF13F204-5FC3-40D7-864E-1133C1199044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D811AEE-C4C1-4871-8E9B-972BB353FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -5790,10 +5790,10 @@
         <v>68</v>
       </c>
       <c r="J15" s="20">
-        <v>1.1293662452688</v>
+        <v>1.1544546193487999</v>
       </c>
       <c r="K15" s="20">
-        <v>1.1293662452688</v>
+        <v>1.1544546193487999</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
@@ -5888,10 +5888,10 @@
         <v>70</v>
       </c>
       <c r="J17" s="20">
-        <v>0.77162665337257497</v>
+        <v>0.78876799986757495</v>
       </c>
       <c r="K17" s="20">
-        <v>0.77162665337257497</v>
+        <v>0.78876799986757495</v>
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
@@ -5937,10 +5937,10 @@
         <v>71</v>
       </c>
       <c r="J18" s="20">
-        <v>1.0288379823457801</v>
+        <v>1.05169316530962</v>
       </c>
       <c r="K18" s="20">
-        <v>1.0288379823457801</v>
+        <v>1.05169316530962</v>
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="21"/>
@@ -5986,10 +5986,10 @@
         <v>72</v>
       </c>
       <c r="J19" s="20">
-        <v>0.83034086441921995</v>
+        <v>0.84878652127122001</v>
       </c>
       <c r="K19" s="20">
-        <v>0.83034086441921995</v>
+        <v>0.84878652127122001</v>
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
@@ -6133,10 +6133,10 @@
         <v>52</v>
       </c>
       <c r="J22" s="20">
-        <v>206.79888500000001</v>
+        <v>211.819885</v>
       </c>
       <c r="K22" s="20">
-        <v>206.79888500000001</v>
+        <v>211.819885</v>
       </c>
       <c r="L22" s="21"/>
       <c r="M22" s="21"/>
@@ -6182,10 +6182,10 @@
         <v>54</v>
       </c>
       <c r="J23" s="20">
-        <v>766.351721</v>
+        <v>788.06472099999996</v>
       </c>
       <c r="K23" s="20">
-        <v>766.351721</v>
+        <v>788.06472099999996</v>
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="21"/>
@@ -6231,10 +6231,10 @@
         <v>56</v>
       </c>
       <c r="J24" s="20">
-        <v>724.42972899999995</v>
+        <v>735.40672900000004</v>
       </c>
       <c r="K24" s="20">
-        <v>724.42972899999995</v>
+        <v>735.40672900000004</v>
       </c>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -13411,7 +13411,7 @@
       </c>
       <c r="J34" s="31">
         <f>VLOOKUP(H34,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>206.79888500000001</v>
+        <v>211.819885</v>
       </c>
       <c r="K34" s="1">
         <v>227.33367966704699</v>
@@ -13528,7 +13528,7 @@
       </c>
       <c r="J35" s="31">
         <f>VLOOKUP(H35,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>766.351721</v>
+        <v>788.06472099999996</v>
       </c>
       <c r="K35" s="1">
         <v>805.70916346620595</v>
@@ -13645,7 +13645,7 @@
       </c>
       <c r="J36" s="31">
         <f>VLOOKUP(H36,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>724.42972899999995</v>
+        <v>735.40672900000004</v>
       </c>
       <c r="K36" s="1">
         <v>756.93265686674704</v>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\update-rsd\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D811AEE-C4C1-4871-8E9B-972BB353FC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E720B6E-E630-484F-B6DD-C97CE1C045D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -4732,7 +4732,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -12232,8 +12232,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12282,12 +12282,15 @@
         <v>2020</v>
       </c>
       <c r="K2" s="12">
+        <v>2021</v>
+      </c>
+      <c r="L2" s="12">
         <v>2030</v>
       </c>
-      <c r="L2" s="12">
+      <c r="M2" s="12">
         <v>2050</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -12315,14 +12318,14 @@
       <c r="J3" s="30">
         <v>1.81463172003468</v>
       </c>
-      <c r="K3" s="30">
-        <f>J3*2/3+L3/3</f>
+      <c r="L3" s="30">
+        <f>J3*2/3+M3/3</f>
         <v>1.23293489482708</v>
       </c>
-      <c r="L3" s="30">
+      <c r="M3" s="30">
         <v>6.9541244411880462E-2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="P3" s="1"/>
@@ -12351,14 +12354,14 @@
       <c r="J4" s="30">
         <v>22.997393933436499</v>
       </c>
-      <c r="K4" s="30">
-        <f t="shared" ref="K4:K16" si="0">J4*2/3+L4/3</f>
+      <c r="L4" s="30">
+        <f>J4*2/3+M4/3</f>
         <v>21.564038456241871</v>
       </c>
-      <c r="L4" s="30">
+      <c r="M4" s="30">
         <v>18.697327501852616</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
@@ -12387,14 +12390,14 @@
       <c r="J5" s="30">
         <v>1.3579701788487999</v>
       </c>
-      <c r="K5" s="30">
-        <f t="shared" si="0"/>
+      <c r="L5" s="30">
+        <f>J5*2/3+M5/3</f>
         <v>1.8168912035156706</v>
       </c>
-      <c r="L5" s="30">
+      <c r="M5" s="30">
         <v>2.7347332528494115</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="P5" s="1"/>
@@ -12423,14 +12426,14 @@
       <c r="J6" s="30">
         <v>5.7274313907438001</v>
       </c>
-      <c r="K6" s="30">
-        <f t="shared" si="0"/>
+      <c r="L6" s="30">
+        <f>J6*2/3+M6/3</f>
         <v>5.2212845051183363</v>
       </c>
-      <c r="L6" s="30">
+      <c r="M6" s="30">
         <v>4.2089907338674086</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="P6" s="1"/>
@@ -12459,14 +12462,14 @@
       <c r="J7" s="30">
         <v>1.1453307514123801</v>
       </c>
-      <c r="K7" s="30">
-        <f t="shared" si="0"/>
+      <c r="L7" s="30">
+        <f>J7*2/3+M7/3</f>
         <v>1.1872938839576666</v>
       </c>
-      <c r="L7" s="30">
+      <c r="M7" s="30">
         <v>1.2712201490482398</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0</v>
       </c>
       <c r="P7" s="1"/>
@@ -12495,14 +12498,14 @@
       <c r="J8" s="30">
         <v>10.4827865863979</v>
       </c>
-      <c r="K8" s="30">
-        <f t="shared" si="0"/>
+      <c r="L8" s="30">
+        <f>J8*2/3+M8/3</f>
         <v>9.391476771293469</v>
       </c>
-      <c r="L8" s="30">
+      <c r="M8" s="30">
         <v>7.2088571410846098</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0</v>
       </c>
       <c r="P8" s="1"/>
@@ -12531,14 +12534,14 @@
       <c r="J9" s="30">
         <v>1.05400776614231</v>
       </c>
-      <c r="K9" s="30">
-        <f t="shared" si="0"/>
+      <c r="L9" s="30">
+        <f>J9*2/3+M9/3</f>
         <v>0.86541028956347699</v>
       </c>
-      <c r="L9" s="30">
+      <c r="M9" s="30">
         <v>0.48821533640581133</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="P9" s="1"/>
@@ -12567,14 +12570,14 @@
       <c r="J10" s="30">
         <v>16.2067419529189</v>
       </c>
-      <c r="K10" s="30">
-        <f t="shared" si="0"/>
+      <c r="L10" s="30">
+        <f>J10*2/3+M10/3</f>
         <v>13.7661776960718</v>
       </c>
-      <c r="L10" s="30">
+      <c r="M10" s="30">
         <v>8.8850491823775997</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0</v>
       </c>
       <c r="P10" s="1"/>
@@ -12603,14 +12606,14 @@
       <c r="J11" s="30">
         <v>17.9214706310973</v>
       </c>
-      <c r="K11" s="30">
-        <f t="shared" si="0"/>
+      <c r="L11" s="30">
+        <f>J11*2/3+M11/3</f>
         <v>15.932252704329224</v>
       </c>
-      <c r="L11" s="30">
+      <c r="M11" s="30">
         <v>11.953816850793071</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>0</v>
       </c>
       <c r="P11" s="1"/>
@@ -12639,14 +12642,14 @@
       <c r="J12" s="30">
         <v>2.2861941894738802</v>
       </c>
-      <c r="K12" s="30">
-        <f t="shared" si="0"/>
+      <c r="L12" s="30">
+        <f>J12*2/3+M12/3</f>
         <v>1.8333550602163233</v>
       </c>
-      <c r="L12" s="30">
+      <c r="M12" s="30">
         <v>0.92767680170120992</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>0</v>
       </c>
       <c r="P12" s="1"/>
@@ -12675,14 +12678,14 @@
       <c r="J13" s="30">
         <v>5.7966251432017799</v>
       </c>
-      <c r="K13" s="30">
-        <f t="shared" si="0"/>
+      <c r="L13" s="30">
+        <f>J13*2/3+M13/3</f>
         <v>6.8655407588300337</v>
       </c>
-      <c r="L13" s="30">
+      <c r="M13" s="30">
         <v>9.0033719900865421</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0</v>
       </c>
       <c r="P13" s="1"/>
@@ -12711,14 +12714,14 @@
       <c r="J14" s="30">
         <v>0.19444424313328701</v>
       </c>
-      <c r="K14" s="30">
-        <f t="shared" si="0"/>
+      <c r="L14" s="30">
+        <f>J14*2/3+M14/3</f>
         <v>0.13734812058446252</v>
       </c>
-      <c r="L14" s="30">
+      <c r="M14" s="30">
         <v>2.3155875486813523E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>0</v>
       </c>
       <c r="P14" s="1"/>
@@ -12747,14 +12750,14 @@
       <c r="J15" s="30">
         <v>4.5897245674903298</v>
       </c>
-      <c r="K15" s="30">
-        <f t="shared" si="0"/>
+      <c r="L15" s="30">
+        <f>J15*2/3+M15/3</f>
         <v>4.1809760165229068</v>
       </c>
-      <c r="L15" s="30">
+      <c r="M15" s="30">
         <v>3.3634789145880619</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="P15" s="1"/>
@@ -12783,14 +12786,14 @@
       <c r="J16" s="30">
         <v>3.5251257971202601</v>
       </c>
-      <c r="K16" s="30">
-        <f t="shared" si="0"/>
+      <c r="L16" s="30">
+        <f>J16*2/3+M16/3</f>
         <v>3.4314725583947805</v>
       </c>
-      <c r="L16" s="30">
+      <c r="M16" s="30">
         <v>3.2441660809438213</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0</v>
       </c>
       <c r="P16" s="1"/>
@@ -12819,13 +12822,13 @@
       <c r="J17" s="30">
         <v>10.76129175</v>
       </c>
-      <c r="K17" s="30">
+      <c r="L17" s="30">
         <v>16.798154247711324</v>
       </c>
-      <c r="L17" s="30">
+      <c r="M17" s="30">
         <v>18.550648173612263</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0</v>
       </c>
       <c r="P17" s="1"/>
@@ -12854,13 +12857,13 @@
       <c r="J18" s="30">
         <v>23.13677727</v>
       </c>
-      <c r="K18" s="30">
+      <c r="L18" s="30">
         <v>30.018312954312446</v>
       </c>
-      <c r="L18" s="30">
+      <c r="M18" s="30">
         <v>30.011573675084005</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0</v>
       </c>
       <c r="P18" s="1"/>
@@ -12889,13 +12892,13 @@
       <c r="J19" s="30">
         <v>19.908389740000001</v>
       </c>
-      <c r="K19" s="30">
+      <c r="L19" s="30">
         <v>25.857221286837778</v>
       </c>
-      <c r="L19" s="30">
+      <c r="M19" s="30">
         <v>25.788290151303741</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0</v>
       </c>
       <c r="P19" s="1"/>
@@ -12924,14 +12927,14 @@
       <c r="J20" s="30">
         <v>11.754512350000001</v>
       </c>
-      <c r="K20" s="30">
-        <f t="shared" ref="K20:K25" si="1">(J20*2/3)+(L20/3)</f>
+      <c r="L20" s="30">
+        <f>(J20*2/3)+(M20/3)</f>
         <v>10.986341566666667</v>
       </c>
-      <c r="L20" s="30">
+      <c r="M20" s="30">
         <v>9.4499999999999993</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0</v>
       </c>
       <c r="P20" s="1"/>
@@ -12960,13 +12963,13 @@
       <c r="J21" s="30">
         <v>9.9341345454545458</v>
       </c>
-      <c r="K21" s="30">
-        <v>0</v>
-      </c>
       <c r="L21" s="30">
         <v>0</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="30">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <v>0</v>
       </c>
       <c r="P21" s="1"/>
@@ -12995,15 +12998,15 @@
       <c r="J22" s="30">
         <v>4.4094344637268001</v>
       </c>
-      <c r="K22" s="30">
-        <f t="shared" si="1"/>
+      <c r="L22" s="30">
+        <f>(J22*2/3)+(M22/3)</f>
         <v>4.1107229120604369</v>
       </c>
-      <c r="L22" s="30">
+      <c r="M22" s="30">
         <f>H22</f>
         <v>3.5132998087277101</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="P22" s="1"/>
@@ -13032,13 +13035,13 @@
       <c r="J23" s="30">
         <v>13.57977245</v>
       </c>
-      <c r="K23" s="30">
-        <v>0</v>
-      </c>
       <c r="L23" s="30">
         <v>0</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="30">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="P23" s="1"/>
@@ -13067,15 +13070,15 @@
       <c r="J24" s="30">
         <v>0.23</v>
       </c>
-      <c r="K24" s="30">
-        <f t="shared" si="1"/>
+      <c r="L24" s="30">
+        <f>(J24*2/3)+(M24/3)</f>
         <v>0.23116440009552636</v>
       </c>
-      <c r="L24" s="30">
+      <c r="M24" s="30">
         <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="P24" s="1"/>
@@ -13104,15 +13107,15 @@
       <c r="J25" s="30">
         <v>46.814427170000002</v>
       </c>
-      <c r="K25" s="30">
-        <f t="shared" si="1"/>
+      <c r="L25" s="30">
+        <f>(J25*2/3)+(M25/3)</f>
         <v>46.521563664810671</v>
       </c>
-      <c r="L25" s="30">
+      <c r="M25" s="30">
         <f>H25</f>
         <v>45.935836654432002</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>0</v>
       </c>
       <c r="P25" s="1"/>
@@ -13141,14 +13144,14 @@
       <c r="J26" s="30">
         <v>29.618106901468909</v>
       </c>
-      <c r="K26" s="30">
-        <f>J26*2/3+L26*1/3</f>
+      <c r="L26" s="30">
+        <f>J26*2/3+M26*1/3</f>
         <v>30.669454951005577</v>
       </c>
-      <c r="L26" s="30">
+      <c r="M26" s="30">
         <v>32.772151050078904</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0</v>
       </c>
     </row>
@@ -13176,14 +13179,14 @@
       <c r="J27" s="30">
         <v>59.593058464401295</v>
       </c>
-      <c r="K27" s="30">
-        <f>J27*2/3+L27*1/3</f>
+      <c r="L27" s="30">
+        <f>J27*2/3+M27*1/3</f>
         <v>61.758486976267527</v>
       </c>
-      <c r="L27" s="30">
+      <c r="M27" s="30">
         <v>66.089343999999997</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0</v>
       </c>
     </row>
@@ -13206,14 +13209,19 @@
         <v>5.6291760000000002</v>
       </c>
       <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="30">
-        <v>40.299999999999997</v>
+      <c r="J28" s="1">
+        <v>10.868399999999999</v>
+      </c>
+      <c r="K28" s="1">
+        <v>14.3748</v>
       </c>
       <c r="L28" s="30">
         <v>40.299999999999997</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="30">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="N28">
         <v>0</v>
       </c>
     </row>
@@ -13237,13 +13245,13 @@
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="31">
+      <c r="L29" s="31">
         <v>0.5</v>
       </c>
-      <c r="L29" s="30">
+      <c r="M29" s="30">
         <v>0.54</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>0</v>
       </c>
     </row>
@@ -13256,8 +13264,6 @@
     <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E720B6E-E630-484F-B6DD-C97CE1C045D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A61235-A7D9-4CB3-B4EE-3E9A275FB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -570,15 +570,6 @@
     <t>Development</t>
   </si>
   <si>
-    <t>RSDSH_Apt</t>
-  </si>
-  <si>
-    <t>RSDSH_Att</t>
-  </si>
-  <si>
-    <t>RSDSH_Det</t>
-  </si>
-  <si>
     <t>RSDSC_Apt</t>
   </si>
   <si>
@@ -781,6 +772,15 @@
   </si>
   <si>
     <t>Specify end-use demand projections (low energy demand variant)</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt*</t>
+  </si>
+  <si>
+    <t>RSDSH_Att*</t>
+  </si>
+  <si>
+    <t>RSDSH_Det*</t>
   </si>
 </sst>
 </file>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -2397,10 +2397,10 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
@@ -2429,10 +2429,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C20" s="47"/>
       <c r="D20" s="47"/>
@@ -2461,10 +2461,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C21" s="42"/>
       <c r="D21" s="42"/>
@@ -2521,10 +2521,10 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" s="47"/>
       <c r="D23" s="47"/>
@@ -2554,7 +2554,7 @@
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
@@ -2584,7 +2584,7 @@
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
@@ -2646,7 +2646,7 @@
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="47" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
@@ -2676,7 +2676,7 @@
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B29" s="43">
         <v>1</v>
@@ -2737,10 +2737,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -2769,10 +2769,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
@@ -2802,7 +2802,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C32" s="45"/>
       <c r="D32" s="45"/>
@@ -6963,7 +6963,7 @@
         <v>2018</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J39" s="21">
         <v>28.901664567933999</v>
@@ -7012,7 +7012,7 @@
         <v>2018</v>
       </c>
       <c r="I40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J40" s="21">
         <v>58.151541961987597</v>
@@ -7061,7 +7061,7 @@
         <v>2018</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J41" s="21">
         <v>5.6291760000000002</v>
@@ -7110,7 +7110,7 @@
         <v>2018</v>
       </c>
       <c r="I42" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J42" s="21">
         <v>0.48</v>
@@ -12232,7 +12232,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -12250,7 +12250,7 @@
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -12291,7 +12291,7 @@
         <v>2050</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
@@ -12319,7 +12319,7 @@
         <v>1.81463172003468</v>
       </c>
       <c r="L3" s="30">
-        <f>J3*2/3+M3/3</f>
+        <f t="shared" ref="L3:L16" si="0">J3*2/3+M3/3</f>
         <v>1.23293489482708</v>
       </c>
       <c r="M3" s="30">
@@ -12355,7 +12355,7 @@
         <v>22.997393933436499</v>
       </c>
       <c r="L4" s="30">
-        <f>J4*2/3+M4/3</f>
+        <f t="shared" si="0"/>
         <v>21.564038456241871</v>
       </c>
       <c r="M4" s="30">
@@ -12391,7 +12391,7 @@
         <v>1.3579701788487999</v>
       </c>
       <c r="L5" s="30">
-        <f>J5*2/3+M5/3</f>
+        <f t="shared" si="0"/>
         <v>1.8168912035156706</v>
       </c>
       <c r="M5" s="30">
@@ -12427,7 +12427,7 @@
         <v>5.7274313907438001</v>
       </c>
       <c r="L6" s="30">
-        <f>J6*2/3+M6/3</f>
+        <f t="shared" si="0"/>
         <v>5.2212845051183363</v>
       </c>
       <c r="M6" s="30">
@@ -12463,7 +12463,7 @@
         <v>1.1453307514123801</v>
       </c>
       <c r="L7" s="30">
-        <f>J7*2/3+M7/3</f>
+        <f t="shared" si="0"/>
         <v>1.1872938839576666</v>
       </c>
       <c r="M7" s="30">
@@ -12499,7 +12499,7 @@
         <v>10.4827865863979</v>
       </c>
       <c r="L8" s="30">
-        <f>J8*2/3+M8/3</f>
+        <f t="shared" si="0"/>
         <v>9.391476771293469</v>
       </c>
       <c r="M8" s="30">
@@ -12535,7 +12535,7 @@
         <v>1.05400776614231</v>
       </c>
       <c r="L9" s="30">
-        <f>J9*2/3+M9/3</f>
+        <f t="shared" si="0"/>
         <v>0.86541028956347699</v>
       </c>
       <c r="M9" s="30">
@@ -12571,7 +12571,7 @@
         <v>16.2067419529189</v>
       </c>
       <c r="L10" s="30">
-        <f>J10*2/3+M10/3</f>
+        <f t="shared" si="0"/>
         <v>13.7661776960718</v>
       </c>
       <c r="M10" s="30">
@@ -12607,7 +12607,7 @@
         <v>17.9214706310973</v>
       </c>
       <c r="L11" s="30">
-        <f>J11*2/3+M11/3</f>
+        <f t="shared" si="0"/>
         <v>15.932252704329224</v>
       </c>
       <c r="M11" s="30">
@@ -12643,7 +12643,7 @@
         <v>2.2861941894738802</v>
       </c>
       <c r="L12" s="30">
-        <f>J12*2/3+M12/3</f>
+        <f t="shared" si="0"/>
         <v>1.8333550602163233</v>
       </c>
       <c r="M12" s="30">
@@ -12679,7 +12679,7 @@
         <v>5.7966251432017799</v>
       </c>
       <c r="L13" s="30">
-        <f>J13*2/3+M13/3</f>
+        <f t="shared" si="0"/>
         <v>6.8655407588300337</v>
       </c>
       <c r="M13" s="30">
@@ -12715,7 +12715,7 @@
         <v>0.19444424313328701</v>
       </c>
       <c r="L14" s="30">
-        <f>J14*2/3+M14/3</f>
+        <f t="shared" si="0"/>
         <v>0.13734812058446252</v>
       </c>
       <c r="M14" s="30">
@@ -12751,7 +12751,7 @@
         <v>4.5897245674903298</v>
       </c>
       <c r="L15" s="30">
-        <f>J15*2/3+M15/3</f>
+        <f t="shared" si="0"/>
         <v>4.1809760165229068</v>
       </c>
       <c r="M15" s="30">
@@ -12787,7 +12787,7 @@
         <v>3.5251257971202601</v>
       </c>
       <c r="L16" s="30">
-        <f>J16*2/3+M16/3</f>
+        <f t="shared" si="0"/>
         <v>3.4314725583947805</v>
       </c>
       <c r="M16" s="30">
@@ -13129,10 +13129,10 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H26" s="31">
         <f>VLOOKUP(F26,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
@@ -13164,10 +13164,10 @@
         <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H27" s="31">
         <f>VLOOKUP(F27,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
@@ -13199,10 +13199,10 @@
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="31">
         <f>VLOOKUP(F28,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
@@ -13234,10 +13234,10 @@
         <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H29" s="31">
         <f>VLOOKUP(F29,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
@@ -13267,7 +13267,7 @@
     </row>
     <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D32" t="s">
         <v>0</v>
@@ -13288,10 +13288,10 @@
         <v>3</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>4</v>
@@ -13399,7 +13399,7 @@
         <v>2050</v>
       </c>
       <c r="AQ33" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="3:43" x14ac:dyDescent="0.25">
@@ -13407,7 +13407,7 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>52</v>
@@ -13524,7 +13524,7 @@
         <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>54</v>
@@ -13641,7 +13641,7 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>56</v>
@@ -13806,8 +13806,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13820,7 +13820,7 @@
   <sheetData>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
@@ -13850,22 +13850,22 @@
         <v>4</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K5" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L5" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -13890,18 +13890,18 @@
         <v>1.6534164675637491E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="K7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -13913,18 +13913,18 @@
         <v>2.9990596485367418E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J8" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -13936,21 +13936,21 @@
         <v>5.2849616307060754E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="J9" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -13962,21 +13962,21 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -13988,21 +13988,21 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -14014,18 +14014,18 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -14037,18 +14037,18 @@
         <v>1.3128101846771158E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -14060,18 +14060,18 @@
         <v>1.0994534987992988E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -14083,18 +14083,18 @@
         <v>1.4648486376153701E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -14106,18 +14106,18 @@
         <v>6.4458708104453747E-4</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -14129,18 +14129,18 @@
         <v>9.1487081392159866E-4</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -14152,18 +14152,18 @@
         <v>1.5069837916185766E-3</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -14175,18 +14175,18 @@
         <v>1.9923424990874787E-4</v>
       </c>
       <c r="I19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -14198,18 +14198,18 @@
         <v>3.8001436556751221E-4</v>
       </c>
       <c r="I20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -14221,18 +14221,18 @@
         <v>4.7050395502371922E-4</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>2050</v>
@@ -14244,18 +14244,18 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23">
         <v>2050</v>
@@ -14267,18 +14267,18 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>2050</v>
@@ -14290,21 +14290,21 @@
         <v>1.031688375401618E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>2050</v>
@@ -14316,21 +14316,21 @@
         <v>1.8402644937451934E-4</v>
       </c>
       <c r="I25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>2050</v>
@@ -14342,21 +14342,21 @@
         <v>1.8402644937451934E-4</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27">
         <v>2050</v>
@@ -14368,18 +14368,18 @@
         <v>1.8402644937451934E-4</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28">
         <v>2050</v>
@@ -14391,18 +14391,18 @@
         <v>5.4676481366779635E-3</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29">
         <v>2050</v>
@@ -14414,18 +14414,18 @@
         <v>5.4676481366779635E-3</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J29" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30">
         <v>2050</v>
@@ -14437,18 +14437,18 @@
         <v>5.4676481366779635E-3</v>
       </c>
       <c r="I30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31">
         <v>2050</v>
@@ -14460,18 +14460,18 @@
         <v>9.2405926458938932E-4</v>
       </c>
       <c r="I31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J31" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>2050</v>
@@ -14483,18 +14483,18 @@
         <v>9.2405926458938932E-4</v>
       </c>
       <c r="I32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J32" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F33">
         <v>2050</v>
@@ -14506,18 +14506,18 @@
         <v>9.2405926458938932E-4</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J33" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F34">
         <v>2050</v>
@@ -14529,18 +14529,18 @@
         <v>1.4924076946288027E-3</v>
       </c>
       <c r="I34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F35">
         <v>2050</v>
@@ -14552,18 +14552,18 @@
         <v>1.4924076946288027E-3</v>
       </c>
       <c r="I35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F36">
         <v>2050</v>
@@ -14575,18 +14575,18 @@
         <v>1.4924076946288027E-3</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J36" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F37">
         <v>2050</v>
@@ -14598,18 +14598,18 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I37" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="J37" t="s">
-        <v>134</v>
+        <v>202</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F38">
         <v>2050</v>
@@ -14621,18 +14621,18 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I38" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K38" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F39">
         <v>2050</v>
@@ -14644,18 +14644,18 @@
         <v>5.1051831876312761E-3</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="J39" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="K39" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F40">
         <v>2050</v>
@@ -14667,18 +14667,18 @@
         <v>9.1063227794977141E-5</v>
       </c>
       <c r="I40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K40" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F41">
         <v>2050</v>
@@ -14690,18 +14690,18 @@
         <v>9.1063227794977141E-5</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F42">
         <v>2050</v>
@@ -14713,18 +14713,18 @@
         <v>9.1063227794977141E-5</v>
       </c>
       <c r="I42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K42" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F43">
         <v>2050</v>
@@ -14736,18 +14736,18 @@
         <v>2.7055985129604311E-3</v>
       </c>
       <c r="I43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J43" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K43" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F44">
         <v>2050</v>
@@ -14759,18 +14759,18 @@
         <v>2.7055985129604311E-3</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K44" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F45">
         <v>2050</v>
@@ -14782,18 +14782,18 @@
         <v>2.7055985129604311E-3</v>
       </c>
       <c r="I45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K45" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F46">
         <v>2050</v>
@@ -14805,18 +14805,18 @@
         <v>4.5725937545048278E-4</v>
       </c>
       <c r="I46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F47">
         <v>2050</v>
@@ -14828,18 +14828,18 @@
         <v>4.5725937545048278E-4</v>
       </c>
       <c r="I47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F48">
         <v>2050</v>
@@ -14851,18 +14851,18 @@
         <v>4.5725937545048278E-4</v>
       </c>
       <c r="I48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J48" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F49">
         <v>2050</v>
@@ -14874,18 +14874,18 @@
         <v>7.384996141634885E-4</v>
       </c>
       <c r="I49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K49" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F50">
         <v>2050</v>
@@ -14897,18 +14897,18 @@
         <v>7.384996141634885E-4</v>
       </c>
       <c r="I50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F51">
         <v>2050</v>
@@ -14920,13 +14920,13 @@
         <v>7.384996141634885E-4</v>
       </c>
       <c r="I51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K51" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -14956,7 +14956,7 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
@@ -14985,23 +14985,23 @@
         <v>4</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K4" s="26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L4" s="26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -15013,7 +15013,7 @@
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -15022,15 +15022,15 @@
         <v>0.29750119328038643</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -15039,15 +15039,15 @@
         <v>7.8240205489280165E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -15056,15 +15056,15 @@
         <v>9.9230285582155173E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -15073,15 +15073,15 @@
         <v>0.1299964335480952</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -15090,15 +15090,15 @@
         <v>0.65611067742996398</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -15107,15 +15107,15 @@
         <v>3.4112422198348336</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -15124,15 +15124,15 @@
         <v>0.27048899641521007</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -15141,15 +15141,15 @@
         <v>0.14436837706846065</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -15158,15 +15158,15 @@
         <v>3.5851150535518087E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -15175,15 +15175,15 @@
         <v>2.7014519280249845E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -15192,15 +15192,15 @@
         <v>3.8223383014175182E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -15209,15 +15209,15 @@
         <v>0.16206914757843674</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -15226,15 +15226,15 @@
         <v>0.84262783364201532</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -15243,15 +15243,15 @@
         <v>7.3395482092335179E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20">
         <v>2050</v>
@@ -15260,15 +15260,15 @@
         <v>0.16362565630421255</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>2050</v>
@@ -15277,15 +15277,15 @@
         <v>4.3032113019104097E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>2050</v>
@@ -15294,15 +15294,15 @@
         <v>5.4576657070185351E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23">
         <v>2050</v>
@@ -15311,15 +15311,15 @@
         <v>7.1498038451452361E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>2050</v>
@@ -15328,15 +15328,15 @@
         <v>0.3608608725864802</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>2050</v>
@@ -15345,15 +15345,15 @@
         <v>1.8761832209091587</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>2050</v>
@@ -15362,15 +15362,15 @@
         <v>0.14876894802836554</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27">
         <v>2050</v>
@@ -15379,15 +15379,15 @@
         <v>7.9402607387653368E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28">
         <v>2050</v>
@@ -15396,15 +15396,15 @@
         <v>1.9718132794534948E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29">
         <v>2050</v>
@@ -15413,15 +15413,15 @@
         <v>1.4857985604137416E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30">
         <v>2050</v>
@@ -15430,15 +15430,15 @@
         <v>2.1022860657796353E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31">
         <v>2050</v>
@@ -15447,15 +15447,15 @@
         <v>8.9138031168140217E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>2050</v>
@@ -15464,15 +15464,15 @@
         <v>0.46344530850310844</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F33">
         <v>2050</v>
@@ -15481,10 +15481,10 @@
         <v>4.036751515078435E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A61235-A7D9-4CB3-B4EE-3E9A275FB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDC06E-A090-4400-940C-F27CE210A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -5295,86 +5295,86 @@
         <v>42</v>
       </c>
       <c r="J10" s="20">
-        <v>7.7245727925227703</v>
+        <v>7.7105748259750104</v>
       </c>
       <c r="K10" s="21"/>
       <c r="L10" s="20">
-        <v>9.2353600579585193E-2</v>
+        <v>9.2186243413538399E-2</v>
       </c>
       <c r="M10" s="20">
-        <v>2.18565051154552</v>
+        <v>2.1816898183696698</v>
       </c>
       <c r="N10" s="20">
-        <v>0.36094016622216002</v>
+        <v>0.360286094015421</v>
       </c>
       <c r="O10" s="20">
-        <v>0.160971553655473</v>
+        <v>0.160679851514302</v>
       </c>
       <c r="P10" s="20">
-        <v>0.13739325701343899</v>
+        <v>0.13714428192223099</v>
       </c>
       <c r="Q10" s="20">
-        <v>6.6303111018221506E-2</v>
+        <v>6.6182960848759104E-2</v>
       </c>
       <c r="R10" s="20">
-        <v>0.20907225210952099</v>
+        <v>0.20869338502266699</v>
       </c>
       <c r="S10" s="20">
-        <v>0.31639527280693802</v>
+        <v>0.31582192194811698</v>
       </c>
       <c r="T10" s="20">
-        <v>0.126466294083908</v>
+        <v>0.12623712012159899</v>
       </c>
       <c r="U10" s="20">
-        <v>0.14400037102947</v>
+        <v>0.14373942295756001</v>
       </c>
       <c r="V10" s="20">
-        <v>0.24287511041201201</v>
+        <v>0.24243498799202201</v>
       </c>
       <c r="W10" s="20">
-        <v>0.23103810796296301</v>
+        <v>0.23061943578608199</v>
       </c>
       <c r="X10" s="20">
-        <v>0.19274182814699201</v>
+        <v>0.19239255398837901</v>
       </c>
       <c r="Y10" s="20">
-        <v>0.880626263602864</v>
+        <v>0.879030450176013</v>
       </c>
       <c r="Z10" s="20">
-        <v>0.239606430141375</v>
+        <v>0.23917223101039001</v>
       </c>
       <c r="AA10" s="20">
-        <v>0.31616005760135901</v>
+        <v>0.31558713298417801</v>
       </c>
       <c r="AB10" s="20">
-        <v>0.25882270135028701</v>
+        <v>0.25835367974707202</v>
       </c>
       <c r="AC10" s="20">
-        <v>0.18845766705778599</v>
+        <v>0.188116156376225</v>
       </c>
       <c r="AD10" s="20">
-        <v>0.418614934630201</v>
+        <v>0.41785634797321203</v>
       </c>
       <c r="AE10" s="20">
-        <v>5.1980938259190403E-2</v>
+        <v>5.1886741796237999E-2</v>
       </c>
       <c r="AF10" s="20">
-        <v>0.21170504023817699</v>
+        <v>0.21132140218454701</v>
       </c>
       <c r="AG10" s="20">
-        <v>0.104701587785582</v>
+        <v>0.104511854403208</v>
       </c>
       <c r="AH10" s="20">
-        <v>0.106309162052679</v>
+        <v>0.106116515529162</v>
       </c>
       <c r="AI10" s="20">
-        <v>0.12357071379453501</v>
+        <v>0.123346787013801</v>
       </c>
       <c r="AJ10" s="20">
-        <v>0.25823709659708599</v>
+        <v>0.257769136188576</v>
       </c>
       <c r="AK10" s="20">
-        <v>9.95787628254481E-2</v>
+        <v>9.9398312692044299E-2</v>
       </c>
     </row>
     <row r="11" spans="3:37" x14ac:dyDescent="0.25">
@@ -5493,86 +5493,86 @@
         <v>46</v>
       </c>
       <c r="J12" s="20">
-        <v>21.784659175997099</v>
+        <v>20.831454920682301</v>
       </c>
       <c r="K12" s="21"/>
       <c r="L12" s="20">
-        <v>0.26045346019004401</v>
+        <v>0.24905712185126699</v>
       </c>
       <c r="M12" s="20">
-        <v>6.1639203553045503</v>
+        <v>5.8942133534813896</v>
       </c>
       <c r="N12" s="20">
-        <v>1.0179149987024101</v>
+        <v>0.97337535727524804</v>
       </c>
       <c r="O12" s="20">
-        <v>0.45396820349853301</v>
+        <v>0.434104481057138</v>
       </c>
       <c r="P12" s="20">
-        <v>0.387473243829765</v>
+        <v>0.37051905869171597</v>
       </c>
       <c r="Q12" s="20">
-        <v>0.18698647998221901</v>
+        <v>0.17880474498396101</v>
       </c>
       <c r="R12" s="20">
-        <v>0.58962066611279595</v>
+        <v>0.56382136746783496</v>
       </c>
       <c r="S12" s="20">
-        <v>0.89229053413382597</v>
+        <v>0.85324768626358805</v>
       </c>
       <c r="T12" s="20">
-        <v>0.35665727903246103</v>
+        <v>0.34105146976474798</v>
       </c>
       <c r="U12" s="20">
-        <v>0.40610647195022498</v>
+        <v>0.38833697580863102</v>
       </c>
       <c r="V12" s="20">
-        <v>0.68495069497951599</v>
+        <v>0.654980158747549</v>
       </c>
       <c r="W12" s="20">
-        <v>0.65156825805464502</v>
+        <v>0.62305839562402099</v>
       </c>
       <c r="X12" s="20">
-        <v>0.54356598713202597</v>
+        <v>0.51978184583366205</v>
       </c>
       <c r="Y12" s="20">
-        <v>2.4835215524915499</v>
+        <v>2.3748531866991098</v>
       </c>
       <c r="Z12" s="20">
-        <v>0.67573243947675998</v>
+        <v>0.64616525499341604</v>
       </c>
       <c r="AA12" s="20">
-        <v>0.89162718572295796</v>
+        <v>0.85261336316465597</v>
       </c>
       <c r="AB12" s="20">
-        <v>0.72992571723638999</v>
+        <v>0.69798726485518303</v>
       </c>
       <c r="AC12" s="20">
-        <v>0.53148389642096905</v>
+        <v>0.50822841614896397</v>
       </c>
       <c r="AD12" s="20">
-        <v>1.1805680290473299</v>
+        <v>1.1289113811335301</v>
       </c>
       <c r="AE12" s="20">
-        <v>0.146595423985277</v>
+        <v>0.140181030222055</v>
       </c>
       <c r="AF12" s="20">
-        <v>0.59704559349789399</v>
+        <v>0.57092141153381903</v>
       </c>
       <c r="AG12" s="20">
-        <v>0.29527696435231898</v>
+        <v>0.28235689722420099</v>
       </c>
       <c r="AH12" s="20">
-        <v>0.29981060762935702</v>
+        <v>0.28669216750725102</v>
       </c>
       <c r="AI12" s="20">
-        <v>0.34849123135384003</v>
+        <v>0.33324273368478402</v>
       </c>
       <c r="AJ12" s="20">
-        <v>0.72827420843415902</v>
+        <v>0.69640801907094396</v>
       </c>
       <c r="AK12" s="20">
-        <v>0.28082969344526898</v>
+        <v>0.268541777593654</v>
       </c>
     </row>
     <row r="13" spans="3:37" x14ac:dyDescent="0.25">
@@ -5691,14 +5691,14 @@
         <v>50</v>
       </c>
       <c r="J14" s="20">
-        <v>45.935836654432002</v>
+        <v>45.9683637522608</v>
       </c>
       <c r="K14" s="21"/>
       <c r="L14" s="20">
         <v>0</v>
       </c>
       <c r="M14" s="20">
-        <v>40.411547456014503</v>
+        <v>40.4401628128524</v>
       </c>
       <c r="N14" s="20">
         <v>0</v>
@@ -5731,13 +5731,13 @@
         <v>0</v>
       </c>
       <c r="X14" s="20">
-        <v>2.3928132767411898</v>
+        <v>2.39450762427477</v>
       </c>
       <c r="Y14" s="20">
-        <v>2.2124403851853902</v>
+        <v>2.2140070109418901</v>
       </c>
       <c r="Z14" s="20">
-        <v>0.24110252653151401</v>
+        <v>0.24127325087308299</v>
       </c>
       <c r="AA14" s="20">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="20">
-        <v>0.68832808501139198</v>
+        <v>0.68881548910784596</v>
       </c>
       <c r="AG14" s="20">
         <v>0</v>
@@ -6280,10 +6280,10 @@
         <v>6</v>
       </c>
       <c r="J25" s="20">
-        <v>2.0712927345907701</v>
+        <v>1.8983540603270901</v>
       </c>
       <c r="K25" s="20">
-        <v>2.0712927345907701</v>
+        <v>1.8983540603270901</v>
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -6329,10 +6329,10 @@
         <v>8</v>
       </c>
       <c r="J26" s="20">
-        <v>22.2490403410117</v>
+        <v>20.1128233846323</v>
       </c>
       <c r="K26" s="20">
-        <v>22.2490403410117</v>
+        <v>20.1128233846323</v>
       </c>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -6378,10 +6378,10 @@
         <v>10</v>
       </c>
       <c r="J27" s="20">
-        <v>1.2014578872914701</v>
+        <v>0.42769784899188301</v>
       </c>
       <c r="K27" s="20">
-        <v>1.2014578872914701</v>
+        <v>0.42769784899188301</v>
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -6427,10 +6427,10 @@
         <v>12</v>
       </c>
       <c r="J28" s="20">
-        <v>6.6890404714869804</v>
+        <v>6.9295287156334302</v>
       </c>
       <c r="K28" s="20">
-        <v>6.6890404714869804</v>
+        <v>6.9295287156334302</v>
       </c>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -6476,10 +6476,10 @@
         <v>14</v>
       </c>
       <c r="J29" s="20">
-        <v>0.67287296253748397</v>
+        <v>1.09140526535876</v>
       </c>
       <c r="K29" s="20">
-        <v>0.67287296253748397</v>
+        <v>1.09140526535876</v>
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -6525,10 +6525,10 @@
         <v>16</v>
       </c>
       <c r="J30" s="20">
-        <v>10.5976971594968</v>
+        <v>9.5100483128062994</v>
       </c>
       <c r="K30" s="20">
-        <v>10.5976971594968</v>
+        <v>9.5100483128062994</v>
       </c>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -6574,10 +6574,10 @@
         <v>18</v>
       </c>
       <c r="J31" s="20">
-        <v>1.14056826967015</v>
+        <v>1.9556249526505201</v>
       </c>
       <c r="K31" s="20">
-        <v>1.14056826967015</v>
+        <v>1.9556249526505201</v>
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -6623,10 +6623,10 @@
         <v>20</v>
       </c>
       <c r="J32" s="20">
-        <v>17.770098364755199</v>
+        <v>19.482476804508799</v>
       </c>
       <c r="K32" s="20">
-        <v>17.770098364755199</v>
+        <v>19.482476804508799</v>
       </c>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -6672,10 +6672,10 @@
         <v>22</v>
       </c>
       <c r="J33" s="20">
-        <v>19.5397050142764</v>
+        <v>20.3153817696899</v>
       </c>
       <c r="K33" s="20">
-        <v>19.5397050142764</v>
+        <v>20.3153817696899</v>
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
@@ -6721,10 +6721,10 @@
         <v>24</v>
       </c>
       <c r="J34" s="20">
-        <v>1.28965569884044</v>
+        <v>1.4729468330623701</v>
       </c>
       <c r="K34" s="20">
-        <v>1.28965569884044</v>
+        <v>1.4729468330623701</v>
       </c>
       <c r="L34" s="21"/>
       <c r="M34" s="21"/>
@@ -6770,10 +6770,10 @@
         <v>26</v>
       </c>
       <c r="J35" s="20">
-        <v>4.2689583715443504</v>
+        <v>4.65085642477431</v>
       </c>
       <c r="K35" s="20">
-        <v>4.2689583715443504</v>
+        <v>4.65085642477431</v>
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -6819,10 +6819,10 @@
         <v>28</v>
       </c>
       <c r="J36" s="20">
-        <v>0.16518244671693</v>
+        <v>0.1947788154134</v>
       </c>
       <c r="K36" s="20">
-        <v>0.16518244671693</v>
+        <v>0.1947788154134</v>
       </c>
       <c r="L36" s="21"/>
       <c r="M36" s="21"/>
@@ -6868,10 +6868,10 @@
         <v>30</v>
       </c>
       <c r="J37" s="20">
-        <v>4.2546573385120396</v>
+        <v>4.6984287524850101</v>
       </c>
       <c r="K37" s="20">
-        <v>4.2546573385120396</v>
+        <v>4.6984287524850101</v>
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="21"/>
@@ -6917,10 +6917,10 @@
         <v>32</v>
       </c>
       <c r="J38" s="20">
-        <v>4.0239683065477196</v>
+        <v>1.9571195447376</v>
       </c>
       <c r="K38" s="20">
-        <v>4.0239683065477196</v>
+        <v>1.9571195447376</v>
       </c>
       <c r="L38" s="21"/>
       <c r="M38" s="21"/>
@@ -9160,15 +9160,15 @@
       </c>
       <c r="G20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13064779508364899</v>
+        <v>0.13064779508364888</v>
       </c>
       <c r="H20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0919251481787136</v>
+        <v>3.091925148178714</v>
       </c>
       <c r="I20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51060312297639665</v>
+        <v>0.51060312297639654</v>
       </c>
       <c r="J20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -9176,91 +9176,91 @@
       </c>
       <c r="K20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1943630348521006</v>
+        <v>0.19436303485210071</v>
       </c>
       <c r="L20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.3795533767547012E-2</v>
+        <v>9.379553376754686E-2</v>
       </c>
       <c r="M20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29576354987636128</v>
+        <v>0.29576354987636116</v>
       </c>
       <c r="N20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4475877985016371</v>
+        <v>0.44758779850163755</v>
       </c>
       <c r="O20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1789052334805798</v>
+        <v>0.17890523348057963</v>
       </c>
       <c r="P20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20370977252820086</v>
+        <v>0.20370977252820055</v>
       </c>
       <c r="Q20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3435826806631439</v>
+        <v>0.34358268066314335</v>
       </c>
       <c r="R20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32683749411207558</v>
+        <v>0.32683749411207597</v>
       </c>
       <c r="S20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27266175557601846</v>
+        <v>0.2726617555760189</v>
       </c>
       <c r="T20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2457757890372787</v>
+        <v>1.245775789037278</v>
       </c>
       <c r="U20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33895865011628784</v>
+        <v>0.33895865011628845</v>
       </c>
       <c r="V20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44725505188660325</v>
+        <v>0.44725505188660303</v>
       </c>
       <c r="W20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3661429011624644</v>
+        <v>0.36614290116246478</v>
       </c>
       <c r="X20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26660117757391238</v>
+        <v>0.26660117757391266</v>
       </c>
       <c r="Y20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5921925929827917</v>
+        <v>0.59219259298279137</v>
       </c>
       <c r="Z20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3534707118324452E-2</v>
+        <v>7.3534707118324327E-2</v>
       </c>
       <c r="AA20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29948801716050255</v>
+        <v>0.2994880171605025</v>
       </c>
       <c r="AB20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14811584497082575</v>
+        <v>0.14811584497082581</v>
       </c>
       <c r="AC20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15038999597426655</v>
+        <v>0.15038999597426658</v>
       </c>
       <c r="AD20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17480900790929571</v>
+        <v>0.17480900790929638</v>
       </c>
       <c r="AE20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36531447683124091</v>
+        <v>0.36531447683124146</v>
       </c>
       <c r="AF20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14086885317580392</v>
+        <v>0.14086885317580389</v>
       </c>
     </row>
     <row r="21" spans="4:32" x14ac:dyDescent="0.25">
@@ -9275,15 +9275,15 @@
       </c>
       <c r="G21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11877072280331726</v>
+        <v>0.11877072280331716</v>
       </c>
       <c r="H21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.8108410437988307</v>
+        <v>2.8108410437988312</v>
       </c>
       <c r="I21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46418465725126973</v>
+        <v>0.46418465725126962</v>
       </c>
       <c r="J21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -9291,91 +9291,91 @@
       </c>
       <c r="K21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17669366804736417</v>
+        <v>0.17669366804736431</v>
       </c>
       <c r="L21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5268667061406372E-2</v>
+        <v>8.5268667061406234E-2</v>
       </c>
       <c r="M21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26887595443305573</v>
+        <v>0.26887595443305556</v>
       </c>
       <c r="N21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40689799863785192</v>
+        <v>0.40689799863785231</v>
       </c>
       <c r="O21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16264112134598166</v>
+        <v>0.16264112134598149</v>
       </c>
       <c r="P21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18519070229836443</v>
+        <v>0.18519070229836415</v>
       </c>
       <c r="Q21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31234789151194903</v>
+        <v>0.31234789151194853</v>
       </c>
       <c r="R21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29712499464734149</v>
+        <v>0.29712499464734182</v>
       </c>
       <c r="S21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2478743232509259</v>
+        <v>0.24787432325092632</v>
       </c>
       <c r="T21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1325234445793442</v>
+        <v>1.1325234445793435</v>
       </c>
       <c r="U21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30814422737844349</v>
+        <v>0.30814422737844405</v>
       </c>
       <c r="V21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4065955017150939</v>
+        <v>0.40659550171509368</v>
       </c>
       <c r="W21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33285718287496763</v>
+        <v>0.33285718287496796</v>
       </c>
       <c r="X21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2423647068853749</v>
+        <v>0.24236470688537518</v>
       </c>
       <c r="Y21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.53835690271162884</v>
+        <v>0.53835690271162862</v>
       </c>
       <c r="Z21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.6849733743931328E-2</v>
+        <v>6.6849733743931203E-2</v>
       </c>
       <c r="AA21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27226183378227509</v>
+        <v>0.27226183378227498</v>
       </c>
       <c r="AB21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13465076815529611</v>
+        <v>0.13465076815529617</v>
       </c>
       <c r="AC21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13671817815842413</v>
+        <v>0.13671817815842419</v>
       </c>
       <c r="AD21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15891727991754154</v>
+        <v>0.15891727991754215</v>
       </c>
       <c r="AE21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33210406984658275</v>
+        <v>0.33210406984658314</v>
       </c>
       <c r="AF21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12806259379618537</v>
+        <v>0.12806259379618534</v>
       </c>
     </row>
     <row r="22" spans="4:32" x14ac:dyDescent="0.25">
@@ -10082,107 +10082,107 @@
       </c>
       <c r="G28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1629624043332934</v>
+        <v>0.16296240433329362</v>
       </c>
       <c r="H28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8566862597502731</v>
+        <v>3.8566862597502802</v>
       </c>
       <c r="I28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63689641701986843</v>
+        <v>0.63689641701986988</v>
       </c>
       <c r="J28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28404210824846116</v>
+        <v>0.28404210824846177</v>
       </c>
       <c r="K28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24243706105207907</v>
+        <v>0.24243706105207927</v>
       </c>
       <c r="L28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11699505291074819</v>
+        <v>0.11699505291074846</v>
       </c>
       <c r="M28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36891812197168955</v>
+        <v>0.36891812197169027</v>
       </c>
       <c r="N28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55829479362718504</v>
+        <v>0.55829479362718626</v>
       </c>
       <c r="O28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22315590536478461</v>
+        <v>0.22315590536478441</v>
       </c>
       <c r="P28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25409563396097901</v>
+        <v>0.25409563396097939</v>
       </c>
       <c r="Q28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42856490377273548</v>
+        <v>0.42856490377273632</v>
       </c>
       <c r="R28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4076779392462821</v>
+        <v>0.40767793924628298</v>
       </c>
       <c r="S28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34010229740161857</v>
+        <v>0.34010229740161924</v>
       </c>
       <c r="T28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5539077235229115</v>
+        <v>1.5539077235229135</v>
       </c>
       <c r="U28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42279715901176512</v>
+        <v>0.42279715901176562</v>
       </c>
       <c r="V28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5578797449967432</v>
+        <v>0.55787974499674464</v>
       </c>
       <c r="W28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45670520091670769</v>
+        <v>0.45670520091670846</v>
       </c>
       <c r="X28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33254268751887739</v>
+        <v>0.3325426875188775</v>
       </c>
       <c r="Y28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.738666341204264</v>
+        <v>0.73866634120426122</v>
       </c>
       <c r="Z28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1722884923348305E-2</v>
+        <v>9.172288492334861E-2</v>
       </c>
       <c r="AA28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37356380422829233</v>
+        <v>0.37356380422829349</v>
       </c>
       <c r="AB28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18475102622932804</v>
+        <v>0.1847510262293284</v>
       </c>
       <c r="AC28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18758766893807341</v>
+        <v>0.1875876689380738</v>
       </c>
       <c r="AD28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21804651360382518</v>
+        <v>0.21804651360382526</v>
       </c>
       <c r="AE28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45567187294712425</v>
+        <v>0.45567187294712524</v>
       </c>
       <c r="AF28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17571155329873456</v>
+        <v>0.17571155329873506</v>
       </c>
     </row>
     <row r="29" spans="4:32" x14ac:dyDescent="0.25">
@@ -10198,107 +10198,107 @@
       </c>
       <c r="G29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16235731275947515</v>
+        <v>0.16235731275947538</v>
       </c>
       <c r="H29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8423660957334085</v>
+        <v>3.8423660957334147</v>
       </c>
       <c r="I29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63453157307374231</v>
+        <v>0.63453157307374375</v>
       </c>
       <c r="J29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28298743869437681</v>
+        <v>0.28298743869437742</v>
       </c>
       <c r="K29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24153687414440531</v>
+        <v>0.2415368741444055</v>
       </c>
       <c r="L29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11656064154461539</v>
+        <v>0.11656064154461564</v>
       </c>
       <c r="M29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3675483014419349</v>
+        <v>0.36754830144193562</v>
       </c>
       <c r="N29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55622180337699523</v>
+        <v>0.55622180337699645</v>
       </c>
       <c r="O29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22232731082767995</v>
+        <v>0.22232731082767976</v>
       </c>
       <c r="P29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25315215790168288</v>
+        <v>0.25315215790168333</v>
       </c>
       <c r="Q29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42697361028901426</v>
+        <v>0.42697361028901515</v>
       </c>
       <c r="R29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40616420062123709</v>
+        <v>0.40616420062123793</v>
       </c>
       <c r="S29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3388394721798389</v>
+        <v>0.33883947217983951</v>
       </c>
       <c r="T29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5481379481330504</v>
+        <v>1.5481379481330526</v>
       </c>
       <c r="U29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4212272815949526</v>
+        <v>0.42122728159495315</v>
       </c>
       <c r="V29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55580829585310521</v>
+        <v>0.55580829585310654</v>
       </c>
       <c r="W29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45500942040877851</v>
+        <v>0.45500942040877934</v>
       </c>
       <c r="X29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33130793169298151</v>
+        <v>0.33130793169298156</v>
       </c>
       <c r="Y29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73592361793165129</v>
+        <v>0.73592361793164862</v>
       </c>
       <c r="Z29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1382311003734881E-2</v>
+        <v>9.1382311003735187E-2</v>
       </c>
       <c r="AA29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37217673393347922</v>
+        <v>0.37217673393348039</v>
       </c>
       <c r="AB29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18406503187570397</v>
+        <v>0.18406503187570436</v>
       </c>
       <c r="AC29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18689114191829229</v>
+        <v>0.1868911419182927</v>
       </c>
       <c r="AD29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21723689061978846</v>
+        <v>0.21723689061978854</v>
       </c>
       <c r="AE29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45397992926309294</v>
+        <v>0.45397992926309383</v>
       </c>
       <c r="AF29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17505912318297531</v>
+        <v>0.17505912318297578</v>
       </c>
     </row>
     <row r="30" spans="4:32" x14ac:dyDescent="0.25">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="H36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>40.559731289160872</v>
+        <v>40.559731289160858</v>
       </c>
       <c r="I36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11055,15 +11055,15 @@
       </c>
       <c r="S36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.401587408534509</v>
+        <v>2.4015874085345037</v>
       </c>
       <c r="T36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2205531132921634</v>
+        <v>2.2205531132921612</v>
       </c>
       <c r="U36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24198661780769198</v>
+        <v>0.24198661780769171</v>
       </c>
       <c r="V36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11087,7 +11087,7 @@
       </c>
       <c r="AA36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6908520936307182</v>
+        <v>0.69085209363071676</v>
       </c>
       <c r="AB36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11127,7 +11127,7 @@
       </c>
       <c r="H37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>41.184477806263274</v>
+        <v>41.184477806263253</v>
       </c>
       <c r="I37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11171,15 +11171,15 @@
       </c>
       <c r="S37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4385793540260186</v>
+        <v>2.4385793540260137</v>
       </c>
       <c r="T37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2547565653239303</v>
+        <v>2.2547565653239281</v>
       </c>
       <c r="U37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24571396736982151</v>
+        <v>0.24571396736982123</v>
       </c>
       <c r="V37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11203,7 +11203,7 @@
       </c>
       <c r="AA37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70149337318584271</v>
+        <v>0.70149337318584126</v>
       </c>
       <c r="AB37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11243,7 +11243,7 @@
       </c>
       <c r="H38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>40.92683435618035</v>
+        <v>40.936372808459637</v>
       </c>
       <c r="I38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11287,15 +11287,15 @@
       </c>
       <c r="S38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4233239949310756</v>
+        <v>2.4238887774422655</v>
       </c>
       <c r="T38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2406511719444171</v>
+        <v>2.2411733805299154</v>
       </c>
       <c r="U38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24417682042371905</v>
+        <v>0.24423372853757513</v>
       </c>
       <c r="V38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11319,7 +11319,7 @@
       </c>
       <c r="AA38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69710494379435917</v>
+        <v>0.69726741182650953</v>
       </c>
       <c r="AB38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="H39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>40.411547456014503</v>
+        <v>40.4401628128524</v>
       </c>
       <c r="I39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11403,15 +11403,15 @@
       </c>
       <c r="S39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.3928132767411898</v>
+        <v>2.39450762427477</v>
       </c>
       <c r="T39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2124403851853902</v>
+        <v>2.2140070109418901</v>
       </c>
       <c r="U39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24110252653151398</v>
+        <v>0.24127325087308299</v>
       </c>
       <c r="V39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="AA39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68832808501139198</v>
+        <v>0.68881548910784596</v>
       </c>
       <c r="AB39" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -12232,8 +12232,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12310,17 +12310,20 @@
       </c>
       <c r="H3" s="31">
         <f>VLOOKUP(F3,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>2.0712927345907701</v>
+        <v>1.8983540603270901</v>
       </c>
       <c r="I3" s="30">
-        <v>2.0621875423309999</v>
+        <v>2.9169885814082672</v>
       </c>
       <c r="J3" s="30">
-        <v>1.81463172003468</v>
+        <v>2.9233084199020065</v>
+      </c>
+      <c r="K3" s="30">
+        <v>2.9160581250770159</v>
       </c>
       <c r="L3" s="30">
         <f t="shared" ref="L3:L16" si="0">J3*2/3+M3/3</f>
-        <v>1.23293489482708</v>
+        <v>1.972052694738631</v>
       </c>
       <c r="M3" s="30">
         <v>6.9541244411880462E-2</v>
@@ -12346,17 +12349,20 @@
       </c>
       <c r="H4" s="31">
         <f>VLOOKUP(F4,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>22.2490403410117</v>
+        <v>20.1128233846323</v>
       </c>
       <c r="I4" s="30">
-        <v>21.6662880683004</v>
+        <v>20.829707214475608</v>
       </c>
       <c r="J4" s="30">
-        <v>22.997393933436499</v>
+        <v>21.483394248547164</v>
+      </c>
+      <c r="K4" s="30">
+        <v>20.570384916097975</v>
       </c>
       <c r="L4" s="30">
         <f t="shared" si="0"/>
-        <v>21.564038456241871</v>
+        <v>20.554705332982316</v>
       </c>
       <c r="M4" s="30">
         <v>18.697327501852616</v>
@@ -12382,17 +12388,20 @@
       </c>
       <c r="H5" s="31">
         <f>VLOOKUP(F5,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>1.2014578872914701</v>
+        <v>0.42769784899188301</v>
       </c>
       <c r="I5" s="30">
-        <v>1.2266704416391101</v>
+        <v>0.74181807651109255</v>
       </c>
       <c r="J5" s="30">
-        <v>1.3579701788487999</v>
+        <v>0.7440570217426532</v>
+      </c>
+      <c r="K5" s="30">
+        <v>0.73064036372909791</v>
       </c>
       <c r="L5" s="30">
         <f t="shared" si="0"/>
-        <v>1.8168912035156706</v>
+        <v>1.407615765444906</v>
       </c>
       <c r="M5" s="30">
         <v>2.7347332528494115</v>
@@ -12418,17 +12427,20 @@
       </c>
       <c r="H6" s="31">
         <f>VLOOKUP(F6,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>6.6890404714869804</v>
+        <v>6.9295287156334302</v>
       </c>
       <c r="I6" s="30">
-        <v>6.45095434431237</v>
+        <v>6.5639975672352229</v>
       </c>
       <c r="J6" s="30">
-        <v>5.7274313907438001</v>
+        <v>5.780638065059601</v>
+      </c>
+      <c r="K6" s="30">
+        <v>6.5949264310858817</v>
       </c>
       <c r="L6" s="30">
         <f t="shared" si="0"/>
-        <v>5.2212845051183363</v>
+        <v>5.2567556213288702</v>
       </c>
       <c r="M6" s="30">
         <v>4.2089907338674086</v>
@@ -12454,17 +12466,20 @@
       </c>
       <c r="H7" s="31">
         <f>VLOOKUP(F7,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>0.67287296253748397</v>
+        <v>1.09140526535876</v>
       </c>
       <c r="I7" s="30">
-        <v>0.68901566323930896</v>
+        <v>0.5707726774555677</v>
       </c>
       <c r="J7" s="30">
-        <v>1.1453307514123801</v>
+        <v>0.56119057639608538</v>
+      </c>
+      <c r="K7" s="30">
+        <v>0.55161044480654198</v>
       </c>
       <c r="L7" s="30">
         <f t="shared" si="0"/>
-        <v>1.1872938839576666</v>
+        <v>0.7978671006134701</v>
       </c>
       <c r="M7" s="30">
         <v>1.2712201490482398</v>
@@ -12490,17 +12505,20 @@
       </c>
       <c r="H8" s="31">
         <f>VLOOKUP(F8,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>10.5976971594968</v>
+        <v>9.5100483128062994</v>
       </c>
       <c r="I8" s="30">
-        <v>10.425059758064601</v>
+        <v>9.7037603897089575</v>
       </c>
       <c r="J8" s="30">
-        <v>10.4827865863979</v>
+        <v>9.435975307949354</v>
+      </c>
+      <c r="K8" s="30">
+        <v>9.2516395819175106</v>
       </c>
       <c r="L8" s="30">
         <f t="shared" si="0"/>
-        <v>9.391476771293469</v>
+        <v>8.6936025856611057</v>
       </c>
       <c r="M8" s="30">
         <v>7.2088571410846098</v>
@@ -12526,17 +12544,20 @@
       </c>
       <c r="H9" s="31">
         <f>VLOOKUP(F9,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>1.14056826967015</v>
+        <v>1.9556249526505201</v>
       </c>
       <c r="I9" s="30">
-        <v>1.17</v>
+        <v>1.5498072549825794</v>
       </c>
       <c r="J9" s="30">
-        <v>1.05400776614231</v>
+        <v>1.5053268122598555</v>
+      </c>
+      <c r="K9" s="30">
+        <v>1.4894503267095116</v>
       </c>
       <c r="L9" s="30">
         <f t="shared" si="0"/>
-        <v>0.86541028956347699</v>
+        <v>1.1662896536418408</v>
       </c>
       <c r="M9" s="30">
         <v>0.48821533640581133</v>
@@ -12562,17 +12583,20 @@
       </c>
       <c r="H10" s="31">
         <f>VLOOKUP(F10,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>17.770098364755199</v>
+        <v>19.482476804508799</v>
       </c>
       <c r="I10" s="30">
-        <v>17.352426464494599</v>
+        <v>17.613308735917627</v>
       </c>
       <c r="J10" s="30">
-        <v>16.2067419529189</v>
+        <v>17.067480468046199</v>
+      </c>
+      <c r="K10" s="30">
+        <v>18.473544022536192</v>
       </c>
       <c r="L10" s="30">
         <f t="shared" si="0"/>
-        <v>13.7661776960718</v>
+        <v>14.340003372823332</v>
       </c>
       <c r="M10" s="30">
         <v>8.8850491823775997</v>
@@ -12598,17 +12622,20 @@
       </c>
       <c r="H11" s="31">
         <f>VLOOKUP(F11,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>19.5397050142764</v>
+        <v>20.3153817696899</v>
       </c>
       <c r="I11" s="30">
-        <v>20.047656182086499</v>
+        <v>20.746846228178715</v>
       </c>
       <c r="J11" s="30">
-        <v>17.9214706310973</v>
+        <v>18.66727780331064</v>
+      </c>
+      <c r="K11" s="30">
+        <v>19.411458005544933</v>
       </c>
       <c r="L11" s="30">
         <f t="shared" si="0"/>
-        <v>15.932252704329224</v>
+        <v>16.429457485804782</v>
       </c>
       <c r="M11" s="30">
         <v>11.953816850793071</v>
@@ -12634,17 +12661,20 @@
       </c>
       <c r="H12" s="31">
         <f>VLOOKUP(F12,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>1.28965569884044</v>
+        <v>1.4729468330623701</v>
       </c>
       <c r="I12" s="30">
-        <v>1.3174050900000001</v>
+        <v>1.4943226387301358</v>
       </c>
       <c r="J12" s="30">
-        <v>2.2861941894738802</v>
+        <v>1.4634791461847667</v>
+      </c>
+      <c r="K12" s="30">
+        <v>1.4446377495642824</v>
       </c>
       <c r="L12" s="30">
         <f t="shared" si="0"/>
-        <v>1.8333550602163233</v>
+        <v>1.2848783646902477</v>
       </c>
       <c r="M12" s="30">
         <v>0.92767680170120992</v>
@@ -12670,17 +12700,20 @@
       </c>
       <c r="H13" s="31">
         <f>VLOOKUP(F13,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>4.2689583715443504</v>
+        <v>4.65085642477431</v>
       </c>
       <c r="I13" s="30">
-        <v>5.7587113786598101</v>
+        <v>5.007589393109674</v>
       </c>
       <c r="J13" s="30">
-        <v>5.7966251432017799</v>
+        <v>4.7554316434518897</v>
+      </c>
+      <c r="K13" s="30">
+        <v>4.7269471440454405</v>
       </c>
       <c r="L13" s="30">
         <f t="shared" si="0"/>
-        <v>6.8655407588300337</v>
+        <v>6.1714117589967739</v>
       </c>
       <c r="M13" s="30">
         <v>9.0033719900865421</v>
@@ -12706,17 +12739,20 @@
       </c>
       <c r="H14" s="31">
         <f>VLOOKUP(F14,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>0.16518244671693</v>
+        <v>0.1947788154134</v>
       </c>
       <c r="I14" s="30">
-        <v>0.19765643241907199</v>
+        <v>0.26558264395501924</v>
       </c>
       <c r="J14" s="30">
-        <v>0.19444424313328701</v>
+        <v>0.2542796677646712</v>
+      </c>
+      <c r="K14" s="30">
+        <v>0.25565928356184919</v>
       </c>
       <c r="L14" s="30">
         <f t="shared" si="0"/>
-        <v>0.13734812058446252</v>
+        <v>0.17723840367205199</v>
       </c>
       <c r="M14" s="30">
         <v>2.3155875486813523E-2</v>
@@ -12742,17 +12778,20 @@
       </c>
       <c r="H15" s="31">
         <f>VLOOKUP(F15,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>4.2546573385120396</v>
+        <v>4.6984287524850101</v>
       </c>
       <c r="I15" s="30">
-        <v>4.4510147654637802</v>
+        <v>4.3090308460490396</v>
       </c>
       <c r="J15" s="30">
-        <v>4.5897245674903298</v>
+        <v>4.2602225832464828</v>
+      </c>
+      <c r="K15" s="30">
+        <v>4.1432118323518896</v>
       </c>
       <c r="L15" s="30">
         <f t="shared" si="0"/>
-        <v>4.1809760165229068</v>
+        <v>3.9613080270270089</v>
       </c>
       <c r="M15" s="30">
         <v>3.3634789145880619</v>
@@ -12778,17 +12817,20 @@
       </c>
       <c r="H16" s="31">
         <f>VLOOKUP(F16,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>4.0239683065477196</v>
+        <v>1.9571195447376</v>
       </c>
       <c r="I16" s="30">
-        <v>4.3602102234671296</v>
+        <v>2.1699504611733866</v>
       </c>
       <c r="J16" s="30">
-        <v>3.5251257971202601</v>
+        <v>1.9706387130131231</v>
+      </c>
+      <c r="K16" s="30">
+        <v>1.9076981609625141</v>
       </c>
       <c r="L16" s="30">
         <f t="shared" si="0"/>
-        <v>3.4314725583947805</v>
+        <v>2.3951478356566893</v>
       </c>
       <c r="M16" s="30">
         <v>3.2441660809438213</v>
@@ -12822,6 +12864,7 @@
       <c r="J17" s="30">
         <v>10.76129175</v>
       </c>
+      <c r="K17" s="30"/>
       <c r="L17" s="30">
         <v>16.798154247711324</v>
       </c>
@@ -12857,6 +12900,7 @@
       <c r="J18" s="30">
         <v>23.13677727</v>
       </c>
+      <c r="K18" s="30"/>
       <c r="L18" s="30">
         <v>30.018312954312446</v>
       </c>
@@ -12892,6 +12936,7 @@
       <c r="J19" s="30">
         <v>19.908389740000001</v>
       </c>
+      <c r="K19" s="30"/>
       <c r="L19" s="30">
         <v>25.857221286837778</v>
       </c>
@@ -12927,6 +12972,7 @@
       <c r="J20" s="30">
         <v>11.754512350000001</v>
       </c>
+      <c r="K20" s="30"/>
       <c r="L20" s="30">
         <f>(J20*2/3)+(M20/3)</f>
         <v>10.986341566666667</v>
@@ -12955,7 +13001,7 @@
       </c>
       <c r="H21" s="31">
         <f>VLOOKUP(F21,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>7.7245727925227703</v>
+        <v>7.7105748259750104</v>
       </c>
       <c r="I21" s="30">
         <v>10.927548</v>
@@ -12963,6 +13009,7 @@
       <c r="J21" s="30">
         <v>9.9341345454545458</v>
       </c>
+      <c r="K21" s="30"/>
       <c r="L21" s="30">
         <v>0</v>
       </c>
@@ -12998,6 +13045,7 @@
       <c r="J22" s="30">
         <v>4.4094344637268001</v>
       </c>
+      <c r="K22" s="30"/>
       <c r="L22" s="30">
         <f>(J22*2/3)+(M22/3)</f>
         <v>4.1107229120604369</v>
@@ -13027,7 +13075,7 @@
       </c>
       <c r="H23" s="31">
         <f>VLOOKUP(F23,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>21.784659175997099</v>
+        <v>20.831454920682301</v>
       </c>
       <c r="I23" s="30">
         <v>13.63038308</v>
@@ -13035,6 +13083,7 @@
       <c r="J23" s="30">
         <v>13.57977245</v>
       </c>
+      <c r="K23" s="30"/>
       <c r="L23" s="30">
         <v>0</v>
       </c>
@@ -13070,6 +13119,7 @@
       <c r="J24" s="30">
         <v>0.23</v>
       </c>
+      <c r="K24" s="30"/>
       <c r="L24" s="30">
         <f>(J24*2/3)+(M24/3)</f>
         <v>0.23116440009552636</v>
@@ -13099,7 +13149,7 @@
       </c>
       <c r="H25" s="31">
         <f>VLOOKUP(F25,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>45.935836654432002</v>
+        <v>45.9683637522608</v>
       </c>
       <c r="I25" s="30">
         <v>46.104277330000002</v>
@@ -13107,13 +13157,14 @@
       <c r="J25" s="30">
         <v>46.814427170000002</v>
       </c>
+      <c r="K25" s="30"/>
       <c r="L25" s="30">
         <f>(J25*2/3)+(M25/3)</f>
-        <v>46.521563664810671</v>
+        <v>46.532406030753599</v>
       </c>
       <c r="M25" s="30">
         <f>H25</f>
-        <v>45.935836654432002</v>
+        <v>45.9683637522608</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -13144,6 +13195,7 @@
       <c r="J26" s="30">
         <v>29.618106901468909</v>
       </c>
+      <c r="K26" s="30"/>
       <c r="L26" s="30">
         <f>J26*2/3+M26*1/3</f>
         <v>30.669454951005577</v>
@@ -13179,6 +13231,7 @@
       <c r="J27" s="30">
         <v>59.593058464401295</v>
       </c>
+      <c r="K27" s="30"/>
       <c r="L27" s="30">
         <f>J27*2/3+M27*1/3</f>
         <v>61.758486976267527</v>
@@ -13209,10 +13262,10 @@
         <v>5.6291760000000002</v>
       </c>
       <c r="I28" s="31"/>
-      <c r="J28" s="1">
+      <c r="J28" s="31">
         <v>10.868399999999999</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="31">
         <v>14.3748</v>
       </c>
       <c r="L28" s="30">
@@ -13806,7 +13859,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CDC06E-A090-4400-940C-F27CE210A63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7931AD74-F7B9-4B07-A46D-3ADA32E9C2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="205">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -7154,15 +7154,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:AF39"/>
+  <dimension ref="B2:AF57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:32" x14ac:dyDescent="0.25">
@@ -7532,111 +7535,111 @@
         <v>TRAPS</v>
       </c>
       <c r="F6">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22013337234900038</v>
+        <v>0.20300060063434958</v>
       </c>
       <c r="H6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.4009880572578792</v>
+        <v>4.0584633282751126</v>
       </c>
       <c r="I6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.81165259699007086</v>
+        <v>0.74848244469808678</v>
       </c>
       <c r="J6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37655441851313964</v>
+        <v>0.34724754504054051</v>
       </c>
       <c r="K6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29687534713972835</v>
+        <v>0.27376982026764263</v>
       </c>
       <c r="L6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14916973721149449</v>
+        <v>0.13755999795611623</v>
       </c>
       <c r="M6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42774606708378576</v>
+        <v>0.39445499612536866</v>
       </c>
       <c r="N6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70408098034094257</v>
+        <v>0.64928302501009705</v>
       </c>
       <c r="O6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29145633492762191</v>
+        <v>0.26877256463954802</v>
       </c>
       <c r="P6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33036260431521525</v>
+        <v>0.30465079595834027</v>
       </c>
       <c r="Q6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57497555232088293</v>
+        <v>0.53022575007917072</v>
       </c>
       <c r="R6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50859615687551163</v>
+        <v>0.46901260006304341</v>
       </c>
       <c r="S6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44762675920289052</v>
+        <v>0.41278839282092511</v>
       </c>
       <c r="T6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.8929540020085456</v>
+        <v>1.7456271862846215</v>
       </c>
       <c r="U6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57957821737928084</v>
+        <v>0.53447019407874841</v>
       </c>
       <c r="V6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69110007094669024</v>
+        <v>0.6373124074899349</v>
       </c>
       <c r="W6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63005528921010856</v>
+        <v>0.58101868325410067</v>
       </c>
       <c r="X6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41837694910420542</v>
+        <v>0.38581506771754165</v>
       </c>
       <c r="Y6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.93510054350577965</v>
+        <v>0.86232255454765427</v>
       </c>
       <c r="Z6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1200131034420438</v>
+        <v>0.11067259735658087</v>
       </c>
       <c r="AA6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50079180614331698</v>
+        <v>0.46181565455091583</v>
       </c>
       <c r="AB6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26196921512614108</v>
+        <v>0.24158039942260146</v>
       </c>
       <c r="AC6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23096481205860275</v>
+        <v>0.21298903965802496</v>
       </c>
       <c r="AD6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25761801506600557</v>
+        <v>0.2375678491388247</v>
       </c>
       <c r="AE6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49973451054237167</v>
+        <v>0.46084064726442553</v>
       </c>
       <c r="AF6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23967972865007509</v>
+        <v>0.22102568255169014</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
@@ -7648,111 +7651,111 @@
         <v>TRAPS</v>
       </c>
       <c r="F7">
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24309913348208881</v>
+        <v>0.20581574700260574</v>
       </c>
       <c r="H7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.8601280749391584</v>
+        <v>4.1147447789880296</v>
       </c>
       <c r="I7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89632953382440306</v>
+        <v>0.75886215603544716</v>
       </c>
       <c r="J7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41583905190108156</v>
+        <v>0.3520630611634093</v>
       </c>
       <c r="K7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32784733578443265</v>
+        <v>0.27756637117860672</v>
       </c>
       <c r="L7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16473210522743295</v>
+        <v>0.13946763531016038</v>
       </c>
       <c r="M7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47237134991773067</v>
+        <v>0.39992516984068205</v>
       </c>
       <c r="N7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.77753533867069746</v>
+        <v>0.65828707102826567</v>
       </c>
       <c r="O7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32186297657967117</v>
+        <v>0.27249981523322875</v>
       </c>
       <c r="P7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36482820386083858</v>
+        <v>0.30887559420597338</v>
       </c>
       <c r="Q7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63496078332453143</v>
+        <v>0.53757874849408638</v>
       </c>
       <c r="R7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56165625279541498</v>
+        <v>0.47551671440363152</v>
       </c>
       <c r="S7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49432612658610575</v>
+        <v>0.41851280812450969</v>
       </c>
       <c r="T7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.0904394127037014</v>
+        <v>1.7698349768943153</v>
       </c>
       <c r="U7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64004362867171904</v>
+        <v>0.54188205306389559</v>
       </c>
       <c r="V7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.7632001754381581</v>
+        <v>0.64615044887396766</v>
       </c>
       <c r="W7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6957868006035649</v>
+        <v>0.58907606156204939</v>
       </c>
       <c r="X7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46202478393355773</v>
+        <v>0.39116542571308227</v>
       </c>
       <c r="Y7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0326563819886783</v>
+        <v>0.87428096353814211</v>
       </c>
       <c r="Z7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13253365967156872</v>
+        <v>0.1122073689756809</v>
       </c>
       <c r="AA7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55303770086872694</v>
+        <v>0.46821996398965782</v>
       </c>
       <c r="AB7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2892995665154402</v>
+        <v>0.24493055790465146</v>
       </c>
       <c r="AC7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2550605802162681</v>
+        <v>0.21594270245310049</v>
       </c>
       <c r="AD7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28449442064891911</v>
+        <v>0.2408623628773443</v>
       </c>
       <c r="AE7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55187010123727831</v>
+        <v>0.46723143561892932</v>
       </c>
       <c r="AF7" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26468469422110324</v>
+        <v>0.22409079489905456</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
@@ -7760,115 +7763,115 @@
         <v>59</v>
       </c>
       <c r="E8" t="str">
-        <f>DEMANDS!$F$18</f>
-        <v>TRAPM</v>
+        <f>DEMANDS!$F$17</f>
+        <v>TRAPS</v>
       </c>
       <c r="F8">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="G8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44504487721842145</v>
+        <v>0.22013337234900038</v>
       </c>
       <c r="H8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.7937079104025209</v>
+        <v>4.4009880572578792</v>
       </c>
       <c r="I8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5870469217794945</v>
+        <v>0.81165259699007086</v>
       </c>
       <c r="J8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75371941599977788</v>
+        <v>0.37655441851313964</v>
       </c>
       <c r="K8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56707222956060799</v>
+        <v>0.29687534713972835</v>
       </c>
       <c r="L8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29215269212908374</v>
+        <v>0.14916973721149449</v>
       </c>
       <c r="M8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.78692852808848446</v>
+        <v>0.42774606708378576</v>
       </c>
       <c r="N8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3661978764195406</v>
+        <v>0.70408098034094257</v>
       </c>
       <c r="O8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57898198131513856</v>
+        <v>0.29145633492762191</v>
       </c>
       <c r="P8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65358230250256555</v>
+        <v>0.33036260431521525</v>
       </c>
       <c r="Q8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1591453120223312</v>
+        <v>0.57497555232088293</v>
       </c>
       <c r="R8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98363731275831134</v>
+        <v>0.50859615687551163</v>
       </c>
       <c r="S8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89211010866799778</v>
+        <v>0.44762675920289052</v>
       </c>
       <c r="T8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.6052969056240896</v>
+        <v>1.8929540020085456</v>
       </c>
       <c r="U8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1800127078014957</v>
+        <v>0.57957821737928084</v>
       </c>
       <c r="V8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3289979498467648</v>
+        <v>0.69110007094669024</v>
       </c>
       <c r="W8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2889705463689798</v>
+        <v>0.63005528921010856</v>
       </c>
       <c r="X8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.81318189166940957</v>
+        <v>0.41837694910420542</v>
       </c>
       <c r="Y8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.8206653161788104</v>
+        <v>0.93510054350577965</v>
       </c>
       <c r="Z8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23862041442976697</v>
+        <v>0.1200131034420438</v>
       </c>
       <c r="AA8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0083408487910557</v>
+        <v>0.50079180614331698</v>
       </c>
       <c r="AB8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54292180091605458</v>
+        <v>0.26196921512614108</v>
       </c>
       <c r="AC8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44291300994417443</v>
+        <v>0.23096481205860275</v>
       </c>
       <c r="AD8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48125689749079964</v>
+        <v>0.25761801506600557</v>
       </c>
       <c r="AE8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.88631243709750096</v>
+        <v>0.49973451054237167</v>
       </c>
       <c r="AF8" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48743823497682215</v>
+        <v>0.23967972865007509</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
@@ -7876,115 +7879,115 @@
         <v>59</v>
       </c>
       <c r="E9" t="str">
-        <f>DEMANDS!$F$18</f>
-        <v>TRAPM</v>
+        <f>DEMANDS!$F$17</f>
+        <v>TRAPS</v>
       </c>
       <c r="F9">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32193664473309486</v>
+        <v>0.24309913348208881</v>
       </c>
       <c r="H9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.637813854608976</v>
+        <v>4.8601280749391584</v>
       </c>
       <c r="I9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1480382927336128</v>
+        <v>0.89632953382440306</v>
       </c>
       <c r="J9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54522568908947855</v>
+        <v>0.41583905190108156</v>
       </c>
       <c r="K9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41020881320348074</v>
+        <v>0.32784733578443265</v>
       </c>
       <c r="L9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21133746790128183</v>
+        <v>0.16473210522743295</v>
       </c>
       <c r="M9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56924850267004323</v>
+        <v>0.47237134991773067</v>
       </c>
       <c r="N9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98828046988197249</v>
+        <v>0.77753533867069746</v>
       </c>
       <c r="O9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41882409160736161</v>
+        <v>0.32186297657967117</v>
       </c>
       <c r="P9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47278848560105868</v>
+        <v>0.36482820386083858</v>
       </c>
       <c r="Q9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83850274795415447</v>
+        <v>0.63496078332453143</v>
       </c>
       <c r="R9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71154373932557857</v>
+        <v>0.56165625279541498</v>
       </c>
       <c r="S9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64533477367968184</v>
+        <v>0.49432612658610575</v>
       </c>
       <c r="T9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.6080003354214218</v>
+        <v>2.0904394127037014</v>
       </c>
       <c r="U9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.8535978085319772</v>
+        <v>0.64004362867171904</v>
       </c>
       <c r="V9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.96137078018953437</v>
+        <v>0.7632001754381581</v>
       </c>
       <c r="W9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.932415749736074</v>
+        <v>0.6957868006035649</v>
       </c>
       <c r="X9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58823966562202801</v>
+        <v>0.46202478393355773</v>
       </c>
       <c r="Y9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3170332096303565</v>
+        <v>1.0326563819886783</v>
       </c>
       <c r="Z9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17261327906182664</v>
+        <v>0.13253365967156872</v>
       </c>
       <c r="AA9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.72941378774211518</v>
+        <v>0.55303770086872694</v>
       </c>
       <c r="AB9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.39273887171064176</v>
+        <v>0.2892995665154402</v>
       </c>
       <c r="AC9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32039449419408184</v>
+        <v>0.2550605802162681</v>
       </c>
       <c r="AD9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34813170258514758</v>
+        <v>0.28449442064891911</v>
       </c>
       <c r="AE9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64114085295794276</v>
+        <v>0.55187010123727831</v>
       </c>
       <c r="AF9" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35260315962707711</v>
+        <v>0.26468469422110324</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
@@ -7996,111 +7999,111 @@
         <v>TRAPM</v>
       </c>
       <c r="F10">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="G10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41768976034488769</v>
+        <v>0.44504487721842145</v>
       </c>
       <c r="H10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3146600622399829</v>
+        <v>7.7937079104025209</v>
       </c>
       <c r="I10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.4894975368716143</v>
+        <v>1.5870469217794945</v>
       </c>
       <c r="J10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70739131793607068</v>
+        <v>0.75371941599977788</v>
       </c>
       <c r="K10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.53221658261479987</v>
+        <v>0.56707222956060799</v>
       </c>
       <c r="L10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27419524233647252</v>
+        <v>0.29215269212908374</v>
       </c>
       <c r="M10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73855919960295846</v>
+        <v>0.78692852808848446</v>
       </c>
       <c r="N10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2822231932023955</v>
+        <v>1.3661978764195406</v>
       </c>
       <c r="O10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54339428987706229</v>
+        <v>0.57898198131513856</v>
       </c>
       <c r="P10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61340922965837164</v>
+        <v>0.65358230250256555</v>
       </c>
       <c r="Q10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0878973163551044</v>
+        <v>1.1591453120223312</v>
       </c>
       <c r="R10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.92317708721915415</v>
+        <v>0.98363731275831134</v>
       </c>
       <c r="S10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83727569188018924</v>
+        <v>0.89211010866799778</v>
       </c>
       <c r="T10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.383693819585794</v>
+        <v>3.6052969056240896</v>
       </c>
       <c r="U10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1074820773268463</v>
+        <v>1.1800127078014957</v>
       </c>
       <c r="V10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.247309796350949</v>
+        <v>1.3289979498467648</v>
       </c>
       <c r="W10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.209742716216559</v>
+        <v>1.2889705463689798</v>
       </c>
       <c r="X10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.76319887461933211</v>
+        <v>0.81318189166940957</v>
       </c>
       <c r="Y10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.7087563491035254</v>
+        <v>1.8206653161788104</v>
       </c>
       <c r="Z10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22395337822898009</v>
+        <v>0.23862041442976697</v>
       </c>
       <c r="AA10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.94636219634720298</v>
+        <v>1.0083408487910557</v>
       </c>
       <c r="AB10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50955058359057326</v>
+        <v>0.54292180091605458</v>
       </c>
       <c r="AC10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41568893036919446</v>
+        <v>0.44291300994417443</v>
       </c>
       <c r="AD10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45167597351895944</v>
+        <v>0.48125689749079964</v>
       </c>
       <c r="AE10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83183437983998654</v>
+        <v>0.88631243709750096</v>
       </c>
       <c r="AF10" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45747736907548092</v>
+        <v>0.48743823497682215</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
@@ -8112,111 +8115,111 @@
         <v>TRAPM</v>
       </c>
       <c r="F11">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41759598665646924</v>
+        <v>0.32193664473309486</v>
       </c>
       <c r="H11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3130178801261643</v>
+        <v>5.637813854608976</v>
       </c>
       <c r="I11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.4891631363399678</v>
+        <v>1.1480382927336128</v>
       </c>
       <c r="J11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70723250462692167</v>
+        <v>0.54522568908947855</v>
       </c>
       <c r="K11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5320970970139367</v>
+        <v>0.41020881320348074</v>
       </c>
       <c r="L11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27413368397028359</v>
+        <v>0.21133746790128183</v>
       </c>
       <c r="M11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73839338892997242</v>
+        <v>0.56924850267004323</v>
       </c>
       <c r="N11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2819353269207252</v>
+        <v>0.98828046988197249</v>
       </c>
       <c r="O11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54327229481837269</v>
+        <v>0.41882409160736161</v>
       </c>
       <c r="P11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61327151585392625</v>
+        <v>0.47278848560105868</v>
       </c>
       <c r="Q11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0876530773201545</v>
+        <v>0.83850274795415447</v>
       </c>
       <c r="R11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.92296982879735212</v>
+        <v>0.71154373932557857</v>
       </c>
       <c r="S11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83708771880230992</v>
+        <v>0.64533477367968184</v>
       </c>
       <c r="T11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.3829341613895312</v>
+        <v>2.6080003354214218</v>
       </c>
       <c r="U11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1072334414034699</v>
+        <v>0.8535978085319772</v>
       </c>
       <c r="V11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2470297683222329</v>
+        <v>0.96137078018953437</v>
       </c>
       <c r="W11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2094711222075432</v>
+        <v>0.932415749736074</v>
       </c>
       <c r="X11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.76302753220143149</v>
+        <v>0.58823966562202801</v>
       </c>
       <c r="Y11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.7083727237416502</v>
+        <v>1.3170332096303565</v>
       </c>
       <c r="Z11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22390309944241621</v>
+        <v>0.17261327906182664</v>
       </c>
       <c r="AA11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.94614973273866743</v>
+        <v>0.72941378774211518</v>
       </c>
       <c r="AB11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50943618663332069</v>
+        <v>0.39273887171064176</v>
       </c>
       <c r="AC11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41559560587830136</v>
+        <v>0.32039449419408184</v>
       </c>
       <c r="AD11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45157456973551047</v>
+        <v>0.34813170258514758</v>
       </c>
       <c r="AE11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83164762836710771</v>
+        <v>0.64114085295794276</v>
       </c>
       <c r="AF11" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45737466284626727</v>
+        <v>0.35260315962707711</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
@@ -8224,115 +8227,115 @@
         <v>59</v>
       </c>
       <c r="E12" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F12">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37926872049762789</v>
+        <v>0.46342451965761583</v>
       </c>
       <c r="H12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.7564300396473245</v>
+        <v>8.1155755961155194</v>
       </c>
       <c r="I12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3651288565890147</v>
+        <v>1.6525894242319275</v>
       </c>
       <c r="J12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6573642766274751</v>
+        <v>0.7848468237617493</v>
       </c>
       <c r="K12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48841646133907779</v>
+        <v>0.59049140670441203</v>
       </c>
       <c r="L12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.251491627138621</v>
+        <v>0.3042181315799129</v>
       </c>
       <c r="M12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68336533267305366</v>
+        <v>0.81942741912586947</v>
       </c>
       <c r="N12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.162072263976734</v>
+        <v>1.4226196661202095</v>
       </c>
       <c r="O12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50087352131013296</v>
+        <v>0.60289301217975388</v>
       </c>
       <c r="P12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5550828629753175</v>
+        <v>0.68057420745305641</v>
       </c>
       <c r="Q12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98659875855138779</v>
+        <v>1.2070161615941664</v>
       </c>
       <c r="R12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84482869568365948</v>
+        <v>1.0242599623466919</v>
       </c>
       <c r="S12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75747508723845136</v>
+        <v>0.9289528309484778</v>
       </c>
       <c r="T12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0886844490300494</v>
+        <v>3.7541899081155736</v>
       </c>
       <c r="U12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0271865360143977</v>
+        <v>1.2287453474819043</v>
       </c>
       <c r="V12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1378934179320885</v>
+        <v>1.3838834420094299</v>
       </c>
       <c r="W12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1008328480688923</v>
+        <v>1.3422029707145537</v>
       </c>
       <c r="X12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69324706204747966</v>
+        <v>0.84676500468112548</v>
       </c>
       <c r="Y12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5750464525866097</v>
+        <v>1.8958558850984162</v>
       </c>
       <c r="Z12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20319350320920349</v>
+        <v>0.248475056333125</v>
       </c>
       <c r="AA12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.87339211119017246</v>
+        <v>1.0499837149519835</v>
       </c>
       <c r="AB12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4577994904920954</v>
+        <v>0.56534360393881622</v>
       </c>
       <c r="AC12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3815792132296843</v>
+        <v>0.46120460967074761</v>
       </c>
       <c r="AD12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40809739213380453</v>
+        <v>0.50113203851603993</v>
       </c>
       <c r="AE12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75174517940800556</v>
+        <v>0.92291572480430029</v>
       </c>
       <c r="AF12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43424277040967463</v>
+        <v>0.50756865536512175</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
@@ -8340,115 +8343,115 @@
         <v>59</v>
       </c>
       <c r="E13" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F13">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27435547637321495</v>
+        <v>0.46985114031488934</v>
       </c>
       <c r="H13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.8874675973215007</v>
+        <v>8.2281197614743018</v>
       </c>
       <c r="I13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98750716185845822</v>
+        <v>1.6755069973884091</v>
       </c>
       <c r="J13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47552429060912443</v>
+        <v>0.79573082449202848</v>
       </c>
       <c r="K13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35331078909799174</v>
+        <v>0.59868014966318506</v>
       </c>
       <c r="L13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18192405921838437</v>
+        <v>0.30843692977853454</v>
       </c>
       <c r="M13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49433293928500699</v>
+        <v>0.83079097231632504</v>
       </c>
       <c r="N13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085211</v>
+        <v>1.4423480933956727</v>
       </c>
       <c r="O13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36232197941731037</v>
+        <v>0.61125373657358362</v>
       </c>
       <c r="P13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40153594290187117</v>
+        <v>0.69001218942184994</v>
       </c>
       <c r="Q13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71368599033539704</v>
+        <v>1.2237546695252854</v>
       </c>
       <c r="R13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61113233633908892</v>
+        <v>1.0384640666899378</v>
       </c>
       <c r="S13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54794246709160832</v>
+        <v>0.94183524696180598</v>
       </c>
       <c r="T13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2342931214267647</v>
+        <v>3.8062517939058389</v>
       </c>
       <c r="U13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.74304638421703217</v>
+        <v>1.2457851887024125</v>
       </c>
       <c r="V13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.82312954869858934</v>
+        <v>1.4030746879155536</v>
       </c>
       <c r="W13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.79632066689536773</v>
+        <v>1.3608162053880686</v>
       </c>
       <c r="X13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5014811864865022</v>
+        <v>0.85850766662521183</v>
       </c>
       <c r="Y13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1393573908292929</v>
+        <v>1.9221469984891983</v>
       </c>
       <c r="Z13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14698615350023855</v>
+        <v>0.25192082767691892</v>
       </c>
       <c r="AA13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63179454507028443</v>
+        <v>1.0645445479378959</v>
       </c>
       <c r="AB13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916709</v>
+        <v>0.57318360534015544</v>
       </c>
       <c r="AC13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27602684102814479</v>
+        <v>0.46760044533764245</v>
       </c>
       <c r="AD13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2952095661319819</v>
+        <v>0.50808157479247218</v>
       </c>
       <c r="AE13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54379756531765255</v>
+        <v>0.93571442019126849</v>
       </c>
       <c r="AF13" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31412261464919838</v>
+        <v>0.5146074525525558</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
@@ -8456,115 +8459,115 @@
         <v>59</v>
       </c>
       <c r="E14" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F14">
         <v>2030</v>
       </c>
       <c r="G14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35633571356022747</v>
+        <v>0.41768976034488769</v>
       </c>
       <c r="H14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.3478931669835497</v>
+        <v>7.3146600622399829</v>
       </c>
       <c r="I14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2825844550957279</v>
+        <v>1.4894975368716143</v>
       </c>
       <c r="J14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61761583785161944</v>
+        <v>0.70739131793607068</v>
       </c>
       <c r="K14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4588836855237316</v>
+        <v>0.53221658261479987</v>
       </c>
       <c r="L14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23628483860541222</v>
+        <v>0.27419524233647252</v>
       </c>
       <c r="M14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64204470413714976</v>
+        <v>0.73855919960295846</v>
       </c>
       <c r="N14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0918059597674847</v>
+        <v>1.2822231932023955</v>
       </c>
       <c r="O14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47058751216101496</v>
+        <v>0.54339428987706229</v>
       </c>
       <c r="P14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.52151901112182775</v>
+        <v>0.61340922965837164</v>
       </c>
       <c r="Q14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.92694270216845409</v>
+        <v>1.0878973163551044</v>
       </c>
       <c r="R14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.79374496192990407</v>
+        <v>0.92317708721915415</v>
       </c>
       <c r="S14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71167331005061707</v>
+        <v>0.83727569188018924</v>
       </c>
       <c r="T14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9019228784894868</v>
+        <v>3.383693819585794</v>
       </c>
       <c r="U14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.965076283617325</v>
+        <v>1.1074820773268463</v>
       </c>
       <c r="V14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0690891210387938</v>
+        <v>1.247309796350949</v>
       </c>
       <c r="W14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0342694697113035</v>
+        <v>1.209742716216559</v>
       </c>
       <c r="X14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65132892109874119</v>
+        <v>0.76319887461933211</v>
       </c>
       <c r="Y14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.4798090937648649</v>
+        <v>1.7087563491035254</v>
       </c>
       <c r="Z14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19090712743685584</v>
+        <v>0.22395337822898009</v>
       </c>
       <c r="AA14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.82058125107306379</v>
+        <v>0.94636219634720298</v>
       </c>
       <c r="AB14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43011801209962869</v>
+        <v>0.50955058359057326</v>
       </c>
       <c r="AC14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35850649915855681</v>
+        <v>0.41568893036919446</v>
       </c>
       <c r="AD14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38342121975486437</v>
+        <v>0.45167597351895944</v>
       </c>
       <c r="AE14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70628986900987611</v>
+        <v>0.83183437983998654</v>
       </c>
       <c r="AF14" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4079856816277293</v>
+        <v>0.45747736907548092</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
@@ -8572,115 +8575,115 @@
         <v>59</v>
       </c>
       <c r="E15" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F15">
         <v>2050</v>
       </c>
       <c r="G15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35538578065388149</v>
+        <v>0.41759598665646924</v>
       </c>
       <c r="H15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.3309707189217512</v>
+        <v>7.3130178801261643</v>
       </c>
       <c r="I15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2791652940835176</v>
+        <v>1.4891631363399678</v>
       </c>
       <c r="J15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61596937473964586</v>
+        <v>0.70723250462692167</v>
       </c>
       <c r="K15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45766037644615121</v>
+        <v>0.5320970970139367</v>
       </c>
       <c r="L15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23565494175555857</v>
+        <v>0.27413368397028359</v>
       </c>
       <c r="M15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64033311765116041</v>
+        <v>0.73839338892997242</v>
       </c>
       <c r="N15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0888953831144585</v>
+        <v>1.2819353269207252</v>
       </c>
       <c r="O15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46933300259010807</v>
+        <v>0.54327229481837269</v>
       </c>
       <c r="P15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.52012872647985364</v>
+        <v>0.61327151585392625</v>
       </c>
       <c r="Q15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.92447162407670325</v>
+        <v>1.0876530773201545</v>
       </c>
       <c r="R15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.79162896729369392</v>
+        <v>0.92296982879735212</v>
       </c>
       <c r="S15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.709776105055275</v>
+        <v>0.83708771880230992</v>
       </c>
       <c r="T15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.8941868252984846</v>
+        <v>3.3829341613895312</v>
       </c>
       <c r="U15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.9625035476156969</v>
+        <v>1.1072334414034699</v>
       </c>
       <c r="V15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0662391037734891</v>
+        <v>1.2470297683222329</v>
       </c>
       <c r="W15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0315122759585598</v>
+        <v>1.2094711222075432</v>
       </c>
       <c r="X15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64959258440426626</v>
+        <v>0.76302753220143149</v>
       </c>
       <c r="Y15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.4758641640264663</v>
+        <v>1.7083727237416502</v>
       </c>
       <c r="Z15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19039820016544551</v>
+        <v>0.22390309944241621</v>
       </c>
       <c r="AA15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.81839371526606663</v>
+        <v>0.94614973273866743</v>
       </c>
       <c r="AB15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4289713876167125</v>
+        <v>0.50943618663332069</v>
       </c>
       <c r="AC15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35755077929178558</v>
+        <v>0.41559560587830136</v>
       </c>
       <c r="AD15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38239908130571088</v>
+        <v>0.45157456973551047</v>
       </c>
       <c r="AE15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70440701539049588</v>
+        <v>0.83164762836710771</v>
       </c>
       <c r="AF15" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40689805832883513</v>
+        <v>0.45737466284626727</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
@@ -8688,115 +8691,115 @@
         <v>59</v>
       </c>
       <c r="E16" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F16">
         <v>2019</v>
       </c>
       <c r="G16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2178146269505315</v>
+        <v>0.37926872049762789</v>
       </c>
       <c r="H16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.2532352952549441</v>
+        <v>6.7564300396473245</v>
       </c>
       <c r="I16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59035591066396753</v>
+        <v>1.3651288565890147</v>
       </c>
       <c r="J16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37964907365901629</v>
+        <v>0.6573642766274751</v>
       </c>
       <c r="K16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2704057614094616</v>
+        <v>0.48841646133907779</v>
       </c>
       <c r="L16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13049216248614431</v>
+        <v>0.251491627138621</v>
       </c>
       <c r="M16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34195983528392676</v>
+        <v>0.68336533267305366</v>
       </c>
       <c r="N16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5291116374087359</v>
+        <v>1.162072263976734</v>
       </c>
       <c r="O16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24890023926754198</v>
+        <v>0.50087352131013296</v>
       </c>
       <c r="P16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28340932312027484</v>
+        <v>0.5550828629753175</v>
       </c>
       <c r="Q16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57281742387914369</v>
+        <v>0.98659875855138779</v>
       </c>
       <c r="R16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3778873214697962</v>
+        <v>0.84482869568365948</v>
       </c>
       <c r="S16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37186096343983388</v>
+        <v>0.75747508723845136</v>
       </c>
       <c r="T16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.9896591411313085</v>
+        <v>3.0886844490300494</v>
       </c>
       <c r="U16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54135919368811836</v>
+        <v>1.0271865360143977</v>
       </c>
       <c r="V16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.60997441370730043</v>
+        <v>1.1378934179320885</v>
       </c>
       <c r="W16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49935221643128408</v>
+        <v>1.1008328480688923</v>
       </c>
       <c r="X16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46383071132724779</v>
+        <v>0.69324706204747966</v>
       </c>
       <c r="Y16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.74064511268734978</v>
+        <v>1.5750464525866097</v>
       </c>
       <c r="Z16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.8775540783756666E-2</v>
+        <v>0.20319350320920349</v>
       </c>
       <c r="AA16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41714780682374364</v>
+        <v>0.87339211119017246</v>
       </c>
       <c r="AB16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18524594530412608</v>
+        <v>0.4577994904920954</v>
       </c>
       <c r="AC16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20201145503880613</v>
+        <v>0.3815792132296843</v>
       </c>
       <c r="AD16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23481230791235341</v>
+        <v>0.40809739213380453</v>
       </c>
       <c r="AE16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49070889678091939</v>
+        <v>0.75174517940800556</v>
       </c>
       <c r="AF16" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18922217409036649</v>
+        <v>0.43424277040967463</v>
       </c>
     </row>
     <row r="17" spans="4:32" x14ac:dyDescent="0.25">
@@ -8804,115 +8807,115 @@
         <v>59</v>
       </c>
       <c r="E17" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F17">
         <v>2020</v>
       </c>
       <c r="G17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17991488188042462</v>
+        <v>0.27435547637321495</v>
       </c>
       <c r="H17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.6871723541686299</v>
+        <v>4.8874675973215007</v>
       </c>
       <c r="I17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48763398226070803</v>
+        <v>0.98750716185845822</v>
       </c>
       <c r="J17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3135901348759621</v>
+        <v>0.47552429060912443</v>
       </c>
       <c r="K17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22335515894815736</v>
+        <v>0.35331078909799174</v>
       </c>
       <c r="L17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10778652622510916</v>
+        <v>0.18192405921838437</v>
       </c>
       <c r="M17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2824588239748011</v>
+        <v>0.49433293928500699</v>
       </c>
       <c r="N17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43704621254646414</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20559159765702764</v>
+        <v>0.36232197941731037</v>
       </c>
       <c r="P17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23409610092244049</v>
+        <v>0.40153594290187117</v>
       </c>
       <c r="Q17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47314719217489071</v>
+        <v>0.71368599033539704</v>
       </c>
       <c r="R17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31213492756751032</v>
+        <v>0.61113233633908892</v>
       </c>
       <c r="S17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30715715583422787</v>
+        <v>0.54794246709160832</v>
       </c>
       <c r="T17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.643458450750628</v>
+        <v>2.2342931214267647</v>
       </c>
       <c r="U17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44716269403431846</v>
+        <v>0.74304638421703217</v>
       </c>
       <c r="V17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50383886577623815</v>
+        <v>0.82312954869858934</v>
       </c>
       <c r="W17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41246493081645397</v>
+        <v>0.79632066689536773</v>
       </c>
       <c r="X17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38312416759737483</v>
+        <v>0.5014811864865022</v>
       </c>
       <c r="Y17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61177286314532875</v>
+        <v>1.1393573908292929</v>
       </c>
       <c r="Z17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.1588596696128737E-2</v>
+        <v>0.14698615350023855</v>
       </c>
       <c r="AA17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34456408847334713</v>
+        <v>0.63179454507028443</v>
       </c>
       <c r="AB17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15301315083761008</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16686146187994025</v>
+        <v>0.27602684102814479</v>
       </c>
       <c r="AD17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1939549663563945</v>
+        <v>0.2952095661319819</v>
       </c>
       <c r="AE17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40532554878448751</v>
+        <v>0.54379756531765255</v>
       </c>
       <c r="AF17" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15629751581539669</v>
+        <v>0.31412261464919838</v>
       </c>
     </row>
     <row r="18" spans="4:32" x14ac:dyDescent="0.25">
@@ -8920,115 +8923,115 @@
         <v>59</v>
       </c>
       <c r="E18" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F18">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16815723922948045</v>
+        <v>0.3949319127195085</v>
       </c>
       <c r="H18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.5115625771919272</v>
+        <v>7.0354598059455613</v>
       </c>
       <c r="I18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45576654557090263</v>
+        <v>1.4215064973824205</v>
       </c>
       <c r="J18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29309666203927115</v>
+        <v>0.68451237102108609</v>
       </c>
       <c r="K18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20875864466479388</v>
+        <v>0.5085872808789732</v>
       </c>
       <c r="L18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10074255384941797</v>
+        <v>0.2618778295465003</v>
       </c>
       <c r="M18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26399981779815307</v>
+        <v>0.71158722914103401</v>
       </c>
       <c r="N18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40848474428234821</v>
+        <v>1.2100639919064762</v>
       </c>
       <c r="O18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19215595235618702</v>
+        <v>0.5215587975249425</v>
       </c>
       <c r="P18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21879765383536329</v>
+        <v>0.57800689839391617</v>
       </c>
       <c r="Q18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44222648373351059</v>
+        <v>1.0273437110504584</v>
       </c>
       <c r="R18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29173655418750127</v>
+        <v>0.87971877108373875</v>
       </c>
       <c r="S18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2870840855121215</v>
+        <v>0.78875759816931479</v>
       </c>
       <c r="T18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5360565672953015</v>
+        <v>3.2162421821708547</v>
       </c>
       <c r="U18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41794010217122118</v>
+        <v>1.0696076988780558</v>
       </c>
       <c r="V18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47091242147358597</v>
+        <v>1.1848865981492651</v>
       </c>
       <c r="W18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38550987733839071</v>
+        <v>1.1462954859601473</v>
       </c>
       <c r="X18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35808656644693609</v>
+        <v>0.72187705815118308</v>
       </c>
       <c r="Y18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57179280905959506</v>
+        <v>1.6400933547220824</v>
       </c>
       <c r="Z18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.6256688883285045E-2</v>
+        <v>0.21158507026178613</v>
       </c>
       <c r="AA18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32204643245581721</v>
+        <v>0.90946181001663118</v>
       </c>
       <c r="AB18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14301356698084308</v>
+        <v>0.47670587805089104</v>
       </c>
       <c r="AC18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15595687510816669</v>
+        <v>0.39733782511006455</v>
       </c>
       <c r="AD18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18127978817791549</v>
+        <v>0.42495116243643605</v>
       </c>
       <c r="AE18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37883706206178708</v>
+        <v>0.78279105429979845</v>
       </c>
       <c r="AF18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14608329496284322</v>
+        <v>0.45217630306421169</v>
       </c>
     </row>
     <row r="19" spans="4:32" x14ac:dyDescent="0.25">
@@ -9036,115 +9039,115 @@
         <v>59</v>
       </c>
       <c r="E19" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F19">
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1446419539275921</v>
+        <v>0.40040870015918645</v>
       </c>
       <c r="H19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.1603430232385223</v>
+        <v>7.133025276490172</v>
       </c>
       <c r="I19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.39203167219129176</v>
+        <v>1.4412194875955306</v>
       </c>
       <c r="J19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25210971636588919</v>
+        <v>0.69400496616260621</v>
       </c>
       <c r="K19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17956561609806693</v>
+        <v>0.51564020403404931</v>
       </c>
       <c r="L19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.6654609098035573E-2</v>
+        <v>0.2655094661942306</v>
       </c>
       <c r="M19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22708180544485712</v>
+        <v>0.72145528961748062</v>
       </c>
       <c r="N19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3513618077541163</v>
+        <v>1.2268447661580288</v>
       </c>
       <c r="O19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16528466175450579</v>
+        <v>0.52879160545800741</v>
       </c>
       <c r="P19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18820075966120894</v>
+        <v>0.58602251024805196</v>
       </c>
       <c r="Q19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38038506685075008</v>
+        <v>1.0415905798187197</v>
       </c>
       <c r="R19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25093980742748312</v>
+        <v>0.89191842515257114</v>
       </c>
       <c r="S19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24693794486790879</v>
+        <v>0.79969583224834284</v>
       </c>
       <c r="T19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3212528003846484</v>
+        <v>3.2608439836940106</v>
       </c>
       <c r="U19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35949491844502668</v>
+        <v>1.084440670896599</v>
       </c>
       <c r="V19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40505953286828184</v>
+        <v>1.2013182204851272</v>
       </c>
       <c r="W19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33159977038226424</v>
+        <v>1.1621919392916482</v>
       </c>
       <c r="X19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30801136414605851</v>
+        <v>0.73188781463285035</v>
       </c>
       <c r="Y19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49183270088812792</v>
+        <v>1.6628376364469701</v>
       </c>
       <c r="Z19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.5592873257597661E-2</v>
+        <v>0.21451926326547013</v>
       </c>
       <c r="AA19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27701112042075737</v>
+        <v>0.92207393088492728</v>
       </c>
       <c r="AB19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12301439926730905</v>
+        <v>0.48331668027082725</v>
       </c>
       <c r="AC19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13414770156461955</v>
+        <v>0.40284797696101737</v>
       </c>
       <c r="AD19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15592943182095748</v>
+        <v>0.43084424707698105</v>
       </c>
       <c r="AE19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32586008861638621</v>
+        <v>0.79364654628716347</v>
       </c>
       <c r="AF19" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12565485325773626</v>
+        <v>0.45844693710867024</v>
       </c>
     </row>
     <row r="20" spans="4:32" x14ac:dyDescent="0.25">
@@ -9152,115 +9155,115 @@
         <v>59</v>
       </c>
       <c r="E20" t="str">
-        <f t="array" ref="E20:E23">DEMANDS!$F$21</f>
-        <v>TTURS</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F20">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="G20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13064779508364888</v>
+        <v>0.35633571356022747</v>
       </c>
       <c r="H20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.091925148178714</v>
+        <v>6.3478931669835497</v>
       </c>
       <c r="I20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51060312297639654</v>
+        <v>1.2825844550957279</v>
       </c>
       <c r="J20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22771801450398094</v>
+        <v>0.61761583785161944</v>
       </c>
       <c r="K20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19436303485210071</v>
+        <v>0.4588836855237316</v>
       </c>
       <c r="L20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.379553376754686E-2</v>
+        <v>0.23628483860541222</v>
       </c>
       <c r="M20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29576354987636116</v>
+        <v>0.64204470413714976</v>
       </c>
       <c r="N20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44758779850163755</v>
+        <v>1.0918059597674847</v>
       </c>
       <c r="O20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17890523348057963</v>
+        <v>0.47058751216101496</v>
       </c>
       <c r="P20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20370977252820055</v>
+        <v>0.52151901112182775</v>
       </c>
       <c r="Q20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34358268066314335</v>
+        <v>0.92694270216845409</v>
       </c>
       <c r="R20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32683749411207597</v>
+        <v>0.79374496192990407</v>
       </c>
       <c r="S20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2726617555760189</v>
+        <v>0.71167331005061707</v>
       </c>
       <c r="T20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.245775789037278</v>
+        <v>2.9019228784894868</v>
       </c>
       <c r="U20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33895865011628845</v>
+        <v>0.965076283617325</v>
       </c>
       <c r="V20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44725505188660303</v>
+        <v>1.0690891210387938</v>
       </c>
       <c r="W20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36614290116246478</v>
+        <v>1.0342694697113035</v>
       </c>
       <c r="X20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26660117757391266</v>
+        <v>0.65132892109874119</v>
       </c>
       <c r="Y20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59219259298279137</v>
+        <v>1.4798090937648649</v>
       </c>
       <c r="Z20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3534707118324327E-2</v>
+        <v>0.19090712743685584</v>
       </c>
       <c r="AA20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2994880171605025</v>
+        <v>0.82058125107306379</v>
       </c>
       <c r="AB20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14811584497082581</v>
+        <v>0.43011801209962869</v>
       </c>
       <c r="AC20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15038999597426658</v>
+        <v>0.35850649915855681</v>
       </c>
       <c r="AD20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17480900790929638</v>
+        <v>0.38342121975486437</v>
       </c>
       <c r="AE20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36531447683124146</v>
+        <v>0.70628986900987611</v>
       </c>
       <c r="AF20" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14086885317580389</v>
+        <v>0.4079856816277293</v>
       </c>
     </row>
     <row r="21" spans="4:32" x14ac:dyDescent="0.25">
@@ -9268,114 +9271,115 @@
         <v>59</v>
       </c>
       <c r="E21" t="str">
-        <v>TTURS</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F21">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11877072280331716</v>
+        <v>0.35538578065388149</v>
       </c>
       <c r="H21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.8108410437988312</v>
+        <v>6.3309707189217512</v>
       </c>
       <c r="I21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46418465725126962</v>
+        <v>1.2791652940835176</v>
       </c>
       <c r="J21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20701637682180085</v>
+        <v>0.61596937473964586</v>
       </c>
       <c r="K21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17669366804736431</v>
+        <v>0.45766037644615121</v>
       </c>
       <c r="L21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5268667061406234E-2</v>
+        <v>0.23565494175555857</v>
       </c>
       <c r="M21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26887595443305556</v>
+        <v>0.64033311765116041</v>
       </c>
       <c r="N21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40689799863785231</v>
+        <v>1.0888953831144585</v>
       </c>
       <c r="O21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16264112134598149</v>
+        <v>0.46933300259010807</v>
       </c>
       <c r="P21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18519070229836415</v>
+        <v>0.52012872647985364</v>
       </c>
       <c r="Q21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31234789151194853</v>
+        <v>0.92447162407670325</v>
       </c>
       <c r="R21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29712499464734182</v>
+        <v>0.79162896729369392</v>
       </c>
       <c r="S21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24787432325092632</v>
+        <v>0.709776105055275</v>
       </c>
       <c r="T21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1325234445793435</v>
+        <v>2.8941868252984846</v>
       </c>
       <c r="U21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30814422737844405</v>
+        <v>0.9625035476156969</v>
       </c>
       <c r="V21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40659550171509368</v>
+        <v>1.0662391037734891</v>
       </c>
       <c r="W21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33285718287496796</v>
+        <v>1.0315122759585598</v>
       </c>
       <c r="X21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24236470688537518</v>
+        <v>0.64959258440426626</v>
       </c>
       <c r="Y21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.53835690271162862</v>
+        <v>1.4758641640264663</v>
       </c>
       <c r="Z21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.6849733743931203E-2</v>
+        <v>0.19039820016544551</v>
       </c>
       <c r="AA21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27226183378227498</v>
+        <v>0.81839371526606663</v>
       </c>
       <c r="AB21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13465076815529617</v>
+        <v>0.4289713876167125</v>
       </c>
       <c r="AC21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13671817815842419</v>
+        <v>0.35755077929178558</v>
       </c>
       <c r="AD21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15891727991754215</v>
+        <v>0.38239908130571088</v>
       </c>
       <c r="AE21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33210406984658314</v>
+        <v>0.70440701539049588</v>
       </c>
       <c r="AF21" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12806259379618534</v>
+        <v>0.40689805832883513</v>
       </c>
     </row>
     <row r="22" spans="4:32" x14ac:dyDescent="0.25">
@@ -9383,114 +9387,115 @@
         <v>59</v>
       </c>
       <c r="E22" t="str">
-        <v>TTURS</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F22">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="G22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2178146269505315</v>
       </c>
       <c r="H22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.2532352952549441</v>
       </c>
       <c r="I22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.59035591066396753</v>
       </c>
       <c r="J22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.37964907365901629</v>
       </c>
       <c r="K22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2704057614094616</v>
       </c>
       <c r="L22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13049216248614431</v>
       </c>
       <c r="M22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.34195983528392676</v>
       </c>
       <c r="N22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.5291116374087359</v>
       </c>
       <c r="O22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.24890023926754198</v>
       </c>
       <c r="P22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.28340932312027484</v>
       </c>
       <c r="Q22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.57281742387914369</v>
       </c>
       <c r="R22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.3778873214697962</v>
       </c>
       <c r="S22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.37186096343983388</v>
       </c>
       <c r="T22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>1.9896591411313085</v>
       </c>
       <c r="U22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.54135919368811836</v>
       </c>
       <c r="V22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.60997441370730043</v>
       </c>
       <c r="W22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.49935221643128408</v>
       </c>
       <c r="X22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.46383071132724779</v>
       </c>
       <c r="Y22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.74064511268734978</v>
       </c>
       <c r="Z22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.8775540783756666E-2</v>
       </c>
       <c r="AA22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.41714780682374364</v>
       </c>
       <c r="AB22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18524594530412608</v>
       </c>
       <c r="AC22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20201145503880613</v>
       </c>
       <c r="AD22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23481230791235341</v>
       </c>
       <c r="AE22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.49070889678091939</v>
       </c>
       <c r="AF22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18922217409036649</v>
       </c>
     </row>
     <row r="23" spans="4:32" x14ac:dyDescent="0.25">
@@ -9498,114 +9503,115 @@
         <v>59</v>
       </c>
       <c r="E23" t="str">
-        <v>TTURS</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F23">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17991488188042462</v>
       </c>
       <c r="H23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.6871723541686299</v>
       </c>
       <c r="I23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.48763398226070803</v>
       </c>
       <c r="J23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.3135901348759621</v>
       </c>
       <c r="K23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.22335515894815736</v>
       </c>
       <c r="L23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10778652622510916</v>
       </c>
       <c r="M23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2824588239748011</v>
       </c>
       <c r="N23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.43704621254646414</v>
       </c>
       <c r="O23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20559159765702764</v>
       </c>
       <c r="P23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23409610092244049</v>
       </c>
       <c r="Q23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.47314719217489071</v>
       </c>
       <c r="R23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.31213492756751032</v>
       </c>
       <c r="S23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.30715715583422787</v>
       </c>
       <c r="T23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>1.643458450750628</v>
       </c>
       <c r="U23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.44716269403431846</v>
       </c>
       <c r="V23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.50383886577623815</v>
       </c>
       <c r="W23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.41246493081645397</v>
       </c>
       <c r="X23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.38312416759737483</v>
       </c>
       <c r="Y23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.61177286314532875</v>
       </c>
       <c r="Z23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.1588596696128737E-2</v>
       </c>
       <c r="AA23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.34456408847334713</v>
       </c>
       <c r="AB23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15301315083761008</v>
       </c>
       <c r="AC23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16686146187994025</v>
       </c>
       <c r="AD23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1939549663563945</v>
       </c>
       <c r="AE23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.40532554878448751</v>
       </c>
       <c r="AF23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15629751581539669</v>
       </c>
     </row>
     <row r="24" spans="4:32" x14ac:dyDescent="0.25">
@@ -9613,115 +9619,115 @@
         <v>59</v>
       </c>
       <c r="E24" t="str">
-        <f t="array" ref="E24:E27">DEMANDS!$F$22</f>
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F24">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.1369795698699275E-2</v>
+        <v>0.19572571146618054</v>
       </c>
       <c r="H24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2157232586735747</v>
+        <v>2.9233197129377184</v>
       </c>
       <c r="I24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20076556281429395</v>
+        <v>0.53048701205549609</v>
       </c>
       <c r="J24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.9537124407597243E-2</v>
+        <v>0.34114827865193581</v>
       </c>
       <c r="K24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.6422180606561071E-2</v>
+        <v>0.24298349829573737</v>
       </c>
       <c r="L24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.6879745303044567E-2</v>
+        <v>0.11725875209088529</v>
       </c>
       <c r="M24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11629215114226027</v>
+        <v>0.30728116376227216</v>
       </c>
       <c r="N24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17598837968553932</v>
+        <v>0.47545361451038171</v>
       </c>
       <c r="O24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0344281642420695E-2</v>
+        <v>0.22365888414741908</v>
       </c>
       <c r="P24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.0097252233779601E-2</v>
+        <v>0.25466834886374512</v>
       </c>
       <c r="Q24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13509429761119718</v>
+        <v>0.51472713012259241</v>
       </c>
       <c r="R24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12851020783368303</v>
+        <v>0.33956518845505695</v>
       </c>
       <c r="S24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10720868782990856</v>
+        <v>0.3341499726383883</v>
       </c>
       <c r="T24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48983029318066279</v>
+        <v>1.7878847551480515</v>
       </c>
       <c r="U24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13327616126726244</v>
+        <v>0.48645912731760305</v>
       </c>
       <c r="V24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17585754605284931</v>
+        <v>0.54811597260702893</v>
       </c>
       <c r="W24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14396481790758336</v>
+        <v>0.44871214207035037</v>
       </c>
       <c r="X24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10482571111311897</v>
+        <v>0.41679292729504486</v>
       </c>
       <c r="Y24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23284596954990056</v>
+        <v>0.66553515553206655</v>
       </c>
       <c r="Z24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.891333052359172E-2</v>
+        <v>8.8758561654118218E-2</v>
       </c>
       <c r="AA24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11775658552747396</v>
+        <v>0.37484420775688798</v>
       </c>
       <c r="AB24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.8238110264470733E-2</v>
+        <v>0.16645986979152586</v>
       </c>
       <c r="AC24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9132290471338791E-2</v>
+        <v>0.18152516346282133</v>
       </c>
       <c r="AD24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.8733674508960146E-2</v>
+        <v>0.21099963152428264</v>
       </c>
       <c r="AE24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14363908727723138</v>
+        <v>0.44094535472607599</v>
       </c>
       <c r="AF24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.5388643974572375E-2</v>
+        <v>0.17003286311633117</v>
       </c>
     </row>
     <row r="25" spans="4:32" x14ac:dyDescent="0.25">
@@ -9729,114 +9735,115 @@
         <v>59</v>
       </c>
       <c r="E25" t="str">
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F25">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341231E-2</v>
+        <v>0.20179320852163216</v>
       </c>
       <c r="H25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090483</v>
+        <v>3.0139426240387879</v>
       </c>
       <c r="I25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526884</v>
+        <v>0.54693210942921644</v>
       </c>
       <c r="J25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560347E-2</v>
+        <v>0.35172387529014576</v>
       </c>
       <c r="K25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740469136E-2</v>
+        <v>0.25051598674290521</v>
       </c>
       <c r="L25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898793E-2</v>
+        <v>0.12089377340570275</v>
       </c>
       <c r="M25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092819</v>
+        <v>0.3168068798389026</v>
       </c>
       <c r="N25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580552</v>
+        <v>0.4901926765602036</v>
       </c>
       <c r="O25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654552E-2</v>
+        <v>0.23059230955598906</v>
       </c>
       <c r="P25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796776E-2</v>
+        <v>0.26256306767852122</v>
       </c>
       <c r="Q25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508828</v>
+        <v>0.53068367115639281</v>
       </c>
       <c r="R25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544515</v>
+        <v>0.35009170929716377</v>
       </c>
       <c r="S25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607375</v>
+        <v>0.34450862179017833</v>
       </c>
       <c r="T25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50268977983509444</v>
+        <v>1.8433091825576411</v>
       </c>
       <c r="U25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1367750527017661</v>
+        <v>0.50153936026444879</v>
       </c>
       <c r="V25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524395</v>
+        <v>0.56510756775784676</v>
       </c>
       <c r="W25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316554</v>
+        <v>0.46262221847453128</v>
       </c>
       <c r="X25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10757769450791341</v>
+        <v>0.42971350804119124</v>
       </c>
       <c r="Y25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297948</v>
+        <v>0.68616674535356059</v>
       </c>
       <c r="Z25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.967239053514998E-2</v>
+        <v>9.1510077065395878E-2</v>
       </c>
       <c r="AA25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824897</v>
+        <v>0.38646437819735152</v>
       </c>
       <c r="AB25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341915E-2</v>
+        <v>0.17162012575506316</v>
       </c>
       <c r="AC25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.068468710900795E-2</v>
+        <v>0.1871524435301688</v>
       </c>
       <c r="AD25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292492E-2</v>
+        <v>0.21754062010153541</v>
       </c>
       <c r="AE25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1474100360152161</v>
+        <v>0.45461466072258433</v>
       </c>
       <c r="AF25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006623E-2</v>
+        <v>0.17530388187293744</v>
       </c>
     </row>
     <row r="26" spans="4:32" x14ac:dyDescent="0.25">
@@ -9844,114 +9851,115 @@
         <v>59</v>
       </c>
       <c r="E26" t="str">
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F26">
         <v>2030</v>
       </c>
       <c r="G26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.9147062512151188E-2</v>
+        <v>0.18274279032361881</v>
       </c>
       <c r="H26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1631198095852893</v>
+        <v>2.7294094237720326</v>
       </c>
       <c r="I26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19207858492945423</v>
+        <v>0.49529863034990823</v>
       </c>
       <c r="J26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5662919047386127E-2</v>
+        <v>0.31851915564872696</v>
       </c>
       <c r="K26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3115449195385221E-2</v>
+        <v>0.22686586319462579</v>
       </c>
       <c r="L26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.5283985914058062E-2</v>
+        <v>0.10948071863648035</v>
       </c>
       <c r="M26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11126027550087997</v>
+        <v>0.28689852170755409</v>
       </c>
       <c r="N26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16837349224724302</v>
+        <v>0.44391572029150778</v>
       </c>
       <c r="O26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.7300536438379466E-2</v>
+        <v>0.20882309362216131</v>
       </c>
       <c r="P26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.663150318280873E-2</v>
+        <v>0.23777563167275043</v>
       </c>
       <c r="Q26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12924886695433721</v>
+        <v>0.4805841363878452</v>
       </c>
       <c r="R26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12294966588725377</v>
+        <v>0.31704107534060355</v>
       </c>
       <c r="S26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10256984694910191</v>
+        <v>0.31198506281608845</v>
       </c>
       <c r="T26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46863569753120399</v>
+        <v>1.6692903884999768</v>
       </c>
       <c r="U26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12750940002954975</v>
+        <v>0.45419121299130805</v>
       </c>
       <c r="V26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16824831968937998</v>
+        <v>0.51175822279465855</v>
       </c>
       <c r="W26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13773556637745435</v>
+        <v>0.41894806911044224</v>
       </c>
       <c r="X26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10028997987795404</v>
+        <v>0.38914612674281363</v>
       </c>
       <c r="Y26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22277089611748602</v>
+        <v>0.6213887305317497</v>
       </c>
       <c r="Z26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.7662272028725086E-2</v>
+        <v>8.2871009129463144E-2</v>
       </c>
       <c r="AA26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11266134488992686</v>
+        <v>0.34997995893848682</v>
       </c>
       <c r="AB26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.5718190170454013E-2</v>
+        <v>0.15541821692581179</v>
       </c>
       <c r="AC26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6573679859021835E-2</v>
+        <v>0.16948419620831906</v>
       </c>
       <c r="AD26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.5759619088133769E-2</v>
+        <v>0.19700355734134278</v>
       </c>
       <c r="AE26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13742392987132673</v>
+        <v>0.41169647002051829</v>
       </c>
       <c r="AF26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2992018186097681E-2</v>
+        <v>0.15875420566787038</v>
       </c>
     </row>
     <row r="27" spans="4:32" x14ac:dyDescent="0.25">
@@ -9959,114 +9967,115 @@
         <v>59</v>
       </c>
       <c r="E27" t="str">
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F27">
         <v>2050</v>
       </c>
       <c r="G27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.2004379525771102E-2</v>
+        <v>0.1446419539275921</v>
       </c>
       <c r="H27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777114</v>
+        <v>2.1603430232385223</v>
       </c>
       <c r="I27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16416325549782501</v>
+        <v>0.39203167219129176</v>
       </c>
       <c r="J27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3213282321037701E-2</v>
+        <v>0.25210971636588919</v>
       </c>
       <c r="K27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.2489372105217399E-2</v>
+        <v>0.17956561609806693</v>
       </c>
       <c r="L27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0156063450376601E-2</v>
+        <v>8.6654609098035573E-2</v>
       </c>
       <c r="M27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.5090501840783506E-2</v>
+        <v>0.22708180544485712</v>
       </c>
       <c r="N27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.143903291650118</v>
+        <v>0.3513618077541163</v>
       </c>
       <c r="O27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.75195572298293E-2</v>
+        <v>0.16528466175450579</v>
       </c>
       <c r="P27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.5494427922832596E-2</v>
+        <v>0.18820075966120894</v>
       </c>
       <c r="Q27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.110464759912835</v>
+        <v>0.38038506685075008</v>
       </c>
       <c r="R27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.105081039730871</v>
+        <v>0.25093980742748312</v>
       </c>
       <c r="S27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158192E-2</v>
+        <v>0.24693794486790879</v>
       </c>
       <c r="T27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40052753292342302</v>
+        <v>1.3212528003846484</v>
       </c>
       <c r="U27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.108978094685117</v>
+        <v>0.35949491844502668</v>
       </c>
       <c r="V27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14379631077765201</v>
+        <v>0.40505953286828184</v>
       </c>
       <c r="W27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11771806306603201</v>
+        <v>0.33159977038226424</v>
       </c>
       <c r="X27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5714550618035304E-2</v>
+        <v>0.30801136414605851</v>
       </c>
       <c r="Y27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.190394965426499</v>
+        <v>0.49183270088812792</v>
       </c>
       <c r="Z27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.36420350158753E-2</v>
+        <v>6.5592873257597661E-2</v>
       </c>
       <c r="AA27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.6287949813282703E-2</v>
+        <v>0.27701112042075737</v>
       </c>
       <c r="AB27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7620506430678201E-2</v>
+        <v>0.12301439926730905</v>
       </c>
       <c r="AC27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.8351665359049598E-2</v>
+        <v>0.13414770156461955</v>
       </c>
       <c r="AD27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6202585799816303E-2</v>
+        <v>0.15592943182095748</v>
       </c>
       <c r="AE27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117451717583548</v>
+        <v>0.32586008861638621</v>
       </c>
       <c r="AF27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.529053680827979E-2</v>
+        <v>0.12565485325773626</v>
       </c>
     </row>
     <row r="28" spans="4:32" x14ac:dyDescent="0.25">
@@ -10074,115 +10083,115 @@
         <v>59</v>
       </c>
       <c r="E28" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F28">
         <v>2019</v>
       </c>
       <c r="G28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16296240433329362</v>
+        <v>0.12287179850237255</v>
       </c>
       <c r="H28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8566862597502802</v>
+        <v>2.9078975542464454</v>
       </c>
       <c r="I28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63689641701986988</v>
+        <v>0.48021265112716749</v>
       </c>
       <c r="J28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28404210824846177</v>
+        <v>0.21416451747676932</v>
       </c>
       <c r="K28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24243706105207927</v>
+        <v>0.18279478531854559</v>
       </c>
       <c r="L28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11699505291074846</v>
+        <v>8.8212938596702567E-2</v>
       </c>
       <c r="M28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36891812197169027</v>
+        <v>0.27816006601172932</v>
       </c>
       <c r="N28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55829479362718626</v>
+        <v>0.42094792150454519</v>
       </c>
       <c r="O28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22315590536478441</v>
+        <v>0.16825701333245757</v>
       </c>
       <c r="P28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25409563396097939</v>
+        <v>0.19158521662782996</v>
       </c>
       <c r="Q28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42856490377273632</v>
+        <v>0.32313306076323023</v>
       </c>
       <c r="R28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40767793924628298</v>
+        <v>0.30738452718507042</v>
       </c>
       <c r="S28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34010229740161924</v>
+        <v>0.25643326218394574</v>
       </c>
       <c r="T28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5539077235229135</v>
+        <v>1.17162874147028</v>
       </c>
       <c r="U28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42279715901176562</v>
+        <v>0.31878424684518286</v>
       </c>
       <c r="V28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55787974499674464</v>
+        <v>0.42063497956007007</v>
       </c>
       <c r="W28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45670520091670846</v>
+        <v>0.34435052459862753</v>
       </c>
       <c r="X28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3325426875188775</v>
+        <v>0.25073340235388952</v>
       </c>
       <c r="Y28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73866634120426122</v>
+        <v>0.55694601591240911</v>
       </c>
       <c r="Z28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.172288492334861E-2</v>
+        <v>6.9158011508642273E-2</v>
       </c>
       <c r="AA28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37356380422829349</v>
+        <v>0.28166285756954085</v>
       </c>
       <c r="AB28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1847510262293284</v>
+        <v>0.13930017147715087</v>
       </c>
       <c r="AC28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1875876689380738</v>
+        <v>0.14143896780111362</v>
       </c>
       <c r="AD28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21804651360382526</v>
+        <v>0.1644045900849567</v>
       </c>
       <c r="AE28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45567187294712524</v>
+        <v>0.34357140706790018</v>
       </c>
       <c r="AF28" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17571155329873506</v>
+        <v>0.13248451174851819</v>
       </c>
     </row>
     <row r="29" spans="4:32" x14ac:dyDescent="0.25">
@@ -10190,115 +10199,115 @@
         <v>59</v>
       </c>
       <c r="E29" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F29">
         <v>2020</v>
       </c>
       <c r="G29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16235731275947538</v>
+        <v>4.0298189842888223E-2</v>
       </c>
       <c r="H29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8423660957334147</v>
+        <v>0.953701411658192</v>
       </c>
       <c r="I29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63453157307374375</v>
+        <v>0.1574950543244924</v>
       </c>
       <c r="J29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28298743869437742</v>
+        <v>7.0239407968971462E-2</v>
       </c>
       <c r="K29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2415368741444055</v>
+        <v>5.9951095783093877E-2</v>
       </c>
       <c r="L29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11656064154461564</v>
+        <v>2.8931144408212772E-2</v>
       </c>
       <c r="M29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36754830144193562</v>
+        <v>9.1227989526291062E-2</v>
       </c>
       <c r="N29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55622180337699645</v>
+        <v>0.1380580366000895</v>
       </c>
       <c r="O29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22232731082767976</v>
+        <v>5.5183151449824552E-2</v>
       </c>
       <c r="P29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25315215790168333</v>
+        <v>6.2834088251830053E-2</v>
       </c>
       <c r="Q29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42697361028901515</v>
+        <v>0.10597775556201978</v>
       </c>
       <c r="R29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40616420062123793</v>
+        <v>0.10081271847771658</v>
       </c>
       <c r="S29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33883947217983951</v>
+        <v>8.4102262744369605E-2</v>
       </c>
       <c r="T29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5481379481330526</v>
+        <v>0.38425837356195192</v>
       </c>
       <c r="U29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42122728159495315</v>
+        <v>0.10455147767729034</v>
       </c>
       <c r="V29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55580829585310654</v>
+        <v>0.13795540121880615</v>
       </c>
       <c r="W29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45500942040877934</v>
+        <v>0.11293643441302517</v>
       </c>
       <c r="X29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33130793169298156</v>
+        <v>8.2232883144582727E-2</v>
       </c>
       <c r="Y29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73592361793164862</v>
+        <v>0.18266124981514886</v>
       </c>
       <c r="Z29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1382311003735187E-2</v>
+        <v>2.2681711433385598E-2</v>
       </c>
       <c r="AA29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37217673393348039</v>
+        <v>9.237679796644771E-2</v>
       </c>
       <c r="AB29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18406503187570436</v>
+        <v>4.5686193445151825E-2</v>
       </c>
       <c r="AC29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1868911419182927</v>
+        <v>4.6387653188956733E-2</v>
       </c>
       <c r="AD29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21723689061978854</v>
+        <v>5.3919674514716867E-2</v>
       </c>
       <c r="AE29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45397992926309383</v>
+        <v>0.11268090770514057</v>
       </c>
       <c r="AF29" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17505912318297578</v>
+        <v>4.3450865623823776E-2</v>
       </c>
     </row>
     <row r="30" spans="4:32" x14ac:dyDescent="0.25">
@@ -10306,115 +10315,115 @@
         <v>59</v>
       </c>
       <c r="E30" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F30">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10300786940522516</v>
       </c>
       <c r="H30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.4377956143110233</v>
       </c>
       <c r="I30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.40257962084838445</v>
       </c>
       <c r="J30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1795418551398037</v>
       </c>
       <c r="K30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15324347493526222</v>
       </c>
       <c r="L30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.3952094537338697E-2</v>
       </c>
       <c r="M30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23319163634551807</v>
       </c>
       <c r="N30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.35289585611383317</v>
       </c>
       <c r="O30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14105593526840385</v>
       </c>
       <c r="P30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16061281119760137</v>
       </c>
       <c r="Q30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.27089412321873685</v>
       </c>
       <c r="R30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.25769155835100138</v>
       </c>
       <c r="S30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21497727146632192</v>
       </c>
       <c r="T30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.98221871791392867</v>
       </c>
       <c r="U30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.26724835534036395</v>
       </c>
       <c r="V30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.35263350557171685</v>
       </c>
       <c r="W30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.28868148997421322</v>
       </c>
       <c r="X30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21019887297164064</v>
       </c>
       <c r="Y30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.46690797377526899</v>
       </c>
       <c r="Z30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.7977660493589413E-2</v>
       </c>
       <c r="AA30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2361281531031352</v>
       </c>
       <c r="AB30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11678036820928248</v>
       </c>
       <c r="AC30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11857339846609016</v>
       </c>
       <c r="AD30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13782630962924983</v>
       </c>
       <c r="AE30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.28802832759004793</v>
       </c>
       <c r="AF30" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11106655433340036</v>
       </c>
     </row>
     <row r="31" spans="4:32" x14ac:dyDescent="0.25">
@@ -10422,115 +10431,115 @@
         <v>59</v>
       </c>
       <c r="E31" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F31">
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.1837705905009476E-2</v>
       </c>
       <c r="H31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.1734412911977099</v>
       </c>
       <c r="I31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.35892392529136918</v>
       </c>
       <c r="J31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16007235355100646</v>
       </c>
       <c r="K31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1366257671790308</v>
       </c>
       <c r="L31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.5932736483093002E-2</v>
       </c>
       <c r="M31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20790435761717901</v>
       </c>
       <c r="N31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.31462786324978359</v>
       </c>
       <c r="O31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12575984314727132</v>
       </c>
       <c r="P31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1431959733223441</v>
       </c>
       <c r="Q31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.24151839042207951</v>
       </c>
       <c r="R31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.22974751042508584</v>
       </c>
       <c r="S31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.19166515672232687</v>
       </c>
       <c r="T31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.87570701414390317</v>
       </c>
       <c r="U31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23826796926352917</v>
       </c>
       <c r="V31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.3143939619753468</v>
       </c>
       <c r="W31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.25737689682888343</v>
       </c>
       <c r="X31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18740492730310521</v>
       </c>
       <c r="Y31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.41627651778323177</v>
       </c>
       <c r="Z31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.1690568538258291E-2</v>
       </c>
       <c r="AA31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21052243877863147</v>
       </c>
       <c r="AB31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10411671625681421</v>
       </c>
       <c r="AC31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10571531048417072</v>
       </c>
       <c r="AD31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12288043780334469</v>
       </c>
       <c r="AE31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.25679456331114792</v>
       </c>
       <c r="AF31" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.9022507810807792E-2</v>
       </c>
     </row>
     <row r="32" spans="4:32" x14ac:dyDescent="0.25">
@@ -10538,11 +10547,11 @@
         <v>59</v>
       </c>
       <c r="E32" t="str">
-        <f t="array" ref="E32:E35">DEMANDS!$F$24</f>
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F32">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="G32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10550,7 +10559,7 @@
       </c>
       <c r="H32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13395677260860595</v>
+        <v>0</v>
       </c>
       <c r="I32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10594,15 +10603,15 @@
       </c>
       <c r="S32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6779068407982807E-2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6352277307537207E-4</v>
+        <v>0</v>
       </c>
       <c r="U32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6529102661710439E-2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10626,7 +10635,7 @@
       </c>
       <c r="AA32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2704554615074527E-5</v>
+        <v>0</v>
       </c>
       <c r="AB32" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10654,10 +10663,11 @@
         <v>59</v>
       </c>
       <c r="E33" t="str">
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F33">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10665,7 +10675,7 @@
       </c>
       <c r="H33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13395677260860595</v>
+        <v>0</v>
       </c>
       <c r="I33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10709,15 +10719,15 @@
       </c>
       <c r="S33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6779068407982807E-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6352277307537207E-4</v>
+        <v>0</v>
       </c>
       <c r="U33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6529102661710439E-2</v>
+        <v>0</v>
       </c>
       <c r="V33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10741,7 +10751,7 @@
       </c>
       <c r="AA33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2704554615074527E-5</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -10769,114 +10779,115 @@
         <v>59</v>
       </c>
       <c r="E34" t="str">
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F34">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="G34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.4736426592315429E-2</v>
       </c>
       <c r="H34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1346349433860923</v>
+        <v>1.0587372127625181</v>
       </c>
       <c r="I34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17484075497956425</v>
       </c>
       <c r="J34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.797521751578454E-2</v>
       </c>
       <c r="K34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.6553803187826568E-2</v>
       </c>
       <c r="L34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.211747284668915E-2</v>
       </c>
       <c r="M34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10127537421703059</v>
       </c>
       <c r="N34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15326304342499106</v>
       </c>
       <c r="O34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.1260741824694438E-2</v>
       </c>
       <c r="P34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.9754313718117147E-2</v>
       </c>
       <c r="Q34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11764960412869165</v>
       </c>
       <c r="R34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11191571624763795</v>
       </c>
       <c r="S34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7015892545908405E-2</v>
+        <v>9.3364856292052711E-2</v>
       </c>
       <c r="T34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6586940768949213E-4</v>
+        <v>0.42657862768420407</v>
       </c>
       <c r="U34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6764661320771533E-2</v>
+        <v>0.1160662432844647</v>
       </c>
       <c r="V34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15314910430716835</v>
       </c>
       <c r="W34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12537467631707438</v>
       </c>
       <c r="X34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.1289592773639419E-2</v>
       </c>
       <c r="Y34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20277862666970664</v>
       </c>
       <c r="Z34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.5179759251811974E-2</v>
       </c>
       <c r="AA34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.3173881537898516E-5</v>
+        <v>0.10255070654962607</v>
       </c>
       <c r="AB34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.0717837384500954E-2</v>
       </c>
       <c r="AC34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.1496552320793129E-2</v>
       </c>
       <c r="AD34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.9858111994945243E-2</v>
       </c>
       <c r="AE34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12509100720304714</v>
       </c>
       <c r="AF34" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.8236321977023038E-2</v>
       </c>
     </row>
     <row r="35" spans="4:32" x14ac:dyDescent="0.25">
@@ -10884,114 +10895,115 @@
         <v>59</v>
       </c>
       <c r="E35" t="str">
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F35">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.4709600636236908E-2</v>
       </c>
       <c r="H35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13599128494106499</v>
+        <v>1.2947634511986181</v>
       </c>
       <c r="I35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21381832677519244</v>
       </c>
       <c r="J35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.5358376490112085E-2</v>
       </c>
       <c r="K35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.1390765212663516E-2</v>
       </c>
       <c r="L35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.9277480271286955E-2</v>
       </c>
       <c r="M35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12385288007448821</v>
       </c>
       <c r="N35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1874302562090602</v>
       </c>
       <c r="O35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.4917711923025126E-2</v>
       </c>
       <c r="P35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.5304771455047348E-2</v>
       </c>
       <c r="Q35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14387744724335505</v>
       </c>
       <c r="R35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13686529316756901</v>
       </c>
       <c r="S35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7489540821759602E-2</v>
+        <v>0.11417885580685315</v>
       </c>
       <c r="T35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7056267691773199E-4</v>
+        <v>0.52167658747615886</v>
       </c>
       <c r="U35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7235778638893701E-2</v>
+        <v>0.14194110484747868</v>
       </c>
       <c r="V35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18729091643367465</v>
       </c>
       <c r="W35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15332468401449936</v>
       </c>
       <c r="X35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11164094996689844</v>
       </c>
       <c r="Y35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.24798443969974754</v>
       </c>
       <c r="Z35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.0793129396254827E-2</v>
       </c>
       <c r="AA35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.4112535383546506E-5</v>
+        <v>0.12541252459483895</v>
       </c>
       <c r="AB35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.202445836199811E-2</v>
       </c>
       <c r="AC35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.2976773654461277E-2</v>
       </c>
       <c r="AD35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.3202391239829717E-2</v>
       </c>
       <c r="AE35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15297777602198812</v>
       </c>
       <c r="AF35" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.8989734150496013E-2</v>
       </c>
     </row>
     <row r="36" spans="4:32" x14ac:dyDescent="0.25">
@@ -10999,115 +11011,115 @@
         <v>59</v>
       </c>
       <c r="E36" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F36">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.0377905785525848E-2</v>
       </c>
       <c r="H36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>40.559731289160858</v>
+        <v>1.4289101869121152</v>
       </c>
       <c r="I36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2359714316887277</v>
       </c>
       <c r="J36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10523818497346488</v>
       </c>
       <c r="K36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.9823429465268834E-2</v>
       </c>
       <c r="L36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.3346907594530242E-2</v>
       </c>
       <c r="M36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13668492252620179</v>
       </c>
       <c r="N36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2068493686508841</v>
       </c>
       <c r="O36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.267972164943059E-2</v>
       </c>
       <c r="P36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.4142954692987016E-2</v>
       </c>
       <c r="Q36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1587841777914096</v>
       </c>
       <c r="R36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15104551449981587</v>
       </c>
       <c r="S36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4015874085345037</v>
+        <v>0.12600860029015015</v>
       </c>
       <c r="T36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2205531132921612</v>
+        <v>0.57572600572572319</v>
       </c>
       <c r="U36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24198661780769171</v>
+        <v>0.15664721650148741</v>
       </c>
       <c r="V36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20669559228014536</v>
       </c>
       <c r="W36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.169210215727499</v>
       </c>
       <c r="X36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12320774928931454</v>
       </c>
       <c r="Y36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.27367739779388101</v>
       </c>
       <c r="Z36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.3983517406579698E-2</v>
       </c>
       <c r="AA36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69085209363071676</v>
+        <v>0.13840615735178152</v>
       </c>
       <c r="AB36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.8450634985965417E-2</v>
       </c>
       <c r="AC36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.9501616940463015E-2</v>
       </c>
       <c r="AD36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.0786681499301294E-2</v>
       </c>
       <c r="AE36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16882736559069478</v>
       </c>
       <c r="AF36" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.5101491683943843E-2</v>
       </c>
     </row>
     <row r="37" spans="4:32" x14ac:dyDescent="0.25">
@@ -11115,115 +11127,115 @@
         <v>59</v>
       </c>
       <c r="E37" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F37">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.5728269531095408E-2</v>
       </c>
       <c r="H37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>41.184477806263253</v>
+        <v>1.3188713817738249</v>
       </c>
       <c r="I37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21779953073397831</v>
       </c>
       <c r="J37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.7133907856911061E-2</v>
       </c>
       <c r="K37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.2906225751338283E-2</v>
       </c>
       <c r="L37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.0008809817755578E-2</v>
       </c>
       <c r="M37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1261589666662985</v>
       </c>
       <c r="N37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.19092012580662895</v>
       </c>
       <c r="O37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.6312647033544068E-2</v>
       </c>
       <c r="P37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.6893109082332359E-2</v>
       </c>
       <c r="Q37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14655638253942765</v>
       </c>
       <c r="R37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13941366521404944</v>
       </c>
       <c r="S37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4385793540260137</v>
+        <v>0.11630481628743354</v>
       </c>
       <c r="T37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2547565653239281</v>
+        <v>0.53138997793519849</v>
       </c>
       <c r="U37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24571396736982123</v>
+        <v>0.14458398629293759</v>
       </c>
       <c r="V37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.19077819158541759</v>
       </c>
       <c r="W37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15617952273756125</v>
       </c>
       <c r="X37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1137196557479896</v>
       </c>
       <c r="Y37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.25260180177501973</v>
       </c>
       <c r="Z37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.1366484031026945E-2</v>
       </c>
       <c r="AA37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70149337318584126</v>
+        <v>0.1277476510871684</v>
       </c>
       <c r="AB37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.317932671634624E-2</v>
       </c>
       <c r="AC37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.4149373704074003E-2</v>
       </c>
       <c r="AD37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.4565387827596558E-2</v>
       </c>
       <c r="AE37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15582615546958026</v>
       </c>
       <c r="AF37" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.0088097264031193E-2</v>
       </c>
     </row>
     <row r="38" spans="4:32" x14ac:dyDescent="0.25">
@@ -11231,115 +11243,115 @@
         <v>59</v>
       </c>
       <c r="E38" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F38">
         <v>2030</v>
       </c>
       <c r="G38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.1153639529320637E-2</v>
       </c>
       <c r="H38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>40.936372808459637</v>
+        <v>1.2106076828951402</v>
       </c>
       <c r="I38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1999207723219272</v>
       </c>
       <c r="J38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.9160366011619932E-2</v>
       </c>
       <c r="K38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.6100607869297981E-2</v>
       </c>
       <c r="L38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.6724561028629248E-2</v>
       </c>
       <c r="M38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11580281172446016</v>
       </c>
       <c r="N38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17524784775445862</v>
       </c>
       <c r="O38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.0048283765639138E-2</v>
       </c>
       <c r="P38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.9760215362499096E-2</v>
       </c>
       <c r="Q38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13452584166389675</v>
       </c>
       <c r="R38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12796945671965662</v>
       </c>
       <c r="S38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4238887774422655</v>
+        <v>0.10675757022334176</v>
       </c>
       <c r="T38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2411733805299154</v>
+        <v>0.48776916293127331</v>
       </c>
       <c r="U38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24423372853757513</v>
+        <v>0.13271535575699739</v>
       </c>
       <c r="V38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17511756464949571</v>
       </c>
       <c r="W38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14335903618038481</v>
       </c>
       <c r="X38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10438462070467149</v>
       </c>
       <c r="Y38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23186618965884614</v>
       </c>
       <c r="Z38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.8791667692643057E-2</v>
       </c>
       <c r="AA38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69726741182650953</v>
+        <v>0.11726108399587316</v>
       </c>
       <c r="AB38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.7993053287790218E-2</v>
       </c>
       <c r="AC38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.8883470922399199E-2</v>
       </c>
       <c r="AD38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.844445381833647E-2</v>
       </c>
       <c r="AE38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14303467617423615</v>
       </c>
       <c r="AF38" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.5155577112114051E-2</v>
       </c>
     </row>
     <row r="39" spans="4:32" x14ac:dyDescent="0.25">
@@ -11347,114 +11359,2202 @@
         <v>59</v>
       </c>
       <c r="E39" t="str">
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
+      </c>
+      <c r="F39">
+        <v>2050</v>
+      </c>
+      <c r="G39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.2004379525771102E-2</v>
+      </c>
+      <c r="H39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.99408028513777114</v>
+      </c>
+      <c r="I39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16416325549782501</v>
+      </c>
+      <c r="J39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.3213282321037701E-2</v>
+      </c>
+      <c r="K39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.2489372105217399E-2</v>
+      </c>
+      <c r="L39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.0156063450376601E-2</v>
+      </c>
+      <c r="M39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.5090501840783506E-2</v>
+      </c>
+      <c r="N39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.143903291650118</v>
+      </c>
+      <c r="O39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.75195572298293E-2</v>
+      </c>
+      <c r="P39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.5494427922832596E-2</v>
+      </c>
+      <c r="Q39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.110464759912835</v>
+      </c>
+      <c r="R39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.105081039730871</v>
+      </c>
+      <c r="S39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.7663078095158192E-2</v>
+      </c>
+      <c r="T39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40052753292342302</v>
+      </c>
+      <c r="U39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.108978094685117</v>
+      </c>
+      <c r="V39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14379631077765201</v>
+      </c>
+      <c r="W39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11771806306603201</v>
+      </c>
+      <c r="X39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.5714550618035304E-2</v>
+      </c>
+      <c r="Y39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.190394965426499</v>
+      </c>
+      <c r="Z39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.36420350158753E-2</v>
+      </c>
+      <c r="AA39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.6287949813282703E-2</v>
+      </c>
+      <c r="AB39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7620506430678201E-2</v>
+      </c>
+      <c r="AC39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.8351665359049598E-2</v>
+      </c>
+      <c r="AD39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.6202585799816303E-2</v>
+      </c>
+      <c r="AE39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.117451717583548</v>
+      </c>
+      <c r="AF39" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.529053680827979E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19914963057035956</v>
+      </c>
+      <c r="H40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7130971526672178</v>
+      </c>
+      <c r="I40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.77832483314177214</v>
+      </c>
+      <c r="J40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.34711614102364163</v>
+      </c>
+      <c r="K40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.29627232945299226</v>
+      </c>
+      <c r="L40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1429748269918909</v>
+      </c>
+      <c r="M40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45083961544351669</v>
+      </c>
+      <c r="N40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6822690322659537</v>
+      </c>
+      <c r="O40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27270962462052634</v>
+      </c>
+      <c r="P40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31051979037677979</v>
+      </c>
+      <c r="Q40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.52373148647957957</v>
+      </c>
+      <c r="R40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.49820638891982555</v>
+      </c>
+      <c r="S40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41562498516613605</v>
+      </c>
+      <c r="T40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.8989665152896447</v>
+      </c>
+      <c r="U40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.51668296358210075</v>
+      </c>
+      <c r="V40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.68176181845943573</v>
+      </c>
+      <c r="W40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55812058256152319</v>
+      </c>
+      <c r="X40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40638669783499809</v>
+      </c>
+      <c r="Y40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.90269365850006589</v>
+      </c>
+      <c r="Z40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1120907532143018</v>
+      </c>
+      <c r="AA40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45651691205027023</v>
+      </c>
+      <c r="AB40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22577660639944697</v>
+      </c>
+      <c r="AC40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22924315041503093</v>
+      </c>
+      <c r="AD40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.26646564776097303</v>
+      </c>
+      <c r="AE40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55685779508460531</v>
+      </c>
+      <c r="AF40" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21472983949610272</v>
+      </c>
+    </row>
+    <row r="41" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F41">
+        <v>2020</v>
+      </c>
+      <c r="G41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27200036635926356</v>
+      </c>
+      <c r="H41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.437190712032816</v>
+      </c>
+      <c r="I41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0630430955596448</v>
+      </c>
+      <c r="J41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47409436440951486</v>
+      </c>
+      <c r="K41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40465142678160887</v>
+      </c>
+      <c r="L41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19527631163848475</v>
+      </c>
+      <c r="M41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6157608237519745</v>
+      </c>
+      <c r="N41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.93184921408305132</v>
+      </c>
+      <c r="O41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37246927144197556</v>
+      </c>
+      <c r="P41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42411073775226299</v>
+      </c>
+      <c r="Q41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.7153172003801328</v>
+      </c>
+      <c r="R41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.68045479130749276</v>
+      </c>
+      <c r="S41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.56766436327036951</v>
+      </c>
+      <c r="T41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.5936256390908592</v>
+      </c>
+      <c r="U41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70569026406639179</v>
+      </c>
+      <c r="V41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.93115645687933368</v>
+      </c>
+      <c r="W41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.76228613879223739</v>
+      </c>
+      <c r="X41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55504662689091944</v>
+      </c>
+      <c r="Y41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2329071619113803</v>
+      </c>
+      <c r="Z41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15309456438586874</v>
+      </c>
+      <c r="AA41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.62351492679773235</v>
+      </c>
+      <c r="AB41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.30836773073653384</v>
+      </c>
+      <c r="AC41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31310236790125712</v>
+      </c>
+      <c r="AD41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36394119138240832</v>
+      </c>
+      <c r="AE41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.76056141223677332</v>
+      </c>
+      <c r="AF41" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.29327995660313688</v>
+      </c>
+    </row>
+    <row r="42" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F42">
+        <v>2021</v>
+      </c>
+      <c r="G42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18089944491364476</v>
+      </c>
+      <c r="H42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.2811862432270846</v>
+      </c>
+      <c r="I42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70699870180330382</v>
+      </c>
+      <c r="J42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31530622001108055</v>
+      </c>
+      <c r="K42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.26912176431270607</v>
+      </c>
+      <c r="L42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12987253235360474</v>
+      </c>
+      <c r="M42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40952441611484319</v>
+      </c>
+      <c r="N42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61974550926960204</v>
+      </c>
+      <c r="O42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24771835918135079</v>
+      </c>
+      <c r="P42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28206357979667418</v>
+      </c>
+      <c r="Q42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47573643454227438</v>
+      </c>
+      <c r="R42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45255047147168376</v>
+      </c>
+      <c r="S42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37753687462770624</v>
+      </c>
+      <c r="T42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.7249441414561333</v>
+      </c>
+      <c r="U42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.46933384230063541</v>
+      </c>
+      <c r="V42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61928477682541505</v>
+      </c>
+      <c r="W42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50697409425818196</v>
+      </c>
+      <c r="X42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36914518921322997</v>
+      </c>
+      <c r="Y42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.81997029711805758</v>
+      </c>
+      <c r="Z42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.10181869270028908</v>
+      </c>
+      <c r="AA42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41468144202461005</v>
+      </c>
+      <c r="AB42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20508630950091886</v>
+      </c>
+      <c r="AC42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20823517744705494</v>
+      </c>
+      <c r="AD42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24204658392014702</v>
+      </c>
+      <c r="AE42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50582702934541202</v>
+      </c>
+      <c r="AF42" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19505187461302997</v>
+      </c>
+    </row>
+    <row r="43" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F43">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15735502404494861</v>
+      </c>
+      <c r="H43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.7239813785248845</v>
+      </c>
+      <c r="I43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61498142117082344</v>
+      </c>
+      <c r="J43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27426849128835057</v>
+      </c>
+      <c r="K43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.23409503392705369</v>
+      </c>
+      <c r="L43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11296936516878391</v>
+      </c>
+      <c r="M43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.35622400265244875</v>
+      </c>
+      <c r="N43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.53908440437404281</v>
+      </c>
+      <c r="O43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21547732434427461</v>
+      </c>
+      <c r="P43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24535244650583318</v>
+      </c>
+      <c r="Q43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41381839580653829</v>
+      </c>
+      <c r="R43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.39365013172911273</v>
+      </c>
+      <c r="S43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32839970301322097</v>
+      </c>
+      <c r="T43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.5004392467019119</v>
+      </c>
+      <c r="U43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40824911361988458</v>
+      </c>
+      <c r="V43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.53868363716954448</v>
+      </c>
+      <c r="W43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.44099041227154739</v>
+      </c>
+      <c r="X43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32110021206783468</v>
+      </c>
+      <c r="Y43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.71324953971389149</v>
+      </c>
+      <c r="Z43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.8566788282448461E-2</v>
+      </c>
+      <c r="AA43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36070983143107849</v>
+      </c>
+      <c r="AB43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17839392032525092</v>
+      </c>
+      <c r="AC43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18113295687461758</v>
+      </c>
+      <c r="AD43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21054374186130842</v>
+      </c>
+      <c r="AE43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4399926401279336</v>
+      </c>
+      <c r="AF43" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16966548700244569</v>
+      </c>
+    </row>
+    <row r="44" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F44">
+        <v>2030</v>
+      </c>
+      <c r="G44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F45">
+        <v>2050</v>
+      </c>
+      <c r="G45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F46">
+        <v>2019</v>
+      </c>
+      <c r="G46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14613472658743082</v>
+      </c>
+      <c r="I46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.1031733884697311E-2</v>
+      </c>
+      <c r="T46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.0566143384426034E-4</v>
+      </c>
+      <c r="U46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.0759043857337031E-2</v>
+      </c>
+      <c r="V46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0113228676885219E-4</v>
+      </c>
+      <c r="AB46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F47">
+        <v>2020</v>
+      </c>
+      <c r="G47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.4093592729048743E-2</v>
+      </c>
+      <c r="I47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2382134926061514E-2</v>
+      </c>
+      <c r="T47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2177930432032186E-4</v>
+      </c>
+      <c r="U47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2262535129606249E-2</v>
+      </c>
+      <c r="V47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.4355860864064419E-5</v>
+      </c>
+      <c r="AB47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F48">
+        <v>2021</v>
+      </c>
+      <c r="G48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.9928010319333211E-2</v>
+      </c>
+      <c r="I48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4419572931335776E-2</v>
+      </c>
+      <c r="T48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4196779772804261E-4</v>
+      </c>
+      <c r="U48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4289086006752381E-2</v>
+      </c>
+      <c r="V48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.839355954560858E-5</v>
+      </c>
+      <c r="AB48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F49">
+        <v>2022</v>
+      </c>
+      <c r="G49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13395677260860595</v>
+      </c>
+      <c r="I49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6779068407982807E-2</v>
+      </c>
+      <c r="T49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6352277307537207E-4</v>
+      </c>
+      <c r="U49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6529102661710439E-2</v>
+      </c>
+      <c r="V49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.2704554615074527E-5</v>
+      </c>
+      <c r="AB49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F50">
+        <v>2030</v>
+      </c>
+      <c r="G50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1346349433860923</v>
+      </c>
+      <c r="I50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7015892545908405E-2</v>
+      </c>
+      <c r="T50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6586940768949213E-4</v>
+      </c>
+      <c r="U50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6764661320771533E-2</v>
+      </c>
+      <c r="V50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.3173881537898516E-5</v>
+      </c>
+      <c r="AB50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F51">
+        <v>2050</v>
+      </c>
+      <c r="G51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13599128494106499</v>
+      </c>
+      <c r="I51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7489540821759602E-2</v>
+      </c>
+      <c r="T51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7056267691773199E-4</v>
+      </c>
+      <c r="U51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7235778638893701E-2</v>
+      </c>
+      <c r="V51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.4112535383546506E-5</v>
+      </c>
+      <c r="AB51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="str">
         <f>DEMANDS!$F$25</f>
         <v>TAVIINT</v>
       </c>
-      <c r="F39">
+      <c r="F52">
+        <v>2019</v>
+      </c>
+      <c r="G52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>40.899618894914909</v>
+      </c>
+      <c r="I52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4217125367922945</v>
+      </c>
+      <c r="T52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2391611872891475</v>
+      </c>
+      <c r="U52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24401444810974202</v>
+      </c>
+      <c r="V52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6966413840567377</v>
+      </c>
+      <c r="AB52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F53">
+        <v>2020</v>
+      </c>
+      <c r="G53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>14.586505081244802</v>
+      </c>
+      <c r="I53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.86368340775974672</v>
+      </c>
+      <c r="T53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.79857800435837634</v>
+      </c>
+      <c r="U53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.7025700566917275E-2</v>
+      </c>
+      <c r="V53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24845129032760774</v>
+      </c>
+      <c r="AB53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F54">
+        <v>2021</v>
+      </c>
+      <c r="G54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>16.341785735482759</v>
+      </c>
+      <c r="I54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.96761555384841225</v>
+      </c>
+      <c r="T54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.89467563118144178</v>
+      </c>
+      <c r="U54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.7498019177564163E-2</v>
+      </c>
+      <c r="V54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27834890740609786</v>
+      </c>
+      <c r="AB54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF54" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F55">
+        <v>2022</v>
+      </c>
+      <c r="G55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>42.396731488180166</v>
+      </c>
+      <c r="I55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.5103582609838924</v>
+      </c>
+      <c r="T55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.3211246994786991</v>
+      </c>
+      <c r="U55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.25294648985180301</v>
+      </c>
+      <c r="V55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.72214163606986215</v>
+      </c>
+      <c r="AB55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF55" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E55,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F55,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E55,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F56">
+        <v>2030</v>
+      </c>
+      <c r="G56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>41.744541929737572</v>
+      </c>
+      <c r="I56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4717413820808516</v>
+      </c>
+      <c r="T56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2854188032997622</v>
+      </c>
+      <c r="U56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24905541019222963</v>
+      </c>
+      <c r="V56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.71103292041585675</v>
+      </c>
+      <c r="AB56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF56" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E56,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F56,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E56,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F57">
         <v>2050</v>
       </c>
-      <c r="G39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>40.4401628128524</v>
       </c>
-      <c r="I39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.39450762427477</v>
       </c>
-      <c r="T39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2140070109418901</v>
       </c>
-      <c r="U39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24127325087308299</v>
       </c>
-      <c r="V39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68881548910784596</v>
       </c>
-      <c r="AB39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="13">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="13">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E57,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F57,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E57,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -12232,8 +14332,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12245,7 +14345,7 @@
     <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" x14ac:dyDescent="0.25">
@@ -12285,12 +14385,15 @@
         <v>2021</v>
       </c>
       <c r="L2" s="12">
+        <v>2022</v>
+      </c>
+      <c r="M2" s="12">
         <v>2030</v>
       </c>
-      <c r="M2" s="12">
+      <c r="N2" s="12">
         <v>2050</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>183</v>
       </c>
     </row>
@@ -12321,14 +14424,17 @@
       <c r="K3" s="30">
         <v>2.9160581250770159</v>
       </c>
-      <c r="L3" s="30">
-        <f t="shared" ref="L3:L16" si="0">J3*2/3+M3/3</f>
-        <v>1.972052694738631</v>
+      <c r="L3" s="13">
+        <v>1.7028384806625201</v>
       </c>
       <c r="M3" s="30">
+        <f>L3*2/3+N3/3</f>
+        <v>1.1584060685789734</v>
+      </c>
+      <c r="N3" s="30">
         <v>6.9541244411880462E-2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0</v>
       </c>
       <c r="P3" s="1"/>
@@ -12360,14 +14466,17 @@
       <c r="K4" s="30">
         <v>20.570384916097975</v>
       </c>
-      <c r="L4" s="30">
-        <f t="shared" si="0"/>
-        <v>20.554705332982316</v>
+      <c r="L4" s="13">
+        <v>23.738094411807602</v>
       </c>
       <c r="M4" s="30">
+        <f>L4*2/3+N4/3</f>
+        <v>22.05783877515594</v>
+      </c>
+      <c r="N4" s="30">
         <v>18.697327501852616</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0</v>
       </c>
       <c r="P4" s="1"/>
@@ -12399,14 +14508,17 @@
       <c r="K5" s="30">
         <v>0.73064036372909791</v>
       </c>
-      <c r="L5" s="30">
-        <f t="shared" si="0"/>
-        <v>1.407615765444906</v>
+      <c r="L5" s="13">
+        <v>1.5478463345837199</v>
       </c>
       <c r="M5" s="30">
+        <f>L5*2/3+N5/3</f>
+        <v>1.9434753073389506</v>
+      </c>
+      <c r="N5" s="30">
         <v>2.7347332528494115</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0</v>
       </c>
       <c r="P5" s="1"/>
@@ -12438,14 +14550,17 @@
       <c r="K6" s="30">
         <v>6.5949264310858817</v>
       </c>
-      <c r="L6" s="30">
-        <f t="shared" si="0"/>
-        <v>5.2567556213288702</v>
+      <c r="L6" s="13">
+        <v>5.8166390635502099</v>
       </c>
       <c r="M6" s="30">
+        <f>L6*2/3+N6/3</f>
+        <v>5.2807562869892761</v>
+      </c>
+      <c r="N6" s="30">
         <v>4.2089907338674086</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0</v>
       </c>
       <c r="P6" s="1"/>
@@ -12477,14 +14592,17 @@
       <c r="K7" s="30">
         <v>0.55161044480654198</v>
       </c>
-      <c r="L7" s="30">
-        <f t="shared" si="0"/>
-        <v>0.7978671006134701</v>
+      <c r="L7" s="13">
+        <v>1.19927927754182</v>
       </c>
       <c r="M7" s="30">
+        <f>L7*2/3+N7/3</f>
+        <v>1.22325956804396</v>
+      </c>
+      <c r="N7" s="30">
         <v>1.2712201490482398</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0</v>
       </c>
       <c r="P7" s="1"/>
@@ -12516,14 +14634,17 @@
       <c r="K8" s="30">
         <v>9.2516395819175106</v>
       </c>
-      <c r="L8" s="30">
-        <f t="shared" si="0"/>
-        <v>8.6936025856611057</v>
+      <c r="L8" s="13">
+        <v>10.6043548094603</v>
       </c>
       <c r="M8" s="30">
+        <f>L8*2/3+N8/3</f>
+        <v>9.4725222533350699</v>
+      </c>
+      <c r="N8" s="30">
         <v>7.2088571410846098</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>0</v>
       </c>
       <c r="P8" s="1"/>
@@ -12555,14 +14676,17 @@
       <c r="K9" s="30">
         <v>1.4894503267095116</v>
       </c>
-      <c r="L9" s="30">
-        <f t="shared" si="0"/>
-        <v>1.1662896536418408</v>
+      <c r="L9" s="13">
+        <v>1.0410295169864401</v>
       </c>
       <c r="M9" s="30">
+        <f>L9*2/3+N9/3</f>
+        <v>0.85675812345956381</v>
+      </c>
+      <c r="N9" s="30">
         <v>0.48821533640581133</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0</v>
       </c>
       <c r="P9" s="1"/>
@@ -12594,14 +14718,17 @@
       <c r="K10" s="30">
         <v>18.473544022536192</v>
       </c>
-      <c r="L10" s="30">
-        <f t="shared" si="0"/>
-        <v>14.340003372823332</v>
+      <c r="L10" s="13">
+        <v>18.752348682008719</v>
       </c>
       <c r="M10" s="30">
+        <f>L10*2/3+N10/3</f>
+        <v>15.463248848798345</v>
+      </c>
+      <c r="N10" s="30">
         <v>8.8850491823775997</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0</v>
       </c>
       <c r="P10" s="1"/>
@@ -12633,14 +14760,17 @@
       <c r="K11" s="30">
         <v>19.411458005544933</v>
       </c>
-      <c r="L11" s="30">
-        <f t="shared" si="0"/>
-        <v>16.429457485804782</v>
+      <c r="L11" s="13">
+        <v>18.095637208589601</v>
       </c>
       <c r="M11" s="30">
+        <f>L11*2/3+N11/3</f>
+        <v>16.048363755990756</v>
+      </c>
+      <c r="N11" s="30">
         <v>11.953816850793071</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>0</v>
       </c>
       <c r="P11" s="1"/>
@@ -12672,14 +14802,17 @@
       <c r="K12" s="30">
         <v>1.4446377495642824</v>
       </c>
-      <c r="L12" s="30">
-        <f t="shared" si="0"/>
-        <v>1.2848783646902477</v>
+      <c r="L12" s="13">
+        <v>2.2584342466232901</v>
       </c>
       <c r="M12" s="30">
+        <f t="shared" ref="M12:M16" si="0">L12*2/3+N12/3</f>
+        <v>1.8148484316492632</v>
+      </c>
+      <c r="N12" s="30">
         <v>0.92767680170120992</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>0</v>
       </c>
       <c r="P12" s="1"/>
@@ -12711,14 +14844,17 @@
       <c r="K13" s="30">
         <v>4.7269471440454405</v>
       </c>
-      <c r="L13" s="30">
+      <c r="L13" s="13">
+        <v>6.2862087424890802</v>
+      </c>
+      <c r="M13" s="30">
         <f t="shared" si="0"/>
-        <v>6.1714117589967739</v>
-      </c>
-      <c r="M13" s="30">
+        <v>7.1919298250215675</v>
+      </c>
+      <c r="N13" s="30">
         <v>9.0033719900865421</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>0</v>
       </c>
       <c r="P13" s="1"/>
@@ -12750,14 +14886,17 @@
       <c r="K14" s="30">
         <v>0.25565928356184919</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="13">
+        <v>0.187409320968947</v>
+      </c>
+      <c r="M14" s="30">
         <f t="shared" si="0"/>
-        <v>0.17723840367205199</v>
-      </c>
-      <c r="M14" s="30">
+        <v>0.1326581724749025</v>
+      </c>
+      <c r="N14" s="30">
         <v>2.3155875486813523E-2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>0</v>
       </c>
       <c r="P14" s="1"/>
@@ -12789,14 +14928,17 @@
       <c r="K15" s="30">
         <v>4.1432118323518896</v>
       </c>
-      <c r="L15" s="30">
+      <c r="L15" s="13">
+        <v>4.6924479738735299</v>
+      </c>
+      <c r="M15" s="30">
         <f t="shared" si="0"/>
-        <v>3.9613080270270089</v>
-      </c>
-      <c r="M15" s="30">
+        <v>4.2494582874450408</v>
+      </c>
+      <c r="N15" s="30">
         <v>3.3634789145880619</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>0</v>
       </c>
       <c r="P15" s="1"/>
@@ -12828,14 +14970,17 @@
       <c r="K16" s="30">
         <v>1.9076981609625141</v>
       </c>
-      <c r="L16" s="30">
+      <c r="L16" s="13">
+        <v>3.6347440465271599</v>
+      </c>
+      <c r="M16" s="30">
         <f t="shared" si="0"/>
-        <v>2.3951478356566893</v>
-      </c>
-      <c r="M16" s="30">
+        <v>3.5045513913327135</v>
+      </c>
+      <c r="N16" s="30">
         <v>3.2441660809438213</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>0</v>
       </c>
       <c r="P16" s="1"/>
@@ -12864,14 +15009,19 @@
       <c r="J17" s="30">
         <v>10.76129175</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="30">
+        <v>15.490769824884</v>
+      </c>
       <c r="L17" s="30">
+        <v>15.7055907873725</v>
+      </c>
+      <c r="M17" s="30">
         <v>16.798154247711324</v>
       </c>
-      <c r="M17" s="30">
+      <c r="N17" s="30">
         <v>18.550648173612263</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>0</v>
       </c>
       <c r="P17" s="1"/>
@@ -12900,14 +15050,19 @@
       <c r="J18" s="30">
         <v>23.13677727</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="30">
+        <v>33.305155123500498</v>
+      </c>
       <c r="L18" s="30">
+        <v>33.767020192851</v>
+      </c>
+      <c r="M18" s="30">
         <v>30.018312954312446</v>
       </c>
-      <c r="M18" s="30">
+      <c r="N18" s="30">
         <v>30.011573675084005</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0</v>
       </c>
       <c r="P18" s="1"/>
@@ -12936,14 +15091,19 @@
       <c r="J19" s="30">
         <v>19.908389740000001</v>
       </c>
-      <c r="K19" s="30"/>
+      <c r="K19" s="30">
+        <v>28.657924176035301</v>
+      </c>
       <c r="L19" s="30">
+        <v>29.055342956639201</v>
+      </c>
+      <c r="M19" s="30">
         <v>25.857221286837778</v>
       </c>
-      <c r="M19" s="30">
+      <c r="N19" s="30">
         <v>25.788290151303741</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>0</v>
       </c>
       <c r="P19" s="1"/>
@@ -12972,15 +15132,20 @@
       <c r="J20" s="30">
         <v>11.754512350000001</v>
       </c>
-      <c r="K20" s="30"/>
+      <c r="K20" s="30">
+        <v>12.787492999999998</v>
+      </c>
       <c r="L20" s="30">
-        <f>(J20*2/3)+(M20/3)</f>
-        <v>10.986341566666667</v>
+        <v>13.183905282999998</v>
       </c>
       <c r="M20" s="30">
+        <f t="shared" ref="M20:M27" si="1">L20*2/3+N20/3</f>
+        <v>11.939270188666665</v>
+      </c>
+      <c r="N20" s="30">
         <v>9.4499999999999993</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0</v>
       </c>
       <c r="P20" s="1"/>
@@ -13004,19 +15169,25 @@
         <v>7.7105748259750104</v>
       </c>
       <c r="I21" s="30">
-        <v>10.927548</v>
+        <v>10.277153740875089</v>
       </c>
       <c r="J21" s="30">
-        <v>9.9341345454545458</v>
-      </c>
-      <c r="K21" s="30"/>
+        <v>3.3705919303064187</v>
+      </c>
+      <c r="K21" s="30">
+        <v>8.6157094085103783</v>
+      </c>
       <c r="L21" s="30">
-        <v>0</v>
+        <f t="shared" ref="L21" si="2">K21-($I$21/11)</f>
+        <v>7.6814227047944605</v>
       </c>
       <c r="M21" s="30">
         <v>0</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="30">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>0</v>
       </c>
       <c r="P21" s="1"/>
@@ -13040,21 +15211,26 @@
         <v>3.5132998087277101</v>
       </c>
       <c r="I22" s="30">
-        <v>4.2966351471015702</v>
+        <v>3.7418117054559139</v>
       </c>
       <c r="J22" s="30">
-        <v>4.4094344637268001</v>
-      </c>
-      <c r="K22" s="30"/>
+        <v>4.5759806863218264</v>
+      </c>
+      <c r="K22" s="30">
+        <v>5.0500849492972852</v>
+      </c>
       <c r="L22" s="30">
-        <f>(J22*2/3)+(M22/3)</f>
-        <v>4.1107229120604369</v>
+        <v>4.6611834502685596</v>
       </c>
       <c r="M22" s="30">
+        <f t="shared" si="1"/>
+        <v>4.2785555697549427</v>
+      </c>
+      <c r="N22" s="30">
         <f>H22</f>
         <v>3.5132998087277101</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0</v>
       </c>
       <c r="P22" s="1"/>
@@ -13078,19 +15254,24 @@
         <v>20.831454920682301</v>
       </c>
       <c r="I23" s="30">
-        <v>13.63038308</v>
+        <v>16.657128777768676</v>
       </c>
       <c r="J23" s="30">
-        <v>13.57977245</v>
-      </c>
-      <c r="K23" s="30"/>
+        <v>22.750457116443403</v>
+      </c>
+      <c r="K23" s="30">
+        <v>15.130660002348661</v>
+      </c>
       <c r="L23" s="30">
-        <v>0</v>
+        <v>13.161374650000001</v>
       </c>
       <c r="M23" s="30">
         <v>0</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="30">
+        <v>0</v>
+      </c>
+      <c r="O23">
         <v>0</v>
       </c>
       <c r="P23" s="1"/>
@@ -13114,21 +15295,26 @@
         <v>0.23349320028657899</v>
       </c>
       <c r="I24" s="30">
+        <v>0.25090920347352241</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0.11004689080374389</v>
+      </c>
+      <c r="K24" s="30">
+        <v>0.12006442123265494</v>
+      </c>
+      <c r="L24" s="30">
         <v>0.23</v>
       </c>
-      <c r="J24" s="30">
-        <v>0.23</v>
-      </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30">
-        <f>(J24*2/3)+(M24/3)</f>
+      <c r="M24" s="30">
+        <f t="shared" si="1"/>
         <v>0.23116440009552636</v>
       </c>
-      <c r="M24" s="30">
+      <c r="N24" s="30">
         <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0</v>
       </c>
       <c r="P24" s="1"/>
@@ -13152,21 +15338,26 @@
         <v>45.9683637522608</v>
       </c>
       <c r="I25" s="30">
-        <v>46.104277330000002</v>
+        <v>46.490627829341264</v>
       </c>
       <c r="J25" s="30">
-        <v>46.814427170000002</v>
-      </c>
-      <c r="K25" s="30"/>
+        <v>16.580491392971403</v>
+      </c>
+      <c r="K25" s="30">
+        <v>18.575720244415919</v>
+      </c>
       <c r="L25" s="30">
-        <f>(J25*2/3)+(M25/3)</f>
-        <v>46.532406030753599</v>
+        <v>48.192396850000002</v>
       </c>
       <c r="M25" s="30">
+        <f t="shared" si="1"/>
+        <v>47.451052484086929</v>
+      </c>
+      <c r="N25" s="30">
         <f>H25</f>
         <v>45.9683637522608</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>0</v>
       </c>
       <c r="P25" s="1"/>
@@ -13195,15 +15386,20 @@
       <c r="J26" s="30">
         <v>29.618106901468909</v>
       </c>
-      <c r="K26" s="30"/>
+      <c r="K26" s="30">
+        <v>30.592051000616877</v>
+      </c>
       <c r="L26" s="30">
-        <f>J26*2/3+M26*1/3</f>
-        <v>30.669454951005577</v>
+        <v>31.598021694557708</v>
       </c>
       <c r="M26" s="30">
+        <f t="shared" si="1"/>
+        <v>31.989398146398109</v>
+      </c>
+      <c r="N26" s="30">
         <v>32.772151050078904</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0</v>
       </c>
     </row>
@@ -13231,15 +15427,20 @@
       <c r="J27" s="30">
         <v>59.593058464401295</v>
       </c>
-      <c r="K27" s="30"/>
+      <c r="K27" s="30">
+        <v>61.552680928952022</v>
+      </c>
       <c r="L27" s="30">
-        <f>J27*2/3+M27*1/3</f>
-        <v>61.758486976267527</v>
+        <v>63.576742445676345</v>
       </c>
       <c r="M27" s="30">
+        <f t="shared" si="1"/>
+        <v>64.414276297117567</v>
+      </c>
+      <c r="N27" s="30">
         <v>66.089343999999997</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0</v>
       </c>
     </row>
@@ -13268,13 +15469,13 @@
       <c r="K28" s="31">
         <v>14.3748</v>
       </c>
-      <c r="L28" s="30">
-        <v>40.299999999999997</v>
-      </c>
       <c r="M28" s="30">
         <v>40.299999999999997</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="30">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O28">
         <v>0</v>
       </c>
     </row>
@@ -13298,13 +15499,13 @@
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
-      <c r="L29" s="31">
+      <c r="M29" s="31">
         <v>0.5</v>
       </c>
-      <c r="M29" s="30">
+      <c r="N29" s="30">
         <v>0.54</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC998A-20E4-45CB-8462-66A71F45EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E7D385-D7FE-451D-950F-C8E5518FADA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -147,6 +147,48 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={9A259E39-3EDA-4082-BE12-276C248AF926}</author>
+    <author>tc={C162B4B5-5414-4E02-9B39-FB4FB193D264}</author>
+    <author>tc={A11FAA6D-9C88-4B20-8831-F494B83541E5}</author>
+  </authors>
+  <commentList>
+    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{9A259E39-3EDA-4082-BE12-276C248AF926}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sum of Eurostat tables: 
+1) ROAD_GO_TA_TOTT
+2) RAIL_GO_TOTAL</t>
+      </text>
+    </comment>
+    <comment ref="I20" authorId="1" shapeId="0" xr:uid="{C162B4B5-5414-4E02-9B39-FB4FB193D264}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sum of Eurostat tables: 
+1) ROAD_GO_TA_TOTT
+2) RAIL_GO_TOTAL</t>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="2" shapeId="0" xr:uid="{A11FAA6D-9C88-4B20-8831-F494B83541E5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Sum of Eurostat tables: 
+1) ROAD_GO_TA_TOTT
+2) RAIL_GO_TOTAL</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="203">
   <si>
@@ -787,7 +829,7 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -938,6 +980,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1600,6 +1648,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Balyk, Olexandr" id="{60EFCDC4-4930-4B73-83DC-CF10A270283F}" userId="Balyk, Olexandr" providerId="None"/>
+</personList>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1861,6 +1915,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H20" dT="2022-10-12T22:37:02.29" personId="{60EFCDC4-4930-4B73-83DC-CF10A270283F}" id="{9A259E39-3EDA-4082-BE12-276C248AF926}">
+    <text>Sum of Eurostat tables: 
+1) ROAD_GO_TA_TOTT
+2) RAIL_GO_TOTAL</text>
+  </threadedComment>
+  <threadedComment ref="I20" dT="2022-10-12T22:37:46.05" personId="{60EFCDC4-4930-4B73-83DC-CF10A270283F}" id="{C162B4B5-5414-4E02-9B39-FB4FB193D264}">
+    <text>Sum of Eurostat tables: 
+1) ROAD_GO_TA_TOTT
+2) RAIL_GO_TOTAL</text>
+  </threadedComment>
+  <threadedComment ref="J20" dT="2022-10-12T22:37:54.36" personId="{60EFCDC4-4930-4B73-83DC-CF10A270283F}" id="{A11FAA6D-9C88-4B20-8831-F494B83541E5}">
+    <text>Sum of Eurostat tables: 
+1) ROAD_GO_TA_TOTT
+2) RAIL_GO_TOTAL</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF3712-19CC-4E57-A353-BD088DDFAAD0}">
   <sheetPr codeName="Sheet7"/>
@@ -7150,8 +7224,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AF57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9389,107 +9463,107 @@
       </c>
       <c r="G22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.2178146269505315</v>
+        <v>0.19157023231298867</v>
       </c>
       <c r="H22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>3.2532352952549441</v>
+        <v>2.8612543152225762</v>
       </c>
       <c r="I22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.59035591066396753</v>
+        <v>0.51922417028002199</v>
       </c>
       <c r="J22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.37964907365901629</v>
+        <v>0.3339053132312666</v>
       </c>
       <c r="K22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.2704057614094616</v>
+        <v>0.23782468265432868</v>
       </c>
       <c r="L22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.13049216248614431</v>
+        <v>0.11476921560539823</v>
       </c>
       <c r="M22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.34195983528392676</v>
+        <v>0.30075723565585522</v>
       </c>
       <c r="N22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.5291116374087359</v>
+        <v>0.4653591942698963</v>
       </c>
       <c r="O22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.24890023926754198</v>
+        <v>0.21891035201263434</v>
       </c>
       <c r="P22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.28340932312027484</v>
+        <v>0.24926145057351232</v>
       </c>
       <c r="Q22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.57281742387914369</v>
+        <v>0.50379888854010457</v>
       </c>
       <c r="R22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3778873214697962</v>
+        <v>0.33235583383728884</v>
       </c>
       <c r="S22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.37186096343983388</v>
+        <v>0.32705558920283034</v>
       </c>
       <c r="T22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.9896591411313085</v>
+        <v>1.7499259311761122</v>
       </c>
       <c r="U22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.54135919368811836</v>
+        <v>0.47613104754052427</v>
       </c>
       <c r="V22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.60997441370730043</v>
+        <v>0.53647884797665768</v>
       </c>
       <c r="W22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.49935221643128408</v>
+        <v>0.43918547366184335</v>
       </c>
       <c r="X22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46383071132724779</v>
+        <v>0.40794394006900198</v>
       </c>
       <c r="Y22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.74064511268734978</v>
+        <v>0.6514050882873873</v>
       </c>
       <c r="Z22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>9.8775540783756666E-2</v>
+        <v>8.6874116581173791E-2</v>
       </c>
       <c r="AA22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.41714780682374364</v>
+        <v>0.36688583949060316</v>
       </c>
       <c r="AB22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.18524594530412608</v>
+        <v>0.1629257376962582</v>
       </c>
       <c r="AC22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20201145503880613</v>
+        <v>0.17767117807225169</v>
       </c>
       <c r="AD22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.23481230791235341</v>
+        <v>0.20651986970064592</v>
       </c>
       <c r="AE22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.49070889678091939</v>
+        <v>0.43158358403414709</v>
       </c>
       <c r="AF22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.18922217409036649</v>
+        <v>0.16642287231469072</v>
       </c>
     </row>
     <row r="23" spans="4:32" x14ac:dyDescent="0.25">
@@ -9505,107 +9579,107 @@
       </c>
       <c r="G23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17991488188042462</v>
+        <v>0.17598869695867239</v>
       </c>
       <c r="H23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.6871723541686299</v>
+        <v>2.6285316488038659</v>
       </c>
       <c r="I23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.48763398226070803</v>
+        <v>0.47699261024925638</v>
       </c>
       <c r="J23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3135901348759621</v>
+        <v>0.30674682738359726</v>
       </c>
       <c r="K23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.22335515894815736</v>
+        <v>0.21848100041223001</v>
       </c>
       <c r="L23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.10778652622510916</v>
+        <v>0.10543435930256223</v>
       </c>
       <c r="M23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.2824588239748011</v>
+        <v>0.27629487820158383</v>
       </c>
       <c r="N23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.43704621254646414</v>
+        <v>0.42750879000601366</v>
       </c>
       <c r="O23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20559159765702764</v>
+        <v>0.20110508368818067</v>
       </c>
       <c r="P23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.23409610092244049</v>
+        <v>0.22898754863328891</v>
       </c>
       <c r="Q23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.47314719217489071</v>
+        <v>0.4628219575290925</v>
       </c>
       <c r="R23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.31213492756751032</v>
+        <v>0.30532337627525935</v>
       </c>
       <c r="S23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30715715583422787</v>
+        <v>0.30045423175568414</v>
       </c>
       <c r="T23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.643458450750628</v>
+        <v>1.6075941480235647</v>
       </c>
       <c r="U23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.44716269403431846</v>
+        <v>0.4374045050032716</v>
       </c>
       <c r="V23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.50383886577623815</v>
+        <v>0.4928438633777254</v>
       </c>
       <c r="W23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.41246493081645397</v>
+        <v>0.40346393225981741</v>
       </c>
       <c r="X23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.38312416759737483</v>
+        <v>0.37476345660861177</v>
       </c>
       <c r="Y23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.61177286314532875</v>
+        <v>0.59842247564144924</v>
       </c>
       <c r="Z23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.1588596696128737E-2</v>
+        <v>7.9808132985805066E-2</v>
       </c>
       <c r="AA23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.34456408847334713</v>
+        <v>0.33704485318495958</v>
       </c>
       <c r="AB23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.15301315083761008</v>
+        <v>0.14967402780693329</v>
       </c>
       <c r="AC23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16686146187994025</v>
+        <v>0.16322013466560803</v>
       </c>
       <c r="AD23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.1939549663563945</v>
+        <v>0.18972239228331952</v>
       </c>
       <c r="AE23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.40532554878448751</v>
+        <v>0.39648034909113317</v>
       </c>
       <c r="AF23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.15629751581539669</v>
+        <v>0.15288671986851338</v>
       </c>
     </row>
     <row r="24" spans="4:32" x14ac:dyDescent="0.25">
@@ -9621,107 +9695,107 @@
       </c>
       <c r="G24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.19572571146618054</v>
+        <v>0.19228961557590898</v>
       </c>
       <c r="H24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.9233197129377184</v>
+        <v>2.871998878406937</v>
       </c>
       <c r="I24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.53048701205549609</v>
+        <v>0.52117395743271944</v>
       </c>
       <c r="J24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.34114827865193581</v>
+        <v>0.33515919224388002</v>
       </c>
       <c r="K24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.24298349829573737</v>
+        <v>0.23871776032169476</v>
       </c>
       <c r="L24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.11725875209088529</v>
+        <v>0.11520019620091229</v>
       </c>
       <c r="M24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30728116376227216</v>
+        <v>0.30188663722790898</v>
       </c>
       <c r="N24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.47545361451038171</v>
+        <v>0.46710670802274745</v>
       </c>
       <c r="O24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.22365888414741908</v>
+        <v>0.21973240271130756</v>
       </c>
       <c r="P24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.25466834886374512</v>
+        <v>0.25019747551574262</v>
       </c>
       <c r="Q24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.51472713012259241</v>
+        <v>0.50569075077735171</v>
       </c>
       <c r="R24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.33956518845505695</v>
+        <v>0.33360389425518211</v>
       </c>
       <c r="S24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3341499726383883</v>
+        <v>0.32828374617730566</v>
       </c>
       <c r="T24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.7878847551480515</v>
+        <v>1.7564972414002475</v>
       </c>
       <c r="U24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.48645912731760305</v>
+        <v>0.47791901168517154</v>
       </c>
       <c r="V24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.54811597260702893</v>
+        <v>0.53849342978034132</v>
       </c>
       <c r="W24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.44871214207035037</v>
+        <v>0.44083470003305669</v>
       </c>
       <c r="X24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.41679292729504486</v>
+        <v>0.40947584844094537</v>
       </c>
       <c r="Y24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.66553515553206655</v>
+        <v>0.65385124034471442</v>
       </c>
       <c r="Z24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.8758561654118218E-2</v>
+        <v>8.7200345686264502E-2</v>
       </c>
       <c r="AA24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.37484420775688798</v>
+        <v>0.36826356675618782</v>
       </c>
       <c r="AB24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16645986979152586</v>
+        <v>0.1635375553434078</v>
       </c>
       <c r="AC24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.18152516346282133</v>
+        <v>0.17833836769908104</v>
       </c>
       <c r="AD24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21099963152428264</v>
+        <v>0.2072953917425068</v>
       </c>
       <c r="AE24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.44094535472607599</v>
+        <v>0.43320426383996402</v>
       </c>
       <c r="AF24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17003286311633117</v>
+        <v>0.16704782237851226</v>
       </c>
     </row>
     <row r="25" spans="4:32" x14ac:dyDescent="0.25">
@@ -14322,12 +14396,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AN42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14420,7 +14494,7 @@
         <v>1.7028384806625201</v>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L19" si="0">K3*2/3+M3/3</f>
+        <f t="shared" ref="L3:L16" si="0">K3*2/3+M3/3</f>
         <v>1.1584060685789734</v>
       </c>
       <c r="M3" s="30">
@@ -15102,13 +15176,16 @@
         <v>11.625551</v>
       </c>
       <c r="H20" s="30">
-        <v>14.23064449</v>
+        <f>(12444+72)/1000</f>
+        <v>12.516</v>
       </c>
       <c r="I20" s="30">
-        <v>11.754512350000001</v>
+        <f>(11424+74)/1000</f>
+        <v>11.497999999999999</v>
       </c>
       <c r="J20" s="30">
-        <v>12.787492999999998</v>
+        <f>(12493+70)/1000</f>
+        <v>12.563000000000001</v>
       </c>
       <c r="K20" s="30">
         <v>13.183905282999998</v>
@@ -16020,6 +16097,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E7D385-D7FE-451D-950F-C8E5518FADA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530EADB-74B1-443E-A9B7-97D44E917CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="DEMANDS" sheetId="1" r:id="rId5"/>
     <sheet name="Residential" sheetId="8" r:id="rId6"/>
     <sheet name="Services" sheetId="9" r:id="rId7"/>
+    <sheet name="TRA-2021" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
@@ -54,26 +55,31 @@
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="I_alku">"1.1."</definedName>
     <definedName name="I_loppu">"31.3."</definedName>
@@ -123,11 +129,13 @@
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="7" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -150,12 +158,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>vahid Aryanpur</author>
     <author>tc={9A259E39-3EDA-4082-BE12-276C248AF926}</author>
     <author>tc={C162B4B5-5414-4E02-9B39-FB4FB193D264}</author>
     <author>tc={A11FAA6D-9C88-4B20-8831-F494B83541E5}</author>
   </authors>
   <commentList>
-    <comment ref="H20" authorId="0" shapeId="0" xr:uid="{9A259E39-3EDA-4082-BE12-276C248AF926}">
+    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{A76B0409-052C-4EE2-A677-378739E63FB6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>vahid Aryanpur:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Updated, based on proportion of total fuel consumption</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H20" authorId="1" shapeId="0" xr:uid="{9A259E39-3EDA-4082-BE12-276C248AF926}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -165,7 +198,7 @@
 2) RAIL_GO_TOTAL</t>
       </text>
     </comment>
-    <comment ref="I20" authorId="1" shapeId="0" xr:uid="{C162B4B5-5414-4E02-9B39-FB4FB193D264}">
+    <comment ref="I20" authorId="2" shapeId="0" xr:uid="{C162B4B5-5414-4E02-9B39-FB4FB193D264}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -175,7 +208,7 @@
 2) RAIL_GO_TOTAL</t>
       </text>
     </comment>
-    <comment ref="J20" authorId="2" shapeId="0" xr:uid="{A11FAA6D-9C88-4B20-8831-F494B83541E5}">
+    <comment ref="J20" authorId="3" shapeId="0" xr:uid="{A11FAA6D-9C88-4B20-8831-F494B83541E5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -190,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="214">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -818,18 +851,52 @@
   <si>
     <t>RSDSH_Det*</t>
   </si>
+  <si>
+    <t>Total fuel consumption (litre)</t>
+  </si>
+  <si>
+    <t>6,681,011,455</t>
+  </si>
+  <si>
+    <t>6,688,720,344</t>
+  </si>
+  <si>
+    <t>6,132,509,241</t>
+  </si>
+  <si>
+    <t>6,231,032,199</t>
+  </si>
+  <si>
+    <t>Source: NORA (National Oil Reserves Agency), https://www.nora.ie/statistics.312.html</t>
+  </si>
+  <si>
+    <t>Proportion of total fuel consumption</t>
+  </si>
+  <si>
+    <t>ALL FUELS</t>
+  </si>
+  <si>
+    <t>2021/2018</t>
+  </si>
+  <si>
+    <t>2021/2020</t>
+  </si>
+  <si>
+    <t>Original value (2021)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -982,10 +1049,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1150,12 +1224,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1253,11 +1328,29 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{0CB343EE-8EF5-4039-B056-A39AE7D2D8C5}"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -7224,7 +7317,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AF57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
@@ -7607,107 +7700,107 @@
       </c>
       <c r="G6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20300060063434958</v>
+        <v>0.17791021665128046</v>
       </c>
       <c r="H6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>4.0584633282751126</v>
+        <v>3.5568470622668977</v>
       </c>
       <c r="I6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.74848244469808678</v>
+        <v>0.65597182215127059</v>
       </c>
       <c r="J6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.34724754504054051</v>
+        <v>0.30432858709155108</v>
       </c>
       <c r="K6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.27376982026764263</v>
+        <v>0.23993253164866168</v>
       </c>
       <c r="L6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.13755999795611623</v>
+        <v>0.12055791442215673</v>
       </c>
       <c r="M6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.39445499612536866</v>
+        <v>0.34570131123035525</v>
       </c>
       <c r="N6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.64928302501009705</v>
+        <v>0.56903321116577554</v>
       </c>
       <c r="O6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.26877256463954802</v>
+        <v>0.2355529247476085</v>
       </c>
       <c r="P6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30465079595834027</v>
+        <v>0.26699669332289716</v>
       </c>
       <c r="Q6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.53022575007917072</v>
+        <v>0.46469112788778127</v>
       </c>
       <c r="R6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46901260006304341</v>
+        <v>0.41104377538121051</v>
       </c>
       <c r="S6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.41278839282092511</v>
+        <v>0.36176874437029644</v>
       </c>
       <c r="T6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.7456271862846215</v>
+        <v>1.5298718818259087</v>
       </c>
       <c r="U6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.53447019407874841</v>
+        <v>0.46841096885952921</v>
       </c>
       <c r="V6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.6373124074899349</v>
+        <v>0.5585421330615401</v>
       </c>
       <c r="W6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.58101868325410067</v>
+        <v>0.50920617718944683</v>
       </c>
       <c r="X6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.38581506771754165</v>
+        <v>0.33812925710793035</v>
       </c>
       <c r="Y6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.86232255454765427</v>
+        <v>0.75574156935227998</v>
       </c>
       <c r="Z6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.11067259735658087</v>
+        <v>9.699373160247457E-2</v>
       </c>
       <c r="AA6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46181565455091583</v>
+        <v>0.40473635495344346</v>
       </c>
       <c r="AB6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.24158039942260146</v>
+        <v>0.21172164548120723</v>
       </c>
       <c r="AC6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21298903965802496</v>
+        <v>0.18666410873414702</v>
       </c>
       <c r="AD6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.2375678491388247</v>
+        <v>0.2082050367220207</v>
       </c>
       <c r="AE6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46084064726442553</v>
+        <v>0.40388185621287809</v>
       </c>
       <c r="AF6" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E6,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.22102568255169014</v>
+        <v>0.19370744197499956</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
@@ -8303,107 +8396,107 @@
       </c>
       <c r="G12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46342451965761583</v>
+        <v>0.40588049118145847</v>
       </c>
       <c r="H12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.1155755961155194</v>
+        <v>7.107853964234006</v>
       </c>
       <c r="I12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.6525894242319275</v>
+        <v>1.4473852348686691</v>
       </c>
       <c r="J12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.7848468237617493</v>
+        <v>0.68739136756505304</v>
       </c>
       <c r="K12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.59049140670441203</v>
+        <v>0.51716931673940703</v>
       </c>
       <c r="L12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3042181315799129</v>
+        <v>0.26644296845403537</v>
       </c>
       <c r="M12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.81942741912586947</v>
+        <v>0.71767804519295675</v>
       </c>
       <c r="N12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.4226196661202095</v>
+        <v>1.2459711222787131</v>
       </c>
       <c r="O12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.60289301217975388</v>
+        <v>0.52803099864930969</v>
       </c>
       <c r="P12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.68057420745305641</v>
+        <v>0.59606641834696639</v>
       </c>
       <c r="Q12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.2070161615941664</v>
+        <v>1.057139386784598</v>
       </c>
       <c r="R12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.0242599623466919</v>
+        <v>0.89707626372882077</v>
       </c>
       <c r="S12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.9289528309484778</v>
+        <v>0.81360354343861541</v>
       </c>
       <c r="T12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>3.7541899081155736</v>
+        <v>3.2880272390856486</v>
       </c>
       <c r="U12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.2287453474819043</v>
+        <v>1.0761704312524312</v>
       </c>
       <c r="V12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.3838834420094299</v>
+        <v>1.2120448257585934</v>
       </c>
       <c r="W12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.3422029707145537</v>
+        <v>1.1755398730764657</v>
       </c>
       <c r="X12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.84676500468112548</v>
+        <v>0.74162108700930296</v>
       </c>
       <c r="Y12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.8958558850984162</v>
+        <v>1.6604449812485407</v>
       </c>
       <c r="Z12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.248475056333125</v>
+        <v>0.21762158373782103</v>
       </c>
       <c r="AA12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.0499837149519835</v>
+        <v>0.9196058643424867</v>
       </c>
       <c r="AB12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.56534360393881622</v>
+        <v>0.49514414952085861</v>
       </c>
       <c r="AC12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46120460967074761</v>
+        <v>0.40393623031991749</v>
       </c>
       <c r="AD12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.50113203851603993</v>
+        <v>0.4389058181253126</v>
       </c>
       <c r="AE12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.92291572480430029</v>
+        <v>0.80831607265713046</v>
       </c>
       <c r="AF12" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E12,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.50756865536512175</v>
+        <v>0.44454319184516294</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
@@ -8999,107 +9092,107 @@
       </c>
       <c r="G18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3949319127195085</v>
+        <v>0.34871475560546433</v>
       </c>
       <c r="H18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>7.0354598059455613</v>
+        <v>6.2121306680648631</v>
       </c>
       <c r="I18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.4215064973824205</v>
+        <v>1.2551537995825381</v>
       </c>
       <c r="J18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.68451237102108609</v>
+        <v>0.6044068774433683</v>
       </c>
       <c r="K18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.5085872808789732</v>
+        <v>0.44906953235181829</v>
       </c>
       <c r="L18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.2618778295465003</v>
+        <v>0.23123141075118878</v>
       </c>
       <c r="M18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.71158722914103401</v>
+        <v>0.62831328315096635</v>
       </c>
       <c r="N18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.2100639919064762</v>
+        <v>1.0684554871723726</v>
       </c>
       <c r="O18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.5215587975249425</v>
+        <v>0.46052304905013597</v>
       </c>
       <c r="P18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.57800689839391617</v>
+        <v>0.51036527517810415</v>
       </c>
       <c r="Q18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.0273437110504584</v>
+        <v>0.90711816286219038</v>
       </c>
       <c r="R18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.87971877108373875</v>
+        <v>0.77676912495517314</v>
       </c>
       <c r="S18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.78875759816931479</v>
+        <v>0.69645274088780662</v>
       </c>
       <c r="T18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>3.2162421821708547</v>
+        <v>2.8398594046266692</v>
       </c>
       <c r="U18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.0696076988780558</v>
+        <v>0.94443618075729097</v>
       </c>
       <c r="V18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.1848865981492651</v>
+        <v>1.0462244938591938</v>
       </c>
       <c r="W18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.1462954859601473</v>
+        <v>1.0121495310057134</v>
       </c>
       <c r="X18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.72187705815118308</v>
+        <v>0.63739893840679929</v>
       </c>
       <c r="Y18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.6400933547220824</v>
+        <v>1.4481603915565415</v>
       </c>
       <c r="Z18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21158507026178613</v>
+        <v>0.18682419346168758</v>
       </c>
       <c r="AA18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.90946181001663118</v>
+        <v>0.80303146592687813</v>
       </c>
       <c r="AB18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.47670587805089104</v>
+        <v>0.42091907087353819</v>
       </c>
       <c r="AC18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.39733782511006455</v>
+        <v>0.35083911457535288</v>
       </c>
       <c r="AD18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.42495116243643605</v>
+        <v>0.37522098361933615</v>
       </c>
       <c r="AE18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.78279105429979845</v>
+        <v>0.69118443559198872</v>
       </c>
       <c r="AF18" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E18,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.45217630306421169</v>
+        <v>0.39926008492914083</v>
       </c>
     </row>
     <row r="19" spans="4:32" x14ac:dyDescent="0.25">
@@ -14400,8 +14493,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:AN42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15061,8 +15154,9 @@
       <c r="I17" s="30">
         <v>10.76129175</v>
       </c>
-      <c r="J17" s="30">
-        <v>15.490769824884</v>
+      <c r="J17" s="1">
+        <f>G17*'TRA-2021'!$C$11</f>
+        <v>13.576148085415543</v>
       </c>
       <c r="K17" s="30">
         <v>15.7055907873725</v>
@@ -15101,8 +15195,9 @@
       <c r="I18" s="30">
         <v>23.13677727</v>
       </c>
-      <c r="J18" s="30">
-        <v>33.305155123500498</v>
+      <c r="J18" s="1">
+        <f>G18*'TRA-2021'!$C$11</f>
+        <v>29.169610469442279</v>
       </c>
       <c r="K18" s="30">
         <v>33.767020192851</v>
@@ -15141,8 +15236,9 @@
       <c r="I19" s="30">
         <v>19.908389740000001</v>
       </c>
-      <c r="J19" s="30">
-        <v>28.657924176035301</v>
+      <c r="J19" s="1">
+        <f>G19*'TRA-2021'!$C$11</f>
+        <v>25.304212456246088</v>
       </c>
       <c r="K19" s="30">
         <v>29.055342956639201</v>
@@ -17790,4 +17886,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5796510-5576-4C29-A9D1-EA490DE360B3}">
+  <dimension ref="B2:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="51">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="51">
+        <v>2019</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="51">
+        <v>2020</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="52">
+        <v>2021</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="54">
+        <f>C6/C3</f>
+        <v>0.93264803405429875</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="55">
+        <f>C6/C5</f>
+        <v>1.0160656843925007</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="D16">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="56">
+        <v>14.5565610923972</v>
+      </c>
+      <c r="D17" s="56">
+        <v>15.490769824884</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="56">
+        <v>31.276118540281001</v>
+      </c>
+      <c r="D18" s="56">
+        <v>33.305155123500498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="56">
+        <v>27.131577542973599</v>
+      </c>
+      <c r="D19" s="56">
+        <v>28.657924176035301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABC998A-20E4-45CB-8462-66A71F45EAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ECBAE4-A617-4586-ADDD-AD6E3E0427F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -14327,7 +14327,7 @@
   <dimension ref="B1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14420,7 +14420,7 @@
         <v>1.7028384806625201</v>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L19" si="0">K3*2/3+M3/3</f>
+        <f t="shared" ref="L3:L16" si="0">K3*2/3+M3/3</f>
         <v>1.1584060685789734</v>
       </c>
       <c r="M3" s="30">
@@ -15439,7 +15439,8 @@
         <v>14.3748</v>
       </c>
       <c r="K28" s="31">
-        <v>17.1311</v>
+        <f>600*8760/10^6*3.6</f>
+        <v>18.921600000000002</v>
       </c>
       <c r="L28" s="30">
         <v>25</v>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F42EEB-5B5C-4F01-83E1-CE4CF575DB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAB61C-1D87-4E0A-9976-4B8B94FEE4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -14494,7 +14494,7 @@
   <dimension ref="B1:AN42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14507,7 +14507,7 @@
     <col min="7" max="40" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>146</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
@@ -14550,13 +14550,16 @@
         <v>2030</v>
       </c>
       <c r="M2" s="12">
+        <v>2031</v>
+      </c>
+      <c r="N2" s="12">
         <v>2050</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -14587,17 +14590,17 @@
         <v>1.7028384806625201</v>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L16" si="0">K3*2/3+M3/3</f>
+        <f>K3*2/3+N3/3</f>
         <v>1.1584060685789734</v>
       </c>
-      <c r="M3" s="30">
+      <c r="N3" s="30">
         <v>6.9541244411880462E-2</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -14628,17 +14631,17 @@
         <v>23.738094411807602</v>
       </c>
       <c r="L4" s="30">
-        <f t="shared" si="0"/>
+        <f>K4*2/3+N4/3</f>
         <v>22.05783877515594</v>
       </c>
-      <c r="M4" s="30">
+      <c r="N4" s="30">
         <v>18.697327501852616</v>
       </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -14669,17 +14672,17 @@
         <v>1.5478463345837199</v>
       </c>
       <c r="L5" s="30">
-        <f t="shared" si="0"/>
+        <f>K5*2/3+N5/3</f>
         <v>1.9434753073389506</v>
       </c>
-      <c r="M5" s="30">
+      <c r="N5" s="30">
         <v>2.7347332528494115</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>59</v>
       </c>
@@ -14710,17 +14713,17 @@
         <v>5.8166390635502099</v>
       </c>
       <c r="L6" s="30">
-        <f t="shared" si="0"/>
+        <f>K6*2/3+N6/3</f>
         <v>5.2807562869892761</v>
       </c>
-      <c r="M6" s="30">
+      <c r="N6" s="30">
         <v>4.2089907338674086</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>59</v>
       </c>
@@ -14751,17 +14754,17 @@
         <v>1.19927927754182</v>
       </c>
       <c r="L7" s="30">
-        <f t="shared" si="0"/>
+        <f>K7*2/3+N7/3</f>
         <v>1.22325956804396</v>
       </c>
-      <c r="M7" s="30">
+      <c r="N7" s="30">
         <v>1.2712201490482398</v>
       </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -14792,17 +14795,17 @@
         <v>10.6043548094603</v>
       </c>
       <c r="L8" s="30">
-        <f t="shared" si="0"/>
+        <f>K8*2/3+N8/3</f>
         <v>9.4725222533350699</v>
       </c>
-      <c r="M8" s="30">
+      <c r="N8" s="30">
         <v>7.2088571410846098</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -14833,17 +14836,17 @@
         <v>1.0410295169864401</v>
       </c>
       <c r="L9" s="30">
-        <f t="shared" si="0"/>
+        <f>K9*2/3+N9/3</f>
         <v>0.85675812345956381</v>
       </c>
-      <c r="M9" s="30">
+      <c r="N9" s="30">
         <v>0.48821533640581133</v>
       </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -14874,17 +14877,17 @@
         <v>18.752348682008719</v>
       </c>
       <c r="L10" s="30">
-        <f t="shared" si="0"/>
+        <f>K10*2/3+N10/3</f>
         <v>15.463248848798345</v>
       </c>
-      <c r="M10" s="30">
+      <c r="N10" s="30">
         <v>8.8850491823775997</v>
       </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -14915,17 +14918,17 @@
         <v>18.095637208589601</v>
       </c>
       <c r="L11" s="30">
-        <f t="shared" si="0"/>
+        <f>K11*2/3+N11/3</f>
         <v>16.048363755990756</v>
       </c>
-      <c r="M11" s="30">
+      <c r="N11" s="30">
         <v>11.953816850793071</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -14956,17 +14959,17 @@
         <v>2.2584342466232901</v>
       </c>
       <c r="L12" s="30">
-        <f t="shared" si="0"/>
+        <f>K12*2/3+N12/3</f>
         <v>1.8148484316492632</v>
       </c>
-      <c r="M12" s="30">
+      <c r="N12" s="30">
         <v>0.92767680170120992</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -14997,17 +15000,17 @@
         <v>6.2862087424890802</v>
       </c>
       <c r="L13" s="30">
-        <f t="shared" si="0"/>
+        <f>K13*2/3+N13/3</f>
         <v>7.1919298250215675</v>
       </c>
-      <c r="M13" s="30">
+      <c r="N13" s="30">
         <v>9.0033719900865421</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -15038,17 +15041,17 @@
         <v>0.187409320968947</v>
       </c>
       <c r="L14" s="30">
-        <f t="shared" si="0"/>
+        <f>K14*2/3+N14/3</f>
         <v>0.1326581724749025</v>
       </c>
-      <c r="M14" s="30">
+      <c r="N14" s="30">
         <v>2.3155875486813523E-2</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>59</v>
       </c>
@@ -15079,17 +15082,17 @@
         <v>4.6924479738735299</v>
       </c>
       <c r="L15" s="30">
-        <f t="shared" si="0"/>
+        <f>K15*2/3+N15/3</f>
         <v>4.2494582874450408</v>
       </c>
-      <c r="M15" s="30">
+      <c r="N15" s="30">
         <v>3.3634789145880619</v>
       </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>59</v>
       </c>
@@ -15120,17 +15123,17 @@
         <v>3.6347440465271599</v>
       </c>
       <c r="L16" s="30">
-        <f t="shared" si="0"/>
+        <f>K16*2/3+N16/3</f>
         <v>3.5045513913327135</v>
       </c>
-      <c r="M16" s="30">
+      <c r="N16" s="30">
         <v>3.2441660809438213</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>59</v>
       </c>
@@ -15164,14 +15167,14 @@
       <c r="L17" s="30">
         <v>16.798154247711324</v>
       </c>
-      <c r="M17" s="30">
+      <c r="N17" s="30">
         <v>18.550648173612263</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>59</v>
       </c>
@@ -15205,14 +15208,14 @@
       <c r="L18" s="30">
         <v>30.018312954312446</v>
       </c>
-      <c r="M18" s="30">
+      <c r="N18" s="30">
         <v>30.011573675084005</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -15246,14 +15249,14 @@
       <c r="L19" s="30">
         <v>25.857221286837778</v>
       </c>
-      <c r="M19" s="30">
+      <c r="N19" s="30">
         <v>25.788290151303741</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -15287,17 +15290,17 @@
         <v>13.183905282999998</v>
       </c>
       <c r="L20" s="30">
-        <f>K20*2/3+M20/3</f>
+        <f>K20*2/3+N20/3</f>
         <v>11.939270188666665</v>
       </c>
-      <c r="M20" s="30">
+      <c r="N20" s="30">
         <v>9.4499999999999993</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -15325,20 +15328,20 @@
         <v>8.6157094085103783</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" ref="K21" si="1">J21-($H$21/11)</f>
+        <f t="shared" ref="K21" si="0">J21-($H$21/11)</f>
         <v>7.6814227047944605</v>
       </c>
       <c r="L21" s="30">
         <v>0</v>
       </c>
-      <c r="M21" s="30">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="30">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>59</v>
       </c>
@@ -15369,18 +15372,18 @@
         <v>4.6611834502685596</v>
       </c>
       <c r="L22" s="30">
-        <f>K22*2/3+M22/3</f>
+        <f>K22*2/3+N22/3</f>
         <v>4.2785555697549427</v>
       </c>
-      <c r="M22" s="30">
+      <c r="N22" s="30">
         <f>G22</f>
         <v>3.5132998087277101</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>59</v>
       </c>
@@ -15413,14 +15416,14 @@
       <c r="L23" s="30">
         <v>0</v>
       </c>
-      <c r="M23" s="30">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="30">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>59</v>
       </c>
@@ -15451,18 +15454,18 @@
         <v>0.23</v>
       </c>
       <c r="L24" s="30">
-        <f>K24*2/3+M24/3</f>
+        <f>K24*2/3+N24/3</f>
         <v>0.23116440009552636</v>
       </c>
-      <c r="M24" s="30">
+      <c r="N24" s="30">
         <f>G24</f>
         <v>0.23349320028657899</v>
       </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -15493,18 +15496,18 @@
         <v>48.192396850000002</v>
       </c>
       <c r="L25" s="30">
-        <f>K25*2/3+M25/3</f>
+        <f>K25*2/3+N25/3</f>
         <v>47.451052484086929</v>
       </c>
-      <c r="M25" s="30">
+      <c r="N25" s="30">
         <f>G25</f>
         <v>45.9683637522608</v>
       </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>59</v>
       </c>
@@ -15535,17 +15538,17 @@
         <v>31.598021694557708</v>
       </c>
       <c r="L26" s="30">
-        <f>K26*2/3+M26/3</f>
+        <f>K26*2/3+N26/3</f>
         <v>31.989398146398109</v>
       </c>
-      <c r="M26" s="30">
+      <c r="N26" s="30">
         <v>32.772151050078904</v>
       </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -15576,17 +15579,17 @@
         <v>63.576742445676345</v>
       </c>
       <c r="L27" s="30">
-        <f>K27*2/3+M27/3</f>
+        <f>K27*2/3+N27/3</f>
         <v>64.414276297117567</v>
       </c>
-      <c r="M27" s="30">
+      <c r="N27" s="30">
         <v>66.089343999999997</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>59</v>
       </c>
@@ -15615,17 +15618,20 @@
         <f>600*8760/10^6*3.6</f>
         <v>18.921600000000002</v>
       </c>
-      <c r="L28" s="30">
-        <v>25</v>
-      </c>
-      <c r="M28" s="30">
-        <v>30</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L28" s="30"/>
+      <c r="M28" s="31">
+        <f>1491*8760/10^6*3.6</f>
+        <v>47.020175999999999</v>
+      </c>
+      <c r="N28" s="30">
+        <f>M28</f>
+        <v>47.020175999999999</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>59</v>
       </c>
@@ -15650,24 +15656,24 @@
       <c r="L29" s="31">
         <v>0.5</v>
       </c>
-      <c r="M29" s="30">
+      <c r="N29" s="30">
         <v>0.54</v>
       </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>146</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcf850925e8c42cd/Desktop/times-ireland-model/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530EADB-74B1-443E-A9B7-97D44E917CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2072" documentId="13_ncr:1_{B530EADB-74B1-443E-A9B7-97D44E917CDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB3B89C1-C663-4384-B191-84DE8923F42D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1319,15 +1319,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1345,6 +1336,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1691,7 +1691,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>30480</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2037,20 +2037,20 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="8" max="10" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2078,7 +2078,7 @@
       <c r="Y1" s="33"/>
       <c r="Z1" s="33"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2106,7 +2106,7 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -2134,7 +2134,7 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -2162,7 +2162,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -2190,7 +2190,7 @@
       <c r="Y5" s="33"/>
       <c r="Z5" s="33"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -2218,7 +2218,7 @@
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -2246,7 +2246,7 @@
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -2274,7 +2274,7 @@
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -2302,7 +2302,7 @@
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -2330,7 +2330,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -2358,7 +2358,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -2386,7 +2386,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2414,7 +2414,7 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2442,7 +2442,7 @@
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -2470,13 +2470,13 @@
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="48" t="s">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -2500,7 +2500,7 @@
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2528,7 +2528,7 @@
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2556,15 +2556,15 @@
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
       <c r="G19" s="41"/>
@@ -2588,15 +2588,15 @@
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="40"/>
       <c r="F20" s="40"/>
       <c r="G20" s="41"/>
@@ -2620,7 +2620,7 @@
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="39" t="s">
         <v>185</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="39"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2680,15 +2680,15 @@
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -2712,13 +2712,13 @@
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="39"/>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -2742,7 +2742,7 @@
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="39"/>
       <c r="B25" s="42" t="s">
         <v>198</v>
@@ -2772,15 +2772,15 @@
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -2804,13 +2804,13 @@
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="39"/>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -2834,7 +2834,7 @@
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="39"/>
       <c r="B28" s="42" t="s">
         <v>198</v>
@@ -2864,7 +2864,7 @@
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="39" t="s">
         <v>188</v>
       </c>
@@ -2896,15 +2896,15 @@
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
       <c r="E30" s="44"/>
       <c r="F30" s="44"/>
       <c r="G30" s="33"/>
@@ -2928,15 +2928,15 @@
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="44"/>
       <c r="F31" s="44"/>
       <c r="G31" s="33"/>
@@ -2960,7 +2960,7 @@
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="46" t="s">
         <v>193</v>
@@ -2990,7 +2990,7 @@
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -3018,7 +3018,7 @@
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -3046,7 +3046,7 @@
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -3074,7 +3074,7 @@
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -3102,7 +3102,7 @@
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -3130,7 +3130,7 @@
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -3158,7 +3158,7 @@
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -3186,7 +3186,7 @@
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -3214,7 +3214,7 @@
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -3242,7 +3242,7 @@
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -3270,7 +3270,7 @@
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -3298,7 +3298,7 @@
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -3326,7 +3326,7 @@
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -3354,7 +3354,7 @@
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -3382,7 +3382,7 @@
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -3410,7 +3410,7 @@
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -3438,7 +3438,7 @@
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -3466,7 +3466,7 @@
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -3494,7 +3494,7 @@
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -3522,7 +3522,7 @@
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -3550,7 +3550,7 @@
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -3578,7 +3578,7 @@
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -3606,7 +3606,7 @@
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -3634,7 +3634,7 @@
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -3662,7 +3662,7 @@
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -3690,7 +3690,7 @@
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -3718,7 +3718,7 @@
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -3746,7 +3746,7 @@
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -3774,7 +3774,7 @@
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -3802,7 +3802,7 @@
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -3830,7 +3830,7 @@
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -3858,7 +3858,7 @@
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -3886,7 +3886,7 @@
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -3914,7 +3914,7 @@
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -3942,7 +3942,7 @@
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -3970,7 +3970,7 @@
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -3998,7 +3998,7 @@
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -4026,7 +4026,7 @@
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -4054,7 +4054,7 @@
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -4082,7 +4082,7 @@
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -4110,7 +4110,7 @@
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -4138,7 +4138,7 @@
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -4166,7 +4166,7 @@
       <c r="Y74" s="33"/>
       <c r="Z74" s="33"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -4194,7 +4194,7 @@
       <c r="Y75" s="33"/>
       <c r="Z75" s="33"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -4222,7 +4222,7 @@
       <c r="Y76" s="33"/>
       <c r="Z76" s="33"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -4250,7 +4250,7 @@
       <c r="Y77" s="33"/>
       <c r="Z77" s="33"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -4278,7 +4278,7 @@
       <c r="Y78" s="33"/>
       <c r="Z78" s="33"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -4306,7 +4306,7 @@
       <c r="Y79" s="33"/>
       <c r="Z79" s="33"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -4334,7 +4334,7 @@
       <c r="Y80" s="33"/>
       <c r="Z80" s="33"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -4362,7 +4362,7 @@
       <c r="Y81" s="33"/>
       <c r="Z81" s="33"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -4390,7 +4390,7 @@
       <c r="Y82" s="33"/>
       <c r="Z82" s="33"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -4418,7 +4418,7 @@
       <c r="Y83" s="33"/>
       <c r="Z83" s="33"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -4446,7 +4446,7 @@
       <c r="Y84" s="33"/>
       <c r="Z84" s="33"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -4474,7 +4474,7 @@
       <c r="Y85" s="33"/>
       <c r="Z85" s="33"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -4502,7 +4502,7 @@
       <c r="Y86" s="33"/>
       <c r="Z86" s="33"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -4530,7 +4530,7 @@
       <c r="Y87" s="33"/>
       <c r="Z87" s="33"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -4558,7 +4558,7 @@
       <c r="Y88" s="33"/>
       <c r="Z88" s="33"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -4586,7 +4586,7 @@
       <c r="Y89" s="33"/>
       <c r="Z89" s="33"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4614,7 +4614,7 @@
       <c r="Y90" s="33"/>
       <c r="Z90" s="33"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -4642,7 +4642,7 @@
       <c r="Y91" s="33"/>
       <c r="Z91" s="33"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -4670,7 +4670,7 @@
       <c r="Y92" s="33"/>
       <c r="Z92" s="33"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -4698,7 +4698,7 @@
       <c r="Y93" s="33"/>
       <c r="Z93" s="33"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -4726,7 +4726,7 @@
       <c r="Y94" s="33"/>
       <c r="Z94" s="33"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -4754,7 +4754,7 @@
       <c r="Y95" s="33"/>
       <c r="Z95" s="33"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -4782,7 +4782,7 @@
       <c r="Y96" s="33"/>
       <c r="Z96" s="33"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -4810,7 +4810,7 @@
       <c r="Y97" s="33"/>
       <c r="Z97" s="33"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -4838,7 +4838,7 @@
       <c r="Y98" s="33"/>
       <c r="Z98" s="33"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -4897,18 +4897,18 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>9.9398312692044299E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0.268541777593654</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -5983,7 +5983,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="21"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="21"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="21"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="AJ18" s="21"/>
       <c r="AK18" s="21"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="AJ19" s="21"/>
       <c r="AK19" s="21"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>66</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>66</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>66</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>66</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>66</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>66</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>66</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>66</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>66</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>66</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>66</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>66</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>66</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>66</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -7321,20 +7321,20 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>65</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>59</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>59</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>59</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>0.19370744197499956</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>59</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>0.22409079489905456</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>59</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>59</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>59</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>59</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0.44454319184516294</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>59</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0.5146074525525558</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>59</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>59</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>59</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>59</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0.39926008492914083</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>59</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>0.45844693710867024</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>59</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>59</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>59</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>0.16642287231469072</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>59</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>0.15288671986851338</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -9891,7 +9891,7 @@
         <v>0.16704782237851226</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>59</v>
       </c>
@@ -10007,7 +10007,7 @@
         <v>0.17530388187293744</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>59</v>
       </c>
@@ -10123,7 +10123,7 @@
         <v>0.15875420566787038</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>59</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>59</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>0.13248451174851819</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>59</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>4.3450865623823776E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>59</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>0.11106655433340036</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>59</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>9.9022507810807792E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>59</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>59</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>4.8236321977023038E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>5.8989734150496013E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>6.5101491683943843E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>59</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>6.0088097264031193E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>59</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>5.5155577112114051E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>59</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>59</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>0.21472983949610272</v>
       </c>
     </row>
-    <row r="41" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>59</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>0.29327995660313688</v>
       </c>
     </row>
-    <row r="42" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>59</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>0.19505187461302997</v>
       </c>
     </row>
-    <row r="43" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>59</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>0.16966548700244569</v>
       </c>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>59</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>59</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>59</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>59</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>59</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>59</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>59</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>59</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>59</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>59</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>59</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>59</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>59</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>59</v>
       </c>
@@ -13733,37 +13733,37 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" customWidth="1"/>
+    <col min="25" max="25" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="C3" s="18" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -13877,12 +13877,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
         <v>130</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
         <v>76</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>99</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>100</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>79</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>80</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>91</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>81</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
         <v>96</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
         <v>83</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>84</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>97</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>98</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>92</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
         <v>85</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
         <v>86</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
         <v>87</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="14" t="s">
         <v>102</v>
       </c>
@@ -14473,7 +14473,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>30480</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14497,17 +14497,17 @@
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="40" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="40" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>146</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -14679,7 +14679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>59</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>59</v>
       </c>
@@ -14761,7 +14761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -14802,7 +14802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -14843,7 +14843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -14925,7 +14925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -15007,7 +15007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>59</v>
       </c>
@@ -15089,7 +15089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>59</v>
       </c>
@@ -15130,7 +15130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>59</v>
       </c>
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>59</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -15297,7 +15297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -15338,7 +15338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>59</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>59</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>59</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -15504,7 +15504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>59</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>59</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>59</v>
       </c>
@@ -15656,17 +15656,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>146</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="12" t="s">
         <v>1</v>
       </c>
@@ -15797,7 +15797,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>59</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>59</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>59</v>
       </c>
@@ -16148,25 +16148,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G40" s="31"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -16174,7 +16174,7 @@
       <c r="K40" s="30"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G41" s="31"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
@@ -16182,7 +16182,7 @@
       <c r="K41" s="30"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.3">
       <c r="G42" s="31"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
@@ -16206,15 +16206,15 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="24" t="s">
         <v>147</v>
       </c>
@@ -16222,7 +16222,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="26" t="s">
         <v>65</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="10" t="s">
         <v>150</v>
       </c>
@@ -16272,7 +16272,7 @@
       <c r="L6" s="10"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>151</v>
       </c>
@@ -16295,7 +16295,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>151</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>151</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>156</v>
       </c>
@@ -16367,7 +16367,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>156</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>156</v>
       </c>
@@ -16419,7 +16419,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>151</v>
       </c>
@@ -16442,7 +16442,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -16465,7 +16465,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>151</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>151</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>151</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>151</v>
       </c>
@@ -16557,7 +16557,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>151</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>151</v>
       </c>
@@ -16603,7 +16603,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -16626,7 +16626,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>151</v>
       </c>
@@ -16649,7 +16649,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>151</v>
       </c>
@@ -16672,7 +16672,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>151</v>
       </c>
@@ -16695,7 +16695,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>156</v>
       </c>
@@ -16721,7 +16721,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>156</v>
       </c>
@@ -16747,7 +16747,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>156</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>151</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>151</v>
       </c>
@@ -16819,7 +16819,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>151</v>
       </c>
@@ -16842,7 +16842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>151</v>
       </c>
@@ -16865,7 +16865,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>151</v>
       </c>
@@ -16888,7 +16888,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>151</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>151</v>
       </c>
@@ -16934,7 +16934,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>151</v>
       </c>
@@ -16957,7 +16957,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>151</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>151</v>
       </c>
@@ -17003,7 +17003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>151</v>
       </c>
@@ -17026,7 +17026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>151</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>151</v>
       </c>
@@ -17072,7 +17072,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>151</v>
       </c>
@@ -17095,7 +17095,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>151</v>
       </c>
@@ -17118,7 +17118,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>151</v>
       </c>
@@ -17141,7 +17141,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>151</v>
       </c>
@@ -17164,7 +17164,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>151</v>
       </c>
@@ -17187,7 +17187,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>151</v>
       </c>
@@ -17210,7 +17210,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>151</v>
       </c>
@@ -17233,7 +17233,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>151</v>
       </c>
@@ -17256,7 +17256,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>151</v>
       </c>
@@ -17279,7 +17279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>151</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>151</v>
       </c>
@@ -17339,18 +17339,18 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="24" t="s">
         <v>147</v>
       </c>
@@ -17358,7 +17358,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
         <v>65</v>
       </c>
@@ -17391,7 +17391,7 @@
       </c>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="10" t="s">
         <v>150</v>
       </c>
@@ -17407,7 +17407,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>151</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>151</v>
       </c>
@@ -17441,7 +17441,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>151</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>151</v>
       </c>
@@ -17475,7 +17475,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>151</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>151</v>
       </c>
@@ -17509,7 +17509,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>151</v>
       </c>
@@ -17526,7 +17526,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>151</v>
       </c>
@@ -17543,7 +17543,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>151</v>
       </c>
@@ -17577,7 +17577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>151</v>
       </c>
@@ -17594,7 +17594,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>151</v>
       </c>
@@ -17611,7 +17611,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>151</v>
       </c>
@@ -17628,7 +17628,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>151</v>
       </c>
@@ -17645,7 +17645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>151</v>
       </c>
@@ -17662,7 +17662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>151</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>151</v>
       </c>
@@ -17713,7 +17713,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>151</v>
       </c>
@@ -17730,7 +17730,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>151</v>
       </c>
@@ -17747,7 +17747,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>151</v>
       </c>
@@ -17764,7 +17764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>151</v>
       </c>
@@ -17781,7 +17781,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>151</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>151</v>
       </c>
@@ -17815,7 +17815,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>151</v>
       </c>
@@ -17832,7 +17832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>151</v>
       </c>
@@ -17849,7 +17849,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>151</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>151</v>
       </c>
@@ -17896,46 +17896,46 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="50" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="51">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="48">
         <v>2018</v>
       </c>
       <c r="C3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="51">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="48">
         <v>2019</v>
       </c>
       <c r="C4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="51">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="48">
         <v>2020</v>
       </c>
       <c r="C5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="52">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="49">
         <v>2021</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -17943,48 +17943,48 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="51" t="s">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="50" t="s">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="47" t="s">
         <v>209</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="53" t="s">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="54">
+      <c r="C11" s="51">
         <f>C6/C3</f>
         <v>0.93264803405429875</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="52">
         <f>C6/C5</f>
         <v>1.0160656843925007</v>
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>2018</v>
       </c>
@@ -17992,36 +17992,36 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="56">
+      <c r="C17" s="53">
         <v>14.5565610923972</v>
       </c>
-      <c r="D17" s="56">
+      <c r="D17" s="53">
         <v>15.490769824884</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="53">
         <v>31.276118540281001</v>
       </c>
-      <c r="D18" s="56">
+      <c r="D18" s="53">
         <v>33.305155123500498</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="56">
+      <c r="C19" s="53">
         <v>27.131577542973599</v>
       </c>
-      <c r="D19" s="56">
+      <c r="D19" s="53">
         <v>28.657924176035301</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAB61C-1D87-4E0A-9976-4B8B94FEE4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C6DCD8-8E83-40F4-83A2-E8EAA8B26301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="4110" windowWidth="19200" windowHeight="11170" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2037,20 +2037,20 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.6328125" customWidth="1"/>
+    <col min="5" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.08984375" customWidth="1"/>
+    <col min="8" max="10" width="8.08984375" customWidth="1"/>
+    <col min="11" max="11" width="9.6328125" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2078,7 +2078,7 @@
       <c r="Y1" s="33"/>
       <c r="Z1" s="33"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2106,7 +2106,7 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -2134,7 +2134,7 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -2162,7 +2162,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -2190,7 +2190,7 @@
       <c r="Y5" s="33"/>
       <c r="Z5" s="33"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -2218,7 +2218,7 @@
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -2246,7 +2246,7 @@
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -2274,7 +2274,7 @@
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -2302,7 +2302,7 @@
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -2330,7 +2330,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -2358,7 +2358,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -2386,7 +2386,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2414,7 +2414,7 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2442,7 +2442,7 @@
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -2470,7 +2470,7 @@
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="55" t="s">
         <v>182</v>
       </c>
@@ -2500,7 +2500,7 @@
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2528,7 +2528,7 @@
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2556,7 +2556,7 @@
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>183</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="39" t="s">
         <v>184</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39" t="s">
         <v>185</v>
       </c>
@@ -2652,7 +2652,7 @@
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="39"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -2680,7 +2680,7 @@
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="39" t="s">
         <v>186</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="39"/>
       <c r="B24" s="54" t="s">
         <v>197</v>
@@ -2742,7 +2742,7 @@
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="39"/>
       <c r="B25" s="42" t="s">
         <v>198</v>
@@ -2772,7 +2772,7 @@
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>187</v>
       </c>
@@ -2804,7 +2804,7 @@
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="39"/>
       <c r="B27" s="54" t="s">
         <v>197</v>
@@ -2834,7 +2834,7 @@
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="39"/>
       <c r="B28" s="42" t="s">
         <v>198</v>
@@ -2864,7 +2864,7 @@
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="39" t="s">
         <v>188</v>
       </c>
@@ -2896,7 +2896,7 @@
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="39" t="s">
         <v>189</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="39" t="s">
         <v>191</v>
       </c>
@@ -2960,7 +2960,7 @@
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="45"/>
       <c r="B32" s="46" t="s">
         <v>193</v>
@@ -2990,7 +2990,7 @@
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -3018,7 +3018,7 @@
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -3046,7 +3046,7 @@
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -3074,7 +3074,7 @@
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -3102,7 +3102,7 @@
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -3130,7 +3130,7 @@
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -3158,7 +3158,7 @@
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -3186,7 +3186,7 @@
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -3214,7 +3214,7 @@
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -3242,7 +3242,7 @@
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -3270,7 +3270,7 @@
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -3298,7 +3298,7 @@
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -3326,7 +3326,7 @@
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -3354,7 +3354,7 @@
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -3382,7 +3382,7 @@
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -3410,7 +3410,7 @@
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -3438,7 +3438,7 @@
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -3466,7 +3466,7 @@
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -3494,7 +3494,7 @@
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -3522,7 +3522,7 @@
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -3550,7 +3550,7 @@
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -3578,7 +3578,7 @@
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -3606,7 +3606,7 @@
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -3634,7 +3634,7 @@
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -3662,7 +3662,7 @@
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -3690,7 +3690,7 @@
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -3718,7 +3718,7 @@
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -3746,7 +3746,7 @@
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -3774,7 +3774,7 @@
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -3802,7 +3802,7 @@
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -3830,7 +3830,7 @@
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -3858,7 +3858,7 @@
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -3886,7 +3886,7 @@
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -3914,7 +3914,7 @@
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -3942,7 +3942,7 @@
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -3970,7 +3970,7 @@
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -3998,7 +3998,7 @@
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -4026,7 +4026,7 @@
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -4054,7 +4054,7 @@
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -4082,7 +4082,7 @@
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -4110,7 +4110,7 @@
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -4138,7 +4138,7 @@
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -4166,7 +4166,7 @@
       <c r="Y74" s="33"/>
       <c r="Z74" s="33"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -4194,7 +4194,7 @@
       <c r="Y75" s="33"/>
       <c r="Z75" s="33"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -4222,7 +4222,7 @@
       <c r="Y76" s="33"/>
       <c r="Z76" s="33"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -4250,7 +4250,7 @@
       <c r="Y77" s="33"/>
       <c r="Z77" s="33"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -4278,7 +4278,7 @@
       <c r="Y78" s="33"/>
       <c r="Z78" s="33"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -4306,7 +4306,7 @@
       <c r="Y79" s="33"/>
       <c r="Z79" s="33"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -4334,7 +4334,7 @@
       <c r="Y80" s="33"/>
       <c r="Z80" s="33"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -4362,7 +4362,7 @@
       <c r="Y81" s="33"/>
       <c r="Z81" s="33"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -4390,7 +4390,7 @@
       <c r="Y82" s="33"/>
       <c r="Z82" s="33"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -4418,7 +4418,7 @@
       <c r="Y83" s="33"/>
       <c r="Z83" s="33"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -4446,7 +4446,7 @@
       <c r="Y84" s="33"/>
       <c r="Z84" s="33"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -4474,7 +4474,7 @@
       <c r="Y85" s="33"/>
       <c r="Z85" s="33"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -4502,7 +4502,7 @@
       <c r="Y86" s="33"/>
       <c r="Z86" s="33"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -4530,7 +4530,7 @@
       <c r="Y87" s="33"/>
       <c r="Z87" s="33"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -4558,7 +4558,7 @@
       <c r="Y88" s="33"/>
       <c r="Z88" s="33"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -4586,7 +4586,7 @@
       <c r="Y89" s="33"/>
       <c r="Z89" s="33"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4614,7 +4614,7 @@
       <c r="Y90" s="33"/>
       <c r="Z90" s="33"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -4642,7 +4642,7 @@
       <c r="Y91" s="33"/>
       <c r="Z91" s="33"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -4670,7 +4670,7 @@
       <c r="Y92" s="33"/>
       <c r="Z92" s="33"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -4698,7 +4698,7 @@
       <c r="Y93" s="33"/>
       <c r="Z93" s="33"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -4726,7 +4726,7 @@
       <c r="Y94" s="33"/>
       <c r="Z94" s="33"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -4754,7 +4754,7 @@
       <c r="Y95" s="33"/>
       <c r="Z95" s="33"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -4782,7 +4782,7 @@
       <c r="Y96" s="33"/>
       <c r="Z96" s="33"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -4810,7 +4810,7 @@
       <c r="Y97" s="33"/>
       <c r="Z97" s="33"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -4838,7 +4838,7 @@
       <c r="Y98" s="33"/>
       <c r="Z98" s="33"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -4897,18 +4897,18 @@
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
@@ -5043,7 +5043,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>40</v>
       </c>
       <c r="J9" s="20">
-        <v>11.625551</v>
+        <v>10.702591</v>
       </c>
       <c r="K9" s="21"/>
       <c r="L9" s="20">
@@ -5439,7 +5439,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>9.9398312692044299E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0.268541777593654</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -5983,7 +5983,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="21"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -6032,7 +6032,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="21"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -6081,7 +6081,7 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="21"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -6130,7 +6130,7 @@
       <c r="AJ18" s="21"/>
       <c r="AK18" s="21"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -6179,7 +6179,7 @@
       <c r="AJ19" s="21"/>
       <c r="AK19" s="21"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -6277,7 +6277,7 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -6326,7 +6326,7 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -6375,7 +6375,7 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -6424,7 +6424,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>66</v>
       </c>
@@ -6473,7 +6473,7 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>66</v>
       </c>
@@ -6522,7 +6522,7 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>66</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>66</v>
       </c>
@@ -6767,7 +6767,7 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>66</v>
       </c>
@@ -6816,7 +6816,7 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>66</v>
       </c>
@@ -6865,7 +6865,7 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>66</v>
       </c>
@@ -6914,7 +6914,7 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>66</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>66</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C37" t="s">
         <v>66</v>
       </c>
@@ -7061,7 +7061,7 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>66</v>
       </c>
@@ -7110,7 +7110,7 @@
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>66</v>
       </c>
@@ -7159,7 +7159,7 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
         <v>66</v>
       </c>
@@ -7208,7 +7208,7 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C41" t="s">
         <v>66</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -7321,20 +7321,20 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>65</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D4" t="s">
         <v>59</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D5" t="s">
         <v>59</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
         <v>59</v>
       </c>
@@ -7803,7 +7803,7 @@
         <v>0.19370744197499956</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>59</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>0.22409079489905456</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>59</v>
       </c>
@@ -8035,7 +8035,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>59</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>59</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>59</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>0.44454319184516294</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>59</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>0.5146074525525558</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>59</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>59</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -8963,7 +8963,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>59</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>59</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>0.39926008492914083</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>59</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>0.45844693710867024</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>59</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>59</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D22" t="s">
         <v>59</v>
       </c>
@@ -9556,110 +9556,110 @@
       </c>
       <c r="G22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.19157023231298867</v>
+        <v>0.20809068624938556</v>
       </c>
       <c r="H22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.8612543152225762</v>
+        <v>3.1080004800323713</v>
       </c>
       <c r="I22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.51922417028002199</v>
+        <v>0.56400053706836784</v>
       </c>
       <c r="J22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3339053132312666</v>
+        <v>0.36270032631734356</v>
       </c>
       <c r="K22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.23782468265432868</v>
+        <v>0.25833398447690969</v>
       </c>
       <c r="L22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.11476921560539823</v>
+        <v>0.12466657552835131</v>
       </c>
       <c r="M22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30075723565585522</v>
+        <v>0.32669365593211613</v>
       </c>
       <c r="N22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.4653591942698963</v>
+        <v>0.50549040380068588</v>
       </c>
       <c r="O22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21891035201263434</v>
+        <v>0.23778853753739007</v>
       </c>
       <c r="P22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.24926145057351232</v>
+        <v>0.27075702565634308</v>
       </c>
       <c r="Q22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.50379888854010457</v>
+        <v>0.54724502435590605</v>
       </c>
       <c r="R22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.33235583383728884</v>
+        <v>0.36101722437332484</v>
       </c>
       <c r="S22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.32705558920283034</v>
+        <v>0.35525990221550591</v>
       </c>
       <c r="T22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.7499259311761122</v>
+        <v>1.900834401605217</v>
       </c>
       <c r="U22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.47613104754052427</v>
+        <v>0.51719119004601688</v>
       </c>
       <c r="V22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.53647884797665768</v>
+        <v>0.58274320746946984</v>
       </c>
       <c r="W22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.43918547366184335</v>
+        <v>0.4770595384346572</v>
       </c>
       <c r="X22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.40794394006900198</v>
+        <v>0.44312382678298423</v>
       </c>
       <c r="Y22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.6514050882873873</v>
+        <v>0.70758034905234846</v>
       </c>
       <c r="Z22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.6874116581173791E-2</v>
+        <v>9.4365885129533728E-2</v>
       </c>
       <c r="AA22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.36688583949060316</v>
+        <v>0.39852499625332038</v>
       </c>
       <c r="AB22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.1629257376962582</v>
+        <v>0.17697597458414252</v>
       </c>
       <c r="AC22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17767117807225169</v>
+        <v>0.1929930184110599</v>
       </c>
       <c r="AD22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20651986970064592</v>
+        <v>0.22432953643825257</v>
       </c>
       <c r="AE22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.43158358403414709</v>
+        <v>0.46880208418239683</v>
       </c>
       <c r="AF22" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E22,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16642287231469072</v>
-      </c>
-    </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+        <v>0.18077469181630176</v>
+      </c>
+    </row>
+    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>59</v>
       </c>
@@ -9672,110 +9672,110 @@
       </c>
       <c r="G23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17598869695867239</v>
+        <v>0.19116544506994529</v>
       </c>
       <c r="H23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.6285316488038659</v>
+        <v>2.8552084946797862</v>
       </c>
       <c r="I23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.47699261024925638</v>
+        <v>0.51812705139118675</v>
       </c>
       <c r="J23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30674682738359726</v>
+        <v>0.33319977245100801</v>
       </c>
       <c r="K23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21848100041223001</v>
+        <v>0.2373221599165474</v>
       </c>
       <c r="L23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.10543435930256223</v>
+        <v>0.1145267086469306</v>
       </c>
       <c r="M23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.27629487820158383</v>
+        <v>0.30012173664968611</v>
       </c>
       <c r="N23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.42750879000601366</v>
+        <v>0.46437589189040318</v>
       </c>
       <c r="O23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20110508368818067</v>
+        <v>0.21844779519054897</v>
       </c>
       <c r="P23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.22898754863328891</v>
+        <v>0.24873476198439057</v>
       </c>
       <c r="Q23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.4628219575290925</v>
+        <v>0.50273436321861675</v>
       </c>
       <c r="R23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30532337627525935</v>
+        <v>0.33165356710166893</v>
       </c>
       <c r="S23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30045423175568414</v>
+        <v>0.32636452186592252</v>
       </c>
       <c r="T23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.6075941480235647</v>
+        <v>1.7462283436926163</v>
       </c>
       <c r="U23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.4374045050032716</v>
+        <v>0.47512498427205985</v>
       </c>
       <c r="V23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.4928438633777254</v>
+        <v>0.53534527001310039</v>
       </c>
       <c r="W23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.40346393225981741</v>
+        <v>0.43825747626411699</v>
       </c>
       <c r="X23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.37476345660861177</v>
+        <v>0.40708195592447688</v>
       </c>
       <c r="Y23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.59842247564144924</v>
+        <v>0.65002867157269917</v>
       </c>
       <c r="Z23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>7.9808132985805066E-2</v>
+        <v>8.6690551871155222E-2</v>
       </c>
       <c r="AA23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.33704485318495958</v>
+        <v>0.36611061097161052</v>
       </c>
       <c r="AB23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.14967402780693329</v>
+        <v>0.16258147617197752</v>
       </c>
       <c r="AC23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16322013466560803</v>
+        <v>0.17729575948309095</v>
       </c>
       <c r="AD23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.18972239228331952</v>
+        <v>0.20608349392513808</v>
       </c>
       <c r="AE23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.39648034909113317</v>
+        <v>0.43067164940309988</v>
       </c>
       <c r="AF23" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E23,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.15288671986851338</v>
-      </c>
-    </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+        <v>0.16607122135697006</v>
+      </c>
+    </row>
+    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -9788,110 +9788,110 @@
       </c>
       <c r="G24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.19228961557590898</v>
+        <v>0.20887210701110825</v>
       </c>
       <c r="H24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.871998878406937</v>
+        <v>3.1196716227745829</v>
       </c>
       <c r="I24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.52117395743271944</v>
+        <v>0.56611846813597844</v>
       </c>
       <c r="J24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.33515919224388002</v>
+        <v>0.36406233617168327</v>
       </c>
       <c r="K24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.23871776032169476</v>
+        <v>0.25930407853814452</v>
       </c>
       <c r="L24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.11520019620091229</v>
+        <v>0.12513472262405542</v>
       </c>
       <c r="M24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30188663722790898</v>
+        <v>0.32792045377717927</v>
       </c>
       <c r="N24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46710670802274745</v>
+        <v>0.50738861800479529</v>
       </c>
       <c r="O24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21973240271130756</v>
+        <v>0.23868147947285326</v>
       </c>
       <c r="P24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.25019747551574262</v>
+        <v>0.2717737706392328</v>
       </c>
       <c r="Q24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.50569075077735171</v>
+        <v>0.54930003523356086</v>
       </c>
       <c r="R24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.33360389425518211</v>
+        <v>0.36237291385443271</v>
       </c>
       <c r="S24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.32828374617730566</v>
+        <v>0.35659397183871849</v>
       </c>
       <c r="T24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.7564972414002475</v>
+        <v>1.9079724023143452</v>
       </c>
       <c r="U24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.47791901168517154</v>
+        <v>0.51913334296485381</v>
       </c>
       <c r="V24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.53849342978034132</v>
+        <v>0.58493152088837896</v>
       </c>
       <c r="W24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.44083470003305669</v>
+        <v>0.47885098924213793</v>
       </c>
       <c r="X24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.40947584844094537</v>
+        <v>0.44478784243165798</v>
       </c>
       <c r="Y24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.65385124034471442</v>
+        <v>0.71023745007547567</v>
       </c>
       <c r="Z24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.7200345686264502E-2</v>
+        <v>9.4720247274075769E-2</v>
       </c>
       <c r="AA24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.36826356675618782</v>
+        <v>0.40002153467005941</v>
       </c>
       <c r="AB24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.1635375553434078</v>
+        <v>0.17764055358745465</v>
       </c>
       <c r="AC24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17833836769908104</v>
+        <v>0.1937177445108777</v>
       </c>
       <c r="AD24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.2072953917425068</v>
+        <v>0.2251719372222569</v>
       </c>
       <c r="AE24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.43320426383996402</v>
+        <v>0.47056252665256082</v>
       </c>
       <c r="AF24" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E24,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16704782237851226</v>
-      </c>
-    </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
+        <v>0.18145353573731215</v>
+      </c>
+    </row>
+    <row r="25" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D25" t="s">
         <v>59</v>
       </c>
@@ -9904,110 +9904,110 @@
       </c>
       <c r="G25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20179320852163216</v>
+        <v>0.21919526188769328</v>
       </c>
       <c r="H25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>3.0139426240387879</v>
+        <v>3.2738561799508878</v>
       </c>
       <c r="I25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.54693210942921644</v>
+        <v>0.59409792747447199</v>
       </c>
       <c r="J25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.35172387529014576</v>
+        <v>0.38205550881120559</v>
       </c>
       <c r="K25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.25051598674290521</v>
+        <v>0.27211974933873195</v>
       </c>
       <c r="L25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.12089377340570275</v>
+        <v>0.13131929719732735</v>
       </c>
       <c r="M25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3168068798389026</v>
+        <v>0.34412737427021489</v>
       </c>
       <c r="N25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.4901926765602036</v>
+        <v>0.53246545263452105</v>
       </c>
       <c r="O25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.23059230955598906</v>
+        <v>0.25047791277373282</v>
       </c>
       <c r="P25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.26256306767852122</v>
+        <v>0.28520573513582831</v>
       </c>
       <c r="Q25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.53068367115639281</v>
+        <v>0.57644827162841905</v>
       </c>
       <c r="R25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.35009170929716377</v>
+        <v>0.3802825896188457</v>
       </c>
       <c r="S25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.34450862179017833</v>
+        <v>0.37421803305026136</v>
       </c>
       <c r="T25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.8433091825576411</v>
+        <v>2.0022707501942443</v>
       </c>
       <c r="U25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.50153936026444879</v>
+        <v>0.54479064100101771</v>
       </c>
       <c r="V25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.56510756775784676</v>
+        <v>0.61384078392370622</v>
       </c>
       <c r="W25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.46262221847453128</v>
+        <v>0.50251739925489114</v>
       </c>
       <c r="X25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.42971350804119124</v>
+        <v>0.46677073833072558</v>
       </c>
       <c r="Y25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.68616674535356059</v>
+        <v>0.74533974928237767</v>
       </c>
       <c r="Z25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>9.1510077065395878E-2</v>
+        <v>9.9401637223891878E-2</v>
       </c>
       <c r="AA25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.38646437819735152</v>
+        <v>0.41979193060975595</v>
       </c>
       <c r="AB25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17162012575506316</v>
+        <v>0.18642014112207972</v>
       </c>
       <c r="AC25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.1871524435301688</v>
+        <v>0.20329192034289617</v>
       </c>
       <c r="AD25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.21754062010153541</v>
+        <v>0.23630068397101459</v>
       </c>
       <c r="AE25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.45461466072258433</v>
+        <v>0.49381929325133522</v>
       </c>
       <c r="AF25" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E25,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17530388187293744</v>
-      </c>
-    </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
+        <v>0.19042157354343536</v>
+      </c>
+    </row>
+    <row r="26" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>59</v>
       </c>
@@ -10020,110 +10020,110 @@
       </c>
       <c r="G26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.18274279032361881</v>
+        <v>0.19850199160086907</v>
       </c>
       <c r="H26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.7294094237720326</v>
+        <v>2.9647856725481123</v>
       </c>
       <c r="I26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.49529863034990823</v>
+        <v>0.53801172887602688</v>
       </c>
       <c r="J26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.31851915564872696</v>
+        <v>0.34598731171463182</v>
       </c>
       <c r="K26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.22686586319462579</v>
+        <v>0.2464301086277281</v>
       </c>
       <c r="L26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.10948071863648035</v>
+        <v>0.11892201412023058</v>
       </c>
       <c r="M26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.28689852170755409</v>
+        <v>0.31163980721451257</v>
       </c>
       <c r="N26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.44391572029150778</v>
+        <v>0.48219770763459602</v>
       </c>
       <c r="O26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.20882309362216131</v>
+        <v>0.22683138362310687</v>
       </c>
       <c r="P26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.23777563167275043</v>
+        <v>0.25828070348280857</v>
       </c>
       <c r="Q26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.4805841363878452</v>
+        <v>0.52202830019084634</v>
       </c>
       <c r="R26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.31704107534060355</v>
+        <v>0.34438176610383681</v>
       </c>
       <c r="S26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.31198506281608845</v>
+        <v>0.3388897379154861</v>
       </c>
       <c r="T26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.6692903884999768</v>
+        <v>1.8132450866632477</v>
       </c>
       <c r="U26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.45419121299130805</v>
+        <v>0.49335932863194665</v>
       </c>
       <c r="V26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.51175822279465855</v>
+        <v>0.55589074820935092</v>
       </c>
       <c r="W26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.41894806911044224</v>
+        <v>0.45507691957909729</v>
       </c>
       <c r="X26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.38914612674281363</v>
+        <v>0.4227049452698925</v>
       </c>
       <c r="Y26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.6213887305317497</v>
+        <v>0.6749754688020978</v>
       </c>
       <c r="Z26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.2871009129463144E-2</v>
+        <v>9.0017561453674094E-2</v>
       </c>
       <c r="AA26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.34997995893848682</v>
+        <v>0.38016120223759686</v>
       </c>
       <c r="AB26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.15541821692581179</v>
+        <v>0.1688210272820935</v>
       </c>
       <c r="AC26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16948419620831906</v>
+        <v>0.18410001528730938</v>
       </c>
       <c r="AD26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.19700355734134278</v>
+        <v>0.21399256526323437</v>
       </c>
       <c r="AE26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.41169647002051829</v>
+        <v>0.44719996389131433</v>
       </c>
       <c r="AF26" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E26,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.15875420566787038</v>
-      </c>
-    </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
+        <v>0.17244470189100156</v>
+      </c>
+    </row>
+    <row r="27" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D27" t="s">
         <v>59</v>
       </c>
@@ -10136,110 +10136,110 @@
       </c>
       <c r="G27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.1446419539275921</v>
+        <v>0.15711545102722063</v>
       </c>
       <c r="H27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>2.1603430232385223</v>
+        <v>2.3466446577425621</v>
       </c>
       <c r="I27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.39203167219129176</v>
+        <v>0.42583933167913679</v>
       </c>
       <c r="J27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.25210971636588919</v>
+        <v>0.27385091752148422</v>
       </c>
       <c r="K27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.17956561609806693</v>
+        <v>0.19505082720572037</v>
       </c>
       <c r="L27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>8.6654609098035573E-2</v>
+        <v>9.4127447966037059E-2</v>
       </c>
       <c r="M27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.22708180544485712</v>
+        <v>0.24666467310310786</v>
       </c>
       <c r="N27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.3513618077541163</v>
+        <v>0.38166221763474606</v>
       </c>
       <c r="O27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.16528466175450579</v>
+        <v>0.1795383253218549</v>
       </c>
       <c r="P27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.18820075966120894</v>
+        <v>0.20443064017676907</v>
       </c>
       <c r="Q27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.38038506685075008</v>
+        <v>0.41318835731570086</v>
       </c>
       <c r="R27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.25093980742748312</v>
+        <v>0.27258011907381902</v>
       </c>
       <c r="S27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.24693794486790879</v>
+        <v>0.26823314764593564</v>
       </c>
       <c r="T27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>1.3212528003846484</v>
+        <v>1.4351937596012545</v>
       </c>
       <c r="U27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.35949491844502668</v>
+        <v>0.39049670389380464</v>
       </c>
       <c r="V27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.40505953286828184</v>
+        <v>0.43999067678064002</v>
       </c>
       <c r="W27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.33159977038226424</v>
+        <v>0.3601959602275096</v>
       </c>
       <c r="X27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.30801136414605851</v>
+        <v>0.33457335914822633</v>
       </c>
       <c r="Y27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.49183270088812792</v>
+        <v>0.53424690784153828</v>
       </c>
       <c r="Z27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>6.5592873257597661E-2</v>
+        <v>7.1249409913238554E-2</v>
       </c>
       <c r="AA27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.27701112042075737</v>
+        <v>0.3008997454932788</v>
       </c>
       <c r="AB27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.12301439926730905</v>
+        <v>0.13362279960212101</v>
       </c>
       <c r="AC27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.13414770156461955</v>
+        <v>0.14571620517613582</v>
       </c>
       <c r="AD27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.15592943182095748</v>
+        <v>0.1693763278476739</v>
       </c>
       <c r="AE27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.32586008861638621</v>
+        <v>0.35396130517127278</v>
       </c>
       <c r="AF27" s="13">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$G$2:$CN$25,MATCH($E27,DEMANDS!$E$2:$E$25,0),FALSE)</f>
-        <v>0.12565485325773626</v>
-      </c>
-    </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
+        <v>0.13649095858613386</v>
+      </c>
+    </row>
+    <row r="28" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D28" t="s">
         <v>59</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>0.13248451174851819</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D29" t="s">
         <v>59</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>4.3450865623823776E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>59</v>
       </c>
@@ -10587,7 +10587,7 @@
         <v>0.11106655433340036</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>59</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>9.9022507810807792E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>59</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D33" t="s">
         <v>59</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>4.8236321977023038E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>5.8989734150496013E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>6.5101491683943843E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D37" t="s">
         <v>59</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>6.0088097264031193E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D38" t="s">
         <v>59</v>
       </c>
@@ -11515,7 +11515,7 @@
         <v>5.5155577112114051E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D39" t="s">
         <v>59</v>
       </c>
@@ -11631,7 +11631,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D40" t="s">
         <v>59</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>0.21472983949610272</v>
       </c>
     </row>
-    <row r="41" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D41" t="s">
         <v>59</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>0.29327995660313688</v>
       </c>
     </row>
-    <row r="42" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D42" t="s">
         <v>59</v>
       </c>
@@ -11979,7 +11979,7 @@
         <v>0.19505187461302997</v>
       </c>
     </row>
-    <row r="43" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D43" t="s">
         <v>59</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>0.16966548700244569</v>
       </c>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D44" t="s">
         <v>59</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D45" t="s">
         <v>59</v>
       </c>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D46" t="s">
         <v>59</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D47" t="s">
         <v>59</v>
       </c>
@@ -12559,7 +12559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D48" t="s">
         <v>59</v>
       </c>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D49" t="s">
         <v>59</v>
       </c>
@@ -12791,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D50" t="s">
         <v>59</v>
       </c>
@@ -12907,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D51" t="s">
         <v>59</v>
       </c>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D52" t="s">
         <v>59</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D53" t="s">
         <v>59</v>
       </c>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D54" t="s">
         <v>59</v>
       </c>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D55" t="s">
         <v>59</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D56" t="s">
         <v>59</v>
       </c>
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:32" x14ac:dyDescent="0.35">
       <c r="D57" t="s">
         <v>59</v>
       </c>
@@ -13733,37 +13733,37 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.08984375" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="18" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -13877,12 +13877,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -13997,7 +13997,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -14114,7 +14114,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -14231,7 +14231,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="17" t="s">
         <v>130</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
         <v>76</v>
       </c>
@@ -14247,7 +14247,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>99</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
@@ -14263,7 +14263,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>100</v>
       </c>
@@ -14279,7 +14279,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
@@ -14287,7 +14287,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
@@ -14303,7 +14303,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>79</v>
       </c>
@@ -14319,7 +14319,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>80</v>
       </c>
@@ -14327,7 +14327,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
         <v>91</v>
       </c>
@@ -14343,7 +14343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>81</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
@@ -14359,7 +14359,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
         <v>96</v>
       </c>
@@ -14367,7 +14367,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
         <v>83</v>
       </c>
@@ -14375,7 +14375,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
@@ -14383,7 +14383,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>84</v>
       </c>
@@ -14391,7 +14391,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>97</v>
       </c>
@@ -14399,7 +14399,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>98</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>92</v>
       </c>
@@ -14415,7 +14415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -14423,7 +14423,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="15" t="s">
         <v>85</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
         <v>86</v>
       </c>
@@ -14439,7 +14439,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
         <v>87</v>
       </c>
@@ -14447,7 +14447,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>102</v>
       </c>
@@ -14473,7 +14473,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -14497,17 +14497,17 @@
       <selection activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="40" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="40" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>146</v>
       </c>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
@@ -14559,7 +14559,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -14590,7 +14590,7 @@
         <v>1.7028384806625201</v>
       </c>
       <c r="L3" s="30">
-        <f>K3*2/3+N3/3</f>
+        <f t="shared" ref="L3:L16" si="0">K3*2/3+N3/3</f>
         <v>1.1584060685789734</v>
       </c>
       <c r="N3" s="30">
@@ -14600,7 +14600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -14631,7 +14631,7 @@
         <v>23.738094411807602</v>
       </c>
       <c r="L4" s="30">
-        <f>K4*2/3+N4/3</f>
+        <f t="shared" si="0"/>
         <v>22.05783877515594</v>
       </c>
       <c r="N4" s="30">
@@ -14641,7 +14641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>1.5478463345837199</v>
       </c>
       <c r="L5" s="30">
-        <f>K5*2/3+N5/3</f>
+        <f t="shared" si="0"/>
         <v>1.9434753073389506</v>
       </c>
       <c r="N5" s="30">
@@ -14682,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>59</v>
       </c>
@@ -14713,7 +14713,7 @@
         <v>5.8166390635502099</v>
       </c>
       <c r="L6" s="30">
-        <f>K6*2/3+N6/3</f>
+        <f t="shared" si="0"/>
         <v>5.2807562869892761</v>
       </c>
       <c r="N6" s="30">
@@ -14723,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>59</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>1.19927927754182</v>
       </c>
       <c r="L7" s="30">
-        <f>K7*2/3+N7/3</f>
+        <f t="shared" si="0"/>
         <v>1.22325956804396</v>
       </c>
       <c r="N7" s="30">
@@ -14764,7 +14764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>10.6043548094603</v>
       </c>
       <c r="L8" s="30">
-        <f>K8*2/3+N8/3</f>
+        <f t="shared" si="0"/>
         <v>9.4725222533350699</v>
       </c>
       <c r="N8" s="30">
@@ -14805,7 +14805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>1.0410295169864401</v>
       </c>
       <c r="L9" s="30">
-        <f>K9*2/3+N9/3</f>
+        <f t="shared" si="0"/>
         <v>0.85675812345956381</v>
       </c>
       <c r="N9" s="30">
@@ -14846,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -14877,7 +14877,7 @@
         <v>18.752348682008719</v>
       </c>
       <c r="L10" s="30">
-        <f>K10*2/3+N10/3</f>
+        <f t="shared" si="0"/>
         <v>15.463248848798345</v>
       </c>
       <c r="N10" s="30">
@@ -14887,7 +14887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>18.095637208589601</v>
       </c>
       <c r="L11" s="30">
-        <f>K11*2/3+N11/3</f>
+        <f t="shared" si="0"/>
         <v>16.048363755990756</v>
       </c>
       <c r="N11" s="30">
@@ -14928,7 +14928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -14959,7 +14959,7 @@
         <v>2.2584342466232901</v>
       </c>
       <c r="L12" s="30">
-        <f>K12*2/3+N12/3</f>
+        <f t="shared" si="0"/>
         <v>1.8148484316492632</v>
       </c>
       <c r="N12" s="30">
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>6.2862087424890802</v>
       </c>
       <c r="L13" s="30">
-        <f>K13*2/3+N13/3</f>
+        <f t="shared" si="0"/>
         <v>7.1919298250215675</v>
       </c>
       <c r="N13" s="30">
@@ -15010,7 +15010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>0.187409320968947</v>
       </c>
       <c r="L14" s="30">
-        <f>K14*2/3+N14/3</f>
+        <f t="shared" si="0"/>
         <v>0.1326581724749025</v>
       </c>
       <c r="N14" s="30">
@@ -15051,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>59</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>4.6924479738735299</v>
       </c>
       <c r="L15" s="30">
-        <f>K15*2/3+N15/3</f>
+        <f t="shared" si="0"/>
         <v>4.2494582874450408</v>
       </c>
       <c r="N15" s="30">
@@ -15092,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C16" t="s">
         <v>59</v>
       </c>
@@ -15123,7 +15123,7 @@
         <v>3.6347440465271599</v>
       </c>
       <c r="L16" s="30">
-        <f>K16*2/3+N16/3</f>
+        <f t="shared" si="0"/>
         <v>3.5045513913327135</v>
       </c>
       <c r="N16" s="30">
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>59</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>59</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -15256,7 +15256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -15272,7 +15272,7 @@
       </c>
       <c r="G20" s="31">
         <f>VLOOKUP(E20,'BY-Demands'!$I$6:$J$42,2,FALSE)</f>
-        <v>11.625551</v>
+        <v>10.702591</v>
       </c>
       <c r="H20" s="30">
         <f>(12444+72)/1000</f>
@@ -15300,7 +15300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>8.6157094085103783</v>
       </c>
       <c r="K21" s="30">
-        <f t="shared" ref="K21" si="0">J21-($H$21/11)</f>
+        <f t="shared" ref="K21" si="1">J21-($H$21/11)</f>
         <v>7.6814227047944605</v>
       </c>
       <c r="L21" s="30">
@@ -15341,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>59</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C23" t="s">
         <v>59</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>59</v>
       </c>
@@ -15465,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>59</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -15589,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>59</v>
       </c>
@@ -15631,7 +15631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>59</v>
       </c>
@@ -15663,17 +15663,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>146</v>
       </c>
@@ -15685,7 +15685,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="12" t="s">
         <v>1</v>
       </c>
@@ -15804,7 +15804,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>59</v>
       </c>
@@ -15921,7 +15921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>59</v>
       </c>
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>59</v>
       </c>
@@ -16155,25 +16155,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.35">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.35">
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:40" x14ac:dyDescent="0.35">
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.35">
       <c r="G40" s="31"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
@@ -16181,7 +16181,7 @@
       <c r="K40" s="30"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:40" x14ac:dyDescent="0.35">
       <c r="G41" s="31"/>
       <c r="H41" s="30"/>
       <c r="I41" s="30"/>
@@ -16189,7 +16189,7 @@
       <c r="K41" s="30"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.35">
       <c r="G42" s="31"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
@@ -16213,15 +16213,15 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="24" t="s">
         <v>147</v>
       </c>
@@ -16229,7 +16229,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" s="26" t="s">
         <v>65</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" s="10" t="s">
         <v>150</v>
       </c>
@@ -16279,7 +16279,7 @@
       <c r="L6" s="10"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>151</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>151</v>
       </c>
@@ -16325,7 +16325,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>151</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>156</v>
       </c>
@@ -16374,7 +16374,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>156</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>156</v>
       </c>
@@ -16426,7 +16426,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>151</v>
       </c>
@@ -16449,7 +16449,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -16472,7 +16472,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>151</v>
       </c>
@@ -16495,7 +16495,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>151</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>151</v>
       </c>
@@ -16541,7 +16541,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>151</v>
       </c>
@@ -16564,7 +16564,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>151</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>151</v>
       </c>
@@ -16610,7 +16610,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>151</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>151</v>
       </c>
@@ -16679,7 +16679,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>151</v>
       </c>
@@ -16702,7 +16702,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>156</v>
       </c>
@@ -16728,7 +16728,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>156</v>
       </c>
@@ -16754,7 +16754,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>156</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>151</v>
       </c>
@@ -16803,7 +16803,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>151</v>
       </c>
@@ -16826,7 +16826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>151</v>
       </c>
@@ -16849,7 +16849,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>151</v>
       </c>
@@ -16872,7 +16872,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>151</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>151</v>
       </c>
@@ -16918,7 +16918,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>151</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>151</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>151</v>
       </c>
@@ -16987,7 +16987,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>151</v>
       </c>
@@ -17010,7 +17010,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>151</v>
       </c>
@@ -17033,7 +17033,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>151</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
         <v>151</v>
       </c>
@@ -17079,7 +17079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
         <v>151</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>151</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>151</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>151</v>
       </c>
@@ -17171,7 +17171,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>151</v>
       </c>
@@ -17194,7 +17194,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>151</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>151</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
         <v>151</v>
       </c>
@@ -17263,7 +17263,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>151</v>
       </c>
@@ -17286,7 +17286,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>151</v>
       </c>
@@ -17309,7 +17309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>151</v>
       </c>
@@ -17346,18 +17346,18 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.90625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="24" t="s">
         <v>147</v>
       </c>
@@ -17365,7 +17365,7 @@
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
     </row>
-    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" ht="29.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="26" t="s">
         <v>65</v>
       </c>
@@ -17398,7 +17398,7 @@
       </c>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" s="10" t="s">
         <v>150</v>
       </c>
@@ -17414,7 +17414,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>151</v>
       </c>
@@ -17431,7 +17431,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>151</v>
       </c>
@@ -17448,7 +17448,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>151</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>151</v>
       </c>
@@ -17482,7 +17482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>151</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>151</v>
       </c>
@@ -17516,7 +17516,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>151</v>
       </c>
@@ -17533,7 +17533,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>151</v>
       </c>
@@ -17550,7 +17550,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -17567,7 +17567,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>151</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>151</v>
       </c>
@@ -17601,7 +17601,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>151</v>
       </c>
@@ -17618,7 +17618,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>151</v>
       </c>
@@ -17635,7 +17635,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>151</v>
       </c>
@@ -17652,7 +17652,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>151</v>
       </c>
@@ -17669,7 +17669,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>151</v>
       </c>
@@ -17703,7 +17703,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>151</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>151</v>
       </c>
@@ -17737,7 +17737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>151</v>
       </c>
@@ -17754,7 +17754,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>151</v>
       </c>
@@ -17771,7 +17771,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>151</v>
       </c>
@@ -17788,7 +17788,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>151</v>
       </c>
@@ -17805,7 +17805,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>151</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>151</v>
       </c>
@@ -17839,7 +17839,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>151</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>151</v>
       </c>
@@ -17873,7 +17873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>151</v>
       </c>
@@ -17903,21 +17903,21 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="48">
         <v>2018</v>
       </c>
@@ -17925,7 +17925,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="48">
         <v>2019</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="48">
         <v>2020</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="49">
         <v>2021</v>
       </c>
@@ -17950,24 +17950,24 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="47" t="s">
         <v>209</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C10" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>211</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>0.93264803405429875</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="10" t="s">
         <v>212</v>
       </c>
@@ -17986,12 +17986,12 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>2018</v>
       </c>
@@ -17999,7 +17999,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -18010,7 +18010,7 @@
         <v>15.490769824884</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -18021,7 +18021,7 @@
         <v>33.305155123500498</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>38</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B143658C-2A79-4B3A-8EFF-D630FDF28F56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1918C4A2-2634-43F5-817B-7A369965B0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="4110" windowWidth="19200" windowHeight="11170" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="1815" windowWidth="19200" windowHeight="11175" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -2038,7 +2038,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -2399,20 +2399,20 @@
       <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="21.6328125" customWidth="1"/>
-    <col min="5" max="6" width="14.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" customWidth="1"/>
-    <col min="8" max="10" width="8.08984375" customWidth="1"/>
-    <col min="11" max="11" width="9.6328125" customWidth="1"/>
-    <col min="12" max="12" width="8.08984375" customWidth="1"/>
+    <col min="1" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.5703125" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -2440,7 +2440,7 @@
       <c r="Y1" s="33"/>
       <c r="Z1" s="33"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -2468,7 +2468,7 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
@@ -2496,7 +2496,7 @@
       <c r="Y3" s="33"/>
       <c r="Z3" s="33"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -2524,7 +2524,7 @@
       <c r="Y4" s="33"/>
       <c r="Z4" s="33"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
@@ -2552,7 +2552,7 @@
       <c r="Y5" s="33"/>
       <c r="Z5" s="33"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
@@ -2580,7 +2580,7 @@
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
@@ -2608,7 +2608,7 @@
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
@@ -2636,7 +2636,7 @@
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="32"/>
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
@@ -2664,7 +2664,7 @@
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
@@ -2692,7 +2692,7 @@
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
@@ -2720,7 +2720,7 @@
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="32"/>
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
@@ -2748,7 +2748,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="32"/>
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
@@ -2776,7 +2776,7 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
@@ -2804,7 +2804,7 @@
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="32"/>
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
@@ -2832,7 +2832,7 @@
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="65" t="s">
         <v>182</v>
       </c>
@@ -2862,7 +2862,7 @@
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -2890,7 +2890,7 @@
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -2918,7 +2918,7 @@
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>183</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>184</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>185</v>
       </c>
@@ -3014,7 +3014,7 @@
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39"/>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -3042,7 +3042,7 @@
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>186</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="64" t="s">
         <v>197</v>
@@ -3104,7 +3104,7 @@
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39"/>
       <c r="B25" s="42" t="s">
         <v>198</v>
@@ -3134,7 +3134,7 @@
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>187</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="39"/>
       <c r="B27" s="64" t="s">
         <v>197</v>
@@ -3196,7 +3196,7 @@
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="42" t="s">
         <v>198</v>
@@ -3226,7 +3226,7 @@
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>188</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>189</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>191</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
       <c r="B32" s="46" t="s">
         <v>193</v>
@@ -3352,7 +3352,7 @@
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33" s="32"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
@@ -3380,7 +3380,7 @@
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -3408,7 +3408,7 @@
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -3436,7 +3436,7 @@
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -3464,7 +3464,7 @@
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -3492,7 +3492,7 @@
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -3520,7 +3520,7 @@
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
@@ -3548,7 +3548,7 @@
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
@@ -3576,7 +3576,7 @@
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -3604,7 +3604,7 @@
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
@@ -3632,7 +3632,7 @@
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -3660,7 +3660,7 @@
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -3688,7 +3688,7 @@
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -3716,7 +3716,7 @@
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -3744,7 +3744,7 @@
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -3772,7 +3772,7 @@
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -3800,7 +3800,7 @@
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -3828,7 +3828,7 @@
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -3856,7 +3856,7 @@
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -3884,7 +3884,7 @@
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -3912,7 +3912,7 @@
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -3940,7 +3940,7 @@
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -3968,7 +3968,7 @@
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -3996,7 +3996,7 @@
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -4024,7 +4024,7 @@
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -4052,7 +4052,7 @@
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -4080,7 +4080,7 @@
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -4108,7 +4108,7 @@
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -4136,7 +4136,7 @@
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -4164,7 +4164,7 @@
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -4192,7 +4192,7 @@
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -4220,7 +4220,7 @@
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -4248,7 +4248,7 @@
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -4276,7 +4276,7 @@
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -4304,7 +4304,7 @@
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -4332,7 +4332,7 @@
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -4360,7 +4360,7 @@
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -4388,7 +4388,7 @@
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -4416,7 +4416,7 @@
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -4444,7 +4444,7 @@
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -4472,7 +4472,7 @@
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -4500,7 +4500,7 @@
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -4528,7 +4528,7 @@
       <c r="Y74" s="33"/>
       <c r="Z74" s="33"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -4556,7 +4556,7 @@
       <c r="Y75" s="33"/>
       <c r="Z75" s="33"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -4584,7 +4584,7 @@
       <c r="Y76" s="33"/>
       <c r="Z76" s="33"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -4612,7 +4612,7 @@
       <c r="Y77" s="33"/>
       <c r="Z77" s="33"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -4640,7 +4640,7 @@
       <c r="Y78" s="33"/>
       <c r="Z78" s="33"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -4668,7 +4668,7 @@
       <c r="Y79" s="33"/>
       <c r="Z79" s="33"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -4696,7 +4696,7 @@
       <c r="Y80" s="33"/>
       <c r="Z80" s="33"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -4724,7 +4724,7 @@
       <c r="Y81" s="33"/>
       <c r="Z81" s="33"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -4752,7 +4752,7 @@
       <c r="Y82" s="33"/>
       <c r="Z82" s="33"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -4780,7 +4780,7 @@
       <c r="Y83" s="33"/>
       <c r="Z83" s="33"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -4808,7 +4808,7 @@
       <c r="Y84" s="33"/>
       <c r="Z84" s="33"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -4836,7 +4836,7 @@
       <c r="Y85" s="33"/>
       <c r="Z85" s="33"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -4864,7 +4864,7 @@
       <c r="Y86" s="33"/>
       <c r="Z86" s="33"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -4892,7 +4892,7 @@
       <c r="Y87" s="33"/>
       <c r="Z87" s="33"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -4920,7 +4920,7 @@
       <c r="Y88" s="33"/>
       <c r="Z88" s="33"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -4948,7 +4948,7 @@
       <c r="Y89" s="33"/>
       <c r="Z89" s="33"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -4976,7 +4976,7 @@
       <c r="Y90" s="33"/>
       <c r="Z90" s="33"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -5004,7 +5004,7 @@
       <c r="Y91" s="33"/>
       <c r="Z91" s="33"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -5032,7 +5032,7 @@
       <c r="Y92" s="33"/>
       <c r="Z92" s="33"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -5060,7 +5060,7 @@
       <c r="Y93" s="33"/>
       <c r="Z93" s="33"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -5088,7 +5088,7 @@
       <c r="Y94" s="33"/>
       <c r="Z94" s="33"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -5116,7 +5116,7 @@
       <c r="Y95" s="33"/>
       <c r="Z95" s="33"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -5144,7 +5144,7 @@
       <c r="Y96" s="33"/>
       <c r="Z96" s="33"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -5172,7 +5172,7 @@
       <c r="Y97" s="33"/>
       <c r="Z97" s="33"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -5200,7 +5200,7 @@
       <c r="Y98" s="33"/>
       <c r="Z98" s="33"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -5258,21 +5258,21 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="47" t="s">
         <v>203</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="48">
         <v>2018</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="48">
         <v>2019</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="48">
         <v>2020</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="49">
         <v>2021</v>
       </c>
@@ -5305,24 +5305,24 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="47" t="s">
         <v>209</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>211</v>
       </c>
@@ -5331,7 +5331,7 @@
         <v>0.93264803405429875</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>212</v>
       </c>
@@ -5341,12 +5341,12 @@
       </c>
       <c r="D12" s="10"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2018</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>34</v>
       </c>
@@ -5365,7 +5365,7 @@
         <v>15.490769824884</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>36</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>33.305155123500498</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>38</v>
       </c>
@@ -5401,18 +5401,18 @@
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>63</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>66</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>66</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>66</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>66</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>66</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>9.9398312692044299E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>66</v>
       </c>
@@ -6141,7 +6141,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>66</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>0.268541777593654</v>
       </c>
     </row>
-    <row r="13" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>66</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>66</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>66</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="AJ15" s="21"/>
       <c r="AK15" s="21"/>
     </row>
-    <row r="16" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>66</v>
       </c>
@@ -6536,7 +6536,7 @@
       <c r="AJ16" s="21"/>
       <c r="AK16" s="21"/>
     </row>
-    <row r="17" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>66</v>
       </c>
@@ -6585,7 +6585,7 @@
       <c r="AJ17" s="21"/>
       <c r="AK17" s="21"/>
     </row>
-    <row r="18" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>66</v>
       </c>
@@ -6634,7 +6634,7 @@
       <c r="AJ18" s="21"/>
       <c r="AK18" s="21"/>
     </row>
-    <row r="19" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>66</v>
       </c>
@@ -6683,7 +6683,7 @@
       <c r="AJ19" s="21"/>
       <c r="AK19" s="21"/>
     </row>
-    <row r="20" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>66</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="AJ20" s="21"/>
       <c r="AK20" s="21"/>
     </row>
-    <row r="21" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>66</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="AJ21" s="21"/>
       <c r="AK21" s="21"/>
     </row>
-    <row r="22" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>66</v>
       </c>
@@ -6830,7 +6830,7 @@
       <c r="AJ22" s="21"/>
       <c r="AK22" s="21"/>
     </row>
-    <row r="23" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>66</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="AJ23" s="21"/>
       <c r="AK23" s="21"/>
     </row>
-    <row r="24" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>66</v>
       </c>
@@ -6928,7 +6928,7 @@
       <c r="AJ24" s="21"/>
       <c r="AK24" s="21"/>
     </row>
-    <row r="25" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>66</v>
       </c>
@@ -6977,7 +6977,7 @@
       <c r="AJ25" s="21"/>
       <c r="AK25" s="21"/>
     </row>
-    <row r="26" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>66</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="AJ26" s="21"/>
       <c r="AK26" s="21"/>
     </row>
-    <row r="27" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>66</v>
       </c>
@@ -7075,7 +7075,7 @@
       <c r="AJ27" s="21"/>
       <c r="AK27" s="21"/>
     </row>
-    <row r="28" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>66</v>
       </c>
@@ -7124,7 +7124,7 @@
       <c r="AJ28" s="21"/>
       <c r="AK28" s="21"/>
     </row>
-    <row r="29" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>66</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="AJ29" s="21"/>
       <c r="AK29" s="21"/>
     </row>
-    <row r="30" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -7222,7 +7222,7 @@
       <c r="AJ30" s="21"/>
       <c r="AK30" s="21"/>
     </row>
-    <row r="31" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>66</v>
       </c>
@@ -7271,7 +7271,7 @@
       <c r="AJ31" s="21"/>
       <c r="AK31" s="21"/>
     </row>
-    <row r="32" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>66</v>
       </c>
@@ -7320,7 +7320,7 @@
       <c r="AJ32" s="21"/>
       <c r="AK32" s="21"/>
     </row>
-    <row r="33" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>66</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="AJ33" s="21"/>
       <c r="AK33" s="21"/>
     </row>
-    <row r="34" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>66</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="AJ34" s="21"/>
       <c r="AK34" s="21"/>
     </row>
-    <row r="35" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>66</v>
       </c>
@@ -7467,7 +7467,7 @@
       <c r="AJ35" s="21"/>
       <c r="AK35" s="21"/>
     </row>
-    <row r="36" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>66</v>
       </c>
@@ -7516,7 +7516,7 @@
       <c r="AJ36" s="21"/>
       <c r="AK36" s="21"/>
     </row>
-    <row r="37" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>66</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="AJ37" s="21"/>
       <c r="AK37" s="21"/>
     </row>
-    <row r="38" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>66</v>
       </c>
@@ -7614,7 +7614,7 @@
       <c r="AJ38" s="21"/>
       <c r="AK38" s="21"/>
     </row>
-    <row r="39" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>66</v>
       </c>
@@ -7663,7 +7663,7 @@
       <c r="AJ39" s="21"/>
       <c r="AK39" s="21"/>
     </row>
-    <row r="40" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>66</v>
       </c>
@@ -7712,7 +7712,7 @@
       <c r="AJ40" s="21"/>
       <c r="AK40" s="21"/>
     </row>
-    <row r="41" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>66</v>
       </c>
@@ -7761,7 +7761,7 @@
       <c r="AJ41" s="21"/>
       <c r="AK41" s="21"/>
     </row>
-    <row r="42" spans="3:37" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>66</v>
       </c>
@@ -7825,20 +7825,20 @@
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
         <v>65</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>59</v>
       </c>
@@ -8075,7 +8075,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>59</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>59</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>0.19365561695296288</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>59</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>0.20056461897613595</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>59</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>59</v>
       </c>
@@ -8655,7 +8655,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>59</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>59</v>
       </c>
@@ -8887,7 +8887,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>59</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0.42220304465957942</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>59</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>0.46027986835099294</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>59</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>59</v>
       </c>
@@ -9351,7 +9351,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>59</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>0.39081849336870716</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>59</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>0.28271035318427856</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>59</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0.28717543622535491</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>59</v>
       </c>
@@ -9815,7 +9815,7 @@
         <v>0.2974209209735123</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>59</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>59</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>59</v>
       </c>
@@ -10163,7 +10163,7 @@
         <v>0.15365848804385648</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>59</v>
       </c>
@@ -10279,7 +10279,7 @@
         <v>0.1494640992212731</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>59</v>
       </c>
@@ -10395,7 +10395,7 @@
         <v>0.15423550537671535</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>59</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0.15711898162871837</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>59</v>
       </c>
@@ -10627,7 +10627,7 @@
         <v>0.15024297394785688</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>59</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>0.13649095858613386</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>59</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0.13248451174851819</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>59</v>
       </c>
@@ -10975,7 +10975,7 @@
         <v>4.3450865623823776E-2</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>59</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>0.11106655433340036</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>59</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>9.9022507810807792E-2</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>59</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>59</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>4.8236321977023038E-2</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>5.8989734150496013E-2</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -11787,7 +11787,7 @@
         <v>6.5101491683943843E-2</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>59</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>6.0088097264031193E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>59</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>5.5155577112114051E-2</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>59</v>
       </c>
@@ -12135,7 +12135,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>59</v>
       </c>
@@ -12251,7 +12251,7 @@
         <v>0.21472983949610272</v>
       </c>
     </row>
-    <row r="41" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>59</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>0.29327995660313688</v>
       </c>
     </row>
-    <row r="42" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>59</v>
       </c>
@@ -12483,7 +12483,7 @@
         <v>0.19505187461302997</v>
       </c>
     </row>
-    <row r="43" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>59</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>0.16966548700244569</v>
       </c>
     </row>
-    <row r="44" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>59</v>
       </c>
@@ -12715,7 +12715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>59</v>
       </c>
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>59</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>59</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>59</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>59</v>
       </c>
@@ -13295,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>59</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>59</v>
       </c>
@@ -13527,7 +13527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>59</v>
       </c>
@@ -13643,7 +13643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>59</v>
       </c>
@@ -13759,7 +13759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>59</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>59</v>
       </c>
@@ -13991,7 +13991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>59</v>
       </c>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:32" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>59</v>
       </c>
@@ -14237,37 +14237,37 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="18" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -14381,12 +14381,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>133</v>
       </c>
@@ -14501,7 +14501,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -14735,7 +14735,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
         <v>130</v>
       </c>
@@ -14743,7 +14743,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>76</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>99</v>
       </c>
@@ -14759,7 +14759,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>88</v>
       </c>
@@ -14767,7 +14767,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>89</v>
       </c>
@@ -14775,7 +14775,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>100</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>77</v>
       </c>
@@ -14791,7 +14791,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>94</v>
       </c>
@@ -14799,7 +14799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>90</v>
       </c>
@@ -14807,7 +14807,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>78</v>
       </c>
@@ -14815,7 +14815,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>79</v>
       </c>
@@ -14823,7 +14823,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>80</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>95</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>91</v>
       </c>
@@ -14847,7 +14847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>81</v>
       </c>
@@ -14855,7 +14855,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>82</v>
       </c>
@@ -14863,7 +14863,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>96</v>
       </c>
@@ -14871,7 +14871,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>83</v>
       </c>
@@ -14879,7 +14879,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>101</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>84</v>
       </c>
@@ -14895,7 +14895,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>97</v>
       </c>
@@ -14903,7 +14903,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>98</v>
       </c>
@@ -14911,7 +14911,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>92</v>
       </c>
@@ -14919,7 +14919,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>93</v>
       </c>
@@ -14927,7 +14927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>85</v>
       </c>
@@ -14935,7 +14935,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>86</v>
       </c>
@@ -14943,7 +14943,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>87</v>
       </c>
@@ -14951,7 +14951,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>102</v>
       </c>
@@ -14977,7 +14977,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15001,17 +15001,17 @@
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="40" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="40" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>146</v>
       </c>
@@ -15019,7 +15019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
@@ -15063,7 +15063,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>59</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>59</v>
       </c>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>59</v>
       </c>
@@ -15198,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>59</v>
       </c>
@@ -15243,7 +15243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>59</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>59</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>59</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>59</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>59</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>59</v>
       </c>
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>59</v>
       </c>
@@ -15558,7 +15558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>59</v>
       </c>
@@ -15603,7 +15603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>59</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>59</v>
       </c>
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>59</v>
       </c>
@@ -15737,7 +15737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>59</v>
       </c>
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>59</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>59</v>
       </c>
@@ -15870,7 +15870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>59</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>59</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>59</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>59</v>
       </c>
@@ -16050,7 +16050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>59</v>
       </c>
@@ -16096,7 +16096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>59</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>59</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>59</v>
       </c>
@@ -16230,7 +16230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>59</v>
       </c>
@@ -16262,7 +16262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>59</v>
       </c>
@@ -16302,7 +16302,7 @@
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>59</v>
       </c>
@@ -16342,7 +16342,7 @@
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>59</v>
       </c>
@@ -16382,7 +16382,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="33" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>59</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>1.927</v>
       </c>
     </row>
-    <row r="34" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>59</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="35" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>59</v>
       </c>
@@ -16502,7 +16502,7 @@
         <v>11.185</v>
       </c>
     </row>
-    <row r="36" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>59</v>
       </c>
@@ -16542,11 +16542,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>146</v>
       </c>
@@ -16558,7 +16558,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="2:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>1</v>
       </c>
@@ -16677,7 +16677,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="40" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>59</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>59</v>
       </c>
@@ -16911,7 +16911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>59</v>
       </c>
@@ -17028,25 +17028,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
     </row>
-    <row r="44" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G46" s="31"/>
       <c r="H46" s="30"/>
       <c r="I46" s="30"/>
@@ -17054,7 +17054,7 @@
       <c r="K46" s="30"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:40" x14ac:dyDescent="0.25">
       <c r="G47" s="31"/>
       <c r="H47" s="30"/>
       <c r="I47" s="30"/>
@@ -17062,7 +17062,7 @@
       <c r="K47" s="30"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="2:40" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:40" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>221</v>
       </c>
@@ -17073,7 +17073,7 @@
       <c r="K48" s="30"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="3:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C49" s="54" t="s">
         <v>2</v>
       </c>
@@ -17102,7 +17102,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>59</v>
       </c>
@@ -17131,7 +17131,7 @@
         <v>1.7028384806625201</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>59</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>22.551189691217221</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>59</v>
       </c>
@@ -17189,7 +17189,7 @@
         <v>1.5478463345837199</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>59</v>
       </c>
@@ -17218,7 +17218,7 @@
         <v>5.8166390635502099</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>59</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>1.19927927754182</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>59</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>10.6043548094603</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>59</v>
       </c>
@@ -17305,7 +17305,7 @@
         <v>1.0410295169864401</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>59</v>
       </c>
@@ -17334,7 +17334,7 @@
         <v>17.814731247908266</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>59</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>17.19085534816012</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>59</v>
       </c>
@@ -17392,7 +17392,7 @@
         <v>2.2584342466232901</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>59</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>6.2862087424890802</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>59</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>0.187409320968947</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>59</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>4.6924479738735299</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>59</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>3.6347440465271599</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>59</v>
       </c>
@@ -17537,7 +17537,7 @@
         <v>14.05673907080137</v>
       </c>
     </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>59</v>
       </c>
@@ -17566,7 +17566,7 @@
         <v>30.202204674413409</v>
       </c>
     </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>59</v>
       </c>
@@ -17595,7 +17595,7 @@
         <v>18.849873697196202</v>
       </c>
     </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>59</v>
       </c>
@@ -17624,7 +17624,7 @@
         <v>10.878188502532995</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>59</v>
       </c>
@@ -17653,7 +17653,7 @@
         <v>7.6814227047944605</v>
       </c>
     </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>59</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>4.6611834502685596</v>
       </c>
     </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>59</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>13.161374650000001</v>
       </c>
     </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>59</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>59</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>48.192396850000002</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>59</v>
       </c>
@@ -17798,7 +17798,7 @@
         <v>265.47273899323898</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>59</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>837.71211748108306</v>
       </c>
     </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>59</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>777.95194352567796</v>
       </c>
     </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>59</v>
       </c>
@@ -17885,7 +17885,7 @@
         <v>31.598021694557701</v>
       </c>
     </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>59</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>63.576742445676302</v>
       </c>
     </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>59</v>
       </c>
@@ -17941,7 +17941,7 @@
         <v>18.9072</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>59</v>
       </c>
@@ -17962,7 +17962,7 @@
       <c r="J79" s="30"/>
       <c r="K79" s="30"/>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>59</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>1.2514826903039997</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>59</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>2.1688410728944572</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>59</v>
       </c>
@@ -18049,7 +18049,7 @@
         <v>0.855061326756</v>
       </c>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>59</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>1.1400844778449895</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>59</v>
       </c>
@@ -18107,7 +18107,7 @@
         <v>0.92012420525760008</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>59</v>
       </c>
@@ -18136,7 +18136,7 @@
         <v>9.9915791233568569</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>59</v>
       </c>
@@ -18181,15 +18181,15 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.54296875" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="24" t="s">
         <v>147</v>
       </c>
@@ -18197,7 +18197,7 @@
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
         <v>65</v>
       </c>
@@ -18230,7 +18230,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="10" t="s">
         <v>150</v>
       </c>
@@ -18247,7 +18247,7 @@
       <c r="L6" s="10"/>
       <c r="N6" s="27"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>151</v>
       </c>
@@ -18270,7 +18270,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>151</v>
       </c>
@@ -18293,7 +18293,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>151</v>
       </c>
@@ -18316,7 +18316,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>156</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>156</v>
       </c>
@@ -18368,7 +18368,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>156</v>
       </c>
@@ -18394,7 +18394,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>151</v>
       </c>
@@ -18417,7 +18417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>151</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>151</v>
       </c>
@@ -18463,7 +18463,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>151</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>151</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>151</v>
       </c>
@@ -18532,7 +18532,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>151</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>151</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>151</v>
       </c>
@@ -18601,7 +18601,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>151</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>151</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>151</v>
       </c>
@@ -18670,7 +18670,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>156</v>
       </c>
@@ -18696,7 +18696,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>156</v>
       </c>
@@ -18722,7 +18722,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>156</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>151</v>
       </c>
@@ -18771,7 +18771,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>151</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>151</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>151</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>151</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>151</v>
       </c>
@@ -18886,7 +18886,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>151</v>
       </c>
@@ -18909,7 +18909,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>151</v>
       </c>
@@ -18932,7 +18932,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>151</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>151</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>151</v>
       </c>
@@ -19001,7 +19001,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>151</v>
       </c>
@@ -19024,7 +19024,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>151</v>
       </c>
@@ -19047,7 +19047,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>151</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>151</v>
       </c>
@@ -19093,7 +19093,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>151</v>
       </c>
@@ -19116,7 +19116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>151</v>
       </c>
@@ -19139,7 +19139,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>151</v>
       </c>
@@ -19162,7 +19162,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>151</v>
       </c>
@@ -19185,7 +19185,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>151</v>
       </c>
@@ -19208,7 +19208,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>151</v>
       </c>
@@ -19231,7 +19231,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>151</v>
       </c>
@@ -19254,7 +19254,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>151</v>
       </c>
@@ -19277,7 +19277,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>151</v>
       </c>
@@ -19313,13 +19313,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.54296875" customWidth="1"/>
-    <col min="4" max="4" width="23.6328125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>224</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -19401,7 +19401,7 @@
         <v>5.06142839224487E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -19442,7 +19442,7 @@
         <v>5.5272693120035003E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>4.3315605376271002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>4.0244969239508098E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -19565,7 +19565,7 @@
         <v>6.83619325130715E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -19606,7 +19606,7 @@
         <v>3.7301650664773602E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>67</v>
       </c>
@@ -19647,7 +19647,7 @@
         <v>6.5085678239306501E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>9.7445348238324302E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
@@ -19729,7 +19729,7 @@
         <v>7.5723595506168901E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -19770,7 +19770,7 @@
         <v>3.43728252885419E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -19811,7 +19811,7 @@
         <v>1.1604149295966801E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -19852,7 +19852,7 @@
         <v>1.2331284039255199E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -19893,7 +19893,7 @@
         <v>7.5793685463835202E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -19934,7 +19934,7 @@
         <v>3.1842733929098998E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -19975,7 +19975,7 @@
         <v>1.5658923996909099E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>1.37580627391312E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -20057,7 +20057,7 @@
         <v>7.0490984619025901E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>2.1330643979401999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -20139,7 +20139,7 @@
         <v>1.13937015968713E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>1.3665642356902799E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -20221,7 +20221,7 @@
         <v>6.3201440609990996E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>67</v>
       </c>
@@ -20262,7 +20262,7 @@
         <v>9.2802973696255701E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -20303,7 +20303,7 @@
         <v>1.24634538797252E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>67</v>
       </c>
@@ -20344,7 +20344,7 @@
         <v>1.16206091575292E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>67</v>
       </c>
@@ -20385,7 +20385,7 @@
         <v>5.8833522338227497E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>67</v>
       </c>
@@ -20426,7 +20426,7 @@
         <v>6.9127556176359E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>67</v>
       </c>
@@ -20467,7 +20467,7 @@
         <v>1.6645048110215999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -20508,7 +20508,7 @@
         <v>1.0940282504497099E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>67</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>5.5338501641265204E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -20590,7 +20590,7 @@
         <v>8.4873154087721598E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>2.26241477602659E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -20672,7 +20672,7 @@
         <v>1.1080838801265799E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -20713,7 +20713,7 @@
         <v>5.33896737113557E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>67</v>
       </c>
@@ -20754,7 +20754,7 @@
         <v>7.1426639989066005E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>67</v>
       </c>
@@ -20795,7 +20795,7 @@
         <v>2.7338413527361698E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>67</v>
       </c>
@@ -20836,7 +20836,7 @@
         <v>1.0581748102151799E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>67</v>
       </c>
@@ -20877,7 +20877,7 @@
         <v>7.4241698715176601E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>67</v>
       </c>
@@ -20918,7 +20918,7 @@
         <v>6.9732301417353205E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>1.6091636703289801E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>5.7786168730819196E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>7.7940560081569E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -21082,7 +21082,7 @@
         <v>4.26163933939329E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>67</v>
       </c>
@@ -21123,7 +21123,7 @@
         <v>1.2603603215973499E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>67</v>
       </c>
@@ -21164,7 +21164,7 @@
         <v>5.3948468322694201E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>9.3488148228942805E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>67</v>
       </c>
@@ -21246,7 +21246,7 @@
         <v>4.0670311858187198E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
@@ -21287,7 +21287,7 @@
         <v>1.9962815705499199E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>67</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>7.9920668210354106E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -21369,7 +21369,7 @@
         <v>9.5937840089950596E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>67</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>3.9745734872240202E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -21451,7 +21451,7 @@
         <v>2.3880087312967601E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>67</v>
       </c>
@@ -21492,7 +21492,7 @@
         <v>8.9012862565573808E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -21533,7 +21533,7 @@
         <v>9.4983104774723102E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -21574,7 +21574,7 @@
         <v>3.9487301870630399E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -21615,7 +21615,7 @@
         <v>2.0324283757671101E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>9.9971612245433501E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>67</v>
       </c>
@@ -21697,7 +21697,7 @@
         <v>9.2710745268607096E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>67</v>
       </c>
@@ -21738,7 +21738,7 @@
         <v>3.68293949598222E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>67</v>
       </c>
@@ -21779,7 +21779,7 @@
         <v>2.8990562100458198E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -21820,7 +21820,7 @@
         <v>1.06097605259381E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -21861,7 +21861,7 @@
         <v>8.9871332337915601E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>3.3519631170326802E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -21943,7 +21943,7 @@
         <v>3.9529383884159101E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -21984,7 +21984,7 @@
         <v>1.1065162721274399E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
@@ -22025,7 +22025,7 @@
         <v>8.9917332740457596E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>3.3086537242422499E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -22107,7 +22107,7 @@
         <v>5.0493263338740102E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -22148,7 +22148,7 @@
         <v>1.14874610881934E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -22189,7 +22189,7 @@
         <v>8.7038647541608097E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -22230,7 +22230,7 @@
         <v>2.3534708508606299E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>67</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>5.2195880415110002E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -22312,7 +22312,7 @@
         <v>1.04359658232331E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>67</v>
       </c>
@@ -22353,7 +22353,7 @@
         <v>8.4666683429302902E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>67</v>
       </c>
@@ -22394,7 +22394,7 @@
         <v>6.6867996369597798E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>67</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>2.4058665241777598E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>67</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>4.26054151520409E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>67</v>
       </c>
@@ -22517,7 +22517,7 @@
         <v>1.7683153930356801E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>67</v>
       </c>
@@ -22558,7 +22558,7 @@
         <v>7.50537163695459E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" 